--- a/grupos/4BEM - Estadisticos 2020.xlsx
+++ b/grupos/4BEM - Estadisticos 2020.xlsx
@@ -3761,6 +3761,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
+    <col min="1" max="1" width="30.7109375" customWidth="1"/>
     <col min="2" max="6" width="50.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4997,7 +4998,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="4" width="50.7109375" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" customWidth="1"/>
+    <col min="2" max="4" width="50.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -5659,6 +5661,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
+    <col min="1" max="1" width="30.7109375" customWidth="1"/>
     <col min="2" max="6" width="50.7109375" customWidth="1"/>
   </cols>
   <sheetData>

--- a/grupos/4BEM - Estadisticos 2020.xlsx
+++ b/grupos/4BEM - Estadisticos 2020.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1496" uniqueCount="156">
   <si>
     <t>Materia</t>
   </si>
@@ -230,6 +230,9 @@
     <t>ANTONIO</t>
   </si>
   <si>
+    <t>AGUILAR</t>
+  </si>
+  <si>
     <t>CADEZA</t>
   </si>
   <si>
@@ -242,6 +245,9 @@
     <t>CITLAHUA</t>
   </si>
   <si>
+    <t>CONDADO</t>
+  </si>
+  <si>
     <t>CRUZ</t>
   </si>
   <si>
@@ -266,6 +272,9 @@
     <t>HERNANDEZ</t>
   </si>
   <si>
+    <t>JIMENEZ</t>
+  </si>
+  <si>
     <t>JUAN</t>
   </si>
   <si>
@@ -281,12 +290,18 @@
     <t>MUÑOZ</t>
   </si>
   <si>
+    <t>OCTAVIANO</t>
+  </si>
+  <si>
     <t>ROJAS</t>
   </si>
   <si>
     <t>SANTIAGO</t>
   </si>
   <si>
+    <t>SARMIENTO</t>
+  </si>
+  <si>
     <t>SALINAS</t>
   </si>
   <si>
@@ -308,6 +323,9 @@
     <t>TEXOCO</t>
   </si>
   <si>
+    <t>TEZOCO</t>
+  </si>
+  <si>
     <t>GALLARDO</t>
   </si>
   <si>
@@ -320,6 +338,9 @@
     <t>DIAZ</t>
   </si>
   <si>
+    <t>SANCHEZ</t>
+  </si>
+  <si>
     <t>ANTEMATE</t>
   </si>
   <si>
@@ -332,12 +353,12 @@
     <t>DEL ANGEL</t>
   </si>
   <si>
+    <t>MIRON</t>
+  </si>
+  <si>
     <t>RODRIGUEZ</t>
   </si>
   <si>
-    <t>JIMENEZ</t>
-  </si>
-  <si>
     <t>LUNA</t>
   </si>
   <si>
@@ -365,6 +386,9 @@
     <t>JOSE JAZAEL</t>
   </si>
   <si>
+    <t>JOSE ANTONIO</t>
+  </si>
+  <si>
     <t>IRVING OTTONIEL</t>
   </si>
   <si>
@@ -380,6 +404,9 @@
     <t>RAUL ARTURO</t>
   </si>
   <si>
+    <t>JOSUE ALEXIS</t>
+  </si>
+  <si>
     <t>JOSUE</t>
   </si>
   <si>
@@ -395,6 +422,9 @@
     <t>ADRIANA</t>
   </si>
   <si>
+    <t>JUAN LUIS</t>
+  </si>
+  <si>
     <t>DULCE REGINA</t>
   </si>
   <si>
@@ -410,6 +440,9 @@
     <t>URIEL</t>
   </si>
   <si>
+    <t>EMMANUEL</t>
+  </si>
+  <si>
     <t>OSWALDO ENRIQUE</t>
   </si>
   <si>
@@ -434,6 +467,9 @@
     <t>YARITZI</t>
   </si>
   <si>
+    <t>ROMARIO ALDAIR</t>
+  </si>
+  <si>
     <t>ANGEL JOHAN</t>
   </si>
   <si>
@@ -450,42 +486,6 @@
   </si>
   <si>
     <t>OMAR</t>
-  </si>
-  <si>
-    <t>AGUILAR</t>
-  </si>
-  <si>
-    <t>CONDADO</t>
-  </si>
-  <si>
-    <t>OCTAVIANO</t>
-  </si>
-  <si>
-    <t>SARMIENTO</t>
-  </si>
-  <si>
-    <t>TEZOCO</t>
-  </si>
-  <si>
-    <t>SANCHEZ</t>
-  </si>
-  <si>
-    <t>MIRON</t>
-  </si>
-  <si>
-    <t>JOSE ANTONIO</t>
-  </si>
-  <si>
-    <t>JOSUE ALEXIS</t>
-  </si>
-  <si>
-    <t>JUAN LUIS</t>
-  </si>
-  <si>
-    <t>EMMANUEL</t>
-  </si>
-  <si>
-    <t>ROMARIO ALDAIR</t>
   </si>
 </sst>
 </file>
@@ -996,7 +996,7 @@
         <v>-1</v>
       </c>
       <c r="N4">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="O4">
         <v>-1</v>
@@ -2288,7 +2288,7 @@
         <v>-1</v>
       </c>
       <c r="N23">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="O23">
         <v>-1</v>
@@ -2560,7 +2560,7 @@
         <v>-1</v>
       </c>
       <c r="N27">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="O27">
         <v>-1</v>
@@ -3755,7 +3755,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F61"/>
+  <dimension ref="A1:F257"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3793,90 +3793,90 @@
         <v>69</v>
       </c>
       <c r="C2" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="D2" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="E2" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F2" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
-        <v>19330051920088</v>
+        <v>19330051920085</v>
       </c>
       <c r="B3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C3" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="D3" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="E3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
-        <v>19330051920090</v>
+        <v>19330051920085</v>
       </c>
       <c r="B4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C4" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="D4" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="E4" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
-        <v>19330051920089</v>
+        <v>19330051920085</v>
       </c>
       <c r="B5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C5" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="D5" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F5" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
-        <v>19330051920092</v>
+        <v>19330051920085</v>
       </c>
       <c r="B6" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C6" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="D6" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="E6" t="s">
         <v>4</v>
@@ -3887,96 +3887,96 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
-        <v>19330051920091</v>
+        <v>19330051920085</v>
       </c>
       <c r="B7" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C7" t="s">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="D7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E7" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F7" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
-        <v>19330051920091</v>
+        <v>19330051920085</v>
       </c>
       <c r="B8" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C8" t="s">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="D8" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F8" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9">
-        <v>19330051920094</v>
+        <v>19330051920084</v>
       </c>
       <c r="B9" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C9" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="D9" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E9" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F9" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10">
-        <v>19330051920094</v>
+        <v>19330051920084</v>
       </c>
       <c r="B10" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C10" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="D10" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E10" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11">
-        <v>19330051920094</v>
+        <v>19330051920084</v>
       </c>
       <c r="B11" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C11" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="D11" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E11" t="s">
         <v>6</v>
@@ -3987,73 +3987,73 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12">
-        <v>19330051920094</v>
+        <v>19330051920084</v>
       </c>
       <c r="B12" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C12" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="D12" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F12" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13">
-        <v>19330051920095</v>
+        <v>19330051920084</v>
       </c>
       <c r="B13" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C13" t="s">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="D13" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E13" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F13" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14">
-        <v>19330051920097</v>
+        <v>19330051920084</v>
       </c>
       <c r="B14" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C14" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D14" t="s">
         <v>122</v>
       </c>
       <c r="E14" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F14" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15">
-        <v>19330051920098</v>
+        <v>19330051920088</v>
       </c>
       <c r="B15" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C15" t="s">
-        <v>75</v>
+        <v>102</v>
       </c>
       <c r="D15" t="s">
         <v>123</v>
@@ -4067,256 +4067,256 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16">
-        <v>19330051920098</v>
+        <v>19330051920088</v>
       </c>
       <c r="B16" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C16" t="s">
-        <v>75</v>
+        <v>102</v>
       </c>
       <c r="D16" t="s">
         <v>123</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F16" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17">
-        <v>19330051920099</v>
+        <v>19330051920088</v>
       </c>
       <c r="B17" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C17" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D17" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F17" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18">
-        <v>19330051920099</v>
+        <v>19330051920088</v>
       </c>
       <c r="B18" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C18" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D18" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F18" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19">
-        <v>19330051920099</v>
+        <v>19330051920088</v>
       </c>
       <c r="B19" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C19" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D19" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E19" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F19" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20">
-        <v>19330051920099</v>
+        <v>19330051920088</v>
       </c>
       <c r="B20" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C20" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D20" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E20" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F20" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21">
-        <v>19330051920096</v>
+        <v>19330051920088</v>
       </c>
       <c r="B21" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="C21" t="s">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="D21" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F21" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22">
-        <v>19330051920096</v>
+        <v>19330051920090</v>
       </c>
       <c r="B22" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C22" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="D22" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E22" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F22" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23">
-        <v>19330051920101</v>
+        <v>19330051920090</v>
       </c>
       <c r="B23" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="C23" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="D23" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E23" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F23" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24">
-        <v>19330051920101</v>
+        <v>19330051920090</v>
       </c>
       <c r="B24" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="C24" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="D24" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F24" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25">
-        <v>19330051920102</v>
+        <v>19330051920090</v>
       </c>
       <c r="B25" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="C25" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="D25" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="E25" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F25" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26">
-        <v>19330051920105</v>
+        <v>19330051920090</v>
       </c>
       <c r="B26" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="C26" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="D26" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="E26" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F26" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27">
-        <v>19330051920105</v>
+        <v>19330051920090</v>
       </c>
       <c r="B27" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="C27" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="D27" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="E27" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F27" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28">
-        <v>19330051920103</v>
+        <v>19330051920090</v>
       </c>
       <c r="B28" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="C28" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="D28" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="E28" t="s">
         <v>4</v>
@@ -4327,76 +4327,76 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29">
-        <v>19330051920107</v>
+        <v>19330051920089</v>
       </c>
       <c r="B29" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="C29" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="D29" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F29" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30">
-        <v>19330051920107</v>
+        <v>19330051920089</v>
       </c>
       <c r="B30" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="C30" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="D30" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="E30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F30" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31">
-        <v>19330051920109</v>
+        <v>19330051920089</v>
       </c>
       <c r="B31" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="C31" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="D31" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="E31" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F31" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32">
-        <v>19330051920109</v>
+        <v>19330051920089</v>
       </c>
       <c r="B32" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="C32" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="D32" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="E32" t="s">
         <v>6</v>
@@ -4407,276 +4407,276 @@
     </row>
     <row r="33" spans="1:6">
       <c r="A33">
-        <v>19330051920109</v>
+        <v>19330051920089</v>
       </c>
       <c r="B33" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="C33" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="D33" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F33" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34">
-        <v>19330051920109</v>
+        <v>19330051920089</v>
       </c>
       <c r="B34" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="C34" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="D34" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="E34" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F34" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35">
-        <v>19330051920111</v>
+        <v>19330051920089</v>
       </c>
       <c r="B35" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="C35" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="D35" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="E35" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36">
-        <v>19330051920111</v>
+        <v>19330051920092</v>
       </c>
       <c r="B36" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="C36" t="s">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="D36" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F36" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37">
-        <v>19330051920111</v>
+        <v>19330051920092</v>
       </c>
       <c r="B37" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="C37" t="s">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="D37" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="E37" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F37" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38">
-        <v>19330051920111</v>
+        <v>19330051920092</v>
       </c>
       <c r="B38" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="C38" t="s">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="D38" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="E38" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39">
-        <v>19330051920110</v>
+        <v>19330051920092</v>
       </c>
       <c r="B39" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="C39" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="D39" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F39" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40">
-        <v>19330051920110</v>
+        <v>19330051920092</v>
       </c>
       <c r="B40" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="C40" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="D40" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="E40" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F40" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41">
-        <v>19330051920112</v>
+        <v>19330051920092</v>
       </c>
       <c r="B41" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="C41" t="s">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="D41" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="E41" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F41" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42">
-        <v>19330051920112</v>
+        <v>19330051920092</v>
       </c>
       <c r="B42" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="C42" t="s">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="D42" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="E42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F42" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43">
-        <v>19330051920113</v>
+        <v>19330051920091</v>
       </c>
       <c r="B43" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="C43" t="s">
-        <v>105</v>
+        <v>83</v>
       </c>
       <c r="D43" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="E43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F43" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44">
-        <v>19330051920113</v>
+        <v>19330051920091</v>
       </c>
       <c r="B44" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="C44" t="s">
-        <v>105</v>
+        <v>83</v>
       </c>
       <c r="D44" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="E44" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F44" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45">
-        <v>19330051920113</v>
+        <v>19330051920091</v>
       </c>
       <c r="B45" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="C45" t="s">
-        <v>105</v>
+        <v>83</v>
       </c>
       <c r="D45" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="E45" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F45" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46">
-        <v>19330051920001</v>
+        <v>19330051920091</v>
       </c>
       <c r="B46" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="C46" t="s">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="D46" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="E46" t="s">
         <v>10</v>
@@ -4687,36 +4687,36 @@
     </row>
     <row r="47" spans="1:6">
       <c r="A47">
-        <v>19330051920001</v>
+        <v>19330051920091</v>
       </c>
       <c r="B47" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="C47" t="s">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="D47" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="E47" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F47" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48">
-        <v>19330051920116</v>
+        <v>19330051920091</v>
       </c>
       <c r="B48" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="C48" t="s">
-        <v>107</v>
+        <v>83</v>
       </c>
       <c r="D48" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="E48" t="s">
         <v>4</v>
@@ -4727,76 +4727,76 @@
     </row>
     <row r="49" spans="1:6">
       <c r="A49">
-        <v>19330051920117</v>
+        <v>19330051920091</v>
       </c>
       <c r="B49" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="C49" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="D49" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="E49" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F49" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50">
-        <v>19330051920457</v>
+        <v>19330051920093</v>
       </c>
       <c r="B50" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="C50" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
       <c r="D50" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="E50" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F50" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51">
-        <v>19330051920457</v>
+        <v>19330051920093</v>
       </c>
       <c r="B51" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="C51" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
       <c r="D51" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="E51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F51" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52">
-        <v>19330051920457</v>
+        <v>19330051920093</v>
       </c>
       <c r="B52" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="C52" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
       <c r="D52" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="E52" t="s">
         <v>4</v>
@@ -4807,136 +4807,136 @@
     </row>
     <row r="53" spans="1:6">
       <c r="A53">
-        <v>19330051920119</v>
+        <v>19330051920093</v>
       </c>
       <c r="B53" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="C53" t="s">
-        <v>109</v>
+        <v>88</v>
       </c>
       <c r="D53" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="E53" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F53" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54">
-        <v>19330051920119</v>
+        <v>19330051920093</v>
       </c>
       <c r="B54" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="C54" t="s">
-        <v>109</v>
+        <v>88</v>
       </c>
       <c r="D54" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="E54" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F54" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55">
-        <v>19330051920120</v>
+        <v>19330051920093</v>
       </c>
       <c r="B55" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="C55" t="s">
-        <v>110</v>
+        <v>88</v>
       </c>
       <c r="D55" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="E55" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F55" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56">
-        <v>19330051920121</v>
+        <v>19330051920093</v>
       </c>
       <c r="B56" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="C56" t="s">
-        <v>111</v>
+        <v>88</v>
       </c>
       <c r="D56" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="E56" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57">
-        <v>19330051920122</v>
+        <v>19330051920094</v>
       </c>
       <c r="B57" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="C57" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="D57" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="E57" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F57" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58">
-        <v>19330051920124</v>
+        <v>19330051920094</v>
       </c>
       <c r="B58" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="C58" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="D58" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
       <c r="E58" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59">
-        <v>19330051920124</v>
+        <v>19330051920094</v>
       </c>
       <c r="B59" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="C59" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="D59" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
       <c r="E59" t="s">
         <v>8</v>
@@ -4947,42 +4947,3962 @@
     </row>
     <row r="60" spans="1:6">
       <c r="A60">
-        <v>19330051920124</v>
+        <v>19330051920094</v>
       </c>
       <c r="B60" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="C60" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="D60" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
       <c r="E60" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F60" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61">
+        <v>19330051920094</v>
+      </c>
+      <c r="B61" t="s">
+        <v>76</v>
+      </c>
+      <c r="C61" t="s">
+        <v>103</v>
+      </c>
+      <c r="D61" t="s">
+        <v>129</v>
+      </c>
+      <c r="E61" t="s">
+        <v>4</v>
+      </c>
+      <c r="F61" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62">
+        <v>19330051920094</v>
+      </c>
+      <c r="B62" t="s">
+        <v>76</v>
+      </c>
+      <c r="C62" t="s">
+        <v>103</v>
+      </c>
+      <c r="D62" t="s">
+        <v>129</v>
+      </c>
+      <c r="E62" t="s">
+        <v>6</v>
+      </c>
+      <c r="F62" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63">
+        <v>19330051920094</v>
+      </c>
+      <c r="B63" t="s">
+        <v>76</v>
+      </c>
+      <c r="C63" t="s">
+        <v>103</v>
+      </c>
+      <c r="D63" t="s">
+        <v>129</v>
+      </c>
+      <c r="E63" t="s">
+        <v>7</v>
+      </c>
+      <c r="F63" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64">
+        <v>19330051920095</v>
+      </c>
+      <c r="B64" t="s">
+        <v>77</v>
+      </c>
+      <c r="C64" t="s">
+        <v>88</v>
+      </c>
+      <c r="D64" t="s">
+        <v>130</v>
+      </c>
+      <c r="E64" t="s">
+        <v>10</v>
+      </c>
+      <c r="F64" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65">
+        <v>19330051920095</v>
+      </c>
+      <c r="B65" t="s">
+        <v>77</v>
+      </c>
+      <c r="C65" t="s">
+        <v>88</v>
+      </c>
+      <c r="D65" t="s">
+        <v>130</v>
+      </c>
+      <c r="E65" t="s">
+        <v>4</v>
+      </c>
+      <c r="F65" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66">
+        <v>19330051920095</v>
+      </c>
+      <c r="B66" t="s">
+        <v>77</v>
+      </c>
+      <c r="C66" t="s">
+        <v>88</v>
+      </c>
+      <c r="D66" t="s">
+        <v>130</v>
+      </c>
+      <c r="E66" t="s">
+        <v>5</v>
+      </c>
+      <c r="F66" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67">
+        <v>19330051920095</v>
+      </c>
+      <c r="B67" t="s">
+        <v>77</v>
+      </c>
+      <c r="C67" t="s">
+        <v>88</v>
+      </c>
+      <c r="D67" t="s">
+        <v>130</v>
+      </c>
+      <c r="E67" t="s">
+        <v>7</v>
+      </c>
+      <c r="F67" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68">
+        <v>19330051920095</v>
+      </c>
+      <c r="B68" t="s">
+        <v>77</v>
+      </c>
+      <c r="C68" t="s">
+        <v>88</v>
+      </c>
+      <c r="D68" t="s">
+        <v>130</v>
+      </c>
+      <c r="E68" t="s">
+        <v>8</v>
+      </c>
+      <c r="F68" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69">
+        <v>19330051920095</v>
+      </c>
+      <c r="B69" t="s">
+        <v>77</v>
+      </c>
+      <c r="C69" t="s">
+        <v>88</v>
+      </c>
+      <c r="D69" t="s">
+        <v>130</v>
+      </c>
+      <c r="E69" t="s">
+        <v>6</v>
+      </c>
+      <c r="F69" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70">
+        <v>19330051920095</v>
+      </c>
+      <c r="B70" t="s">
+        <v>77</v>
+      </c>
+      <c r="C70" t="s">
+        <v>88</v>
+      </c>
+      <c r="D70" t="s">
+        <v>130</v>
+      </c>
+      <c r="E70" t="s">
+        <v>9</v>
+      </c>
+      <c r="F70" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71">
+        <v>19330051920097</v>
+      </c>
+      <c r="B71" t="s">
+        <v>78</v>
+      </c>
+      <c r="C71" t="s">
+        <v>104</v>
+      </c>
+      <c r="D71" t="s">
+        <v>131</v>
+      </c>
+      <c r="E71" t="s">
+        <v>8</v>
+      </c>
+      <c r="F71" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72">
+        <v>19330051920097</v>
+      </c>
+      <c r="B72" t="s">
+        <v>78</v>
+      </c>
+      <c r="C72" t="s">
+        <v>104</v>
+      </c>
+      <c r="D72" t="s">
+        <v>131</v>
+      </c>
+      <c r="E72" t="s">
+        <v>6</v>
+      </c>
+      <c r="F72" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73">
+        <v>19330051920097</v>
+      </c>
+      <c r="B73" t="s">
+        <v>78</v>
+      </c>
+      <c r="C73" t="s">
+        <v>104</v>
+      </c>
+      <c r="D73" t="s">
+        <v>131</v>
+      </c>
+      <c r="E73" t="s">
+        <v>10</v>
+      </c>
+      <c r="F73" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74">
+        <v>19330051920097</v>
+      </c>
+      <c r="B74" t="s">
+        <v>78</v>
+      </c>
+      <c r="C74" t="s">
+        <v>104</v>
+      </c>
+      <c r="D74" t="s">
+        <v>131</v>
+      </c>
+      <c r="E74" t="s">
+        <v>5</v>
+      </c>
+      <c r="F74" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75">
+        <v>19330051920097</v>
+      </c>
+      <c r="B75" t="s">
+        <v>78</v>
+      </c>
+      <c r="C75" t="s">
+        <v>104</v>
+      </c>
+      <c r="D75" t="s">
+        <v>131</v>
+      </c>
+      <c r="E75" t="s">
+        <v>7</v>
+      </c>
+      <c r="F75" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76">
+        <v>19330051920097</v>
+      </c>
+      <c r="B76" t="s">
+        <v>78</v>
+      </c>
+      <c r="C76" t="s">
+        <v>104</v>
+      </c>
+      <c r="D76" t="s">
+        <v>131</v>
+      </c>
+      <c r="E76" t="s">
+        <v>4</v>
+      </c>
+      <c r="F76" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77">
+        <v>19330051920097</v>
+      </c>
+      <c r="B77" t="s">
+        <v>78</v>
+      </c>
+      <c r="C77" t="s">
+        <v>104</v>
+      </c>
+      <c r="D77" t="s">
+        <v>131</v>
+      </c>
+      <c r="E77" t="s">
+        <v>9</v>
+      </c>
+      <c r="F77" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78">
+        <v>19330051920098</v>
+      </c>
+      <c r="B78" t="s">
+        <v>79</v>
+      </c>
+      <c r="C78" t="s">
+        <v>77</v>
+      </c>
+      <c r="D78" t="s">
+        <v>132</v>
+      </c>
+      <c r="E78" t="s">
+        <v>5</v>
+      </c>
+      <c r="F78" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79">
+        <v>19330051920098</v>
+      </c>
+      <c r="B79" t="s">
+        <v>79</v>
+      </c>
+      <c r="C79" t="s">
+        <v>77</v>
+      </c>
+      <c r="D79" t="s">
+        <v>132</v>
+      </c>
+      <c r="E79" t="s">
+        <v>8</v>
+      </c>
+      <c r="F79" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80">
+        <v>19330051920098</v>
+      </c>
+      <c r="B80" t="s">
+        <v>79</v>
+      </c>
+      <c r="C80" t="s">
+        <v>77</v>
+      </c>
+      <c r="D80" t="s">
+        <v>132</v>
+      </c>
+      <c r="E80" t="s">
+        <v>6</v>
+      </c>
+      <c r="F80" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81">
+        <v>19330051920098</v>
+      </c>
+      <c r="B81" t="s">
+        <v>79</v>
+      </c>
+      <c r="C81" t="s">
+        <v>77</v>
+      </c>
+      <c r="D81" t="s">
+        <v>132</v>
+      </c>
+      <c r="E81" t="s">
+        <v>9</v>
+      </c>
+      <c r="F81" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82">
+        <v>19330051920098</v>
+      </c>
+      <c r="B82" t="s">
+        <v>79</v>
+      </c>
+      <c r="C82" t="s">
+        <v>77</v>
+      </c>
+      <c r="D82" t="s">
+        <v>132</v>
+      </c>
+      <c r="E82" t="s">
+        <v>10</v>
+      </c>
+      <c r="F82" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83">
+        <v>19330051920098</v>
+      </c>
+      <c r="B83" t="s">
+        <v>79</v>
+      </c>
+      <c r="C83" t="s">
+        <v>77</v>
+      </c>
+      <c r="D83" t="s">
+        <v>132</v>
+      </c>
+      <c r="E83" t="s">
+        <v>7</v>
+      </c>
+      <c r="F83" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84">
+        <v>19330051920098</v>
+      </c>
+      <c r="B84" t="s">
+        <v>79</v>
+      </c>
+      <c r="C84" t="s">
+        <v>77</v>
+      </c>
+      <c r="D84" t="s">
+        <v>132</v>
+      </c>
+      <c r="E84" t="s">
+        <v>4</v>
+      </c>
+      <c r="F84" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="A85">
+        <v>19330051920099</v>
+      </c>
+      <c r="B85" t="s">
+        <v>79</v>
+      </c>
+      <c r="C85" t="s">
+        <v>105</v>
+      </c>
+      <c r="D85" t="s">
+        <v>133</v>
+      </c>
+      <c r="E85" t="s">
+        <v>9</v>
+      </c>
+      <c r="F85" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86">
+        <v>19330051920099</v>
+      </c>
+      <c r="B86" t="s">
+        <v>79</v>
+      </c>
+      <c r="C86" t="s">
+        <v>105</v>
+      </c>
+      <c r="D86" t="s">
+        <v>133</v>
+      </c>
+      <c r="E86" t="s">
+        <v>10</v>
+      </c>
+      <c r="F86" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="A87">
+        <v>19330051920099</v>
+      </c>
+      <c r="B87" t="s">
+        <v>79</v>
+      </c>
+      <c r="C87" t="s">
+        <v>105</v>
+      </c>
+      <c r="D87" t="s">
+        <v>133</v>
+      </c>
+      <c r="E87" t="s">
+        <v>4</v>
+      </c>
+      <c r="F87" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="A88">
+        <v>19330051920099</v>
+      </c>
+      <c r="B88" t="s">
+        <v>79</v>
+      </c>
+      <c r="C88" t="s">
+        <v>105</v>
+      </c>
+      <c r="D88" t="s">
+        <v>133</v>
+      </c>
+      <c r="E88" t="s">
+        <v>8</v>
+      </c>
+      <c r="F88" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="A89">
+        <v>19330051920099</v>
+      </c>
+      <c r="B89" t="s">
+        <v>79</v>
+      </c>
+      <c r="C89" t="s">
+        <v>105</v>
+      </c>
+      <c r="D89" t="s">
+        <v>133</v>
+      </c>
+      <c r="E89" t="s">
+        <v>6</v>
+      </c>
+      <c r="F89" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="A90">
+        <v>19330051920099</v>
+      </c>
+      <c r="B90" t="s">
+        <v>79</v>
+      </c>
+      <c r="C90" t="s">
+        <v>105</v>
+      </c>
+      <c r="D90" t="s">
+        <v>133</v>
+      </c>
+      <c r="E90" t="s">
+        <v>7</v>
+      </c>
+      <c r="F90" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="A91">
+        <v>19330051920099</v>
+      </c>
+      <c r="B91" t="s">
+        <v>79</v>
+      </c>
+      <c r="C91" t="s">
+        <v>105</v>
+      </c>
+      <c r="D91" t="s">
+        <v>133</v>
+      </c>
+      <c r="E91" t="s">
+        <v>5</v>
+      </c>
+      <c r="F91" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="A92">
+        <v>19330051920100</v>
+      </c>
+      <c r="B92" t="s">
+        <v>79</v>
+      </c>
+      <c r="C92" t="s">
+        <v>106</v>
+      </c>
+      <c r="D92" t="s">
+        <v>134</v>
+      </c>
+      <c r="E92" t="s">
+        <v>4</v>
+      </c>
+      <c r="F92" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
+      <c r="A93">
+        <v>19330051920100</v>
+      </c>
+      <c r="B93" t="s">
+        <v>79</v>
+      </c>
+      <c r="C93" t="s">
+        <v>106</v>
+      </c>
+      <c r="D93" t="s">
+        <v>134</v>
+      </c>
+      <c r="E93" t="s">
+        <v>6</v>
+      </c>
+      <c r="F93" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
+      <c r="A94">
+        <v>19330051920100</v>
+      </c>
+      <c r="B94" t="s">
+        <v>79</v>
+      </c>
+      <c r="C94" t="s">
+        <v>106</v>
+      </c>
+      <c r="D94" t="s">
+        <v>134</v>
+      </c>
+      <c r="E94" t="s">
+        <v>10</v>
+      </c>
+      <c r="F94" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
+      <c r="A95">
+        <v>19330051920100</v>
+      </c>
+      <c r="B95" t="s">
+        <v>79</v>
+      </c>
+      <c r="C95" t="s">
+        <v>106</v>
+      </c>
+      <c r="D95" t="s">
+        <v>134</v>
+      </c>
+      <c r="E95" t="s">
+        <v>9</v>
+      </c>
+      <c r="F95" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
+      <c r="A96">
+        <v>19330051920100</v>
+      </c>
+      <c r="B96" t="s">
+        <v>79</v>
+      </c>
+      <c r="C96" t="s">
+        <v>106</v>
+      </c>
+      <c r="D96" t="s">
+        <v>134</v>
+      </c>
+      <c r="E96" t="s">
+        <v>5</v>
+      </c>
+      <c r="F96" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
+      <c r="A97">
+        <v>19330051920100</v>
+      </c>
+      <c r="B97" t="s">
+        <v>79</v>
+      </c>
+      <c r="C97" t="s">
+        <v>106</v>
+      </c>
+      <c r="D97" t="s">
+        <v>134</v>
+      </c>
+      <c r="E97" t="s">
+        <v>7</v>
+      </c>
+      <c r="F97" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
+      <c r="A98">
+        <v>19330051920100</v>
+      </c>
+      <c r="B98" t="s">
+        <v>79</v>
+      </c>
+      <c r="C98" t="s">
+        <v>106</v>
+      </c>
+      <c r="D98" t="s">
+        <v>134</v>
+      </c>
+      <c r="E98" t="s">
+        <v>8</v>
+      </c>
+      <c r="F98" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
+      <c r="A99">
+        <v>19330051920096</v>
+      </c>
+      <c r="B99" t="s">
+        <v>80</v>
+      </c>
+      <c r="C99" t="s">
+        <v>82</v>
+      </c>
+      <c r="D99" t="s">
+        <v>135</v>
+      </c>
+      <c r="E99" t="s">
+        <v>7</v>
+      </c>
+      <c r="F99" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
+      <c r="A100">
+        <v>19330051920096</v>
+      </c>
+      <c r="B100" t="s">
+        <v>80</v>
+      </c>
+      <c r="C100" t="s">
+        <v>82</v>
+      </c>
+      <c r="D100" t="s">
+        <v>135</v>
+      </c>
+      <c r="E100" t="s">
+        <v>9</v>
+      </c>
+      <c r="F100" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
+      <c r="A101">
+        <v>19330051920096</v>
+      </c>
+      <c r="B101" t="s">
+        <v>80</v>
+      </c>
+      <c r="C101" t="s">
+        <v>82</v>
+      </c>
+      <c r="D101" t="s">
+        <v>135</v>
+      </c>
+      <c r="E101" t="s">
+        <v>10</v>
+      </c>
+      <c r="F101" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
+      <c r="A102">
+        <v>19330051920096</v>
+      </c>
+      <c r="B102" t="s">
+        <v>80</v>
+      </c>
+      <c r="C102" t="s">
+        <v>82</v>
+      </c>
+      <c r="D102" t="s">
+        <v>135</v>
+      </c>
+      <c r="E102" t="s">
+        <v>8</v>
+      </c>
+      <c r="F102" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
+      <c r="A103">
+        <v>19330051920096</v>
+      </c>
+      <c r="B103" t="s">
+        <v>80</v>
+      </c>
+      <c r="C103" t="s">
+        <v>82</v>
+      </c>
+      <c r="D103" t="s">
+        <v>135</v>
+      </c>
+      <c r="E103" t="s">
+        <v>4</v>
+      </c>
+      <c r="F103" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
+      <c r="A104">
+        <v>19330051920096</v>
+      </c>
+      <c r="B104" t="s">
+        <v>80</v>
+      </c>
+      <c r="C104" t="s">
+        <v>82</v>
+      </c>
+      <c r="D104" t="s">
+        <v>135</v>
+      </c>
+      <c r="E104" t="s">
+        <v>5</v>
+      </c>
+      <c r="F104" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6">
+      <c r="A105">
+        <v>19330051920096</v>
+      </c>
+      <c r="B105" t="s">
+        <v>80</v>
+      </c>
+      <c r="C105" t="s">
+        <v>82</v>
+      </c>
+      <c r="D105" t="s">
+        <v>135</v>
+      </c>
+      <c r="E105" t="s">
+        <v>6</v>
+      </c>
+      <c r="F105" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6">
+      <c r="A106">
+        <v>19330051920101</v>
+      </c>
+      <c r="B106" t="s">
+        <v>81</v>
+      </c>
+      <c r="C106" t="s">
+        <v>107</v>
+      </c>
+      <c r="D106" t="s">
+        <v>136</v>
+      </c>
+      <c r="E106" t="s">
+        <v>8</v>
+      </c>
+      <c r="F106" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6">
+      <c r="A107">
+        <v>19330051920101</v>
+      </c>
+      <c r="B107" t="s">
+        <v>81</v>
+      </c>
+      <c r="C107" t="s">
+        <v>107</v>
+      </c>
+      <c r="D107" t="s">
+        <v>136</v>
+      </c>
+      <c r="E107" t="s">
+        <v>10</v>
+      </c>
+      <c r="F107" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6">
+      <c r="A108">
+        <v>19330051920101</v>
+      </c>
+      <c r="B108" t="s">
+        <v>81</v>
+      </c>
+      <c r="C108" t="s">
+        <v>107</v>
+      </c>
+      <c r="D108" t="s">
+        <v>136</v>
+      </c>
+      <c r="E108" t="s">
+        <v>9</v>
+      </c>
+      <c r="F108" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6">
+      <c r="A109">
+        <v>19330051920101</v>
+      </c>
+      <c r="B109" t="s">
+        <v>81</v>
+      </c>
+      <c r="C109" t="s">
+        <v>107</v>
+      </c>
+      <c r="D109" t="s">
+        <v>136</v>
+      </c>
+      <c r="E109" t="s">
+        <v>4</v>
+      </c>
+      <c r="F109" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6">
+      <c r="A110">
+        <v>19330051920101</v>
+      </c>
+      <c r="B110" t="s">
+        <v>81</v>
+      </c>
+      <c r="C110" t="s">
+        <v>107</v>
+      </c>
+      <c r="D110" t="s">
+        <v>136</v>
+      </c>
+      <c r="E110" t="s">
+        <v>6</v>
+      </c>
+      <c r="F110" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6">
+      <c r="A111">
+        <v>19330051920101</v>
+      </c>
+      <c r="B111" t="s">
+        <v>81</v>
+      </c>
+      <c r="C111" t="s">
+        <v>107</v>
+      </c>
+      <c r="D111" t="s">
+        <v>136</v>
+      </c>
+      <c r="E111" t="s">
+        <v>5</v>
+      </c>
+      <c r="F111" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6">
+      <c r="A112">
+        <v>19330051920101</v>
+      </c>
+      <c r="B112" t="s">
+        <v>81</v>
+      </c>
+      <c r="C112" t="s">
+        <v>107</v>
+      </c>
+      <c r="D112" t="s">
+        <v>136</v>
+      </c>
+      <c r="E112" t="s">
+        <v>7</v>
+      </c>
+      <c r="F112" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6">
+      <c r="A113">
+        <v>19330051920102</v>
+      </c>
+      <c r="B113" t="s">
+        <v>81</v>
+      </c>
+      <c r="C113" t="s">
+        <v>108</v>
+      </c>
+      <c r="D113" t="s">
+        <v>137</v>
+      </c>
+      <c r="E113" t="s">
+        <v>8</v>
+      </c>
+      <c r="F113" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6">
+      <c r="A114">
+        <v>19330051920102</v>
+      </c>
+      <c r="B114" t="s">
+        <v>81</v>
+      </c>
+      <c r="C114" t="s">
+        <v>108</v>
+      </c>
+      <c r="D114" t="s">
+        <v>137</v>
+      </c>
+      <c r="E114" t="s">
+        <v>4</v>
+      </c>
+      <c r="F114" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6">
+      <c r="A115">
+        <v>19330051920102</v>
+      </c>
+      <c r="B115" t="s">
+        <v>81</v>
+      </c>
+      <c r="C115" t="s">
+        <v>108</v>
+      </c>
+      <c r="D115" t="s">
+        <v>137</v>
+      </c>
+      <c r="E115" t="s">
+        <v>7</v>
+      </c>
+      <c r="F115" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6">
+      <c r="A116">
+        <v>19330051920102</v>
+      </c>
+      <c r="B116" t="s">
+        <v>81</v>
+      </c>
+      <c r="C116" t="s">
+        <v>108</v>
+      </c>
+      <c r="D116" t="s">
+        <v>137</v>
+      </c>
+      <c r="E116" t="s">
+        <v>6</v>
+      </c>
+      <c r="F116" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6">
+      <c r="A117">
+        <v>19330051920102</v>
+      </c>
+      <c r="B117" t="s">
+        <v>81</v>
+      </c>
+      <c r="C117" t="s">
+        <v>108</v>
+      </c>
+      <c r="D117" t="s">
+        <v>137</v>
+      </c>
+      <c r="E117" t="s">
+        <v>10</v>
+      </c>
+      <c r="F117" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6">
+      <c r="A118">
+        <v>19330051920102</v>
+      </c>
+      <c r="B118" t="s">
+        <v>81</v>
+      </c>
+      <c r="C118" t="s">
+        <v>108</v>
+      </c>
+      <c r="D118" t="s">
+        <v>137</v>
+      </c>
+      <c r="E118" t="s">
+        <v>9</v>
+      </c>
+      <c r="F118" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6">
+      <c r="A119">
+        <v>19330051920102</v>
+      </c>
+      <c r="B119" t="s">
+        <v>81</v>
+      </c>
+      <c r="C119" t="s">
+        <v>108</v>
+      </c>
+      <c r="D119" t="s">
+        <v>137</v>
+      </c>
+      <c r="E119" t="s">
+        <v>5</v>
+      </c>
+      <c r="F119" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6">
+      <c r="A120">
+        <v>19330051920105</v>
+      </c>
+      <c r="B120" t="s">
+        <v>82</v>
+      </c>
+      <c r="C120" t="s">
+        <v>109</v>
+      </c>
+      <c r="D120" t="s">
+        <v>138</v>
+      </c>
+      <c r="E120" t="s">
+        <v>4</v>
+      </c>
+      <c r="F120" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6">
+      <c r="A121">
+        <v>19330051920105</v>
+      </c>
+      <c r="B121" t="s">
+        <v>82</v>
+      </c>
+      <c r="C121" t="s">
+        <v>109</v>
+      </c>
+      <c r="D121" t="s">
+        <v>138</v>
+      </c>
+      <c r="E121" t="s">
+        <v>7</v>
+      </c>
+      <c r="F121" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6">
+      <c r="A122">
+        <v>19330051920105</v>
+      </c>
+      <c r="B122" t="s">
+        <v>82</v>
+      </c>
+      <c r="C122" t="s">
+        <v>109</v>
+      </c>
+      <c r="D122" t="s">
+        <v>138</v>
+      </c>
+      <c r="E122" t="s">
+        <v>5</v>
+      </c>
+      <c r="F122" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6">
+      <c r="A123">
+        <v>19330051920105</v>
+      </c>
+      <c r="B123" t="s">
+        <v>82</v>
+      </c>
+      <c r="C123" t="s">
+        <v>109</v>
+      </c>
+      <c r="D123" t="s">
+        <v>138</v>
+      </c>
+      <c r="E123" t="s">
+        <v>8</v>
+      </c>
+      <c r="F123" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6">
+      <c r="A124">
+        <v>19330051920105</v>
+      </c>
+      <c r="B124" t="s">
+        <v>82</v>
+      </c>
+      <c r="C124" t="s">
+        <v>109</v>
+      </c>
+      <c r="D124" t="s">
+        <v>138</v>
+      </c>
+      <c r="E124" t="s">
+        <v>6</v>
+      </c>
+      <c r="F124" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6">
+      <c r="A125">
+        <v>19330051920105</v>
+      </c>
+      <c r="B125" t="s">
+        <v>82</v>
+      </c>
+      <c r="C125" t="s">
+        <v>109</v>
+      </c>
+      <c r="D125" t="s">
+        <v>138</v>
+      </c>
+      <c r="E125" t="s">
+        <v>9</v>
+      </c>
+      <c r="F125" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6">
+      <c r="A126">
+        <v>19330051920105</v>
+      </c>
+      <c r="B126" t="s">
+        <v>82</v>
+      </c>
+      <c r="C126" t="s">
+        <v>109</v>
+      </c>
+      <c r="D126" t="s">
+        <v>138</v>
+      </c>
+      <c r="E126" t="s">
+        <v>10</v>
+      </c>
+      <c r="F126" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6">
+      <c r="A127">
+        <v>19330051920103</v>
+      </c>
+      <c r="B127" t="s">
+        <v>83</v>
+      </c>
+      <c r="C127" t="s">
+        <v>110</v>
+      </c>
+      <c r="D127" t="s">
+        <v>139</v>
+      </c>
+      <c r="E127" t="s">
+        <v>9</v>
+      </c>
+      <c r="F127" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6">
+      <c r="A128">
+        <v>19330051920103</v>
+      </c>
+      <c r="B128" t="s">
+        <v>83</v>
+      </c>
+      <c r="C128" t="s">
+        <v>110</v>
+      </c>
+      <c r="D128" t="s">
+        <v>139</v>
+      </c>
+      <c r="E128" t="s">
+        <v>7</v>
+      </c>
+      <c r="F128" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6">
+      <c r="A129">
+        <v>19330051920103</v>
+      </c>
+      <c r="B129" t="s">
+        <v>83</v>
+      </c>
+      <c r="C129" t="s">
+        <v>110</v>
+      </c>
+      <c r="D129" t="s">
+        <v>139</v>
+      </c>
+      <c r="E129" t="s">
+        <v>8</v>
+      </c>
+      <c r="F129" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6">
+      <c r="A130">
+        <v>19330051920103</v>
+      </c>
+      <c r="B130" t="s">
+        <v>83</v>
+      </c>
+      <c r="C130" t="s">
+        <v>110</v>
+      </c>
+      <c r="D130" t="s">
+        <v>139</v>
+      </c>
+      <c r="E130" t="s">
+        <v>4</v>
+      </c>
+      <c r="F130" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6">
+      <c r="A131">
+        <v>19330051920103</v>
+      </c>
+      <c r="B131" t="s">
+        <v>83</v>
+      </c>
+      <c r="C131" t="s">
+        <v>110</v>
+      </c>
+      <c r="D131" t="s">
+        <v>139</v>
+      </c>
+      <c r="E131" t="s">
+        <v>10</v>
+      </c>
+      <c r="F131" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6">
+      <c r="A132">
+        <v>19330051920103</v>
+      </c>
+      <c r="B132" t="s">
+        <v>83</v>
+      </c>
+      <c r="C132" t="s">
+        <v>110</v>
+      </c>
+      <c r="D132" t="s">
+        <v>139</v>
+      </c>
+      <c r="E132" t="s">
+        <v>6</v>
+      </c>
+      <c r="F132" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6">
+      <c r="A133">
+        <v>19330051920103</v>
+      </c>
+      <c r="B133" t="s">
+        <v>83</v>
+      </c>
+      <c r="C133" t="s">
+        <v>110</v>
+      </c>
+      <c r="D133" t="s">
+        <v>139</v>
+      </c>
+      <c r="E133" t="s">
+        <v>5</v>
+      </c>
+      <c r="F133" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6">
+      <c r="A134">
+        <v>19330051920106</v>
+      </c>
+      <c r="B134" t="s">
+        <v>84</v>
+      </c>
+      <c r="C134" t="s">
+        <v>111</v>
+      </c>
+      <c r="D134" t="s">
+        <v>140</v>
+      </c>
+      <c r="E134" t="s">
+        <v>4</v>
+      </c>
+      <c r="F134" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6">
+      <c r="A135">
+        <v>19330051920106</v>
+      </c>
+      <c r="B135" t="s">
+        <v>84</v>
+      </c>
+      <c r="C135" t="s">
+        <v>111</v>
+      </c>
+      <c r="D135" t="s">
+        <v>140</v>
+      </c>
+      <c r="E135" t="s">
+        <v>5</v>
+      </c>
+      <c r="F135" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6">
+      <c r="A136">
+        <v>19330051920106</v>
+      </c>
+      <c r="B136" t="s">
+        <v>84</v>
+      </c>
+      <c r="C136" t="s">
+        <v>111</v>
+      </c>
+      <c r="D136" t="s">
+        <v>140</v>
+      </c>
+      <c r="E136" t="s">
+        <v>7</v>
+      </c>
+      <c r="F136" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6">
+      <c r="A137">
+        <v>19330051920106</v>
+      </c>
+      <c r="B137" t="s">
+        <v>84</v>
+      </c>
+      <c r="C137" t="s">
+        <v>111</v>
+      </c>
+      <c r="D137" t="s">
+        <v>140</v>
+      </c>
+      <c r="E137" t="s">
+        <v>10</v>
+      </c>
+      <c r="F137" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6">
+      <c r="A138">
+        <v>19330051920106</v>
+      </c>
+      <c r="B138" t="s">
+        <v>84</v>
+      </c>
+      <c r="C138" t="s">
+        <v>111</v>
+      </c>
+      <c r="D138" t="s">
+        <v>140</v>
+      </c>
+      <c r="E138" t="s">
+        <v>6</v>
+      </c>
+      <c r="F138" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6">
+      <c r="A139">
+        <v>19330051920106</v>
+      </c>
+      <c r="B139" t="s">
+        <v>84</v>
+      </c>
+      <c r="C139" t="s">
+        <v>111</v>
+      </c>
+      <c r="D139" t="s">
+        <v>140</v>
+      </c>
+      <c r="E139" t="s">
+        <v>8</v>
+      </c>
+      <c r="F139" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6">
+      <c r="A140">
+        <v>19330051920107</v>
+      </c>
+      <c r="B140" t="s">
+        <v>85</v>
+      </c>
+      <c r="C140" t="s">
+        <v>77</v>
+      </c>
+      <c r="D140" t="s">
+        <v>141</v>
+      </c>
+      <c r="E140" t="s">
+        <v>5</v>
+      </c>
+      <c r="F140" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6">
+      <c r="A141">
+        <v>19330051920107</v>
+      </c>
+      <c r="B141" t="s">
+        <v>85</v>
+      </c>
+      <c r="C141" t="s">
+        <v>77</v>
+      </c>
+      <c r="D141" t="s">
+        <v>141</v>
+      </c>
+      <c r="E141" t="s">
+        <v>6</v>
+      </c>
+      <c r="F141" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6">
+      <c r="A142">
+        <v>19330051920107</v>
+      </c>
+      <c r="B142" t="s">
+        <v>85</v>
+      </c>
+      <c r="C142" t="s">
+        <v>77</v>
+      </c>
+      <c r="D142" t="s">
+        <v>141</v>
+      </c>
+      <c r="E142" t="s">
+        <v>7</v>
+      </c>
+      <c r="F142" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6">
+      <c r="A143">
+        <v>19330051920107</v>
+      </c>
+      <c r="B143" t="s">
+        <v>85</v>
+      </c>
+      <c r="C143" t="s">
+        <v>77</v>
+      </c>
+      <c r="D143" t="s">
+        <v>141</v>
+      </c>
+      <c r="E143" t="s">
+        <v>9</v>
+      </c>
+      <c r="F143" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6">
+      <c r="A144">
+        <v>19330051920107</v>
+      </c>
+      <c r="B144" t="s">
+        <v>85</v>
+      </c>
+      <c r="C144" t="s">
+        <v>77</v>
+      </c>
+      <c r="D144" t="s">
+        <v>141</v>
+      </c>
+      <c r="E144" t="s">
+        <v>10</v>
+      </c>
+      <c r="F144" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6">
+      <c r="A145">
+        <v>19330051920107</v>
+      </c>
+      <c r="B145" t="s">
+        <v>85</v>
+      </c>
+      <c r="C145" t="s">
+        <v>77</v>
+      </c>
+      <c r="D145" t="s">
+        <v>141</v>
+      </c>
+      <c r="E145" t="s">
+        <v>4</v>
+      </c>
+      <c r="F145" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6">
+      <c r="A146">
+        <v>19330051920107</v>
+      </c>
+      <c r="B146" t="s">
+        <v>85</v>
+      </c>
+      <c r="C146" t="s">
+        <v>77</v>
+      </c>
+      <c r="D146" t="s">
+        <v>141</v>
+      </c>
+      <c r="E146" t="s">
+        <v>8</v>
+      </c>
+      <c r="F146" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6">
+      <c r="A147">
+        <v>19330051920109</v>
+      </c>
+      <c r="B147" t="s">
+        <v>86</v>
+      </c>
+      <c r="C147" t="s">
+        <v>79</v>
+      </c>
+      <c r="D147" t="s">
+        <v>142</v>
+      </c>
+      <c r="E147" t="s">
+        <v>5</v>
+      </c>
+      <c r="F147" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6">
+      <c r="A148">
+        <v>19330051920109</v>
+      </c>
+      <c r="B148" t="s">
+        <v>86</v>
+      </c>
+      <c r="C148" t="s">
+        <v>79</v>
+      </c>
+      <c r="D148" t="s">
+        <v>142</v>
+      </c>
+      <c r="E148" t="s">
+        <v>10</v>
+      </c>
+      <c r="F148" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6">
+      <c r="A149">
+        <v>19330051920109</v>
+      </c>
+      <c r="B149" t="s">
+        <v>86</v>
+      </c>
+      <c r="C149" t="s">
+        <v>79</v>
+      </c>
+      <c r="D149" t="s">
+        <v>142</v>
+      </c>
+      <c r="E149" t="s">
+        <v>6</v>
+      </c>
+      <c r="F149" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6">
+      <c r="A150">
+        <v>19330051920109</v>
+      </c>
+      <c r="B150" t="s">
+        <v>86</v>
+      </c>
+      <c r="C150" t="s">
+        <v>79</v>
+      </c>
+      <c r="D150" t="s">
+        <v>142</v>
+      </c>
+      <c r="E150" t="s">
+        <v>4</v>
+      </c>
+      <c r="F150" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6">
+      <c r="A151">
+        <v>19330051920109</v>
+      </c>
+      <c r="B151" t="s">
+        <v>86</v>
+      </c>
+      <c r="C151" t="s">
+        <v>79</v>
+      </c>
+      <c r="D151" t="s">
+        <v>142</v>
+      </c>
+      <c r="E151" t="s">
+        <v>7</v>
+      </c>
+      <c r="F151" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6">
+      <c r="A152">
+        <v>19330051920109</v>
+      </c>
+      <c r="B152" t="s">
+        <v>86</v>
+      </c>
+      <c r="C152" t="s">
+        <v>79</v>
+      </c>
+      <c r="D152" t="s">
+        <v>142</v>
+      </c>
+      <c r="E152" t="s">
+        <v>9</v>
+      </c>
+      <c r="F152" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6">
+      <c r="A153">
+        <v>19330051920109</v>
+      </c>
+      <c r="B153" t="s">
+        <v>86</v>
+      </c>
+      <c r="C153" t="s">
+        <v>79</v>
+      </c>
+      <c r="D153" t="s">
+        <v>142</v>
+      </c>
+      <c r="E153" t="s">
+        <v>8</v>
+      </c>
+      <c r="F153" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6">
+      <c r="A154">
+        <v>19330051920111</v>
+      </c>
+      <c r="B154" t="s">
+        <v>87</v>
+      </c>
+      <c r="C154" t="s">
+        <v>83</v>
+      </c>
+      <c r="D154" t="s">
+        <v>143</v>
+      </c>
+      <c r="E154" t="s">
+        <v>7</v>
+      </c>
+      <c r="F154" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6">
+      <c r="A155">
+        <v>19330051920111</v>
+      </c>
+      <c r="B155" t="s">
+        <v>87</v>
+      </c>
+      <c r="C155" t="s">
+        <v>83</v>
+      </c>
+      <c r="D155" t="s">
+        <v>143</v>
+      </c>
+      <c r="E155" t="s">
+        <v>6</v>
+      </c>
+      <c r="F155" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6">
+      <c r="A156">
+        <v>19330051920111</v>
+      </c>
+      <c r="B156" t="s">
+        <v>87</v>
+      </c>
+      <c r="C156" t="s">
+        <v>83</v>
+      </c>
+      <c r="D156" t="s">
+        <v>143</v>
+      </c>
+      <c r="E156" t="s">
+        <v>4</v>
+      </c>
+      <c r="F156" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6">
+      <c r="A157">
+        <v>19330051920111</v>
+      </c>
+      <c r="B157" t="s">
+        <v>87</v>
+      </c>
+      <c r="C157" t="s">
+        <v>83</v>
+      </c>
+      <c r="D157" t="s">
+        <v>143</v>
+      </c>
+      <c r="E157" t="s">
+        <v>10</v>
+      </c>
+      <c r="F157" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6">
+      <c r="A158">
+        <v>19330051920111</v>
+      </c>
+      <c r="B158" t="s">
+        <v>87</v>
+      </c>
+      <c r="C158" t="s">
+        <v>83</v>
+      </c>
+      <c r="D158" t="s">
+        <v>143</v>
+      </c>
+      <c r="E158" t="s">
+        <v>9</v>
+      </c>
+      <c r="F158" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6">
+      <c r="A159">
+        <v>19330051920111</v>
+      </c>
+      <c r="B159" t="s">
+        <v>87</v>
+      </c>
+      <c r="C159" t="s">
+        <v>83</v>
+      </c>
+      <c r="D159" t="s">
+        <v>143</v>
+      </c>
+      <c r="E159" t="s">
+        <v>8</v>
+      </c>
+      <c r="F159" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6">
+      <c r="A160">
+        <v>19330051920111</v>
+      </c>
+      <c r="B160" t="s">
+        <v>87</v>
+      </c>
+      <c r="C160" t="s">
+        <v>83</v>
+      </c>
+      <c r="D160" t="s">
+        <v>143</v>
+      </c>
+      <c r="E160" t="s">
+        <v>5</v>
+      </c>
+      <c r="F160" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6">
+      <c r="A161">
+        <v>19330051920110</v>
+      </c>
+      <c r="B161" t="s">
+        <v>87</v>
+      </c>
+      <c r="C161" t="s">
+        <v>112</v>
+      </c>
+      <c r="D161" t="s">
+        <v>144</v>
+      </c>
+      <c r="E161" t="s">
+        <v>6</v>
+      </c>
+      <c r="F161" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6">
+      <c r="A162">
+        <v>19330051920110</v>
+      </c>
+      <c r="B162" t="s">
+        <v>87</v>
+      </c>
+      <c r="C162" t="s">
+        <v>112</v>
+      </c>
+      <c r="D162" t="s">
+        <v>144</v>
+      </c>
+      <c r="E162" t="s">
+        <v>7</v>
+      </c>
+      <c r="F162" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6">
+      <c r="A163">
+        <v>19330051920110</v>
+      </c>
+      <c r="B163" t="s">
+        <v>87</v>
+      </c>
+      <c r="C163" t="s">
+        <v>112</v>
+      </c>
+      <c r="D163" t="s">
+        <v>144</v>
+      </c>
+      <c r="E163" t="s">
+        <v>8</v>
+      </c>
+      <c r="F163" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6">
+      <c r="A164">
+        <v>19330051920110</v>
+      </c>
+      <c r="B164" t="s">
+        <v>87</v>
+      </c>
+      <c r="C164" t="s">
+        <v>112</v>
+      </c>
+      <c r="D164" t="s">
+        <v>144</v>
+      </c>
+      <c r="E164" t="s">
+        <v>10</v>
+      </c>
+      <c r="F164" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6">
+      <c r="A165">
+        <v>19330051920110</v>
+      </c>
+      <c r="B165" t="s">
+        <v>87</v>
+      </c>
+      <c r="C165" t="s">
+        <v>112</v>
+      </c>
+      <c r="D165" t="s">
+        <v>144</v>
+      </c>
+      <c r="E165" t="s">
+        <v>4</v>
+      </c>
+      <c r="F165" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6">
+      <c r="A166">
+        <v>19330051920110</v>
+      </c>
+      <c r="B166" t="s">
+        <v>87</v>
+      </c>
+      <c r="C166" t="s">
+        <v>112</v>
+      </c>
+      <c r="D166" t="s">
+        <v>144</v>
+      </c>
+      <c r="E166" t="s">
+        <v>5</v>
+      </c>
+      <c r="F166" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6">
+      <c r="A167">
+        <v>19330051920112</v>
+      </c>
+      <c r="B167" t="s">
+        <v>88</v>
+      </c>
+      <c r="C167" t="s">
+        <v>77</v>
+      </c>
+      <c r="D167" t="s">
+        <v>145</v>
+      </c>
+      <c r="E167" t="s">
+        <v>6</v>
+      </c>
+      <c r="F167" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6">
+      <c r="A168">
+        <v>19330051920112</v>
+      </c>
+      <c r="B168" t="s">
+        <v>88</v>
+      </c>
+      <c r="C168" t="s">
+        <v>77</v>
+      </c>
+      <c r="D168" t="s">
+        <v>145</v>
+      </c>
+      <c r="E168" t="s">
+        <v>5</v>
+      </c>
+      <c r="F168" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6">
+      <c r="A169">
+        <v>19330051920112</v>
+      </c>
+      <c r="B169" t="s">
+        <v>88</v>
+      </c>
+      <c r="C169" t="s">
+        <v>77</v>
+      </c>
+      <c r="D169" t="s">
+        <v>145</v>
+      </c>
+      <c r="E169" t="s">
+        <v>4</v>
+      </c>
+      <c r="F169" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6">
+      <c r="A170">
+        <v>19330051920112</v>
+      </c>
+      <c r="B170" t="s">
+        <v>88</v>
+      </c>
+      <c r="C170" t="s">
+        <v>77</v>
+      </c>
+      <c r="D170" t="s">
+        <v>145</v>
+      </c>
+      <c r="E170" t="s">
+        <v>10</v>
+      </c>
+      <c r="F170" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6">
+      <c r="A171">
+        <v>19330051920112</v>
+      </c>
+      <c r="B171" t="s">
+        <v>88</v>
+      </c>
+      <c r="C171" t="s">
+        <v>77</v>
+      </c>
+      <c r="D171" t="s">
+        <v>145</v>
+      </c>
+      <c r="E171" t="s">
+        <v>7</v>
+      </c>
+      <c r="F171" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6">
+      <c r="A172">
+        <v>19330051920112</v>
+      </c>
+      <c r="B172" t="s">
+        <v>88</v>
+      </c>
+      <c r="C172" t="s">
+        <v>77</v>
+      </c>
+      <c r="D172" t="s">
+        <v>145</v>
+      </c>
+      <c r="E172" t="s">
+        <v>9</v>
+      </c>
+      <c r="F172" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6">
+      <c r="A173">
+        <v>19330051920112</v>
+      </c>
+      <c r="B173" t="s">
+        <v>88</v>
+      </c>
+      <c r="C173" t="s">
+        <v>77</v>
+      </c>
+      <c r="D173" t="s">
+        <v>145</v>
+      </c>
+      <c r="E173" t="s">
+        <v>8</v>
+      </c>
+      <c r="F173" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6">
+      <c r="A174">
+        <v>19330051920113</v>
+      </c>
+      <c r="B174" t="s">
+        <v>88</v>
+      </c>
+      <c r="C174" t="s">
+        <v>84</v>
+      </c>
+      <c r="D174" t="s">
+        <v>146</v>
+      </c>
+      <c r="E174" t="s">
+        <v>6</v>
+      </c>
+      <c r="F174" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6">
+      <c r="A175">
+        <v>19330051920113</v>
+      </c>
+      <c r="B175" t="s">
+        <v>88</v>
+      </c>
+      <c r="C175" t="s">
+        <v>84</v>
+      </c>
+      <c r="D175" t="s">
+        <v>146</v>
+      </c>
+      <c r="E175" t="s">
+        <v>9</v>
+      </c>
+      <c r="F175" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6">
+      <c r="A176">
+        <v>19330051920113</v>
+      </c>
+      <c r="B176" t="s">
+        <v>88</v>
+      </c>
+      <c r="C176" t="s">
+        <v>84</v>
+      </c>
+      <c r="D176" t="s">
+        <v>146</v>
+      </c>
+      <c r="E176" t="s">
+        <v>7</v>
+      </c>
+      <c r="F176" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6">
+      <c r="A177">
+        <v>19330051920113</v>
+      </c>
+      <c r="B177" t="s">
+        <v>88</v>
+      </c>
+      <c r="C177" t="s">
+        <v>84</v>
+      </c>
+      <c r="D177" t="s">
+        <v>146</v>
+      </c>
+      <c r="E177" t="s">
+        <v>5</v>
+      </c>
+      <c r="F177" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6">
+      <c r="A178">
+        <v>19330051920113</v>
+      </c>
+      <c r="B178" t="s">
+        <v>88</v>
+      </c>
+      <c r="C178" t="s">
+        <v>84</v>
+      </c>
+      <c r="D178" t="s">
+        <v>146</v>
+      </c>
+      <c r="E178" t="s">
+        <v>10</v>
+      </c>
+      <c r="F178" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6">
+      <c r="A179">
+        <v>19330051920113</v>
+      </c>
+      <c r="B179" t="s">
+        <v>88</v>
+      </c>
+      <c r="C179" t="s">
+        <v>84</v>
+      </c>
+      <c r="D179" t="s">
+        <v>146</v>
+      </c>
+      <c r="E179" t="s">
+        <v>4</v>
+      </c>
+      <c r="F179" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6">
+      <c r="A180">
+        <v>19330051920113</v>
+      </c>
+      <c r="B180" t="s">
+        <v>88</v>
+      </c>
+      <c r="C180" t="s">
+        <v>84</v>
+      </c>
+      <c r="D180" t="s">
+        <v>146</v>
+      </c>
+      <c r="E180" t="s">
+        <v>8</v>
+      </c>
+      <c r="F180" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6">
+      <c r="A181">
+        <v>19330051920001</v>
+      </c>
+      <c r="B181" t="s">
+        <v>89</v>
+      </c>
+      <c r="C181" t="s">
+        <v>113</v>
+      </c>
+      <c r="D181" t="s">
+        <v>147</v>
+      </c>
+      <c r="E181" t="s">
+        <v>4</v>
+      </c>
+      <c r="F181" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6">
+      <c r="A182">
+        <v>19330051920001</v>
+      </c>
+      <c r="B182" t="s">
+        <v>89</v>
+      </c>
+      <c r="C182" t="s">
+        <v>113</v>
+      </c>
+      <c r="D182" t="s">
+        <v>147</v>
+      </c>
+      <c r="E182" t="s">
+        <v>5</v>
+      </c>
+      <c r="F182" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6">
+      <c r="A183">
+        <v>19330051920001</v>
+      </c>
+      <c r="B183" t="s">
+        <v>89</v>
+      </c>
+      <c r="C183" t="s">
+        <v>113</v>
+      </c>
+      <c r="D183" t="s">
+        <v>147</v>
+      </c>
+      <c r="E183" t="s">
+        <v>6</v>
+      </c>
+      <c r="F183" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6">
+      <c r="A184">
+        <v>19330051920001</v>
+      </c>
+      <c r="B184" t="s">
+        <v>89</v>
+      </c>
+      <c r="C184" t="s">
+        <v>113</v>
+      </c>
+      <c r="D184" t="s">
+        <v>147</v>
+      </c>
+      <c r="E184" t="s">
+        <v>8</v>
+      </c>
+      <c r="F184" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6">
+      <c r="A185">
+        <v>19330051920001</v>
+      </c>
+      <c r="B185" t="s">
+        <v>89</v>
+      </c>
+      <c r="C185" t="s">
+        <v>113</v>
+      </c>
+      <c r="D185" t="s">
+        <v>147</v>
+      </c>
+      <c r="E185" t="s">
+        <v>9</v>
+      </c>
+      <c r="F185" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6">
+      <c r="A186">
+        <v>19330051920001</v>
+      </c>
+      <c r="B186" t="s">
+        <v>89</v>
+      </c>
+      <c r="C186" t="s">
+        <v>113</v>
+      </c>
+      <c r="D186" t="s">
+        <v>147</v>
+      </c>
+      <c r="E186" t="s">
+        <v>7</v>
+      </c>
+      <c r="F186" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6">
+      <c r="A187">
+        <v>19330051920001</v>
+      </c>
+      <c r="B187" t="s">
+        <v>89</v>
+      </c>
+      <c r="C187" t="s">
+        <v>113</v>
+      </c>
+      <c r="D187" t="s">
+        <v>147</v>
+      </c>
+      <c r="E187" t="s">
+        <v>10</v>
+      </c>
+      <c r="F187" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6">
+      <c r="A188">
+        <v>19330051920115</v>
+      </c>
+      <c r="B188" t="s">
+        <v>90</v>
+      </c>
+      <c r="C188" t="s">
+        <v>83</v>
+      </c>
+      <c r="D188" t="s">
+        <v>122</v>
+      </c>
+      <c r="E188" t="s">
+        <v>7</v>
+      </c>
+      <c r="F188" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6">
+      <c r="A189">
+        <v>19330051920115</v>
+      </c>
+      <c r="B189" t="s">
+        <v>90</v>
+      </c>
+      <c r="C189" t="s">
+        <v>83</v>
+      </c>
+      <c r="D189" t="s">
+        <v>122</v>
+      </c>
+      <c r="E189" t="s">
+        <v>4</v>
+      </c>
+      <c r="F189" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6">
+      <c r="A190">
+        <v>19330051920115</v>
+      </c>
+      <c r="B190" t="s">
+        <v>90</v>
+      </c>
+      <c r="C190" t="s">
+        <v>83</v>
+      </c>
+      <c r="D190" t="s">
+        <v>122</v>
+      </c>
+      <c r="E190" t="s">
+        <v>5</v>
+      </c>
+      <c r="F190" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6">
+      <c r="A191">
+        <v>19330051920115</v>
+      </c>
+      <c r="B191" t="s">
+        <v>90</v>
+      </c>
+      <c r="C191" t="s">
+        <v>83</v>
+      </c>
+      <c r="D191" t="s">
+        <v>122</v>
+      </c>
+      <c r="E191" t="s">
+        <v>9</v>
+      </c>
+      <c r="F191" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6">
+      <c r="A192">
+        <v>19330051920115</v>
+      </c>
+      <c r="B192" t="s">
+        <v>90</v>
+      </c>
+      <c r="C192" t="s">
+        <v>83</v>
+      </c>
+      <c r="D192" t="s">
+        <v>122</v>
+      </c>
+      <c r="E192" t="s">
+        <v>6</v>
+      </c>
+      <c r="F192" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6">
+      <c r="A193">
+        <v>19330051920115</v>
+      </c>
+      <c r="B193" t="s">
+        <v>90</v>
+      </c>
+      <c r="C193" t="s">
+        <v>83</v>
+      </c>
+      <c r="D193" t="s">
+        <v>122</v>
+      </c>
+      <c r="E193" t="s">
+        <v>8</v>
+      </c>
+      <c r="F193" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6">
+      <c r="A194">
+        <v>19330051920115</v>
+      </c>
+      <c r="B194" t="s">
+        <v>90</v>
+      </c>
+      <c r="C194" t="s">
+        <v>83</v>
+      </c>
+      <c r="D194" t="s">
+        <v>122</v>
+      </c>
+      <c r="E194" t="s">
+        <v>10</v>
+      </c>
+      <c r="F194" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6">
+      <c r="A195">
+        <v>19330051920116</v>
+      </c>
+      <c r="B195" t="s">
+        <v>91</v>
+      </c>
+      <c r="C195" t="s">
+        <v>114</v>
+      </c>
+      <c r="D195" t="s">
+        <v>129</v>
+      </c>
+      <c r="E195" t="s">
+        <v>5</v>
+      </c>
+      <c r="F195" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6">
+      <c r="A196">
+        <v>19330051920116</v>
+      </c>
+      <c r="B196" t="s">
+        <v>91</v>
+      </c>
+      <c r="C196" t="s">
+        <v>114</v>
+      </c>
+      <c r="D196" t="s">
+        <v>129</v>
+      </c>
+      <c r="E196" t="s">
+        <v>7</v>
+      </c>
+      <c r="F196" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6">
+      <c r="A197">
+        <v>19330051920116</v>
+      </c>
+      <c r="B197" t="s">
+        <v>91</v>
+      </c>
+      <c r="C197" t="s">
+        <v>114</v>
+      </c>
+      <c r="D197" t="s">
+        <v>129</v>
+      </c>
+      <c r="E197" t="s">
+        <v>8</v>
+      </c>
+      <c r="F197" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6">
+      <c r="A198">
+        <v>19330051920116</v>
+      </c>
+      <c r="B198" t="s">
+        <v>91</v>
+      </c>
+      <c r="C198" t="s">
+        <v>114</v>
+      </c>
+      <c r="D198" t="s">
+        <v>129</v>
+      </c>
+      <c r="E198" t="s">
+        <v>9</v>
+      </c>
+      <c r="F198" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6">
+      <c r="A199">
+        <v>19330051920116</v>
+      </c>
+      <c r="B199" t="s">
+        <v>91</v>
+      </c>
+      <c r="C199" t="s">
+        <v>114</v>
+      </c>
+      <c r="D199" t="s">
+        <v>129</v>
+      </c>
+      <c r="E199" t="s">
+        <v>10</v>
+      </c>
+      <c r="F199" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6">
+      <c r="A200">
+        <v>19330051920116</v>
+      </c>
+      <c r="B200" t="s">
+        <v>91</v>
+      </c>
+      <c r="C200" t="s">
+        <v>114</v>
+      </c>
+      <c r="D200" t="s">
+        <v>129</v>
+      </c>
+      <c r="E200" t="s">
+        <v>4</v>
+      </c>
+      <c r="F200" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6">
+      <c r="A201">
+        <v>19330051920116</v>
+      </c>
+      <c r="B201" t="s">
+        <v>91</v>
+      </c>
+      <c r="C201" t="s">
+        <v>114</v>
+      </c>
+      <c r="D201" t="s">
+        <v>129</v>
+      </c>
+      <c r="E201" t="s">
+        <v>6</v>
+      </c>
+      <c r="F201" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6">
+      <c r="A202">
+        <v>19330051920117</v>
+      </c>
+      <c r="B202" t="s">
+        <v>92</v>
+      </c>
+      <c r="C202" t="s">
+        <v>76</v>
+      </c>
+      <c r="D202" t="s">
+        <v>148</v>
+      </c>
+      <c r="E202" t="s">
+        <v>6</v>
+      </c>
+      <c r="F202" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6">
+      <c r="A203">
+        <v>19330051920117</v>
+      </c>
+      <c r="B203" t="s">
+        <v>92</v>
+      </c>
+      <c r="C203" t="s">
+        <v>76</v>
+      </c>
+      <c r="D203" t="s">
+        <v>148</v>
+      </c>
+      <c r="E203" t="s">
+        <v>9</v>
+      </c>
+      <c r="F203" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6">
+      <c r="A204">
+        <v>19330051920117</v>
+      </c>
+      <c r="B204" t="s">
+        <v>92</v>
+      </c>
+      <c r="C204" t="s">
+        <v>76</v>
+      </c>
+      <c r="D204" t="s">
+        <v>148</v>
+      </c>
+      <c r="E204" t="s">
+        <v>8</v>
+      </c>
+      <c r="F204" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6">
+      <c r="A205">
+        <v>19330051920117</v>
+      </c>
+      <c r="B205" t="s">
+        <v>92</v>
+      </c>
+      <c r="C205" t="s">
+        <v>76</v>
+      </c>
+      <c r="D205" t="s">
+        <v>148</v>
+      </c>
+      <c r="E205" t="s">
+        <v>10</v>
+      </c>
+      <c r="F205" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6">
+      <c r="A206">
+        <v>19330051920117</v>
+      </c>
+      <c r="B206" t="s">
+        <v>92</v>
+      </c>
+      <c r="C206" t="s">
+        <v>76</v>
+      </c>
+      <c r="D206" t="s">
+        <v>148</v>
+      </c>
+      <c r="E206" t="s">
+        <v>7</v>
+      </c>
+      <c r="F206" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6">
+      <c r="A207">
+        <v>19330051920117</v>
+      </c>
+      <c r="B207" t="s">
+        <v>92</v>
+      </c>
+      <c r="C207" t="s">
+        <v>76</v>
+      </c>
+      <c r="D207" t="s">
+        <v>148</v>
+      </c>
+      <c r="E207" t="s">
+        <v>4</v>
+      </c>
+      <c r="F207" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6">
+      <c r="A208">
+        <v>19330051920117</v>
+      </c>
+      <c r="B208" t="s">
+        <v>92</v>
+      </c>
+      <c r="C208" t="s">
+        <v>76</v>
+      </c>
+      <c r="D208" t="s">
+        <v>148</v>
+      </c>
+      <c r="E208" t="s">
+        <v>5</v>
+      </c>
+      <c r="F208" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6">
+      <c r="A209">
+        <v>19330051920118</v>
+      </c>
+      <c r="B209" t="s">
+        <v>93</v>
+      </c>
+      <c r="C209" t="s">
+        <v>83</v>
+      </c>
+      <c r="D209" t="s">
+        <v>149</v>
+      </c>
+      <c r="E209" t="s">
+        <v>4</v>
+      </c>
+      <c r="F209" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6">
+      <c r="A210">
+        <v>19330051920118</v>
+      </c>
+      <c r="B210" t="s">
+        <v>93</v>
+      </c>
+      <c r="C210" t="s">
+        <v>83</v>
+      </c>
+      <c r="D210" t="s">
+        <v>149</v>
+      </c>
+      <c r="E210" t="s">
+        <v>7</v>
+      </c>
+      <c r="F210" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6">
+      <c r="A211">
+        <v>19330051920118</v>
+      </c>
+      <c r="B211" t="s">
+        <v>93</v>
+      </c>
+      <c r="C211" t="s">
+        <v>83</v>
+      </c>
+      <c r="D211" t="s">
+        <v>149</v>
+      </c>
+      <c r="E211" t="s">
+        <v>9</v>
+      </c>
+      <c r="F211" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6">
+      <c r="A212">
+        <v>19330051920118</v>
+      </c>
+      <c r="B212" t="s">
+        <v>93</v>
+      </c>
+      <c r="C212" t="s">
+        <v>83</v>
+      </c>
+      <c r="D212" t="s">
+        <v>149</v>
+      </c>
+      <c r="E212" t="s">
+        <v>6</v>
+      </c>
+      <c r="F212" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6">
+      <c r="A213">
+        <v>19330051920118</v>
+      </c>
+      <c r="B213" t="s">
+        <v>93</v>
+      </c>
+      <c r="C213" t="s">
+        <v>83</v>
+      </c>
+      <c r="D213" t="s">
+        <v>149</v>
+      </c>
+      <c r="E213" t="s">
+        <v>8</v>
+      </c>
+      <c r="F213" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6">
+      <c r="A214">
+        <v>19330051920118</v>
+      </c>
+      <c r="B214" t="s">
+        <v>93</v>
+      </c>
+      <c r="C214" t="s">
+        <v>83</v>
+      </c>
+      <c r="D214" t="s">
+        <v>149</v>
+      </c>
+      <c r="E214" t="s">
+        <v>5</v>
+      </c>
+      <c r="F214" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6">
+      <c r="A215">
+        <v>19330051920118</v>
+      </c>
+      <c r="B215" t="s">
+        <v>93</v>
+      </c>
+      <c r="C215" t="s">
+        <v>83</v>
+      </c>
+      <c r="D215" t="s">
+        <v>149</v>
+      </c>
+      <c r="E215" t="s">
+        <v>10</v>
+      </c>
+      <c r="F215" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6">
+      <c r="A216">
+        <v>19330051920457</v>
+      </c>
+      <c r="B216" t="s">
+        <v>94</v>
+      </c>
+      <c r="C216" t="s">
+        <v>115</v>
+      </c>
+      <c r="D216" t="s">
+        <v>150</v>
+      </c>
+      <c r="E216" t="s">
+        <v>5</v>
+      </c>
+      <c r="F216" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6">
+      <c r="A217">
+        <v>19330051920457</v>
+      </c>
+      <c r="B217" t="s">
+        <v>94</v>
+      </c>
+      <c r="C217" t="s">
+        <v>115</v>
+      </c>
+      <c r="D217" t="s">
+        <v>150</v>
+      </c>
+      <c r="E217" t="s">
+        <v>4</v>
+      </c>
+      <c r="F217" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6">
+      <c r="A218">
+        <v>19330051920457</v>
+      </c>
+      <c r="B218" t="s">
+        <v>94</v>
+      </c>
+      <c r="C218" t="s">
+        <v>115</v>
+      </c>
+      <c r="D218" t="s">
+        <v>150</v>
+      </c>
+      <c r="E218" t="s">
+        <v>9</v>
+      </c>
+      <c r="F218" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6">
+      <c r="A219">
+        <v>19330051920457</v>
+      </c>
+      <c r="B219" t="s">
+        <v>94</v>
+      </c>
+      <c r="C219" t="s">
+        <v>115</v>
+      </c>
+      <c r="D219" t="s">
+        <v>150</v>
+      </c>
+      <c r="E219" t="s">
+        <v>10</v>
+      </c>
+      <c r="F219" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6">
+      <c r="A220">
+        <v>19330051920457</v>
+      </c>
+      <c r="B220" t="s">
+        <v>94</v>
+      </c>
+      <c r="C220" t="s">
+        <v>115</v>
+      </c>
+      <c r="D220" t="s">
+        <v>150</v>
+      </c>
+      <c r="E220" t="s">
+        <v>7</v>
+      </c>
+      <c r="F220" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6">
+      <c r="A221">
+        <v>19330051920457</v>
+      </c>
+      <c r="B221" t="s">
+        <v>94</v>
+      </c>
+      <c r="C221" t="s">
+        <v>115</v>
+      </c>
+      <c r="D221" t="s">
+        <v>150</v>
+      </c>
+      <c r="E221" t="s">
+        <v>6</v>
+      </c>
+      <c r="F221" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6">
+      <c r="A222">
+        <v>19330051920457</v>
+      </c>
+      <c r="B222" t="s">
+        <v>94</v>
+      </c>
+      <c r="C222" t="s">
+        <v>115</v>
+      </c>
+      <c r="D222" t="s">
+        <v>150</v>
+      </c>
+      <c r="E222" t="s">
+        <v>8</v>
+      </c>
+      <c r="F222" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6">
+      <c r="A223">
+        <v>19330051920119</v>
+      </c>
+      <c r="B223" t="s">
+        <v>95</v>
+      </c>
+      <c r="C223" t="s">
+        <v>116</v>
+      </c>
+      <c r="D223" t="s">
+        <v>151</v>
+      </c>
+      <c r="E223" t="s">
+        <v>8</v>
+      </c>
+      <c r="F223" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6">
+      <c r="A224">
+        <v>19330051920119</v>
+      </c>
+      <c r="B224" t="s">
+        <v>95</v>
+      </c>
+      <c r="C224" t="s">
+        <v>116</v>
+      </c>
+      <c r="D224" t="s">
+        <v>151</v>
+      </c>
+      <c r="E224" t="s">
+        <v>7</v>
+      </c>
+      <c r="F224" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6">
+      <c r="A225">
+        <v>19330051920119</v>
+      </c>
+      <c r="B225" t="s">
+        <v>95</v>
+      </c>
+      <c r="C225" t="s">
+        <v>116</v>
+      </c>
+      <c r="D225" t="s">
+        <v>151</v>
+      </c>
+      <c r="E225" t="s">
+        <v>6</v>
+      </c>
+      <c r="F225" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6">
+      <c r="A226">
+        <v>19330051920119</v>
+      </c>
+      <c r="B226" t="s">
+        <v>95</v>
+      </c>
+      <c r="C226" t="s">
+        <v>116</v>
+      </c>
+      <c r="D226" t="s">
+        <v>151</v>
+      </c>
+      <c r="E226" t="s">
+        <v>4</v>
+      </c>
+      <c r="F226" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6">
+      <c r="A227">
+        <v>19330051920119</v>
+      </c>
+      <c r="B227" t="s">
+        <v>95</v>
+      </c>
+      <c r="C227" t="s">
+        <v>116</v>
+      </c>
+      <c r="D227" t="s">
+        <v>151</v>
+      </c>
+      <c r="E227" t="s">
+        <v>9</v>
+      </c>
+      <c r="F227" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6">
+      <c r="A228">
+        <v>19330051920119</v>
+      </c>
+      <c r="B228" t="s">
+        <v>95</v>
+      </c>
+      <c r="C228" t="s">
+        <v>116</v>
+      </c>
+      <c r="D228" t="s">
+        <v>151</v>
+      </c>
+      <c r="E228" t="s">
+        <v>5</v>
+      </c>
+      <c r="F228" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6">
+      <c r="A229">
+        <v>19330051920119</v>
+      </c>
+      <c r="B229" t="s">
+        <v>95</v>
+      </c>
+      <c r="C229" t="s">
+        <v>116</v>
+      </c>
+      <c r="D229" t="s">
+        <v>151</v>
+      </c>
+      <c r="E229" t="s">
+        <v>10</v>
+      </c>
+      <c r="F229" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6">
+      <c r="A230">
+        <v>19330051920120</v>
+      </c>
+      <c r="B230" t="s">
+        <v>96</v>
+      </c>
+      <c r="C230" t="s">
+        <v>117</v>
+      </c>
+      <c r="D230" t="s">
+        <v>152</v>
+      </c>
+      <c r="E230" t="s">
+        <v>7</v>
+      </c>
+      <c r="F230" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6">
+      <c r="A231">
+        <v>19330051920120</v>
+      </c>
+      <c r="B231" t="s">
+        <v>96</v>
+      </c>
+      <c r="C231" t="s">
+        <v>117</v>
+      </c>
+      <c r="D231" t="s">
+        <v>152</v>
+      </c>
+      <c r="E231" t="s">
+        <v>6</v>
+      </c>
+      <c r="F231" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6">
+      <c r="A232">
+        <v>19330051920120</v>
+      </c>
+      <c r="B232" t="s">
+        <v>96</v>
+      </c>
+      <c r="C232" t="s">
+        <v>117</v>
+      </c>
+      <c r="D232" t="s">
+        <v>152</v>
+      </c>
+      <c r="E232" t="s">
+        <v>4</v>
+      </c>
+      <c r="F232" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6">
+      <c r="A233">
+        <v>19330051920120</v>
+      </c>
+      <c r="B233" t="s">
+        <v>96</v>
+      </c>
+      <c r="C233" t="s">
+        <v>117</v>
+      </c>
+      <c r="D233" t="s">
+        <v>152</v>
+      </c>
+      <c r="E233" t="s">
+        <v>10</v>
+      </c>
+      <c r="F233" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6">
+      <c r="A234">
+        <v>19330051920120</v>
+      </c>
+      <c r="B234" t="s">
+        <v>96</v>
+      </c>
+      <c r="C234" t="s">
+        <v>117</v>
+      </c>
+      <c r="D234" t="s">
+        <v>152</v>
+      </c>
+      <c r="E234" t="s">
+        <v>8</v>
+      </c>
+      <c r="F234" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6">
+      <c r="A235">
+        <v>19330051920120</v>
+      </c>
+      <c r="B235" t="s">
+        <v>96</v>
+      </c>
+      <c r="C235" t="s">
+        <v>117</v>
+      </c>
+      <c r="D235" t="s">
+        <v>152</v>
+      </c>
+      <c r="E235" t="s">
+        <v>5</v>
+      </c>
+      <c r="F235" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6">
+      <c r="A236">
+        <v>19330051920120</v>
+      </c>
+      <c r="B236" t="s">
+        <v>96</v>
+      </c>
+      <c r="C236" t="s">
+        <v>117</v>
+      </c>
+      <c r="D236" t="s">
+        <v>152</v>
+      </c>
+      <c r="E236" t="s">
+        <v>9</v>
+      </c>
+      <c r="F236" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6">
+      <c r="A237">
+        <v>19330051920121</v>
+      </c>
+      <c r="B237" t="s">
+        <v>97</v>
+      </c>
+      <c r="C237" t="s">
+        <v>118</v>
+      </c>
+      <c r="D237" t="s">
+        <v>153</v>
+      </c>
+      <c r="E237" t="s">
+        <v>5</v>
+      </c>
+      <c r="F237" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6">
+      <c r="A238">
+        <v>19330051920121</v>
+      </c>
+      <c r="B238" t="s">
+        <v>97</v>
+      </c>
+      <c r="C238" t="s">
+        <v>118</v>
+      </c>
+      <c r="D238" t="s">
+        <v>153</v>
+      </c>
+      <c r="E238" t="s">
+        <v>7</v>
+      </c>
+      <c r="F238" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6">
+      <c r="A239">
+        <v>19330051920121</v>
+      </c>
+      <c r="B239" t="s">
+        <v>97</v>
+      </c>
+      <c r="C239" t="s">
+        <v>118</v>
+      </c>
+      <c r="D239" t="s">
+        <v>153</v>
+      </c>
+      <c r="E239" t="s">
+        <v>6</v>
+      </c>
+      <c r="F239" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6">
+      <c r="A240">
+        <v>19330051920121</v>
+      </c>
+      <c r="B240" t="s">
+        <v>97</v>
+      </c>
+      <c r="C240" t="s">
+        <v>118</v>
+      </c>
+      <c r="D240" t="s">
+        <v>153</v>
+      </c>
+      <c r="E240" t="s">
+        <v>8</v>
+      </c>
+      <c r="F240" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6">
+      <c r="A241">
+        <v>19330051920121</v>
+      </c>
+      <c r="B241" t="s">
+        <v>97</v>
+      </c>
+      <c r="C241" t="s">
+        <v>118</v>
+      </c>
+      <c r="D241" t="s">
+        <v>153</v>
+      </c>
+      <c r="E241" t="s">
+        <v>9</v>
+      </c>
+      <c r="F241" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6">
+      <c r="A242">
+        <v>19330051920121</v>
+      </c>
+      <c r="B242" t="s">
+        <v>97</v>
+      </c>
+      <c r="C242" t="s">
+        <v>118</v>
+      </c>
+      <c r="D242" t="s">
+        <v>153</v>
+      </c>
+      <c r="E242" t="s">
+        <v>4</v>
+      </c>
+      <c r="F242" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6">
+      <c r="A243">
+        <v>19330051920121</v>
+      </c>
+      <c r="B243" t="s">
+        <v>97</v>
+      </c>
+      <c r="C243" t="s">
+        <v>118</v>
+      </c>
+      <c r="D243" t="s">
+        <v>153</v>
+      </c>
+      <c r="E243" t="s">
+        <v>10</v>
+      </c>
+      <c r="F243" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6">
+      <c r="A244">
+        <v>19330051920122</v>
+      </c>
+      <c r="B244" t="s">
+        <v>98</v>
+      </c>
+      <c r="C244" t="s">
+        <v>119</v>
+      </c>
+      <c r="D244" t="s">
+        <v>154</v>
+      </c>
+      <c r="E244" t="s">
+        <v>4</v>
+      </c>
+      <c r="F244" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6">
+      <c r="A245">
+        <v>19330051920122</v>
+      </c>
+      <c r="B245" t="s">
+        <v>98</v>
+      </c>
+      <c r="C245" t="s">
+        <v>119</v>
+      </c>
+      <c r="D245" t="s">
+        <v>154</v>
+      </c>
+      <c r="E245" t="s">
+        <v>7</v>
+      </c>
+      <c r="F245" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6">
+      <c r="A246">
+        <v>19330051920122</v>
+      </c>
+      <c r="B246" t="s">
+        <v>98</v>
+      </c>
+      <c r="C246" t="s">
+        <v>119</v>
+      </c>
+      <c r="D246" t="s">
+        <v>154</v>
+      </c>
+      <c r="E246" t="s">
+        <v>9</v>
+      </c>
+      <c r="F246" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6">
+      <c r="A247">
+        <v>19330051920122</v>
+      </c>
+      <c r="B247" t="s">
+        <v>98</v>
+      </c>
+      <c r="C247" t="s">
+        <v>119</v>
+      </c>
+      <c r="D247" t="s">
+        <v>154</v>
+      </c>
+      <c r="E247" t="s">
+        <v>6</v>
+      </c>
+      <c r="F247" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6">
+      <c r="A248">
+        <v>19330051920122</v>
+      </c>
+      <c r="B248" t="s">
+        <v>98</v>
+      </c>
+      <c r="C248" t="s">
+        <v>119</v>
+      </c>
+      <c r="D248" t="s">
+        <v>154</v>
+      </c>
+      <c r="E248" t="s">
+        <v>8</v>
+      </c>
+      <c r="F248" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6">
+      <c r="A249">
+        <v>19330051920122</v>
+      </c>
+      <c r="B249" t="s">
+        <v>98</v>
+      </c>
+      <c r="C249" t="s">
+        <v>119</v>
+      </c>
+      <c r="D249" t="s">
+        <v>154</v>
+      </c>
+      <c r="E249" t="s">
+        <v>10</v>
+      </c>
+      <c r="F249" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6">
+      <c r="A250">
+        <v>19330051920122</v>
+      </c>
+      <c r="B250" t="s">
+        <v>98</v>
+      </c>
+      <c r="C250" t="s">
+        <v>119</v>
+      </c>
+      <c r="D250" t="s">
+        <v>154</v>
+      </c>
+      <c r="E250" t="s">
+        <v>5</v>
+      </c>
+      <c r="F250" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6">
+      <c r="A251">
         <v>19330051920124</v>
       </c>
-      <c r="B61" t="s">
-        <v>94</v>
-      </c>
-      <c r="C61" t="s">
-        <v>113</v>
-      </c>
-      <c r="D61" t="s">
-        <v>143</v>
-      </c>
-      <c r="E61" t="s">
+      <c r="B251" t="s">
+        <v>99</v>
+      </c>
+      <c r="C251" t="s">
+        <v>120</v>
+      </c>
+      <c r="D251" t="s">
+        <v>155</v>
+      </c>
+      <c r="E251" t="s">
+        <v>7</v>
+      </c>
+      <c r="F251" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6">
+      <c r="A252">
+        <v>19330051920124</v>
+      </c>
+      <c r="B252" t="s">
+        <v>99</v>
+      </c>
+      <c r="C252" t="s">
+        <v>120</v>
+      </c>
+      <c r="D252" t="s">
+        <v>155</v>
+      </c>
+      <c r="E252" t="s">
+        <v>6</v>
+      </c>
+      <c r="F252" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6">
+      <c r="A253">
+        <v>19330051920124</v>
+      </c>
+      <c r="B253" t="s">
+        <v>99</v>
+      </c>
+      <c r="C253" t="s">
+        <v>120</v>
+      </c>
+      <c r="D253" t="s">
+        <v>155</v>
+      </c>
+      <c r="E253" t="s">
+        <v>5</v>
+      </c>
+      <c r="F253" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6">
+      <c r="A254">
+        <v>19330051920124</v>
+      </c>
+      <c r="B254" t="s">
+        <v>99</v>
+      </c>
+      <c r="C254" t="s">
+        <v>120</v>
+      </c>
+      <c r="D254" t="s">
+        <v>155</v>
+      </c>
+      <c r="E254" t="s">
         <v>10</v>
       </c>
-      <c r="F61" t="s">
+      <c r="F254" t="s">
         <v>61</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6">
+      <c r="A255">
+        <v>19330051920124</v>
+      </c>
+      <c r="B255" t="s">
+        <v>99</v>
+      </c>
+      <c r="C255" t="s">
+        <v>120</v>
+      </c>
+      <c r="D255" t="s">
+        <v>155</v>
+      </c>
+      <c r="E255" t="s">
+        <v>4</v>
+      </c>
+      <c r="F255" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6">
+      <c r="A256">
+        <v>19330051920124</v>
+      </c>
+      <c r="B256" t="s">
+        <v>99</v>
+      </c>
+      <c r="C256" t="s">
+        <v>120</v>
+      </c>
+      <c r="D256" t="s">
+        <v>155</v>
+      </c>
+      <c r="E256" t="s">
+        <v>8</v>
+      </c>
+      <c r="F256" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6">
+      <c r="A257">
+        <v>19330051920124</v>
+      </c>
+      <c r="B257" t="s">
+        <v>99</v>
+      </c>
+      <c r="C257" t="s">
+        <v>120</v>
+      </c>
+      <c r="D257" t="s">
+        <v>155</v>
+      </c>
+      <c r="E257" t="s">
+        <v>9</v>
+      </c>
+      <c r="F257" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -5024,13 +8944,13 @@
         <v>19330051920094</v>
       </c>
       <c r="B2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C2" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="D2" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="E2">
         <v>4</v>
@@ -5041,13 +8961,13 @@
         <v>19330051920099</v>
       </c>
       <c r="B3" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C3" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="D3" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="E3">
         <v>4</v>
@@ -5058,13 +8978,13 @@
         <v>19330051920109</v>
       </c>
       <c r="B4" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C4" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D4" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="E4">
         <v>4</v>
@@ -5075,13 +8995,13 @@
         <v>19330051920111</v>
       </c>
       <c r="B5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C5" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D5" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="E5">
         <v>4</v>
@@ -5092,13 +9012,13 @@
         <v>19330051920124</v>
       </c>
       <c r="B6" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="C6" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="D6" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="E6">
         <v>4</v>
@@ -5109,13 +9029,13 @@
         <v>19330051920113</v>
       </c>
       <c r="B7" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C7" t="s">
-        <v>105</v>
+        <v>84</v>
       </c>
       <c r="D7" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -5126,13 +9046,13 @@
         <v>19330051920457</v>
       </c>
       <c r="B8" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="C8" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="D8" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -5143,13 +9063,13 @@
         <v>19330051920091</v>
       </c>
       <c r="B9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C9" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D9" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="E9">
         <v>2</v>
@@ -5160,13 +9080,13 @@
         <v>19330051920098</v>
       </c>
       <c r="B10" t="s">
+        <v>79</v>
+      </c>
+      <c r="C10" t="s">
         <v>77</v>
       </c>
-      <c r="C10" t="s">
-        <v>75</v>
-      </c>
       <c r="D10" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="E10">
         <v>2</v>
@@ -5177,13 +9097,13 @@
         <v>19330051920096</v>
       </c>
       <c r="B11" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D11" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="E11">
         <v>2</v>
@@ -5194,13 +9114,13 @@
         <v>19330051920101</v>
       </c>
       <c r="B12" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C12" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="D12" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="E12">
         <v>2</v>
@@ -5211,13 +9131,13 @@
         <v>19330051920105</v>
       </c>
       <c r="B13" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C13" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="D13" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="E13">
         <v>2</v>
@@ -5228,13 +9148,13 @@
         <v>19330051920107</v>
       </c>
       <c r="B14" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C14" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D14" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="E14">
         <v>2</v>
@@ -5245,13 +9165,13 @@
         <v>19330051920110</v>
       </c>
       <c r="B15" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C15" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="D15" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="E15">
         <v>2</v>
@@ -5262,13 +9182,13 @@
         <v>19330051920112</v>
       </c>
       <c r="B16" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C16" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D16" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="E16">
         <v>2</v>
@@ -5279,13 +9199,13 @@
         <v>19330051920001</v>
       </c>
       <c r="B17" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C17" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="D17" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="E17">
         <v>2</v>
@@ -5296,13 +9216,13 @@
         <v>19330051920119</v>
       </c>
       <c r="B18" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="C18" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="D18" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="E18">
         <v>2</v>
@@ -5316,10 +9236,10 @@
         <v>69</v>
       </c>
       <c r="C19" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="D19" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -5330,13 +9250,13 @@
         <v>19330051920088</v>
       </c>
       <c r="B20" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C20" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="D20" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="E20">
         <v>1</v>
@@ -5347,13 +9267,13 @@
         <v>19330051920090</v>
       </c>
       <c r="B21" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C21" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="D21" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -5364,13 +9284,13 @@
         <v>19330051920089</v>
       </c>
       <c r="B22" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C22" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="D22" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="E22">
         <v>1</v>
@@ -5381,13 +9301,13 @@
         <v>19330051920092</v>
       </c>
       <c r="B23" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C23" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="D23" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="E23">
         <v>1</v>
@@ -5398,13 +9318,13 @@
         <v>19330051920095</v>
       </c>
       <c r="B24" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C24" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D24" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="E24">
         <v>1</v>
@@ -5415,13 +9335,13 @@
         <v>19330051920097</v>
       </c>
       <c r="B25" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C25" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="D25" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="E25">
         <v>1</v>
@@ -5432,13 +9352,13 @@
         <v>19330051920102</v>
       </c>
       <c r="B26" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C26" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="D26" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="E26">
         <v>1</v>
@@ -5449,13 +9369,13 @@
         <v>19330051920103</v>
       </c>
       <c r="B27" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C27" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="D27" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="E27">
         <v>1</v>
@@ -5466,13 +9386,13 @@
         <v>19330051920116</v>
       </c>
       <c r="B28" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="C28" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="D28" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="E28">
         <v>1</v>
@@ -5483,13 +9403,13 @@
         <v>19330051920117</v>
       </c>
       <c r="B29" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="C29" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D29" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="E29">
         <v>1</v>
@@ -5500,13 +9420,13 @@
         <v>19330051920120</v>
       </c>
       <c r="B30" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="C30" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="D30" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="E30">
         <v>1</v>
@@ -5517,13 +9437,13 @@
         <v>19330051920121</v>
       </c>
       <c r="B31" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="C31" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="D31" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="E31">
         <v>1</v>
@@ -5534,13 +9454,13 @@
         <v>19330051920122</v>
       </c>
       <c r="B32" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="C32" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="D32" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="E32">
         <v>1</v>
@@ -5551,13 +9471,13 @@
         <v>19330051920084</v>
       </c>
       <c r="B33" t="s">
-        <v>144</v>
+        <v>70</v>
       </c>
       <c r="C33" t="s">
-        <v>148</v>
+        <v>101</v>
       </c>
       <c r="D33" t="s">
-        <v>151</v>
+        <v>122</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -5568,13 +9488,13 @@
         <v>19330051920093</v>
       </c>
       <c r="B34" t="s">
-        <v>145</v>
+        <v>75</v>
       </c>
       <c r="C34" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D34" t="s">
-        <v>152</v>
+        <v>128</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -5585,13 +9505,13 @@
         <v>19330051920100</v>
       </c>
       <c r="B35" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C35" t="s">
-        <v>149</v>
+        <v>106</v>
       </c>
       <c r="D35" t="s">
-        <v>153</v>
+        <v>134</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -5602,13 +9522,13 @@
         <v>19330051920106</v>
       </c>
       <c r="B36" t="s">
-        <v>105</v>
+        <v>84</v>
       </c>
       <c r="C36" t="s">
-        <v>150</v>
+        <v>111</v>
       </c>
       <c r="D36" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -5619,13 +9539,13 @@
         <v>19330051920115</v>
       </c>
       <c r="B37" t="s">
-        <v>146</v>
+        <v>90</v>
       </c>
       <c r="C37" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D37" t="s">
-        <v>151</v>
+        <v>122</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -5636,13 +9556,13 @@
         <v>19330051920118</v>
       </c>
       <c r="B38" t="s">
-        <v>147</v>
+        <v>93</v>
       </c>
       <c r="C38" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D38" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -5655,7 +9575,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5688,397 +9608,6 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2">
-        <v>19330051920095</v>
-      </c>
-      <c r="B2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D2" t="s">
-        <v>121</v>
-      </c>
-      <c r="E2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" t="s">
-        <v>58</v>
-      </c>
-      <c r="G2">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3">
-        <v>19330051920095</v>
-      </c>
-      <c r="B3" t="s">
-        <v>75</v>
-      </c>
-      <c r="C3" t="s">
-        <v>85</v>
-      </c>
-      <c r="D3" t="s">
-        <v>121</v>
-      </c>
-      <c r="E3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" t="s">
-        <v>59</v>
-      </c>
-      <c r="G3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4">
-        <v>19330051920102</v>
-      </c>
-      <c r="B4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C4" t="s">
-        <v>101</v>
-      </c>
-      <c r="D4" t="s">
-        <v>127</v>
-      </c>
-      <c r="E4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" t="s">
-        <v>58</v>
-      </c>
-      <c r="G4">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5">
-        <v>19330051920102</v>
-      </c>
-      <c r="B5" t="s">
-        <v>79</v>
-      </c>
-      <c r="C5" t="s">
-        <v>101</v>
-      </c>
-      <c r="D5" t="s">
-        <v>127</v>
-      </c>
-      <c r="E5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F5" t="s">
-        <v>60</v>
-      </c>
-      <c r="G5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6">
-        <v>19330051920110</v>
-      </c>
-      <c r="B6" t="s">
-        <v>84</v>
-      </c>
-      <c r="C6" t="s">
-        <v>104</v>
-      </c>
-      <c r="D6" t="s">
-        <v>133</v>
-      </c>
-      <c r="E6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F6" t="s">
-        <v>58</v>
-      </c>
-      <c r="G6">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7">
-        <v>19330051920110</v>
-      </c>
-      <c r="B7" t="s">
-        <v>84</v>
-      </c>
-      <c r="C7" t="s">
-        <v>104</v>
-      </c>
-      <c r="D7" t="s">
-        <v>133</v>
-      </c>
-      <c r="E7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" t="s">
-        <v>61</v>
-      </c>
-      <c r="G7">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8">
-        <v>19330051920085</v>
-      </c>
-      <c r="B8" t="s">
-        <v>69</v>
-      </c>
-      <c r="C8" t="s">
-        <v>95</v>
-      </c>
-      <c r="D8" t="s">
-        <v>114</v>
-      </c>
-      <c r="E8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F8" t="s">
-        <v>58</v>
-      </c>
-      <c r="G8">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9">
-        <v>19330051920088</v>
-      </c>
-      <c r="B9" t="s">
-        <v>70</v>
-      </c>
-      <c r="C9" t="s">
-        <v>96</v>
-      </c>
-      <c r="D9" t="s">
-        <v>115</v>
-      </c>
-      <c r="E9" t="s">
-        <v>4</v>
-      </c>
-      <c r="F9" t="s">
-        <v>58</v>
-      </c>
-      <c r="G9">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10">
-        <v>19330051920090</v>
-      </c>
-      <c r="B10" t="s">
-        <v>71</v>
-      </c>
-      <c r="C10" t="s">
-        <v>87</v>
-      </c>
-      <c r="D10" t="s">
-        <v>116</v>
-      </c>
-      <c r="E10" t="s">
-        <v>4</v>
-      </c>
-      <c r="F10" t="s">
-        <v>58</v>
-      </c>
-      <c r="G10">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11">
-        <v>19330051920089</v>
-      </c>
-      <c r="B11" t="s">
-        <v>71</v>
-      </c>
-      <c r="C11" t="s">
-        <v>87</v>
-      </c>
-      <c r="D11" t="s">
-        <v>117</v>
-      </c>
-      <c r="E11" t="s">
-        <v>4</v>
-      </c>
-      <c r="F11" t="s">
-        <v>58</v>
-      </c>
-      <c r="G11">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12">
-        <v>19330051920097</v>
-      </c>
-      <c r="B12" t="s">
-        <v>76</v>
-      </c>
-      <c r="C12" t="s">
-        <v>98</v>
-      </c>
-      <c r="D12" t="s">
-        <v>122</v>
-      </c>
-      <c r="E12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F12" t="s">
-        <v>58</v>
-      </c>
-      <c r="G12">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13">
-        <v>19330051920103</v>
-      </c>
-      <c r="B13" t="s">
-        <v>81</v>
-      </c>
-      <c r="C13" t="s">
-        <v>103</v>
-      </c>
-      <c r="D13" t="s">
-        <v>129</v>
-      </c>
-      <c r="E13" t="s">
-        <v>4</v>
-      </c>
-      <c r="F13" t="s">
-        <v>58</v>
-      </c>
-      <c r="G13">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14">
-        <v>19330051920116</v>
-      </c>
-      <c r="B14" t="s">
-        <v>87</v>
-      </c>
-      <c r="C14" t="s">
-        <v>107</v>
-      </c>
-      <c r="D14" t="s">
-        <v>120</v>
-      </c>
-      <c r="E14" t="s">
-        <v>4</v>
-      </c>
-      <c r="F14" t="s">
-        <v>58</v>
-      </c>
-      <c r="G14">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15">
-        <v>19330051920117</v>
-      </c>
-      <c r="B15" t="s">
-        <v>88</v>
-      </c>
-      <c r="C15" t="s">
-        <v>74</v>
-      </c>
-      <c r="D15" t="s">
-        <v>137</v>
-      </c>
-      <c r="E15" t="s">
-        <v>4</v>
-      </c>
-      <c r="F15" t="s">
-        <v>58</v>
-      </c>
-      <c r="G15">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16">
-        <v>19330051920118</v>
-      </c>
-      <c r="B16" t="s">
-        <v>147</v>
-      </c>
-      <c r="C16" t="s">
-        <v>81</v>
-      </c>
-      <c r="D16" t="s">
-        <v>155</v>
-      </c>
-      <c r="E16" t="s">
-        <v>6</v>
-      </c>
-      <c r="F16" t="s">
-        <v>60</v>
-      </c>
-      <c r="G16">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17">
-        <v>19330051920121</v>
-      </c>
-      <c r="B17" t="s">
-        <v>92</v>
-      </c>
-      <c r="C17" t="s">
-        <v>111</v>
-      </c>
-      <c r="D17" t="s">
-        <v>141</v>
-      </c>
-      <c r="E17" t="s">
-        <v>4</v>
-      </c>
-      <c r="F17" t="s">
-        <v>58</v>
-      </c>
-      <c r="G17">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18">
-        <v>19330051920122</v>
-      </c>
-      <c r="B18" t="s">
-        <v>93</v>
-      </c>
-      <c r="C18" t="s">
-        <v>112</v>
-      </c>
-      <c r="D18" t="s">
-        <v>142</v>
-      </c>
-      <c r="E18" t="s">
-        <v>4</v>
-      </c>
-      <c r="F18" t="s">
-        <v>58</v>
-      </c>
-      <c r="G18">
-        <v>-1</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/grupos/4BEM - Estadisticos 2020.xlsx
+++ b/grupos/4BEM - Estadisticos 2020.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1496" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1046" uniqueCount="156">
   <si>
     <t>Materia</t>
   </si>
@@ -194,16 +194,16 @@
     <t>Por_Blancos</t>
   </si>
   <si>
+    <t>Fernández Castro Araceli</t>
+  </si>
+  <si>
+    <t>Jimenez Nieto Enrique</t>
+  </si>
+  <si>
+    <t>González Sánchez Rene Aurelio</t>
+  </si>
+  <si>
     <t>Rodríguez Román Leticia</t>
-  </si>
-  <si>
-    <t>Fernández Castro Araceli</t>
-  </si>
-  <si>
-    <t>González Sánchez Rene Aurelio</t>
-  </si>
-  <si>
-    <t>Jimenez Nieto Enrique</t>
   </si>
   <si>
     <t>Velasco Sanchez David</t>
@@ -984,7 +984,7 @@
         <v>-1</v>
       </c>
       <c r="J4">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="K4">
         <v>-1</v>
@@ -993,7 +993,7 @@
         <v>-1</v>
       </c>
       <c r="M4">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="N4">
         <v>10</v>
@@ -1028,7 +1028,7 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="C5">
         <v>6</v>
@@ -1052,7 +1052,7 @@
         <v>-1</v>
       </c>
       <c r="J5">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="K5">
         <v>-1</v>
@@ -1061,10 +1061,10 @@
         <v>-1</v>
       </c>
       <c r="M5">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="N5">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="O5">
         <v>-1</v>
@@ -1096,7 +1096,7 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="C6">
         <v>8</v>
@@ -1120,7 +1120,7 @@
         <v>-1</v>
       </c>
       <c r="J6">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="K6">
         <v>-1</v>
@@ -1129,10 +1129,10 @@
         <v>-1</v>
       </c>
       <c r="M6">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="N6">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="O6">
         <v>-1</v>
@@ -1164,7 +1164,7 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="C7">
         <v>6</v>
@@ -1188,7 +1188,7 @@
         <v>-1</v>
       </c>
       <c r="J7">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="K7">
         <v>-1</v>
@@ -1197,10 +1197,10 @@
         <v>-1</v>
       </c>
       <c r="M7">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="N7">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="O7">
         <v>-1</v>
@@ -1232,7 +1232,7 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="C8">
         <v>7</v>
@@ -1256,7 +1256,7 @@
         <v>-1</v>
       </c>
       <c r="J8">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="K8">
         <v>-1</v>
@@ -1265,10 +1265,10 @@
         <v>-1</v>
       </c>
       <c r="M8">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="N8">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="O8">
         <v>-1</v>
@@ -1300,7 +1300,7 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="C9">
         <v>6</v>
@@ -1312,7 +1312,7 @@
         <v>5</v>
       </c>
       <c r="F9">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="G9">
         <v>10</v>
@@ -1336,7 +1336,7 @@
         <v>-1</v>
       </c>
       <c r="N9">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="O9">
         <v>-1</v>
@@ -1368,7 +1368,7 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="C10">
         <v>7</v>
@@ -1404,7 +1404,7 @@
         <v>-1</v>
       </c>
       <c r="N10">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="O10">
         <v>-1</v>
@@ -1460,7 +1460,7 @@
         <v>-1</v>
       </c>
       <c r="J11">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="K11">
         <v>-1</v>
@@ -1469,10 +1469,10 @@
         <v>-1</v>
       </c>
       <c r="M11">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="N11">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="O11">
         <v>-1</v>
@@ -1504,7 +1504,7 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="C12">
         <v>5</v>
@@ -1516,7 +1516,7 @@
         <v>5</v>
       </c>
       <c r="F12">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="G12">
         <v>8</v>
@@ -1528,7 +1528,7 @@
         <v>-1</v>
       </c>
       <c r="J12">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="K12">
         <v>-1</v>
@@ -1540,7 +1540,7 @@
         <v>-1</v>
       </c>
       <c r="N12">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="O12">
         <v>-1</v>
@@ -1572,7 +1572,7 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="C13">
         <v>7</v>
@@ -1596,7 +1596,7 @@
         <v>-1</v>
       </c>
       <c r="J13">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="K13">
         <v>-1</v>
@@ -1608,7 +1608,7 @@
         <v>-1</v>
       </c>
       <c r="N13">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="O13">
         <v>-1</v>
@@ -1640,7 +1640,7 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="C14">
         <v>5</v>
@@ -1664,7 +1664,7 @@
         <v>-1</v>
       </c>
       <c r="J14">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="K14">
         <v>-1</v>
@@ -1676,7 +1676,7 @@
         <v>-1</v>
       </c>
       <c r="N14">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="O14">
         <v>-1</v>
@@ -1708,7 +1708,7 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="C15">
         <v>8</v>
@@ -1732,7 +1732,7 @@
         <v>-1</v>
       </c>
       <c r="J15">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="K15">
         <v>-1</v>
@@ -1741,10 +1741,10 @@
         <v>-1</v>
       </c>
       <c r="M15">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="N15">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="O15">
         <v>-1</v>
@@ -1776,7 +1776,7 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="C16">
         <v>5</v>
@@ -1800,7 +1800,7 @@
         <v>-1</v>
       </c>
       <c r="J16">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="K16">
         <v>-1</v>
@@ -1812,7 +1812,7 @@
         <v>-1</v>
       </c>
       <c r="N16">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="O16">
         <v>-1</v>
@@ -1844,7 +1844,7 @@
         <v>25</v>
       </c>
       <c r="B17">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="C17">
         <v>6</v>
@@ -1856,7 +1856,7 @@
         <v>5</v>
       </c>
       <c r="F17">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="G17">
         <v>10</v>
@@ -1868,7 +1868,7 @@
         <v>-1</v>
       </c>
       <c r="J17">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="K17">
         <v>-1</v>
@@ -1880,7 +1880,7 @@
         <v>-1</v>
       </c>
       <c r="N17">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="O17">
         <v>-1</v>
@@ -1933,10 +1933,10 @@
         <v>10</v>
       </c>
       <c r="I18">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="J18">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="K18">
         <v>-1</v>
@@ -1945,10 +1945,10 @@
         <v>-1</v>
       </c>
       <c r="M18">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="N18">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="O18">
         <v>-1</v>
@@ -1980,7 +1980,7 @@
         <v>27</v>
       </c>
       <c r="B19">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="C19">
         <v>6</v>
@@ -1992,7 +1992,7 @@
         <v>8</v>
       </c>
       <c r="F19">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="G19">
         <v>8</v>
@@ -2016,7 +2016,7 @@
         <v>-1</v>
       </c>
       <c r="N19">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="O19">
         <v>-1</v>
@@ -2048,7 +2048,7 @@
         <v>28</v>
       </c>
       <c r="B20">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="C20">
         <v>6</v>
@@ -2072,7 +2072,7 @@
         <v>-1</v>
       </c>
       <c r="J20">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="K20">
         <v>-1</v>
@@ -2081,10 +2081,10 @@
         <v>-1</v>
       </c>
       <c r="M20">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="N20">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="O20">
         <v>-1</v>
@@ -2116,7 +2116,7 @@
         <v>29</v>
       </c>
       <c r="B21">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="C21">
         <v>8</v>
@@ -2140,7 +2140,7 @@
         <v>-1</v>
       </c>
       <c r="J21">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="K21">
         <v>-1</v>
@@ -2149,10 +2149,10 @@
         <v>-1</v>
       </c>
       <c r="M21">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="N21">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="O21">
         <v>-1</v>
@@ -2184,7 +2184,7 @@
         <v>30</v>
       </c>
       <c r="B22">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="C22">
         <v>7</v>
@@ -2196,7 +2196,7 @@
         <v>5</v>
       </c>
       <c r="F22">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="G22">
         <v>8</v>
@@ -2208,7 +2208,7 @@
         <v>-1</v>
       </c>
       <c r="J22">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="K22">
         <v>-1</v>
@@ -2220,7 +2220,7 @@
         <v>-1</v>
       </c>
       <c r="N22">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="O22">
         <v>-1</v>
@@ -2273,10 +2273,10 @@
         <v>10</v>
       </c>
       <c r="I23">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="J23">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K23">
         <v>-1</v>
@@ -2285,7 +2285,7 @@
         <v>-1</v>
       </c>
       <c r="M23">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="N23">
         <v>10</v>
@@ -2332,7 +2332,7 @@
         <v>5</v>
       </c>
       <c r="F24">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="G24">
         <v>8</v>
@@ -2341,10 +2341,10 @@
         <v>-1</v>
       </c>
       <c r="I24">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="J24">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="K24">
         <v>-1</v>
@@ -2356,7 +2356,7 @@
         <v>-1</v>
       </c>
       <c r="N24">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="O24">
         <v>-1</v>
@@ -2388,7 +2388,7 @@
         <v>33</v>
       </c>
       <c r="B25">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="C25">
         <v>5</v>
@@ -2400,7 +2400,7 @@
         <v>5</v>
       </c>
       <c r="F25">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="G25">
         <v>10</v>
@@ -2412,7 +2412,7 @@
         <v>-1</v>
       </c>
       <c r="J25">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="K25">
         <v>-1</v>
@@ -2424,7 +2424,7 @@
         <v>-1</v>
       </c>
       <c r="N25">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="O25">
         <v>-1</v>
@@ -2456,7 +2456,7 @@
         <v>34</v>
       </c>
       <c r="B26">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="C26">
         <v>5</v>
@@ -2468,7 +2468,7 @@
         <v>5</v>
       </c>
       <c r="F26">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="G26">
         <v>10</v>
@@ -2480,7 +2480,7 @@
         <v>-1</v>
       </c>
       <c r="J26">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="K26">
         <v>-1</v>
@@ -2492,7 +2492,7 @@
         <v>-1</v>
       </c>
       <c r="N26">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="O26">
         <v>-1</v>
@@ -2524,7 +2524,7 @@
         <v>35</v>
       </c>
       <c r="B27">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="C27">
         <v>7</v>
@@ -2548,7 +2548,7 @@
         <v>-1</v>
       </c>
       <c r="J27">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="K27">
         <v>-1</v>
@@ -2557,7 +2557,7 @@
         <v>-1</v>
       </c>
       <c r="M27">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="N27">
         <v>10</v>
@@ -2592,7 +2592,7 @@
         <v>36</v>
       </c>
       <c r="B28">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="C28">
         <v>6</v>
@@ -2604,7 +2604,7 @@
         <v>5</v>
       </c>
       <c r="F28">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="G28">
         <v>8</v>
@@ -2628,7 +2628,7 @@
         <v>-1</v>
       </c>
       <c r="N28">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="O28">
         <v>-1</v>
@@ -2660,7 +2660,7 @@
         <v>37</v>
       </c>
       <c r="B29">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="C29">
         <v>5</v>
@@ -2672,7 +2672,7 @@
         <v>5</v>
       </c>
       <c r="F29">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="G29">
         <v>8</v>
@@ -2684,7 +2684,7 @@
         <v>-1</v>
       </c>
       <c r="J29">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="K29">
         <v>-1</v>
@@ -2696,7 +2696,7 @@
         <v>-1</v>
       </c>
       <c r="N29">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="O29">
         <v>-1</v>
@@ -2728,7 +2728,7 @@
         <v>38</v>
       </c>
       <c r="B30">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="C30">
         <v>7</v>
@@ -2752,7 +2752,7 @@
         <v>-1</v>
       </c>
       <c r="J30">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="K30">
         <v>-1</v>
@@ -2761,10 +2761,10 @@
         <v>-1</v>
       </c>
       <c r="M30">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="N30">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="O30">
         <v>-1</v>
@@ -2817,10 +2817,10 @@
         <v>6</v>
       </c>
       <c r="I31">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="J31">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="K31">
         <v>-1</v>
@@ -2829,10 +2829,10 @@
         <v>-1</v>
       </c>
       <c r="M31">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="N31">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="O31">
         <v>-1</v>
@@ -2864,7 +2864,7 @@
         <v>40</v>
       </c>
       <c r="B32">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="C32">
         <v>6</v>
@@ -2888,7 +2888,7 @@
         <v>-1</v>
       </c>
       <c r="J32">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="K32">
         <v>-1</v>
@@ -2897,10 +2897,10 @@
         <v>-1</v>
       </c>
       <c r="M32">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="N32">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="O32">
         <v>-1</v>
@@ -2932,7 +2932,7 @@
         <v>41</v>
       </c>
       <c r="B33">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="C33">
         <v>5</v>
@@ -2944,7 +2944,7 @@
         <v>5</v>
       </c>
       <c r="F33">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="G33">
         <v>10</v>
@@ -2956,7 +2956,7 @@
         <v>-1</v>
       </c>
       <c r="J33">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="K33">
         <v>-1</v>
@@ -2968,7 +2968,7 @@
         <v>-1</v>
       </c>
       <c r="N33">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="O33">
         <v>-1</v>
@@ -3000,7 +3000,7 @@
         <v>42</v>
       </c>
       <c r="B34">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="C34">
         <v>6</v>
@@ -3024,7 +3024,7 @@
         <v>-1</v>
       </c>
       <c r="J34">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="K34">
         <v>-1</v>
@@ -3036,7 +3036,7 @@
         <v>-1</v>
       </c>
       <c r="N34">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="O34">
         <v>-1</v>
@@ -3092,7 +3092,7 @@
         <v>-1</v>
       </c>
       <c r="J35">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="K35">
         <v>-1</v>
@@ -3101,10 +3101,10 @@
         <v>-1</v>
       </c>
       <c r="M35">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="N35">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="O35">
         <v>-1</v>
@@ -3136,7 +3136,7 @@
         <v>44</v>
       </c>
       <c r="B36">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="C36">
         <v>6</v>
@@ -3148,7 +3148,7 @@
         <v>5</v>
       </c>
       <c r="F36">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="G36">
         <v>8</v>
@@ -3160,7 +3160,7 @@
         <v>-1</v>
       </c>
       <c r="J36">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="K36">
         <v>-1</v>
@@ -3172,7 +3172,7 @@
         <v>-1</v>
       </c>
       <c r="N36">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="O36">
         <v>-1</v>
@@ -3225,10 +3225,10 @@
         <v>-1</v>
       </c>
       <c r="I37">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="J37">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="K37">
         <v>-1</v>
@@ -3240,7 +3240,7 @@
         <v>-1</v>
       </c>
       <c r="N37">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="O37">
         <v>-1</v>
@@ -3272,7 +3272,7 @@
         <v>46</v>
       </c>
       <c r="B38">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="C38">
         <v>7</v>
@@ -3296,7 +3296,7 @@
         <v>-1</v>
       </c>
       <c r="J38">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="K38">
         <v>-1</v>
@@ -3305,10 +3305,10 @@
         <v>-1</v>
       </c>
       <c r="M38">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="N38">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="O38">
         <v>-1</v>
@@ -3340,7 +3340,7 @@
         <v>47</v>
       </c>
       <c r="B39">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="C39">
         <v>7</v>
@@ -3364,7 +3364,7 @@
         <v>-1</v>
       </c>
       <c r="J39">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="K39">
         <v>-1</v>
@@ -3373,10 +3373,10 @@
         <v>-1</v>
       </c>
       <c r="M39">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="N39">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="O39">
         <v>-1</v>
@@ -3408,7 +3408,7 @@
         <v>48</v>
       </c>
       <c r="B40">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="C40">
         <v>5</v>
@@ -3420,7 +3420,7 @@
         <v>5</v>
       </c>
       <c r="F40">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="G40">
         <v>10</v>
@@ -3432,7 +3432,7 @@
         <v>-1</v>
       </c>
       <c r="J40">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="K40">
         <v>-1</v>
@@ -3444,7 +3444,7 @@
         <v>-1</v>
       </c>
       <c r="N40">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="O40">
         <v>-1</v>
@@ -3526,7 +3526,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
         <v>58</v>
@@ -3535,30 +3535,27 @@
         <v>37</v>
       </c>
       <c r="D2">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E2">
+        <v>37</v>
+      </c>
+      <c r="F2">
         <v>0</v>
       </c>
-      <c r="F2">
-        <v>21.62</v>
-      </c>
       <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>6.9</v>
+        <v>100</v>
       </c>
       <c r="I2">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="J2">
-        <v>78.38</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
         <v>59</v>
@@ -3567,25 +3564,22 @@
         <v>37</v>
       </c>
       <c r="D3">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F3">
-        <v>54.05</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>45.95</v>
-      </c>
-      <c r="H3">
-        <v>6.9</v>
+        <v>64.86</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -3599,30 +3593,27 @@
         <v>37</v>
       </c>
       <c r="D4">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="F4">
-        <v>54.05</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>32.43</v>
-      </c>
-      <c r="H4">
-        <v>6.1</v>
+        <v>86.48999999999999</v>
       </c>
       <c r="I4">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="J4">
-        <v>13.51</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>61</v>
@@ -3631,25 +3622,25 @@
         <v>37</v>
       </c>
       <c r="D5">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="F5">
-        <v>64.86</v>
+        <v>10.81</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>89.19</v>
       </c>
       <c r="H5">
-        <v>8.199999999999999</v>
+        <v>6.8</v>
       </c>
       <c r="I5">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="J5">
-        <v>35.14</v>
+        <v>86.48999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -3663,25 +3654,25 @@
         <v>37</v>
       </c>
       <c r="D6">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="F6">
-        <v>64.86</v>
+        <v>48.65</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>51.35</v>
       </c>
       <c r="H6">
         <v>8.300000000000001</v>
       </c>
       <c r="I6">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="J6">
-        <v>35.14</v>
+        <v>51.35</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -3695,25 +3686,25 @@
         <v>37</v>
       </c>
       <c r="D7">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E7">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F7">
-        <v>78.38</v>
+        <v>67.56999999999999</v>
       </c>
       <c r="G7">
-        <v>21.62</v>
+        <v>32.43</v>
       </c>
       <c r="H7">
-        <v>6.4</v>
+        <v>6.9</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>10.81</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -3739,7 +3730,7 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>8.6</v>
+        <v>6.9</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -3755,7 +3746,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F257"/>
+  <dimension ref="A1:F167"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3799,10 +3790,10 @@
         <v>121</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -3819,10 +3810,10 @@
         <v>121</v>
       </c>
       <c r="E3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -3842,7 +3833,7 @@
         <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -3859,27 +3850,27 @@
         <v>121</v>
       </c>
       <c r="E5" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F5" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
-        <v>19330051920085</v>
+        <v>19330051920084</v>
       </c>
       <c r="B6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D6" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E6" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F6" t="s">
         <v>58</v>
@@ -3887,39 +3878,39 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
-        <v>19330051920085</v>
+        <v>19330051920084</v>
       </c>
       <c r="B7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E7" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F7" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
-        <v>19330051920085</v>
+        <v>19330051920084</v>
       </c>
       <c r="B8" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C8" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D8" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E8" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F8" t="s">
         <v>59</v>
@@ -3939,27 +3930,27 @@
         <v>122</v>
       </c>
       <c r="E9" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10">
-        <v>19330051920084</v>
+        <v>19330051920088</v>
       </c>
       <c r="B10" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C10" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D10" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E10" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F10" t="s">
         <v>59</v>
@@ -3967,16 +3958,16 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11">
-        <v>19330051920084</v>
+        <v>19330051920088</v>
       </c>
       <c r="B11" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C11" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D11" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E11" t="s">
         <v>6</v>
@@ -3987,119 +3978,119 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12">
-        <v>19330051920084</v>
+        <v>19330051920088</v>
       </c>
       <c r="B12" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C12" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D12" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E12" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F12" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13">
-        <v>19330051920084</v>
+        <v>19330051920088</v>
       </c>
       <c r="B13" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C13" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D13" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F13" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14">
-        <v>19330051920084</v>
+        <v>19330051920090</v>
       </c>
       <c r="B14" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C14" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="D14" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F14" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15">
-        <v>19330051920088</v>
+        <v>19330051920090</v>
       </c>
       <c r="B15" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C15" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="D15" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E15" t="s">
         <v>4</v>
       </c>
       <c r="F15" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16">
-        <v>19330051920088</v>
+        <v>19330051920090</v>
       </c>
       <c r="B16" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C16" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="D16" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E16" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F16" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17">
-        <v>19330051920088</v>
+        <v>19330051920090</v>
       </c>
       <c r="B17" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C17" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="D17" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E17" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F17" t="s">
         <v>59</v>
@@ -4107,196 +4098,196 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18">
-        <v>19330051920088</v>
+        <v>19330051920089</v>
       </c>
       <c r="B18" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C18" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="D18" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E18" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19">
-        <v>19330051920088</v>
+        <v>19330051920089</v>
       </c>
       <c r="B19" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C19" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="D19" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E19" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F19" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20">
-        <v>19330051920088</v>
+        <v>19330051920089</v>
       </c>
       <c r="B20" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C20" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="D20" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F20" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21">
-        <v>19330051920088</v>
+        <v>19330051920089</v>
       </c>
       <c r="B21" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C21" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="D21" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E21" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22">
-        <v>19330051920090</v>
+        <v>19330051920092</v>
       </c>
       <c r="B22" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C22" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="D22" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E22" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F22" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23">
-        <v>19330051920090</v>
+        <v>19330051920092</v>
       </c>
       <c r="B23" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C23" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="D23" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E23" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F23" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24">
-        <v>19330051920090</v>
+        <v>19330051920092</v>
       </c>
       <c r="B24" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C24" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="D24" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F24" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25">
-        <v>19330051920090</v>
+        <v>19330051920092</v>
       </c>
       <c r="B25" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C25" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="D25" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E25" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F25" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26">
-        <v>19330051920090</v>
+        <v>19330051920092</v>
       </c>
       <c r="B26" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C26" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="D26" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F26" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27">
-        <v>19330051920090</v>
+        <v>19330051920092</v>
       </c>
       <c r="B27" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C27" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="D27" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E27" t="s">
         <v>5</v>
@@ -4307,79 +4298,79 @@
     </row>
     <row r="28" spans="1:6">
       <c r="A28">
-        <v>19330051920090</v>
+        <v>19330051920091</v>
       </c>
       <c r="B28" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C28" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="D28" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="E28" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F28" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29">
-        <v>19330051920089</v>
+        <v>19330051920091</v>
       </c>
       <c r="B29" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C29" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="D29" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E29" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F29" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30">
-        <v>19330051920089</v>
+        <v>19330051920091</v>
       </c>
       <c r="B30" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C30" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="D30" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E30" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F30" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31">
-        <v>19330051920089</v>
+        <v>19330051920091</v>
       </c>
       <c r="B31" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C31" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="D31" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E31" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F31" t="s">
         <v>59</v>
@@ -4387,139 +4378,139 @@
     </row>
     <row r="32" spans="1:6">
       <c r="A32">
-        <v>19330051920089</v>
+        <v>19330051920091</v>
       </c>
       <c r="B32" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C32" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="D32" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E32" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F32" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33">
-        <v>19330051920089</v>
+        <v>19330051920091</v>
       </c>
       <c r="B33" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C33" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="D33" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E33" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F33" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34">
-        <v>19330051920089</v>
+        <v>19330051920093</v>
       </c>
       <c r="B34" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C34" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D34" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E34" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35">
-        <v>19330051920089</v>
+        <v>19330051920093</v>
       </c>
       <c r="B35" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C35" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D35" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E35" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F35" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36">
-        <v>19330051920092</v>
+        <v>19330051920093</v>
       </c>
       <c r="B36" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C36" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="D36" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E36" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F36" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37">
-        <v>19330051920092</v>
+        <v>19330051920093</v>
       </c>
       <c r="B37" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C37" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="D37" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E37" t="s">
         <v>7</v>
       </c>
       <c r="F37" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38">
-        <v>19330051920092</v>
+        <v>19330051920094</v>
       </c>
       <c r="B38" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C38" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="D38" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F38" t="s">
         <v>61</v>
@@ -4527,19 +4518,19 @@
     </row>
     <row r="39" spans="1:6">
       <c r="A39">
-        <v>19330051920092</v>
+        <v>19330051920094</v>
       </c>
       <c r="B39" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C39" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="D39" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="E39" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F39" t="s">
         <v>58</v>
@@ -4547,119 +4538,119 @@
     </row>
     <row r="40" spans="1:6">
       <c r="A40">
-        <v>19330051920092</v>
+        <v>19330051920094</v>
       </c>
       <c r="B40" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C40" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="D40" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="E40" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F40" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41">
-        <v>19330051920092</v>
+        <v>19330051920094</v>
       </c>
       <c r="B41" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C41" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="D41" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="E41" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42">
-        <v>19330051920092</v>
+        <v>19330051920094</v>
       </c>
       <c r="B42" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C42" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="D42" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="E42" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F42" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43">
-        <v>19330051920091</v>
+        <v>19330051920095</v>
       </c>
       <c r="B43" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C43" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="D43" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="E43" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F43" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44">
-        <v>19330051920091</v>
+        <v>19330051920095</v>
       </c>
       <c r="B44" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C44" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="D44" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="E44" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F44" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45">
-        <v>19330051920091</v>
+        <v>19330051920095</v>
       </c>
       <c r="B45" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C45" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="D45" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="E45" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F45" t="s">
         <v>59</v>
@@ -4667,336 +4658,336 @@
     </row>
     <row r="46" spans="1:6">
       <c r="A46">
-        <v>19330051920091</v>
+        <v>19330051920095</v>
       </c>
       <c r="B46" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C46" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="D46" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="E46" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F46" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47">
-        <v>19330051920091</v>
+        <v>19330051920095</v>
       </c>
       <c r="B47" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C47" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="D47" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="E47" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F47" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48">
-        <v>19330051920091</v>
+        <v>19330051920097</v>
       </c>
       <c r="B48" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C48" t="s">
-        <v>83</v>
+        <v>104</v>
       </c>
       <c r="D48" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E48" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49">
-        <v>19330051920091</v>
+        <v>19330051920097</v>
       </c>
       <c r="B49" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C49" t="s">
-        <v>83</v>
+        <v>104</v>
       </c>
       <c r="D49" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E49" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F49" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50">
-        <v>19330051920093</v>
+        <v>19330051920097</v>
       </c>
       <c r="B50" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C50" t="s">
-        <v>88</v>
+        <v>104</v>
       </c>
       <c r="D50" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="E50" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F50" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51">
-        <v>19330051920093</v>
+        <v>19330051920097</v>
       </c>
       <c r="B51" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C51" t="s">
-        <v>88</v>
+        <v>104</v>
       </c>
       <c r="D51" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="E51" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F51" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52">
-        <v>19330051920093</v>
+        <v>19330051920098</v>
       </c>
       <c r="B52" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C52" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="D52" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E52" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F52" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53">
-        <v>19330051920093</v>
+        <v>19330051920098</v>
       </c>
       <c r="B53" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C53" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="D53" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E53" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54">
-        <v>19330051920093</v>
+        <v>19330051920098</v>
       </c>
       <c r="B54" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C54" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="D54" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E54" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F54" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55">
-        <v>19330051920093</v>
+        <v>19330051920098</v>
       </c>
       <c r="B55" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C55" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="D55" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E55" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F55" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56">
-        <v>19330051920093</v>
+        <v>19330051920098</v>
       </c>
       <c r="B56" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C56" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="D56" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E56" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F56" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57">
-        <v>19330051920094</v>
+        <v>19330051920099</v>
       </c>
       <c r="B57" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C57" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D57" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E57" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F57" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58">
-        <v>19330051920094</v>
+        <v>19330051920099</v>
       </c>
       <c r="B58" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C58" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D58" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E58" t="s">
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59">
-        <v>19330051920094</v>
+        <v>19330051920099</v>
       </c>
       <c r="B59" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C59" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D59" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E59" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F59" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60">
-        <v>19330051920094</v>
+        <v>19330051920099</v>
       </c>
       <c r="B60" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C60" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D60" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E60" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F60" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61">
-        <v>19330051920094</v>
+        <v>19330051920099</v>
       </c>
       <c r="B61" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C61" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D61" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E61" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F61" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62">
-        <v>19330051920094</v>
+        <v>19330051920100</v>
       </c>
       <c r="B62" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C62" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D62" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="E62" t="s">
         <v>6</v>
@@ -5007,196 +4998,196 @@
     </row>
     <row r="63" spans="1:6">
       <c r="A63">
-        <v>19330051920094</v>
+        <v>19330051920100</v>
       </c>
       <c r="B63" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C63" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D63" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="E63" t="s">
         <v>7</v>
       </c>
       <c r="F63" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64">
-        <v>19330051920095</v>
+        <v>19330051920100</v>
       </c>
       <c r="B64" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C64" t="s">
-        <v>88</v>
+        <v>106</v>
       </c>
       <c r="D64" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E64" t="s">
         <v>10</v>
       </c>
       <c r="F64" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65">
-        <v>19330051920095</v>
+        <v>19330051920096</v>
       </c>
       <c r="B65" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C65" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="D65" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="E65" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F65" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66">
-        <v>19330051920095</v>
+        <v>19330051920096</v>
       </c>
       <c r="B66" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C66" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="D66" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="E66" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F66" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67">
-        <v>19330051920095</v>
+        <v>19330051920096</v>
       </c>
       <c r="B67" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C67" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="D67" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="E67" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F67" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68">
-        <v>19330051920095</v>
+        <v>19330051920096</v>
       </c>
       <c r="B68" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C68" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="D68" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="E68" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69">
-        <v>19330051920095</v>
+        <v>19330051920096</v>
       </c>
       <c r="B69" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C69" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="D69" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="E69" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F69" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70">
-        <v>19330051920095</v>
+        <v>19330051920101</v>
       </c>
       <c r="B70" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C70" t="s">
-        <v>88</v>
+        <v>107</v>
       </c>
       <c r="D70" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="E70" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F70" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71">
-        <v>19330051920097</v>
+        <v>19330051920101</v>
       </c>
       <c r="B71" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C71" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D71" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="E71" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F71" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72">
-        <v>19330051920097</v>
+        <v>19330051920101</v>
       </c>
       <c r="B72" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C72" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D72" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="E72" t="s">
         <v>6</v>
@@ -5207,156 +5198,156 @@
     </row>
     <row r="73" spans="1:6">
       <c r="A73">
-        <v>19330051920097</v>
+        <v>19330051920101</v>
       </c>
       <c r="B73" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C73" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D73" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="E73" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F73" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74">
-        <v>19330051920097</v>
+        <v>19330051920101</v>
       </c>
       <c r="B74" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C74" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D74" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="E74" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F74" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75">
-        <v>19330051920097</v>
+        <v>19330051920101</v>
       </c>
       <c r="B75" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C75" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D75" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="E75" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F75" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76">
-        <v>19330051920097</v>
+        <v>19330051920102</v>
       </c>
       <c r="B76" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C76" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="D76" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="E76" t="s">
         <v>4</v>
       </c>
       <c r="F76" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="A77">
-        <v>19330051920097</v>
+        <v>19330051920102</v>
       </c>
       <c r="B77" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C77" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="D77" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="E77" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F77" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78">
-        <v>19330051920098</v>
+        <v>19330051920102</v>
       </c>
       <c r="B78" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C78" t="s">
-        <v>77</v>
+        <v>108</v>
       </c>
       <c r="D78" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="E78" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F78" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="79" spans="1:6">
       <c r="A79">
-        <v>19330051920098</v>
+        <v>19330051920102</v>
       </c>
       <c r="B79" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C79" t="s">
-        <v>77</v>
+        <v>108</v>
       </c>
       <c r="D79" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="E79" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F79" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="A80">
-        <v>19330051920098</v>
+        <v>19330051920105</v>
       </c>
       <c r="B80" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C80" t="s">
-        <v>77</v>
+        <v>109</v>
       </c>
       <c r="D80" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="E80" t="s">
         <v>6</v>
@@ -5367,176 +5358,176 @@
     </row>
     <row r="81" spans="1:6">
       <c r="A81">
-        <v>19330051920098</v>
+        <v>19330051920105</v>
       </c>
       <c r="B81" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C81" t="s">
-        <v>77</v>
+        <v>109</v>
       </c>
       <c r="D81" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="E81" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F81" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="A82">
-        <v>19330051920098</v>
+        <v>19330051920105</v>
       </c>
       <c r="B82" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C82" t="s">
-        <v>77</v>
+        <v>109</v>
       </c>
       <c r="D82" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="E82" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F82" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="83" spans="1:6">
       <c r="A83">
-        <v>19330051920098</v>
+        <v>19330051920105</v>
       </c>
       <c r="B83" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C83" t="s">
-        <v>77</v>
+        <v>109</v>
       </c>
       <c r="D83" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="E83" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F83" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="84" spans="1:6">
       <c r="A84">
-        <v>19330051920098</v>
+        <v>19330051920105</v>
       </c>
       <c r="B84" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C84" t="s">
-        <v>77</v>
+        <v>109</v>
       </c>
       <c r="D84" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="E84" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F84" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="85" spans="1:6">
       <c r="A85">
-        <v>19330051920099</v>
+        <v>19330051920103</v>
       </c>
       <c r="B85" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C85" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="D85" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="E85" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F85" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="86" spans="1:6">
       <c r="A86">
-        <v>19330051920099</v>
+        <v>19330051920103</v>
       </c>
       <c r="B86" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C86" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="D86" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="E86" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F86" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="87" spans="1:6">
       <c r="A87">
-        <v>19330051920099</v>
+        <v>19330051920103</v>
       </c>
       <c r="B87" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C87" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="D87" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="E87" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F87" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="88" spans="1:6">
       <c r="A88">
-        <v>19330051920099</v>
+        <v>19330051920103</v>
       </c>
       <c r="B88" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C88" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="D88" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="E88" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F88" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="89" spans="1:6">
       <c r="A89">
-        <v>19330051920099</v>
+        <v>19330051920106</v>
       </c>
       <c r="B89" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C89" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="D89" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="E89" t="s">
         <v>6</v>
@@ -5547,159 +5538,159 @@
     </row>
     <row r="90" spans="1:6">
       <c r="A90">
-        <v>19330051920099</v>
+        <v>19330051920106</v>
       </c>
       <c r="B90" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C90" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="D90" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="E90" t="s">
         <v>7</v>
       </c>
       <c r="F90" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="91" spans="1:6">
       <c r="A91">
-        <v>19330051920099</v>
+        <v>19330051920106</v>
       </c>
       <c r="B91" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C91" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="D91" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="E91" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F91" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="92" spans="1:6">
       <c r="A92">
-        <v>19330051920100</v>
+        <v>19330051920107</v>
       </c>
       <c r="B92" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="C92" t="s">
-        <v>106</v>
+        <v>77</v>
       </c>
       <c r="D92" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="E92" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F92" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="93" spans="1:6">
       <c r="A93">
-        <v>19330051920100</v>
+        <v>19330051920107</v>
       </c>
       <c r="B93" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="C93" t="s">
-        <v>106</v>
+        <v>77</v>
       </c>
       <c r="D93" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="E93" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F93" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="94" spans="1:6">
       <c r="A94">
-        <v>19330051920100</v>
+        <v>19330051920107</v>
       </c>
       <c r="B94" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="C94" t="s">
-        <v>106</v>
+        <v>77</v>
       </c>
       <c r="D94" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="E94" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F94" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="95" spans="1:6">
       <c r="A95">
-        <v>19330051920100</v>
+        <v>19330051920107</v>
       </c>
       <c r="B95" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="C95" t="s">
-        <v>106</v>
+        <v>77</v>
       </c>
       <c r="D95" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="E95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F95" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="96" spans="1:6">
       <c r="A96">
-        <v>19330051920100</v>
+        <v>19330051920109</v>
       </c>
       <c r="B96" t="s">
+        <v>86</v>
+      </c>
+      <c r="C96" t="s">
         <v>79</v>
       </c>
-      <c r="C96" t="s">
-        <v>106</v>
-      </c>
       <c r="D96" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="E96" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F96" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="97" spans="1:6">
       <c r="A97">
-        <v>19330051920100</v>
+        <v>19330051920109</v>
       </c>
       <c r="B97" t="s">
+        <v>86</v>
+      </c>
+      <c r="C97" t="s">
         <v>79</v>
       </c>
-      <c r="C97" t="s">
-        <v>106</v>
-      </c>
       <c r="D97" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="E97" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F97" t="s">
         <v>59</v>
@@ -5707,199 +5698,199 @@
     </row>
     <row r="98" spans="1:6">
       <c r="A98">
-        <v>19330051920100</v>
+        <v>19330051920109</v>
       </c>
       <c r="B98" t="s">
+        <v>86</v>
+      </c>
+      <c r="C98" t="s">
         <v>79</v>
       </c>
-      <c r="C98" t="s">
-        <v>106</v>
-      </c>
       <c r="D98" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="E98" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F98" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="99" spans="1:6">
       <c r="A99">
-        <v>19330051920096</v>
+        <v>19330051920109</v>
       </c>
       <c r="B99" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="C99" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D99" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="E99" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F99" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="100" spans="1:6">
       <c r="A100">
-        <v>19330051920096</v>
+        <v>19330051920109</v>
       </c>
       <c r="B100" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="C100" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D100" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="E100" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F100" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="101" spans="1:6">
       <c r="A101">
-        <v>19330051920096</v>
+        <v>19330051920111</v>
       </c>
       <c r="B101" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="C101" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D101" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="E101" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F101" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="102" spans="1:6">
       <c r="A102">
-        <v>19330051920096</v>
+        <v>19330051920111</v>
       </c>
       <c r="B102" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="C102" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D102" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="E102" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F102" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="103" spans="1:6">
       <c r="A103">
-        <v>19330051920096</v>
+        <v>19330051920111</v>
       </c>
       <c r="B103" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="C103" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D103" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="E103" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F103" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="104" spans="1:6">
       <c r="A104">
-        <v>19330051920096</v>
+        <v>19330051920111</v>
       </c>
       <c r="B104" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="C104" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D104" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="E104" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F104" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="105" spans="1:6">
       <c r="A105">
-        <v>19330051920096</v>
+        <v>19330051920111</v>
       </c>
       <c r="B105" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="C105" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D105" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="E105" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F105" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="106" spans="1:6">
       <c r="A106">
-        <v>19330051920101</v>
+        <v>19330051920110</v>
       </c>
       <c r="B106" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="C106" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="D106" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="E106" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F106" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="107" spans="1:6">
       <c r="A107">
-        <v>19330051920101</v>
+        <v>19330051920110</v>
       </c>
       <c r="B107" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="C107" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="D107" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="E107" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F107" t="s">
         <v>61</v>
@@ -5907,56 +5898,56 @@
     </row>
     <row r="108" spans="1:6">
       <c r="A108">
-        <v>19330051920101</v>
+        <v>19330051920110</v>
       </c>
       <c r="B108" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="C108" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="D108" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="E108" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F108" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="109" spans="1:6">
       <c r="A109">
-        <v>19330051920101</v>
+        <v>19330051920110</v>
       </c>
       <c r="B109" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="C109" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="D109" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="E109" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F109" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="110" spans="1:6">
       <c r="A110">
-        <v>19330051920101</v>
+        <v>19330051920112</v>
       </c>
       <c r="B110" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="C110" t="s">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="D110" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="E110" t="s">
         <v>6</v>
@@ -5967,16 +5958,16 @@
     </row>
     <row r="111" spans="1:6">
       <c r="A111">
-        <v>19330051920101</v>
+        <v>19330051920112</v>
       </c>
       <c r="B111" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="C111" t="s">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="D111" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="E111" t="s">
         <v>5</v>
@@ -5987,36 +5978,36 @@
     </row>
     <row r="112" spans="1:6">
       <c r="A112">
-        <v>19330051920101</v>
+        <v>19330051920112</v>
       </c>
       <c r="B112" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="C112" t="s">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="D112" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="E112" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F112" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="113" spans="1:6">
       <c r="A113">
-        <v>19330051920102</v>
+        <v>19330051920112</v>
       </c>
       <c r="B113" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="C113" t="s">
-        <v>108</v>
+        <v>77</v>
       </c>
       <c r="D113" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="E113" t="s">
         <v>8</v>
@@ -6027,339 +6018,339 @@
     </row>
     <row r="114" spans="1:6">
       <c r="A114">
-        <v>19330051920102</v>
+        <v>19330051920112</v>
       </c>
       <c r="B114" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="C114" t="s">
-        <v>108</v>
+        <v>77</v>
       </c>
       <c r="D114" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="E114" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F114" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="115" spans="1:6">
       <c r="A115">
-        <v>19330051920102</v>
+        <v>19330051920112</v>
       </c>
       <c r="B115" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="C115" t="s">
-        <v>108</v>
+        <v>77</v>
       </c>
       <c r="D115" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="E115" t="s">
         <v>7</v>
       </c>
       <c r="F115" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="116" spans="1:6">
       <c r="A116">
-        <v>19330051920102</v>
+        <v>19330051920113</v>
       </c>
       <c r="B116" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="C116" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="D116" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="E116" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F116" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="117" spans="1:6">
       <c r="A117">
-        <v>19330051920102</v>
+        <v>19330051920113</v>
       </c>
       <c r="B117" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="C117" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="D117" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="E117" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F117" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="118" spans="1:6">
       <c r="A118">
-        <v>19330051920102</v>
+        <v>19330051920113</v>
       </c>
       <c r="B118" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="C118" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="D118" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="E118" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F118" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="119" spans="1:6">
       <c r="A119">
-        <v>19330051920102</v>
+        <v>19330051920113</v>
       </c>
       <c r="B119" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="C119" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="D119" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="E119" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F119" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="120" spans="1:6">
       <c r="A120">
-        <v>19330051920105</v>
+        <v>19330051920113</v>
       </c>
       <c r="B120" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="C120" t="s">
-        <v>109</v>
+        <v>84</v>
       </c>
       <c r="D120" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="E120" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F120" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="121" spans="1:6">
       <c r="A121">
-        <v>19330051920105</v>
+        <v>19330051920001</v>
       </c>
       <c r="B121" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="C121" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="D121" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="E121" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F121" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="122" spans="1:6">
       <c r="A122">
-        <v>19330051920105</v>
+        <v>19330051920001</v>
       </c>
       <c r="B122" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="C122" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="D122" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="E122" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F122" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="123" spans="1:6">
       <c r="A123">
-        <v>19330051920105</v>
+        <v>19330051920001</v>
       </c>
       <c r="B123" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="C123" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="D123" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="E123" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F123" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="124" spans="1:6">
       <c r="A124">
-        <v>19330051920105</v>
+        <v>19330051920001</v>
       </c>
       <c r="B124" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="C124" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="D124" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="E124" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F124" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="125" spans="1:6">
       <c r="A125">
-        <v>19330051920105</v>
+        <v>19330051920115</v>
       </c>
       <c r="B125" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="C125" t="s">
-        <v>109</v>
+        <v>83</v>
       </c>
       <c r="D125" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="E125" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F125" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="126" spans="1:6">
       <c r="A126">
-        <v>19330051920105</v>
+        <v>19330051920115</v>
       </c>
       <c r="B126" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="C126" t="s">
-        <v>109</v>
+        <v>83</v>
       </c>
       <c r="D126" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="E126" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F126" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="127" spans="1:6">
       <c r="A127">
-        <v>19330051920103</v>
+        <v>19330051920115</v>
       </c>
       <c r="B127" t="s">
+        <v>90</v>
+      </c>
+      <c r="C127" t="s">
         <v>83</v>
       </c>
-      <c r="C127" t="s">
-        <v>110</v>
-      </c>
       <c r="D127" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="E127" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F127" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="128" spans="1:6">
       <c r="A128">
-        <v>19330051920103</v>
+        <v>19330051920116</v>
       </c>
       <c r="B128" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="C128" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="D128" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="E128" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F128" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="129" spans="1:6">
       <c r="A129">
-        <v>19330051920103</v>
+        <v>19330051920116</v>
       </c>
       <c r="B129" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="C129" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="D129" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="E129" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F129" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="130" spans="1:6">
       <c r="A130">
-        <v>19330051920103</v>
+        <v>19330051920116</v>
       </c>
       <c r="B130" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="C130" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="D130" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F130" t="s">
         <v>58</v>
@@ -6367,79 +6358,79 @@
     </row>
     <row r="131" spans="1:6">
       <c r="A131">
-        <v>19330051920103</v>
+        <v>19330051920116</v>
       </c>
       <c r="B131" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="C131" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="D131" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="E131" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F131" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="132" spans="1:6">
       <c r="A132">
-        <v>19330051920103</v>
+        <v>19330051920117</v>
       </c>
       <c r="B132" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="C132" t="s">
-        <v>110</v>
+        <v>76</v>
       </c>
       <c r="D132" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="E132" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F132" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="133" spans="1:6">
       <c r="A133">
-        <v>19330051920103</v>
+        <v>19330051920117</v>
       </c>
       <c r="B133" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="C133" t="s">
-        <v>110</v>
+        <v>76</v>
       </c>
       <c r="D133" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="E133" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F133" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="134" spans="1:6">
       <c r="A134">
-        <v>19330051920106</v>
+        <v>19330051920117</v>
       </c>
       <c r="B134" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="C134" t="s">
-        <v>111</v>
+        <v>76</v>
       </c>
       <c r="D134" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="E134" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F134" t="s">
         <v>58</v>
@@ -6447,159 +6438,159 @@
     </row>
     <row r="135" spans="1:6">
       <c r="A135">
-        <v>19330051920106</v>
+        <v>19330051920117</v>
       </c>
       <c r="B135" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="C135" t="s">
-        <v>111</v>
+        <v>76</v>
       </c>
       <c r="D135" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="E135" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F135" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="136" spans="1:6">
       <c r="A136">
-        <v>19330051920106</v>
+        <v>19330051920117</v>
       </c>
       <c r="B136" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="C136" t="s">
-        <v>111</v>
+        <v>76</v>
       </c>
       <c r="D136" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="E136" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F136" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="137" spans="1:6">
       <c r="A137">
-        <v>19330051920106</v>
+        <v>19330051920118</v>
       </c>
       <c r="B137" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="C137" t="s">
-        <v>111</v>
+        <v>83</v>
       </c>
       <c r="D137" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="E137" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F137" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="138" spans="1:6">
       <c r="A138">
-        <v>19330051920106</v>
+        <v>19330051920118</v>
       </c>
       <c r="B138" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="C138" t="s">
-        <v>111</v>
+        <v>83</v>
       </c>
       <c r="D138" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="E138" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F138" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="139" spans="1:6">
       <c r="A139">
-        <v>19330051920106</v>
+        <v>19330051920118</v>
       </c>
       <c r="B139" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="C139" t="s">
-        <v>111</v>
+        <v>83</v>
       </c>
       <c r="D139" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="E139" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F139" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="140" spans="1:6">
       <c r="A140">
-        <v>19330051920107</v>
+        <v>19330051920118</v>
       </c>
       <c r="B140" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="C140" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="D140" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="E140" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F140" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="141" spans="1:6">
       <c r="A141">
-        <v>19330051920107</v>
+        <v>19330051920457</v>
       </c>
       <c r="B141" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="C141" t="s">
-        <v>77</v>
+        <v>115</v>
       </c>
       <c r="D141" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="E141" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F141" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="142" spans="1:6">
       <c r="A142">
-        <v>19330051920107</v>
+        <v>19330051920457</v>
       </c>
       <c r="B142" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="C142" t="s">
-        <v>77</v>
+        <v>115</v>
       </c>
       <c r="D142" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="E142" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F142" t="s">
         <v>59</v>
@@ -6607,59 +6598,59 @@
     </row>
     <row r="143" spans="1:6">
       <c r="A143">
-        <v>19330051920107</v>
+        <v>19330051920457</v>
       </c>
       <c r="B143" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="C143" t="s">
-        <v>77</v>
+        <v>115</v>
       </c>
       <c r="D143" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="E143" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F143" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="144" spans="1:6">
       <c r="A144">
-        <v>19330051920107</v>
+        <v>19330051920457</v>
       </c>
       <c r="B144" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="C144" t="s">
-        <v>77</v>
+        <v>115</v>
       </c>
       <c r="D144" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="E144" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F144" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="145" spans="1:6">
       <c r="A145">
-        <v>19330051920107</v>
+        <v>19330051920457</v>
       </c>
       <c r="B145" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="C145" t="s">
-        <v>77</v>
+        <v>115</v>
       </c>
       <c r="D145" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="E145" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F145" t="s">
         <v>58</v>
@@ -6667,179 +6658,179 @@
     </row>
     <row r="146" spans="1:6">
       <c r="A146">
-        <v>19330051920107</v>
+        <v>19330051920119</v>
       </c>
       <c r="B146" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="C146" t="s">
-        <v>77</v>
+        <v>116</v>
       </c>
       <c r="D146" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="E146" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F146" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="147" spans="1:6">
       <c r="A147">
-        <v>19330051920109</v>
+        <v>19330051920119</v>
       </c>
       <c r="B147" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="C147" t="s">
-        <v>79</v>
+        <v>116</v>
       </c>
       <c r="D147" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="E147" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F147" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="148" spans="1:6">
       <c r="A148">
-        <v>19330051920109</v>
+        <v>19330051920119</v>
       </c>
       <c r="B148" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="C148" t="s">
-        <v>79</v>
+        <v>116</v>
       </c>
       <c r="D148" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="E148" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F148" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="149" spans="1:6">
       <c r="A149">
-        <v>19330051920109</v>
+        <v>19330051920119</v>
       </c>
       <c r="B149" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="C149" t="s">
-        <v>79</v>
+        <v>116</v>
       </c>
       <c r="D149" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="E149" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F149" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="150" spans="1:6">
       <c r="A150">
-        <v>19330051920109</v>
+        <v>19330051920119</v>
       </c>
       <c r="B150" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="C150" t="s">
-        <v>79</v>
+        <v>116</v>
       </c>
       <c r="D150" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="E150" t="s">
         <v>4</v>
       </c>
       <c r="F150" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="151" spans="1:6">
       <c r="A151">
-        <v>19330051920109</v>
+        <v>19330051920120</v>
       </c>
       <c r="B151" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="C151" t="s">
-        <v>79</v>
+        <v>117</v>
       </c>
       <c r="D151" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="E151" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F151" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="152" spans="1:6">
       <c r="A152">
-        <v>19330051920109</v>
+        <v>19330051920120</v>
       </c>
       <c r="B152" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="C152" t="s">
-        <v>79</v>
+        <v>117</v>
       </c>
       <c r="D152" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="E152" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F152" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="153" spans="1:6">
       <c r="A153">
-        <v>19330051920109</v>
+        <v>19330051920120</v>
       </c>
       <c r="B153" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="C153" t="s">
-        <v>79</v>
+        <v>117</v>
       </c>
       <c r="D153" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F153" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="154" spans="1:6">
       <c r="A154">
-        <v>19330051920111</v>
+        <v>19330051920120</v>
       </c>
       <c r="B154" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="C154" t="s">
-        <v>83</v>
+        <v>117</v>
       </c>
       <c r="D154" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="E154" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F154" t="s">
         <v>59</v>
@@ -6847,16 +6838,16 @@
     </row>
     <row r="155" spans="1:6">
       <c r="A155">
-        <v>19330051920111</v>
+        <v>19330051920121</v>
       </c>
       <c r="B155" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="C155" t="s">
-        <v>83</v>
+        <v>118</v>
       </c>
       <c r="D155" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="E155" t="s">
         <v>6</v>
@@ -6867,2042 +6858,242 @@
     </row>
     <row r="156" spans="1:6">
       <c r="A156">
-        <v>19330051920111</v>
+        <v>19330051920121</v>
       </c>
       <c r="B156" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="C156" t="s">
-        <v>83</v>
+        <v>118</v>
       </c>
       <c r="D156" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="E156" t="s">
         <v>4</v>
       </c>
       <c r="F156" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="157" spans="1:6">
       <c r="A157">
-        <v>19330051920111</v>
+        <v>19330051920121</v>
       </c>
       <c r="B157" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="C157" t="s">
-        <v>83</v>
+        <v>118</v>
       </c>
       <c r="D157" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="E157" t="s">
         <v>10</v>
       </c>
       <c r="F157" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="158" spans="1:6">
       <c r="A158">
-        <v>19330051920111</v>
+        <v>19330051920121</v>
       </c>
       <c r="B158" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="C158" t="s">
-        <v>83</v>
+        <v>118</v>
       </c>
       <c r="D158" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="E158" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F158" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="159" spans="1:6">
       <c r="A159">
-        <v>19330051920111</v>
+        <v>19330051920122</v>
       </c>
       <c r="B159" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="C159" t="s">
-        <v>83</v>
+        <v>119</v>
       </c>
       <c r="D159" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="E159" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F159" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="160" spans="1:6">
       <c r="A160">
-        <v>19330051920111</v>
+        <v>19330051920122</v>
       </c>
       <c r="B160" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="C160" t="s">
-        <v>83</v>
+        <v>119</v>
       </c>
       <c r="D160" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="E160" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F160" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="161" spans="1:6">
       <c r="A161">
-        <v>19330051920110</v>
+        <v>19330051920122</v>
       </c>
       <c r="B161" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="C161" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="D161" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="E161" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F161" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="162" spans="1:6">
       <c r="A162">
-        <v>19330051920110</v>
+        <v>19330051920122</v>
       </c>
       <c r="B162" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="C162" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="D162" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="E162" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F162" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="163" spans="1:6">
       <c r="A163">
-        <v>19330051920110</v>
+        <v>19330051920124</v>
       </c>
       <c r="B163" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="C163" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="D163" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="E163" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F163" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="164" spans="1:6">
       <c r="A164">
-        <v>19330051920110</v>
+        <v>19330051920124</v>
       </c>
       <c r="B164" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="C164" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="D164" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="E164" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F164" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="165" spans="1:6">
       <c r="A165">
-        <v>19330051920110</v>
+        <v>19330051920124</v>
       </c>
       <c r="B165" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="C165" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="D165" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="E165" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F165" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="166" spans="1:6">
       <c r="A166">
-        <v>19330051920110</v>
+        <v>19330051920124</v>
       </c>
       <c r="B166" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="C166" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="D166" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="E166" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F166" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="167" spans="1:6">
       <c r="A167">
-        <v>19330051920112</v>
+        <v>19330051920124</v>
       </c>
       <c r="B167" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="C167" t="s">
-        <v>77</v>
+        <v>120</v>
       </c>
       <c r="D167" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="E167" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F167" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="168" spans="1:6">
-      <c r="A168">
-        <v>19330051920112</v>
-      </c>
-      <c r="B168" t="s">
-        <v>88</v>
-      </c>
-      <c r="C168" t="s">
-        <v>77</v>
-      </c>
-      <c r="D168" t="s">
-        <v>145</v>
-      </c>
-      <c r="E168" t="s">
-        <v>5</v>
-      </c>
-      <c r="F168" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="169" spans="1:6">
-      <c r="A169">
-        <v>19330051920112</v>
-      </c>
-      <c r="B169" t="s">
-        <v>88</v>
-      </c>
-      <c r="C169" t="s">
-        <v>77</v>
-      </c>
-      <c r="D169" t="s">
-        <v>145</v>
-      </c>
-      <c r="E169" t="s">
-        <v>4</v>
-      </c>
-      <c r="F169" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="170" spans="1:6">
-      <c r="A170">
-        <v>19330051920112</v>
-      </c>
-      <c r="B170" t="s">
-        <v>88</v>
-      </c>
-      <c r="C170" t="s">
-        <v>77</v>
-      </c>
-      <c r="D170" t="s">
-        <v>145</v>
-      </c>
-      <c r="E170" t="s">
-        <v>10</v>
-      </c>
-      <c r="F170" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="171" spans="1:6">
-      <c r="A171">
-        <v>19330051920112</v>
-      </c>
-      <c r="B171" t="s">
-        <v>88</v>
-      </c>
-      <c r="C171" t="s">
-        <v>77</v>
-      </c>
-      <c r="D171" t="s">
-        <v>145</v>
-      </c>
-      <c r="E171" t="s">
-        <v>7</v>
-      </c>
-      <c r="F171" t="s">
         <v>59</v>
-      </c>
-    </row>
-    <row r="172" spans="1:6">
-      <c r="A172">
-        <v>19330051920112</v>
-      </c>
-      <c r="B172" t="s">
-        <v>88</v>
-      </c>
-      <c r="C172" t="s">
-        <v>77</v>
-      </c>
-      <c r="D172" t="s">
-        <v>145</v>
-      </c>
-      <c r="E172" t="s">
-        <v>9</v>
-      </c>
-      <c r="F172" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="173" spans="1:6">
-      <c r="A173">
-        <v>19330051920112</v>
-      </c>
-      <c r="B173" t="s">
-        <v>88</v>
-      </c>
-      <c r="C173" t="s">
-        <v>77</v>
-      </c>
-      <c r="D173" t="s">
-        <v>145</v>
-      </c>
-      <c r="E173" t="s">
-        <v>8</v>
-      </c>
-      <c r="F173" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="174" spans="1:6">
-      <c r="A174">
-        <v>19330051920113</v>
-      </c>
-      <c r="B174" t="s">
-        <v>88</v>
-      </c>
-      <c r="C174" t="s">
-        <v>84</v>
-      </c>
-      <c r="D174" t="s">
-        <v>146</v>
-      </c>
-      <c r="E174" t="s">
-        <v>6</v>
-      </c>
-      <c r="F174" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="175" spans="1:6">
-      <c r="A175">
-        <v>19330051920113</v>
-      </c>
-      <c r="B175" t="s">
-        <v>88</v>
-      </c>
-      <c r="C175" t="s">
-        <v>84</v>
-      </c>
-      <c r="D175" t="s">
-        <v>146</v>
-      </c>
-      <c r="E175" t="s">
-        <v>9</v>
-      </c>
-      <c r="F175" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="176" spans="1:6">
-      <c r="A176">
-        <v>19330051920113</v>
-      </c>
-      <c r="B176" t="s">
-        <v>88</v>
-      </c>
-      <c r="C176" t="s">
-        <v>84</v>
-      </c>
-      <c r="D176" t="s">
-        <v>146</v>
-      </c>
-      <c r="E176" t="s">
-        <v>7</v>
-      </c>
-      <c r="F176" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="177" spans="1:6">
-      <c r="A177">
-        <v>19330051920113</v>
-      </c>
-      <c r="B177" t="s">
-        <v>88</v>
-      </c>
-      <c r="C177" t="s">
-        <v>84</v>
-      </c>
-      <c r="D177" t="s">
-        <v>146</v>
-      </c>
-      <c r="E177" t="s">
-        <v>5</v>
-      </c>
-      <c r="F177" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="178" spans="1:6">
-      <c r="A178">
-        <v>19330051920113</v>
-      </c>
-      <c r="B178" t="s">
-        <v>88</v>
-      </c>
-      <c r="C178" t="s">
-        <v>84</v>
-      </c>
-      <c r="D178" t="s">
-        <v>146</v>
-      </c>
-      <c r="E178" t="s">
-        <v>10</v>
-      </c>
-      <c r="F178" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="179" spans="1:6">
-      <c r="A179">
-        <v>19330051920113</v>
-      </c>
-      <c r="B179" t="s">
-        <v>88</v>
-      </c>
-      <c r="C179" t="s">
-        <v>84</v>
-      </c>
-      <c r="D179" t="s">
-        <v>146</v>
-      </c>
-      <c r="E179" t="s">
-        <v>4</v>
-      </c>
-      <c r="F179" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="180" spans="1:6">
-      <c r="A180">
-        <v>19330051920113</v>
-      </c>
-      <c r="B180" t="s">
-        <v>88</v>
-      </c>
-      <c r="C180" t="s">
-        <v>84</v>
-      </c>
-      <c r="D180" t="s">
-        <v>146</v>
-      </c>
-      <c r="E180" t="s">
-        <v>8</v>
-      </c>
-      <c r="F180" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="181" spans="1:6">
-      <c r="A181">
-        <v>19330051920001</v>
-      </c>
-      <c r="B181" t="s">
-        <v>89</v>
-      </c>
-      <c r="C181" t="s">
-        <v>113</v>
-      </c>
-      <c r="D181" t="s">
-        <v>147</v>
-      </c>
-      <c r="E181" t="s">
-        <v>4</v>
-      </c>
-      <c r="F181" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="182" spans="1:6">
-      <c r="A182">
-        <v>19330051920001</v>
-      </c>
-      <c r="B182" t="s">
-        <v>89</v>
-      </c>
-      <c r="C182" t="s">
-        <v>113</v>
-      </c>
-      <c r="D182" t="s">
-        <v>147</v>
-      </c>
-      <c r="E182" t="s">
-        <v>5</v>
-      </c>
-      <c r="F182" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="183" spans="1:6">
-      <c r="A183">
-        <v>19330051920001</v>
-      </c>
-      <c r="B183" t="s">
-        <v>89</v>
-      </c>
-      <c r="C183" t="s">
-        <v>113</v>
-      </c>
-      <c r="D183" t="s">
-        <v>147</v>
-      </c>
-      <c r="E183" t="s">
-        <v>6</v>
-      </c>
-      <c r="F183" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="184" spans="1:6">
-      <c r="A184">
-        <v>19330051920001</v>
-      </c>
-      <c r="B184" t="s">
-        <v>89</v>
-      </c>
-      <c r="C184" t="s">
-        <v>113</v>
-      </c>
-      <c r="D184" t="s">
-        <v>147</v>
-      </c>
-      <c r="E184" t="s">
-        <v>8</v>
-      </c>
-      <c r="F184" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="185" spans="1:6">
-      <c r="A185">
-        <v>19330051920001</v>
-      </c>
-      <c r="B185" t="s">
-        <v>89</v>
-      </c>
-      <c r="C185" t="s">
-        <v>113</v>
-      </c>
-      <c r="D185" t="s">
-        <v>147</v>
-      </c>
-      <c r="E185" t="s">
-        <v>9</v>
-      </c>
-      <c r="F185" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="186" spans="1:6">
-      <c r="A186">
-        <v>19330051920001</v>
-      </c>
-      <c r="B186" t="s">
-        <v>89</v>
-      </c>
-      <c r="C186" t="s">
-        <v>113</v>
-      </c>
-      <c r="D186" t="s">
-        <v>147</v>
-      </c>
-      <c r="E186" t="s">
-        <v>7</v>
-      </c>
-      <c r="F186" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="187" spans="1:6">
-      <c r="A187">
-        <v>19330051920001</v>
-      </c>
-      <c r="B187" t="s">
-        <v>89</v>
-      </c>
-      <c r="C187" t="s">
-        <v>113</v>
-      </c>
-      <c r="D187" t="s">
-        <v>147</v>
-      </c>
-      <c r="E187" t="s">
-        <v>10</v>
-      </c>
-      <c r="F187" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="188" spans="1:6">
-      <c r="A188">
-        <v>19330051920115</v>
-      </c>
-      <c r="B188" t="s">
-        <v>90</v>
-      </c>
-      <c r="C188" t="s">
-        <v>83</v>
-      </c>
-      <c r="D188" t="s">
-        <v>122</v>
-      </c>
-      <c r="E188" t="s">
-        <v>7</v>
-      </c>
-      <c r="F188" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="189" spans="1:6">
-      <c r="A189">
-        <v>19330051920115</v>
-      </c>
-      <c r="B189" t="s">
-        <v>90</v>
-      </c>
-      <c r="C189" t="s">
-        <v>83</v>
-      </c>
-      <c r="D189" t="s">
-        <v>122</v>
-      </c>
-      <c r="E189" t="s">
-        <v>4</v>
-      </c>
-      <c r="F189" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="190" spans="1:6">
-      <c r="A190">
-        <v>19330051920115</v>
-      </c>
-      <c r="B190" t="s">
-        <v>90</v>
-      </c>
-      <c r="C190" t="s">
-        <v>83</v>
-      </c>
-      <c r="D190" t="s">
-        <v>122</v>
-      </c>
-      <c r="E190" t="s">
-        <v>5</v>
-      </c>
-      <c r="F190" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="191" spans="1:6">
-      <c r="A191">
-        <v>19330051920115</v>
-      </c>
-      <c r="B191" t="s">
-        <v>90</v>
-      </c>
-      <c r="C191" t="s">
-        <v>83</v>
-      </c>
-      <c r="D191" t="s">
-        <v>122</v>
-      </c>
-      <c r="E191" t="s">
-        <v>9</v>
-      </c>
-      <c r="F191" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="192" spans="1:6">
-      <c r="A192">
-        <v>19330051920115</v>
-      </c>
-      <c r="B192" t="s">
-        <v>90</v>
-      </c>
-      <c r="C192" t="s">
-        <v>83</v>
-      </c>
-      <c r="D192" t="s">
-        <v>122</v>
-      </c>
-      <c r="E192" t="s">
-        <v>6</v>
-      </c>
-      <c r="F192" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="193" spans="1:6">
-      <c r="A193">
-        <v>19330051920115</v>
-      </c>
-      <c r="B193" t="s">
-        <v>90</v>
-      </c>
-      <c r="C193" t="s">
-        <v>83</v>
-      </c>
-      <c r="D193" t="s">
-        <v>122</v>
-      </c>
-      <c r="E193" t="s">
-        <v>8</v>
-      </c>
-      <c r="F193" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="194" spans="1:6">
-      <c r="A194">
-        <v>19330051920115</v>
-      </c>
-      <c r="B194" t="s">
-        <v>90</v>
-      </c>
-      <c r="C194" t="s">
-        <v>83</v>
-      </c>
-      <c r="D194" t="s">
-        <v>122</v>
-      </c>
-      <c r="E194" t="s">
-        <v>10</v>
-      </c>
-      <c r="F194" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="195" spans="1:6">
-      <c r="A195">
-        <v>19330051920116</v>
-      </c>
-      <c r="B195" t="s">
-        <v>91</v>
-      </c>
-      <c r="C195" t="s">
-        <v>114</v>
-      </c>
-      <c r="D195" t="s">
-        <v>129</v>
-      </c>
-      <c r="E195" t="s">
-        <v>5</v>
-      </c>
-      <c r="F195" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="196" spans="1:6">
-      <c r="A196">
-        <v>19330051920116</v>
-      </c>
-      <c r="B196" t="s">
-        <v>91</v>
-      </c>
-      <c r="C196" t="s">
-        <v>114</v>
-      </c>
-      <c r="D196" t="s">
-        <v>129</v>
-      </c>
-      <c r="E196" t="s">
-        <v>7</v>
-      </c>
-      <c r="F196" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="197" spans="1:6">
-      <c r="A197">
-        <v>19330051920116</v>
-      </c>
-      <c r="B197" t="s">
-        <v>91</v>
-      </c>
-      <c r="C197" t="s">
-        <v>114</v>
-      </c>
-      <c r="D197" t="s">
-        <v>129</v>
-      </c>
-      <c r="E197" t="s">
-        <v>8</v>
-      </c>
-      <c r="F197" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="198" spans="1:6">
-      <c r="A198">
-        <v>19330051920116</v>
-      </c>
-      <c r="B198" t="s">
-        <v>91</v>
-      </c>
-      <c r="C198" t="s">
-        <v>114</v>
-      </c>
-      <c r="D198" t="s">
-        <v>129</v>
-      </c>
-      <c r="E198" t="s">
-        <v>9</v>
-      </c>
-      <c r="F198" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="199" spans="1:6">
-      <c r="A199">
-        <v>19330051920116</v>
-      </c>
-      <c r="B199" t="s">
-        <v>91</v>
-      </c>
-      <c r="C199" t="s">
-        <v>114</v>
-      </c>
-      <c r="D199" t="s">
-        <v>129</v>
-      </c>
-      <c r="E199" t="s">
-        <v>10</v>
-      </c>
-      <c r="F199" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="200" spans="1:6">
-      <c r="A200">
-        <v>19330051920116</v>
-      </c>
-      <c r="B200" t="s">
-        <v>91</v>
-      </c>
-      <c r="C200" t="s">
-        <v>114</v>
-      </c>
-      <c r="D200" t="s">
-        <v>129</v>
-      </c>
-      <c r="E200" t="s">
-        <v>4</v>
-      </c>
-      <c r="F200" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="201" spans="1:6">
-      <c r="A201">
-        <v>19330051920116</v>
-      </c>
-      <c r="B201" t="s">
-        <v>91</v>
-      </c>
-      <c r="C201" t="s">
-        <v>114</v>
-      </c>
-      <c r="D201" t="s">
-        <v>129</v>
-      </c>
-      <c r="E201" t="s">
-        <v>6</v>
-      </c>
-      <c r="F201" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="202" spans="1:6">
-      <c r="A202">
-        <v>19330051920117</v>
-      </c>
-      <c r="B202" t="s">
-        <v>92</v>
-      </c>
-      <c r="C202" t="s">
-        <v>76</v>
-      </c>
-      <c r="D202" t="s">
-        <v>148</v>
-      </c>
-      <c r="E202" t="s">
-        <v>6</v>
-      </c>
-      <c r="F202" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="203" spans="1:6">
-      <c r="A203">
-        <v>19330051920117</v>
-      </c>
-      <c r="B203" t="s">
-        <v>92</v>
-      </c>
-      <c r="C203" t="s">
-        <v>76</v>
-      </c>
-      <c r="D203" t="s">
-        <v>148</v>
-      </c>
-      <c r="E203" t="s">
-        <v>9</v>
-      </c>
-      <c r="F203" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="204" spans="1:6">
-      <c r="A204">
-        <v>19330051920117</v>
-      </c>
-      <c r="B204" t="s">
-        <v>92</v>
-      </c>
-      <c r="C204" t="s">
-        <v>76</v>
-      </c>
-      <c r="D204" t="s">
-        <v>148</v>
-      </c>
-      <c r="E204" t="s">
-        <v>8</v>
-      </c>
-      <c r="F204" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="205" spans="1:6">
-      <c r="A205">
-        <v>19330051920117</v>
-      </c>
-      <c r="B205" t="s">
-        <v>92</v>
-      </c>
-      <c r="C205" t="s">
-        <v>76</v>
-      </c>
-      <c r="D205" t="s">
-        <v>148</v>
-      </c>
-      <c r="E205" t="s">
-        <v>10</v>
-      </c>
-      <c r="F205" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="206" spans="1:6">
-      <c r="A206">
-        <v>19330051920117</v>
-      </c>
-      <c r="B206" t="s">
-        <v>92</v>
-      </c>
-      <c r="C206" t="s">
-        <v>76</v>
-      </c>
-      <c r="D206" t="s">
-        <v>148</v>
-      </c>
-      <c r="E206" t="s">
-        <v>7</v>
-      </c>
-      <c r="F206" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="207" spans="1:6">
-      <c r="A207">
-        <v>19330051920117</v>
-      </c>
-      <c r="B207" t="s">
-        <v>92</v>
-      </c>
-      <c r="C207" t="s">
-        <v>76</v>
-      </c>
-      <c r="D207" t="s">
-        <v>148</v>
-      </c>
-      <c r="E207" t="s">
-        <v>4</v>
-      </c>
-      <c r="F207" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="208" spans="1:6">
-      <c r="A208">
-        <v>19330051920117</v>
-      </c>
-      <c r="B208" t="s">
-        <v>92</v>
-      </c>
-      <c r="C208" t="s">
-        <v>76</v>
-      </c>
-      <c r="D208" t="s">
-        <v>148</v>
-      </c>
-      <c r="E208" t="s">
-        <v>5</v>
-      </c>
-      <c r="F208" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="209" spans="1:6">
-      <c r="A209">
-        <v>19330051920118</v>
-      </c>
-      <c r="B209" t="s">
-        <v>93</v>
-      </c>
-      <c r="C209" t="s">
-        <v>83</v>
-      </c>
-      <c r="D209" t="s">
-        <v>149</v>
-      </c>
-      <c r="E209" t="s">
-        <v>4</v>
-      </c>
-      <c r="F209" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="210" spans="1:6">
-      <c r="A210">
-        <v>19330051920118</v>
-      </c>
-      <c r="B210" t="s">
-        <v>93</v>
-      </c>
-      <c r="C210" t="s">
-        <v>83</v>
-      </c>
-      <c r="D210" t="s">
-        <v>149</v>
-      </c>
-      <c r="E210" t="s">
-        <v>7</v>
-      </c>
-      <c r="F210" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="211" spans="1:6">
-      <c r="A211">
-        <v>19330051920118</v>
-      </c>
-      <c r="B211" t="s">
-        <v>93</v>
-      </c>
-      <c r="C211" t="s">
-        <v>83</v>
-      </c>
-      <c r="D211" t="s">
-        <v>149</v>
-      </c>
-      <c r="E211" t="s">
-        <v>9</v>
-      </c>
-      <c r="F211" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="212" spans="1:6">
-      <c r="A212">
-        <v>19330051920118</v>
-      </c>
-      <c r="B212" t="s">
-        <v>93</v>
-      </c>
-      <c r="C212" t="s">
-        <v>83</v>
-      </c>
-      <c r="D212" t="s">
-        <v>149</v>
-      </c>
-      <c r="E212" t="s">
-        <v>6</v>
-      </c>
-      <c r="F212" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="213" spans="1:6">
-      <c r="A213">
-        <v>19330051920118</v>
-      </c>
-      <c r="B213" t="s">
-        <v>93</v>
-      </c>
-      <c r="C213" t="s">
-        <v>83</v>
-      </c>
-      <c r="D213" t="s">
-        <v>149</v>
-      </c>
-      <c r="E213" t="s">
-        <v>8</v>
-      </c>
-      <c r="F213" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="214" spans="1:6">
-      <c r="A214">
-        <v>19330051920118</v>
-      </c>
-      <c r="B214" t="s">
-        <v>93</v>
-      </c>
-      <c r="C214" t="s">
-        <v>83</v>
-      </c>
-      <c r="D214" t="s">
-        <v>149</v>
-      </c>
-      <c r="E214" t="s">
-        <v>5</v>
-      </c>
-      <c r="F214" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="215" spans="1:6">
-      <c r="A215">
-        <v>19330051920118</v>
-      </c>
-      <c r="B215" t="s">
-        <v>93</v>
-      </c>
-      <c r="C215" t="s">
-        <v>83</v>
-      </c>
-      <c r="D215" t="s">
-        <v>149</v>
-      </c>
-      <c r="E215" t="s">
-        <v>10</v>
-      </c>
-      <c r="F215" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="216" spans="1:6">
-      <c r="A216">
-        <v>19330051920457</v>
-      </c>
-      <c r="B216" t="s">
-        <v>94</v>
-      </c>
-      <c r="C216" t="s">
-        <v>115</v>
-      </c>
-      <c r="D216" t="s">
-        <v>150</v>
-      </c>
-      <c r="E216" t="s">
-        <v>5</v>
-      </c>
-      <c r="F216" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="217" spans="1:6">
-      <c r="A217">
-        <v>19330051920457</v>
-      </c>
-      <c r="B217" t="s">
-        <v>94</v>
-      </c>
-      <c r="C217" t="s">
-        <v>115</v>
-      </c>
-      <c r="D217" t="s">
-        <v>150</v>
-      </c>
-      <c r="E217" t="s">
-        <v>4</v>
-      </c>
-      <c r="F217" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="218" spans="1:6">
-      <c r="A218">
-        <v>19330051920457</v>
-      </c>
-      <c r="B218" t="s">
-        <v>94</v>
-      </c>
-      <c r="C218" t="s">
-        <v>115</v>
-      </c>
-      <c r="D218" t="s">
-        <v>150</v>
-      </c>
-      <c r="E218" t="s">
-        <v>9</v>
-      </c>
-      <c r="F218" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="219" spans="1:6">
-      <c r="A219">
-        <v>19330051920457</v>
-      </c>
-      <c r="B219" t="s">
-        <v>94</v>
-      </c>
-      <c r="C219" t="s">
-        <v>115</v>
-      </c>
-      <c r="D219" t="s">
-        <v>150</v>
-      </c>
-      <c r="E219" t="s">
-        <v>10</v>
-      </c>
-      <c r="F219" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="220" spans="1:6">
-      <c r="A220">
-        <v>19330051920457</v>
-      </c>
-      <c r="B220" t="s">
-        <v>94</v>
-      </c>
-      <c r="C220" t="s">
-        <v>115</v>
-      </c>
-      <c r="D220" t="s">
-        <v>150</v>
-      </c>
-      <c r="E220" t="s">
-        <v>7</v>
-      </c>
-      <c r="F220" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="221" spans="1:6">
-      <c r="A221">
-        <v>19330051920457</v>
-      </c>
-      <c r="B221" t="s">
-        <v>94</v>
-      </c>
-      <c r="C221" t="s">
-        <v>115</v>
-      </c>
-      <c r="D221" t="s">
-        <v>150</v>
-      </c>
-      <c r="E221" t="s">
-        <v>6</v>
-      </c>
-      <c r="F221" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="222" spans="1:6">
-      <c r="A222">
-        <v>19330051920457</v>
-      </c>
-      <c r="B222" t="s">
-        <v>94</v>
-      </c>
-      <c r="C222" t="s">
-        <v>115</v>
-      </c>
-      <c r="D222" t="s">
-        <v>150</v>
-      </c>
-      <c r="E222" t="s">
-        <v>8</v>
-      </c>
-      <c r="F222" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="223" spans="1:6">
-      <c r="A223">
-        <v>19330051920119</v>
-      </c>
-      <c r="B223" t="s">
-        <v>95</v>
-      </c>
-      <c r="C223" t="s">
-        <v>116</v>
-      </c>
-      <c r="D223" t="s">
-        <v>151</v>
-      </c>
-      <c r="E223" t="s">
-        <v>8</v>
-      </c>
-      <c r="F223" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="224" spans="1:6">
-      <c r="A224">
-        <v>19330051920119</v>
-      </c>
-      <c r="B224" t="s">
-        <v>95</v>
-      </c>
-      <c r="C224" t="s">
-        <v>116</v>
-      </c>
-      <c r="D224" t="s">
-        <v>151</v>
-      </c>
-      <c r="E224" t="s">
-        <v>7</v>
-      </c>
-      <c r="F224" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="225" spans="1:6">
-      <c r="A225">
-        <v>19330051920119</v>
-      </c>
-      <c r="B225" t="s">
-        <v>95</v>
-      </c>
-      <c r="C225" t="s">
-        <v>116</v>
-      </c>
-      <c r="D225" t="s">
-        <v>151</v>
-      </c>
-      <c r="E225" t="s">
-        <v>6</v>
-      </c>
-      <c r="F225" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="226" spans="1:6">
-      <c r="A226">
-        <v>19330051920119</v>
-      </c>
-      <c r="B226" t="s">
-        <v>95</v>
-      </c>
-      <c r="C226" t="s">
-        <v>116</v>
-      </c>
-      <c r="D226" t="s">
-        <v>151</v>
-      </c>
-      <c r="E226" t="s">
-        <v>4</v>
-      </c>
-      <c r="F226" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="227" spans="1:6">
-      <c r="A227">
-        <v>19330051920119</v>
-      </c>
-      <c r="B227" t="s">
-        <v>95</v>
-      </c>
-      <c r="C227" t="s">
-        <v>116</v>
-      </c>
-      <c r="D227" t="s">
-        <v>151</v>
-      </c>
-      <c r="E227" t="s">
-        <v>9</v>
-      </c>
-      <c r="F227" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="228" spans="1:6">
-      <c r="A228">
-        <v>19330051920119</v>
-      </c>
-      <c r="B228" t="s">
-        <v>95</v>
-      </c>
-      <c r="C228" t="s">
-        <v>116</v>
-      </c>
-      <c r="D228" t="s">
-        <v>151</v>
-      </c>
-      <c r="E228" t="s">
-        <v>5</v>
-      </c>
-      <c r="F228" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="229" spans="1:6">
-      <c r="A229">
-        <v>19330051920119</v>
-      </c>
-      <c r="B229" t="s">
-        <v>95</v>
-      </c>
-      <c r="C229" t="s">
-        <v>116</v>
-      </c>
-      <c r="D229" t="s">
-        <v>151</v>
-      </c>
-      <c r="E229" t="s">
-        <v>10</v>
-      </c>
-      <c r="F229" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="230" spans="1:6">
-      <c r="A230">
-        <v>19330051920120</v>
-      </c>
-      <c r="B230" t="s">
-        <v>96</v>
-      </c>
-      <c r="C230" t="s">
-        <v>117</v>
-      </c>
-      <c r="D230" t="s">
-        <v>152</v>
-      </c>
-      <c r="E230" t="s">
-        <v>7</v>
-      </c>
-      <c r="F230" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="231" spans="1:6">
-      <c r="A231">
-        <v>19330051920120</v>
-      </c>
-      <c r="B231" t="s">
-        <v>96</v>
-      </c>
-      <c r="C231" t="s">
-        <v>117</v>
-      </c>
-      <c r="D231" t="s">
-        <v>152</v>
-      </c>
-      <c r="E231" t="s">
-        <v>6</v>
-      </c>
-      <c r="F231" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="232" spans="1:6">
-      <c r="A232">
-        <v>19330051920120</v>
-      </c>
-      <c r="B232" t="s">
-        <v>96</v>
-      </c>
-      <c r="C232" t="s">
-        <v>117</v>
-      </c>
-      <c r="D232" t="s">
-        <v>152</v>
-      </c>
-      <c r="E232" t="s">
-        <v>4</v>
-      </c>
-      <c r="F232" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="233" spans="1:6">
-      <c r="A233">
-        <v>19330051920120</v>
-      </c>
-      <c r="B233" t="s">
-        <v>96</v>
-      </c>
-      <c r="C233" t="s">
-        <v>117</v>
-      </c>
-      <c r="D233" t="s">
-        <v>152</v>
-      </c>
-      <c r="E233" t="s">
-        <v>10</v>
-      </c>
-      <c r="F233" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="234" spans="1:6">
-      <c r="A234">
-        <v>19330051920120</v>
-      </c>
-      <c r="B234" t="s">
-        <v>96</v>
-      </c>
-      <c r="C234" t="s">
-        <v>117</v>
-      </c>
-      <c r="D234" t="s">
-        <v>152</v>
-      </c>
-      <c r="E234" t="s">
-        <v>8</v>
-      </c>
-      <c r="F234" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="235" spans="1:6">
-      <c r="A235">
-        <v>19330051920120</v>
-      </c>
-      <c r="B235" t="s">
-        <v>96</v>
-      </c>
-      <c r="C235" t="s">
-        <v>117</v>
-      </c>
-      <c r="D235" t="s">
-        <v>152</v>
-      </c>
-      <c r="E235" t="s">
-        <v>5</v>
-      </c>
-      <c r="F235" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="236" spans="1:6">
-      <c r="A236">
-        <v>19330051920120</v>
-      </c>
-      <c r="B236" t="s">
-        <v>96</v>
-      </c>
-      <c r="C236" t="s">
-        <v>117</v>
-      </c>
-      <c r="D236" t="s">
-        <v>152</v>
-      </c>
-      <c r="E236" t="s">
-        <v>9</v>
-      </c>
-      <c r="F236" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="237" spans="1:6">
-      <c r="A237">
-        <v>19330051920121</v>
-      </c>
-      <c r="B237" t="s">
-        <v>97</v>
-      </c>
-      <c r="C237" t="s">
-        <v>118</v>
-      </c>
-      <c r="D237" t="s">
-        <v>153</v>
-      </c>
-      <c r="E237" t="s">
-        <v>5</v>
-      </c>
-      <c r="F237" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="238" spans="1:6">
-      <c r="A238">
-        <v>19330051920121</v>
-      </c>
-      <c r="B238" t="s">
-        <v>97</v>
-      </c>
-      <c r="C238" t="s">
-        <v>118</v>
-      </c>
-      <c r="D238" t="s">
-        <v>153</v>
-      </c>
-      <c r="E238" t="s">
-        <v>7</v>
-      </c>
-      <c r="F238" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="239" spans="1:6">
-      <c r="A239">
-        <v>19330051920121</v>
-      </c>
-      <c r="B239" t="s">
-        <v>97</v>
-      </c>
-      <c r="C239" t="s">
-        <v>118</v>
-      </c>
-      <c r="D239" t="s">
-        <v>153</v>
-      </c>
-      <c r="E239" t="s">
-        <v>6</v>
-      </c>
-      <c r="F239" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="240" spans="1:6">
-      <c r="A240">
-        <v>19330051920121</v>
-      </c>
-      <c r="B240" t="s">
-        <v>97</v>
-      </c>
-      <c r="C240" t="s">
-        <v>118</v>
-      </c>
-      <c r="D240" t="s">
-        <v>153</v>
-      </c>
-      <c r="E240" t="s">
-        <v>8</v>
-      </c>
-      <c r="F240" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="241" spans="1:6">
-      <c r="A241">
-        <v>19330051920121</v>
-      </c>
-      <c r="B241" t="s">
-        <v>97</v>
-      </c>
-      <c r="C241" t="s">
-        <v>118</v>
-      </c>
-      <c r="D241" t="s">
-        <v>153</v>
-      </c>
-      <c r="E241" t="s">
-        <v>9</v>
-      </c>
-      <c r="F241" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="242" spans="1:6">
-      <c r="A242">
-        <v>19330051920121</v>
-      </c>
-      <c r="B242" t="s">
-        <v>97</v>
-      </c>
-      <c r="C242" t="s">
-        <v>118</v>
-      </c>
-      <c r="D242" t="s">
-        <v>153</v>
-      </c>
-      <c r="E242" t="s">
-        <v>4</v>
-      </c>
-      <c r="F242" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="243" spans="1:6">
-      <c r="A243">
-        <v>19330051920121</v>
-      </c>
-      <c r="B243" t="s">
-        <v>97</v>
-      </c>
-      <c r="C243" t="s">
-        <v>118</v>
-      </c>
-      <c r="D243" t="s">
-        <v>153</v>
-      </c>
-      <c r="E243" t="s">
-        <v>10</v>
-      </c>
-      <c r="F243" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="244" spans="1:6">
-      <c r="A244">
-        <v>19330051920122</v>
-      </c>
-      <c r="B244" t="s">
-        <v>98</v>
-      </c>
-      <c r="C244" t="s">
-        <v>119</v>
-      </c>
-      <c r="D244" t="s">
-        <v>154</v>
-      </c>
-      <c r="E244" t="s">
-        <v>4</v>
-      </c>
-      <c r="F244" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="245" spans="1:6">
-      <c r="A245">
-        <v>19330051920122</v>
-      </c>
-      <c r="B245" t="s">
-        <v>98</v>
-      </c>
-      <c r="C245" t="s">
-        <v>119</v>
-      </c>
-      <c r="D245" t="s">
-        <v>154</v>
-      </c>
-      <c r="E245" t="s">
-        <v>7</v>
-      </c>
-      <c r="F245" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="246" spans="1:6">
-      <c r="A246">
-        <v>19330051920122</v>
-      </c>
-      <c r="B246" t="s">
-        <v>98</v>
-      </c>
-      <c r="C246" t="s">
-        <v>119</v>
-      </c>
-      <c r="D246" t="s">
-        <v>154</v>
-      </c>
-      <c r="E246" t="s">
-        <v>9</v>
-      </c>
-      <c r="F246" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="247" spans="1:6">
-      <c r="A247">
-        <v>19330051920122</v>
-      </c>
-      <c r="B247" t="s">
-        <v>98</v>
-      </c>
-      <c r="C247" t="s">
-        <v>119</v>
-      </c>
-      <c r="D247" t="s">
-        <v>154</v>
-      </c>
-      <c r="E247" t="s">
-        <v>6</v>
-      </c>
-      <c r="F247" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="248" spans="1:6">
-      <c r="A248">
-        <v>19330051920122</v>
-      </c>
-      <c r="B248" t="s">
-        <v>98</v>
-      </c>
-      <c r="C248" t="s">
-        <v>119</v>
-      </c>
-      <c r="D248" t="s">
-        <v>154</v>
-      </c>
-      <c r="E248" t="s">
-        <v>8</v>
-      </c>
-      <c r="F248" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="249" spans="1:6">
-      <c r="A249">
-        <v>19330051920122</v>
-      </c>
-      <c r="B249" t="s">
-        <v>98</v>
-      </c>
-      <c r="C249" t="s">
-        <v>119</v>
-      </c>
-      <c r="D249" t="s">
-        <v>154</v>
-      </c>
-      <c r="E249" t="s">
-        <v>10</v>
-      </c>
-      <c r="F249" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="250" spans="1:6">
-      <c r="A250">
-        <v>19330051920122</v>
-      </c>
-      <c r="B250" t="s">
-        <v>98</v>
-      </c>
-      <c r="C250" t="s">
-        <v>119</v>
-      </c>
-      <c r="D250" t="s">
-        <v>154</v>
-      </c>
-      <c r="E250" t="s">
-        <v>5</v>
-      </c>
-      <c r="F250" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="251" spans="1:6">
-      <c r="A251">
-        <v>19330051920124</v>
-      </c>
-      <c r="B251" t="s">
-        <v>99</v>
-      </c>
-      <c r="C251" t="s">
-        <v>120</v>
-      </c>
-      <c r="D251" t="s">
-        <v>155</v>
-      </c>
-      <c r="E251" t="s">
-        <v>7</v>
-      </c>
-      <c r="F251" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="252" spans="1:6">
-      <c r="A252">
-        <v>19330051920124</v>
-      </c>
-      <c r="B252" t="s">
-        <v>99</v>
-      </c>
-      <c r="C252" t="s">
-        <v>120</v>
-      </c>
-      <c r="D252" t="s">
-        <v>155</v>
-      </c>
-      <c r="E252" t="s">
-        <v>6</v>
-      </c>
-      <c r="F252" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="253" spans="1:6">
-      <c r="A253">
-        <v>19330051920124</v>
-      </c>
-      <c r="B253" t="s">
-        <v>99</v>
-      </c>
-      <c r="C253" t="s">
-        <v>120</v>
-      </c>
-      <c r="D253" t="s">
-        <v>155</v>
-      </c>
-      <c r="E253" t="s">
-        <v>5</v>
-      </c>
-      <c r="F253" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="254" spans="1:6">
-      <c r="A254">
-        <v>19330051920124</v>
-      </c>
-      <c r="B254" t="s">
-        <v>99</v>
-      </c>
-      <c r="C254" t="s">
-        <v>120</v>
-      </c>
-      <c r="D254" t="s">
-        <v>155</v>
-      </c>
-      <c r="E254" t="s">
-        <v>10</v>
-      </c>
-      <c r="F254" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="255" spans="1:6">
-      <c r="A255">
-        <v>19330051920124</v>
-      </c>
-      <c r="B255" t="s">
-        <v>99</v>
-      </c>
-      <c r="C255" t="s">
-        <v>120</v>
-      </c>
-      <c r="D255" t="s">
-        <v>155</v>
-      </c>
-      <c r="E255" t="s">
-        <v>4</v>
-      </c>
-      <c r="F255" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="256" spans="1:6">
-      <c r="A256">
-        <v>19330051920124</v>
-      </c>
-      <c r="B256" t="s">
-        <v>99</v>
-      </c>
-      <c r="C256" t="s">
-        <v>120</v>
-      </c>
-      <c r="D256" t="s">
-        <v>155</v>
-      </c>
-      <c r="E256" t="s">
-        <v>8</v>
-      </c>
-      <c r="F256" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="257" spans="1:6">
-      <c r="A257">
-        <v>19330051920124</v>
-      </c>
-      <c r="B257" t="s">
-        <v>99</v>
-      </c>
-      <c r="C257" t="s">
-        <v>120</v>
-      </c>
-      <c r="D257" t="s">
-        <v>155</v>
-      </c>
-      <c r="E257" t="s">
-        <v>9</v>
-      </c>
-      <c r="F257" t="s">
-        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -8941,291 +7132,291 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2">
-        <v>19330051920094</v>
+        <v>19330051920092</v>
       </c>
       <c r="B2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C2" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E2">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3">
-        <v>19330051920099</v>
+        <v>19330051920091</v>
       </c>
       <c r="B3" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C3" t="s">
-        <v>105</v>
+        <v>83</v>
       </c>
       <c r="D3" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="E3">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4">
-        <v>19330051920109</v>
+        <v>19330051920101</v>
       </c>
       <c r="B4" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C4" t="s">
-        <v>79</v>
+        <v>107</v>
       </c>
       <c r="D4" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="E4">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5">
-        <v>19330051920111</v>
+        <v>19330051920112</v>
       </c>
       <c r="B5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C5" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="D5" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E5">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6">
-        <v>19330051920124</v>
+        <v>19330051920094</v>
       </c>
       <c r="B6" t="s">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="C6" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="D6" t="s">
-        <v>155</v>
+        <v>129</v>
       </c>
       <c r="E6">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7">
-        <v>19330051920113</v>
+        <v>19330051920095</v>
       </c>
       <c r="B7" t="s">
+        <v>77</v>
+      </c>
+      <c r="C7" t="s">
         <v>88</v>
       </c>
-      <c r="C7" t="s">
-        <v>84</v>
-      </c>
       <c r="D7" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8">
-        <v>19330051920457</v>
+        <v>19330051920098</v>
       </c>
       <c r="B8" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="C8" t="s">
-        <v>115</v>
+        <v>77</v>
       </c>
       <c r="D8" t="s">
-        <v>150</v>
+        <v>132</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9">
-        <v>19330051920091</v>
+        <v>19330051920099</v>
       </c>
       <c r="B9" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C9" t="s">
-        <v>83</v>
+        <v>105</v>
       </c>
       <c r="D9" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10">
-        <v>19330051920098</v>
+        <v>19330051920096</v>
       </c>
       <c r="B10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C10" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="D10" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11">
-        <v>19330051920096</v>
+        <v>19330051920105</v>
       </c>
       <c r="B11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C11" t="s">
-        <v>82</v>
+        <v>109</v>
       </c>
       <c r="D11" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12">
-        <v>19330051920101</v>
+        <v>19330051920109</v>
       </c>
       <c r="B12" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="C12" t="s">
-        <v>107</v>
+        <v>79</v>
       </c>
       <c r="D12" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13">
-        <v>19330051920105</v>
+        <v>19330051920111</v>
       </c>
       <c r="B13" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="C13" t="s">
-        <v>109</v>
+        <v>83</v>
       </c>
       <c r="D13" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14">
-        <v>19330051920107</v>
+        <v>19330051920113</v>
       </c>
       <c r="B14" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C14" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="D14" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15">
-        <v>19330051920110</v>
+        <v>19330051920117</v>
       </c>
       <c r="B15" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="C15" t="s">
-        <v>112</v>
+        <v>76</v>
       </c>
       <c r="D15" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16">
-        <v>19330051920112</v>
+        <v>19330051920457</v>
       </c>
       <c r="B16" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="C16" t="s">
-        <v>77</v>
+        <v>115</v>
       </c>
       <c r="D16" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17">
-        <v>19330051920001</v>
+        <v>19330051920119</v>
       </c>
       <c r="B17" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="C17" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="D17" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18">
-        <v>19330051920119</v>
+        <v>19330051920124</v>
       </c>
       <c r="B18" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="C18" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="D18" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -9242,46 +7433,46 @@
         <v>121</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
-        <v>19330051920088</v>
+        <v>19330051920084</v>
       </c>
       <c r="B20" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C20" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D20" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
-        <v>19330051920090</v>
+        <v>19330051920088</v>
       </c>
       <c r="B21" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C21" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="D21" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
-        <v>19330051920089</v>
+        <v>19330051920090</v>
       </c>
       <c r="B22" t="s">
         <v>72</v>
@@ -9290,44 +7481,44 @@
         <v>91</v>
       </c>
       <c r="D22" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23">
-        <v>19330051920092</v>
+        <v>19330051920089</v>
       </c>
       <c r="B23" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C23" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D23" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24">
-        <v>19330051920095</v>
+        <v>19330051920093</v>
       </c>
       <c r="B24" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C24" t="s">
         <v>88</v>
       </c>
       <c r="D24" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -9344,7 +7535,7 @@
         <v>131</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -9361,7 +7552,7 @@
         <v>137</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -9378,194 +7569,194 @@
         <v>139</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28">
-        <v>19330051920116</v>
+        <v>19330051920107</v>
       </c>
       <c r="B28" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C28" t="s">
-        <v>114</v>
+        <v>77</v>
       </c>
       <c r="D28" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29">
-        <v>19330051920117</v>
+        <v>19330051920110</v>
       </c>
       <c r="B29" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C29" t="s">
-        <v>76</v>
+        <v>112</v>
       </c>
       <c r="D29" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30">
-        <v>19330051920120</v>
+        <v>19330051920001</v>
       </c>
       <c r="B30" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="C30" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D30" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31">
-        <v>19330051920121</v>
+        <v>19330051920116</v>
       </c>
       <c r="B31" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C31" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D31" t="s">
-        <v>153</v>
+        <v>129</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32">
-        <v>19330051920122</v>
+        <v>19330051920118</v>
       </c>
       <c r="B32" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="C32" t="s">
-        <v>119</v>
+        <v>83</v>
       </c>
       <c r="D32" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33">
-        <v>19330051920084</v>
+        <v>19330051920120</v>
       </c>
       <c r="B33" t="s">
-        <v>70</v>
+        <v>96</v>
       </c>
       <c r="C33" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
       <c r="D33" t="s">
-        <v>122</v>
+        <v>152</v>
       </c>
       <c r="E33">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34">
-        <v>19330051920093</v>
+        <v>19330051920121</v>
       </c>
       <c r="B34" t="s">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="C34" t="s">
-        <v>88</v>
+        <v>118</v>
       </c>
       <c r="D34" t="s">
-        <v>128</v>
+        <v>153</v>
       </c>
       <c r="E34">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35">
-        <v>19330051920100</v>
+        <v>19330051920122</v>
       </c>
       <c r="B35" t="s">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="C35" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="D35" t="s">
-        <v>134</v>
+        <v>154</v>
       </c>
       <c r="E35">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36">
-        <v>19330051920106</v>
+        <v>19330051920100</v>
       </c>
       <c r="B36" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C36" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D36" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="E36">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37">
-        <v>19330051920115</v>
+        <v>19330051920106</v>
       </c>
       <c r="B37" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C37" t="s">
-        <v>83</v>
+        <v>111</v>
       </c>
       <c r="D37" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="E37">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38">
-        <v>19330051920118</v>
+        <v>19330051920115</v>
       </c>
       <c r="B38" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C38" t="s">
         <v>83</v>
       </c>
       <c r="D38" t="s">
-        <v>149</v>
+        <v>122</v>
       </c>
       <c r="E38">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -9605,7 +7796,7 @@
         <v>49</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/grupos/4BEM - Estadisticos 2020.xlsx
+++ b/grupos/4BEM - Estadisticos 2020.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1046" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="841" uniqueCount="156">
   <si>
     <t>Materia</t>
   </si>
@@ -197,22 +197,22 @@
     <t>Fernández Castro Araceli</t>
   </si>
   <si>
+    <t>Rodríguez Román Leticia</t>
+  </si>
+  <si>
+    <t>González Sánchez Rene Aurelio</t>
+  </si>
+  <si>
+    <t>Velasco Sanchez David</t>
+  </si>
+  <si>
+    <t>Rivera Cruz Ezequiel</t>
+  </si>
+  <si>
+    <t>Torres Sánchez José Luis</t>
+  </si>
+  <si>
     <t>Jimenez Nieto Enrique</t>
-  </si>
-  <si>
-    <t>González Sánchez Rene Aurelio</t>
-  </si>
-  <si>
-    <t>Rodríguez Román Leticia</t>
-  </si>
-  <si>
-    <t>Velasco Sanchez David</t>
-  </si>
-  <si>
-    <t>Rivera Cruz Ezequiel</t>
-  </si>
-  <si>
-    <t>Torres Sánchez José Luis</t>
   </si>
   <si>
     <t>NC</t>
@@ -981,13 +981,13 @@
         <v>8</v>
       </c>
       <c r="I4">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="J4">
         <v>7</v>
       </c>
       <c r="K4">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="L4">
         <v>-1</v>
@@ -999,7 +999,7 @@
         <v>10</v>
       </c>
       <c r="O4">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="P4">
         <v>-1</v>
@@ -1055,7 +1055,7 @@
         <v>7</v>
       </c>
       <c r="K5">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="L5">
         <v>-1</v>
@@ -1067,7 +1067,7 @@
         <v>6</v>
       </c>
       <c r="O5">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="P5">
         <v>-1</v>
@@ -1117,13 +1117,13 @@
         <v>9</v>
       </c>
       <c r="I6">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="J6">
         <v>9</v>
       </c>
       <c r="K6">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="L6">
         <v>-1</v>
@@ -1135,7 +1135,7 @@
         <v>7</v>
       </c>
       <c r="O6">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="P6">
         <v>-1</v>
@@ -1185,13 +1185,13 @@
         <v>9</v>
       </c>
       <c r="I7">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="J7">
         <v>7</v>
       </c>
       <c r="K7">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="L7">
         <v>-1</v>
@@ -1203,7 +1203,7 @@
         <v>6</v>
       </c>
       <c r="O7">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="P7">
         <v>-1</v>
@@ -1253,13 +1253,13 @@
         <v>9</v>
       </c>
       <c r="I8">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="J8">
         <v>7</v>
       </c>
       <c r="K8">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="L8">
         <v>-1</v>
@@ -1271,7 +1271,7 @@
         <v>6</v>
       </c>
       <c r="O8">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="P8">
         <v>-1</v>
@@ -1339,7 +1339,7 @@
         <v>7</v>
       </c>
       <c r="O9">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="P9">
         <v>-1</v>
@@ -1407,7 +1407,7 @@
         <v>7</v>
       </c>
       <c r="O10">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="P10">
         <v>-1</v>
@@ -1463,7 +1463,7 @@
         <v>8</v>
       </c>
       <c r="K11">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="L11">
         <v>-1</v>
@@ -1475,7 +1475,7 @@
         <v>6</v>
       </c>
       <c r="O11">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="P11">
         <v>-1</v>
@@ -1522,7 +1522,7 @@
         <v>8</v>
       </c>
       <c r="H12">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="I12">
         <v>-1</v>
@@ -1543,7 +1543,7 @@
         <v>6</v>
       </c>
       <c r="O12">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="P12">
         <v>-1</v>
@@ -1611,7 +1611,7 @@
         <v>6</v>
       </c>
       <c r="O13">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="P13">
         <v>-1</v>
@@ -1658,7 +1658,7 @@
         <v>8</v>
       </c>
       <c r="H14">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="I14">
         <v>-1</v>
@@ -1679,7 +1679,7 @@
         <v>6</v>
       </c>
       <c r="O14">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="P14">
         <v>-1</v>
@@ -1735,7 +1735,7 @@
         <v>9</v>
       </c>
       <c r="K15">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="L15">
         <v>-1</v>
@@ -1747,7 +1747,7 @@
         <v>8</v>
       </c>
       <c r="O15">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="P15">
         <v>-1</v>
@@ -1794,7 +1794,7 @@
         <v>8</v>
       </c>
       <c r="H16">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="I16">
         <v>-1</v>
@@ -1815,7 +1815,7 @@
         <v>6</v>
       </c>
       <c r="O16">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="P16">
         <v>-1</v>
@@ -1862,7 +1862,7 @@
         <v>10</v>
       </c>
       <c r="H17">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="I17">
         <v>-1</v>
@@ -1883,7 +1883,7 @@
         <v>7</v>
       </c>
       <c r="O17">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="P17">
         <v>-1</v>
@@ -1939,7 +1939,7 @@
         <v>8</v>
       </c>
       <c r="K18">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="L18">
         <v>-1</v>
@@ -1951,7 +1951,7 @@
         <v>8</v>
       </c>
       <c r="O18">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="P18">
         <v>-1</v>
@@ -2019,7 +2019,7 @@
         <v>6</v>
       </c>
       <c r="O19">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="P19">
         <v>-1</v>
@@ -2087,7 +2087,7 @@
         <v>6</v>
       </c>
       <c r="O20">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="P20">
         <v>-1</v>
@@ -2143,7 +2143,7 @@
         <v>7</v>
       </c>
       <c r="K21">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="L21">
         <v>-1</v>
@@ -2155,7 +2155,7 @@
         <v>8</v>
       </c>
       <c r="O21">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="P21">
         <v>-1</v>
@@ -2211,19 +2211,19 @@
         <v>7</v>
       </c>
       <c r="K22">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L22">
         <v>-1</v>
       </c>
       <c r="M22">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="N22">
         <v>6</v>
       </c>
       <c r="O22">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="P22">
         <v>-1</v>
@@ -2279,7 +2279,7 @@
         <v>10</v>
       </c>
       <c r="K23">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L23">
         <v>-1</v>
@@ -2291,7 +2291,7 @@
         <v>10</v>
       </c>
       <c r="O23">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="P23">
         <v>-1</v>
@@ -2338,7 +2338,7 @@
         <v>8</v>
       </c>
       <c r="H24">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="I24">
         <v>6</v>
@@ -2347,19 +2347,19 @@
         <v>8</v>
       </c>
       <c r="K24">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="L24">
         <v>-1</v>
       </c>
       <c r="M24">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="N24">
         <v>6</v>
       </c>
       <c r="O24">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="P24">
         <v>-1</v>
@@ -2406,7 +2406,7 @@
         <v>10</v>
       </c>
       <c r="H25">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="I25">
         <v>-1</v>
@@ -2427,7 +2427,7 @@
         <v>7</v>
       </c>
       <c r="O25">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="P25">
         <v>-1</v>
@@ -2474,7 +2474,7 @@
         <v>10</v>
       </c>
       <c r="H26">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="I26">
         <v>-1</v>
@@ -2495,7 +2495,7 @@
         <v>7</v>
       </c>
       <c r="O26">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="P26">
         <v>-1</v>
@@ -2542,7 +2542,7 @@
         <v>10</v>
       </c>
       <c r="H27">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="I27">
         <v>-1</v>
@@ -2551,7 +2551,7 @@
         <v>7</v>
       </c>
       <c r="K27">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="L27">
         <v>-1</v>
@@ -2563,7 +2563,7 @@
         <v>10</v>
       </c>
       <c r="O27">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="P27">
         <v>-1</v>
@@ -2619,7 +2619,7 @@
         <v>-1</v>
       </c>
       <c r="K28">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L28">
         <v>-1</v>
@@ -2631,7 +2631,7 @@
         <v>7</v>
       </c>
       <c r="O28">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="P28">
         <v>-1</v>
@@ -2678,7 +2678,7 @@
         <v>8</v>
       </c>
       <c r="H29">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="I29">
         <v>-1</v>
@@ -2699,7 +2699,7 @@
         <v>7</v>
       </c>
       <c r="O29">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="P29">
         <v>-1</v>
@@ -2746,7 +2746,7 @@
         <v>8</v>
       </c>
       <c r="H30">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="I30">
         <v>-1</v>
@@ -2767,7 +2767,7 @@
         <v>7</v>
       </c>
       <c r="O30">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="P30">
         <v>-1</v>
@@ -2823,7 +2823,7 @@
         <v>7</v>
       </c>
       <c r="K31">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="L31">
         <v>-1</v>
@@ -2835,7 +2835,7 @@
         <v>8</v>
       </c>
       <c r="O31">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="P31">
         <v>-1</v>
@@ -2891,7 +2891,7 @@
         <v>7</v>
       </c>
       <c r="K32">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="L32">
         <v>-1</v>
@@ -2903,7 +2903,7 @@
         <v>8</v>
       </c>
       <c r="O32">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="P32">
         <v>-1</v>
@@ -2950,7 +2950,7 @@
         <v>10</v>
       </c>
       <c r="H33">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="I33">
         <v>-1</v>
@@ -2971,7 +2971,7 @@
         <v>7</v>
       </c>
       <c r="O33">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="P33">
         <v>-1</v>
@@ -3027,7 +3027,7 @@
         <v>7</v>
       </c>
       <c r="K34">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="L34">
         <v>-1</v>
@@ -3039,7 +3039,7 @@
         <v>6</v>
       </c>
       <c r="O34">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="P34">
         <v>-1</v>
@@ -3095,7 +3095,7 @@
         <v>7</v>
       </c>
       <c r="K35">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L35">
         <v>-1</v>
@@ -3107,7 +3107,7 @@
         <v>7</v>
       </c>
       <c r="O35">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="P35">
         <v>-1</v>
@@ -3163,19 +3163,19 @@
         <v>8</v>
       </c>
       <c r="K36">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="L36">
         <v>-1</v>
       </c>
       <c r="M36">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="N36">
         <v>6</v>
       </c>
       <c r="O36">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="P36">
         <v>-1</v>
@@ -3222,7 +3222,7 @@
         <v>8</v>
       </c>
       <c r="H37">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="I37">
         <v>5</v>
@@ -3243,7 +3243,7 @@
         <v>6</v>
       </c>
       <c r="O37">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="P37">
         <v>-1</v>
@@ -3299,7 +3299,7 @@
         <v>9</v>
       </c>
       <c r="K38">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="L38">
         <v>-1</v>
@@ -3311,7 +3311,7 @@
         <v>6</v>
       </c>
       <c r="O38">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="P38">
         <v>-1</v>
@@ -3367,7 +3367,7 @@
         <v>7</v>
       </c>
       <c r="K39">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L39">
         <v>-1</v>
@@ -3379,7 +3379,7 @@
         <v>6</v>
       </c>
       <c r="O39">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="P39">
         <v>-1</v>
@@ -3426,7 +3426,7 @@
         <v>10</v>
       </c>
       <c r="H40">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="I40">
         <v>-1</v>
@@ -3447,7 +3447,7 @@
         <v>7</v>
       </c>
       <c r="O40">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="P40">
         <v>-1</v>
@@ -3555,7 +3555,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
         <v>59</v>
@@ -3564,22 +3564,25 @@
         <v>37</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E3">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>21.62</v>
       </c>
       <c r="G3">
-        <v>64.86</v>
+        <v>78.38</v>
+      </c>
+      <c r="H3">
+        <v>6.8</v>
       </c>
       <c r="I3">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="J3">
-        <v>100</v>
+        <v>75.68000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -3593,27 +3596,30 @@
         <v>37</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="E4">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>45.95</v>
       </c>
       <c r="G4">
-        <v>86.48999999999999</v>
+        <v>40.54</v>
+      </c>
+      <c r="H4">
+        <v>7.7</v>
       </c>
       <c r="I4">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="J4">
-        <v>100</v>
+        <v>43.24</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
         <v>61</v>
@@ -3622,30 +3628,30 @@
         <v>37</v>
       </c>
       <c r="D5">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="E5">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="F5">
-        <v>10.81</v>
+        <v>56.76</v>
       </c>
       <c r="G5">
-        <v>89.19</v>
+        <v>43.24</v>
       </c>
       <c r="H5">
-        <v>6.8</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="I5">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="J5">
-        <v>86.48999999999999</v>
+        <v>43.24</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>62</v>
@@ -3654,30 +3660,30 @@
         <v>37</v>
       </c>
       <c r="D6">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E6">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="F6">
-        <v>48.65</v>
+        <v>67.56999999999999</v>
       </c>
       <c r="G6">
-        <v>51.35</v>
+        <v>32.43</v>
       </c>
       <c r="H6">
-        <v>8.300000000000001</v>
+        <v>6.9</v>
       </c>
       <c r="I6">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="J6">
-        <v>51.35</v>
+        <v>10.81</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B7" t="s">
         <v>63</v>
@@ -3686,30 +3692,30 @@
         <v>37</v>
       </c>
       <c r="D7">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="E7">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>67.56999999999999</v>
+        <v>100</v>
       </c>
       <c r="G7">
-        <v>32.43</v>
+        <v>0</v>
       </c>
       <c r="H7">
         <v>6.9</v>
       </c>
       <c r="I7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>10.81</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B8" t="s">
         <v>64</v>
@@ -3730,7 +3736,7 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>6.9</v>
+        <v>7.5</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -3746,7 +3752,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F167"/>
+  <dimension ref="A1:F102"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3790,10 +3796,10 @@
         <v>121</v>
       </c>
       <c r="E2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -3813,41 +3819,41 @@
         <v>4</v>
       </c>
       <c r="F3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
-        <v>19330051920085</v>
+        <v>19330051920084</v>
       </c>
       <c r="B4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C4" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
-        <v>19330051920085</v>
+        <v>19330051920088</v>
       </c>
       <c r="B5" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C5" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D5" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E5" t="s">
         <v>7</v>
@@ -3858,16 +3864,16 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
-        <v>19330051920084</v>
+        <v>19330051920090</v>
       </c>
       <c r="B6" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C6" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="D6" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E6" t="s">
         <v>7</v>
@@ -3878,56 +3884,56 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
-        <v>19330051920084</v>
+        <v>19330051920089</v>
       </c>
       <c r="B7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C7" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="D7" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E7" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
-        <v>19330051920084</v>
+        <v>19330051920092</v>
       </c>
       <c r="B8" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C8" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D8" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F8" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9">
-        <v>19330051920084</v>
+        <v>19330051920092</v>
       </c>
       <c r="B9" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C9" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D9" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="E9" t="s">
         <v>6</v>
@@ -3938,19 +3944,19 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10">
-        <v>19330051920088</v>
+        <v>19330051920092</v>
       </c>
       <c r="B10" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C10" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="D10" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F10" t="s">
         <v>59</v>
@@ -3958,139 +3964,139 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11">
-        <v>19330051920088</v>
+        <v>19330051920092</v>
       </c>
       <c r="B11" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C11" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="D11" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E11" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F11" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12">
-        <v>19330051920088</v>
+        <v>19330051920092</v>
       </c>
       <c r="B12" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C12" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="D12" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E12" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F12" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13">
-        <v>19330051920088</v>
+        <v>19330051920091</v>
       </c>
       <c r="B13" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C13" t="s">
-        <v>102</v>
+        <v>83</v>
       </c>
       <c r="D13" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F13" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14">
-        <v>19330051920090</v>
+        <v>19330051920091</v>
       </c>
       <c r="B14" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C14" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="D14" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="E14" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F14" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15">
-        <v>19330051920090</v>
+        <v>19330051920091</v>
       </c>
       <c r="B15" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C15" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="D15" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="E15" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F15" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16">
-        <v>19330051920090</v>
+        <v>19330051920091</v>
       </c>
       <c r="B16" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C16" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="D16" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="E16" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F16" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17">
-        <v>19330051920090</v>
+        <v>19330051920091</v>
       </c>
       <c r="B17" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C17" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="D17" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F17" t="s">
         <v>59</v>
@@ -4098,159 +4104,159 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18">
-        <v>19330051920089</v>
+        <v>19330051920093</v>
       </c>
       <c r="B18" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C18" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D18" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E18" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19">
-        <v>19330051920089</v>
+        <v>19330051920093</v>
       </c>
       <c r="B19" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C19" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D19" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E19" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F19" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20">
-        <v>19330051920089</v>
+        <v>19330051920094</v>
       </c>
       <c r="B20" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C20" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="D20" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="E20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F20" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21">
-        <v>19330051920089</v>
+        <v>19330051920094</v>
       </c>
       <c r="B21" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C21" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="D21" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F21" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22">
-        <v>19330051920092</v>
+        <v>19330051920094</v>
       </c>
       <c r="B22" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C22" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="D22" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="E22" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F22" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23">
-        <v>19330051920092</v>
+        <v>19330051920094</v>
       </c>
       <c r="B23" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C23" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="D23" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="E23" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F23" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24">
-        <v>19330051920092</v>
+        <v>19330051920095</v>
       </c>
       <c r="B24" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C24" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="D24" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25">
-        <v>19330051920092</v>
+        <v>19330051920095</v>
       </c>
       <c r="B25" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C25" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="D25" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="E25" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F25" t="s">
         <v>61</v>
@@ -4258,76 +4264,76 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26">
-        <v>19330051920092</v>
+        <v>19330051920095</v>
       </c>
       <c r="B26" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C26" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="D26" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="E26" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F26" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27">
-        <v>19330051920092</v>
+        <v>19330051920095</v>
       </c>
       <c r="B27" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C27" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="D27" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="E27" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F27" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28">
-        <v>19330051920091</v>
+        <v>19330051920097</v>
       </c>
       <c r="B28" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C28" t="s">
-        <v>83</v>
+        <v>104</v>
       </c>
       <c r="D28" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E28" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F28" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29">
-        <v>19330051920091</v>
+        <v>19330051920097</v>
       </c>
       <c r="B29" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C29" t="s">
-        <v>83</v>
+        <v>104</v>
       </c>
       <c r="D29" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E29" t="s">
         <v>7</v>
@@ -4338,76 +4344,76 @@
     </row>
     <row r="30" spans="1:6">
       <c r="A30">
-        <v>19330051920091</v>
+        <v>19330051920098</v>
       </c>
       <c r="B30" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C30" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="D30" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="E30" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F30" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31">
-        <v>19330051920091</v>
+        <v>19330051920098</v>
       </c>
       <c r="B31" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C31" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="D31" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F31" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32">
-        <v>19330051920091</v>
+        <v>19330051920098</v>
       </c>
       <c r="B32" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C32" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="D32" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="E32" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F32" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33">
-        <v>19330051920091</v>
+        <v>19330051920098</v>
       </c>
       <c r="B33" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C33" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="D33" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="E33" t="s">
         <v>6</v>
@@ -4418,36 +4424,36 @@
     </row>
     <row r="34" spans="1:6">
       <c r="A34">
-        <v>19330051920093</v>
+        <v>19330051920099</v>
       </c>
       <c r="B34" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C34" t="s">
-        <v>88</v>
+        <v>105</v>
       </c>
       <c r="D34" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F34" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35">
-        <v>19330051920093</v>
+        <v>19330051920099</v>
       </c>
       <c r="B35" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C35" t="s">
-        <v>88</v>
+        <v>105</v>
       </c>
       <c r="D35" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="E35" t="s">
         <v>6</v>
@@ -4458,36 +4464,36 @@
     </row>
     <row r="36" spans="1:6">
       <c r="A36">
-        <v>19330051920093</v>
+        <v>19330051920099</v>
       </c>
       <c r="B36" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C36" t="s">
-        <v>88</v>
+        <v>105</v>
       </c>
       <c r="D36" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="E36" t="s">
         <v>4</v>
       </c>
       <c r="F36" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37">
-        <v>19330051920093</v>
+        <v>19330051920099</v>
       </c>
       <c r="B37" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C37" t="s">
-        <v>88</v>
+        <v>105</v>
       </c>
       <c r="D37" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="E37" t="s">
         <v>7</v>
@@ -4498,159 +4504,159 @@
     </row>
     <row r="38" spans="1:6">
       <c r="A38">
-        <v>19330051920094</v>
+        <v>19330051920100</v>
       </c>
       <c r="B38" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C38" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D38" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="E38" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F38" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39">
-        <v>19330051920094</v>
+        <v>19330051920096</v>
       </c>
       <c r="B39" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C39" t="s">
-        <v>103</v>
+        <v>82</v>
       </c>
       <c r="D39" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="E39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F39" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40">
-        <v>19330051920094</v>
+        <v>19330051920096</v>
       </c>
       <c r="B40" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C40" t="s">
-        <v>103</v>
+        <v>82</v>
       </c>
       <c r="D40" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="E40" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F40" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41">
-        <v>19330051920094</v>
+        <v>19330051920096</v>
       </c>
       <c r="B41" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C41" t="s">
-        <v>103</v>
+        <v>82</v>
       </c>
       <c r="D41" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="E41" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F41" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42">
-        <v>19330051920094</v>
+        <v>19330051920096</v>
       </c>
       <c r="B42" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C42" t="s">
-        <v>103</v>
+        <v>82</v>
       </c>
       <c r="D42" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="E42" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F42" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43">
-        <v>19330051920095</v>
+        <v>19330051920101</v>
       </c>
       <c r="B43" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C43" t="s">
-        <v>88</v>
+        <v>107</v>
       </c>
       <c r="D43" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="E43" t="s">
         <v>8</v>
       </c>
       <c r="F43" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44">
-        <v>19330051920095</v>
+        <v>19330051920101</v>
       </c>
       <c r="B44" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C44" t="s">
-        <v>88</v>
+        <v>107</v>
       </c>
       <c r="D44" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="E44" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F44" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45">
-        <v>19330051920095</v>
+        <v>19330051920101</v>
       </c>
       <c r="B45" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C45" t="s">
-        <v>88</v>
+        <v>107</v>
       </c>
       <c r="D45" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="E45" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F45" t="s">
         <v>59</v>
@@ -4658,16 +4664,16 @@
     </row>
     <row r="46" spans="1:6">
       <c r="A46">
-        <v>19330051920095</v>
+        <v>19330051920101</v>
       </c>
       <c r="B46" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C46" t="s">
-        <v>88</v>
+        <v>107</v>
       </c>
       <c r="D46" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="E46" t="s">
         <v>7</v>
@@ -4678,316 +4684,316 @@
     </row>
     <row r="47" spans="1:6">
       <c r="A47">
-        <v>19330051920095</v>
+        <v>19330051920101</v>
       </c>
       <c r="B47" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C47" t="s">
-        <v>88</v>
+        <v>107</v>
       </c>
       <c r="D47" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="E47" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F47" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48">
-        <v>19330051920097</v>
+        <v>19330051920102</v>
       </c>
       <c r="B48" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C48" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="D48" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="E48" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F48" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49">
-        <v>19330051920097</v>
+        <v>19330051920102</v>
       </c>
       <c r="B49" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C49" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="D49" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="E49" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F49" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50">
-        <v>19330051920097</v>
+        <v>19330051920102</v>
       </c>
       <c r="B50" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C50" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="D50" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="E50" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F50" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51">
-        <v>19330051920097</v>
+        <v>19330051920105</v>
       </c>
       <c r="B51" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C51" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="D51" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="E51" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F51" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52">
-        <v>19330051920098</v>
+        <v>19330051920105</v>
       </c>
       <c r="B52" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C52" t="s">
-        <v>77</v>
+        <v>109</v>
       </c>
       <c r="D52" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="E52" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F52" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53">
-        <v>19330051920098</v>
+        <v>19330051920103</v>
       </c>
       <c r="B53" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C53" t="s">
-        <v>77</v>
+        <v>110</v>
       </c>
       <c r="D53" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="E53" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F53" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54">
-        <v>19330051920098</v>
+        <v>19330051920103</v>
       </c>
       <c r="B54" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C54" t="s">
-        <v>77</v>
+        <v>110</v>
       </c>
       <c r="D54" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="E54" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F54" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55">
-        <v>19330051920098</v>
+        <v>19330051920106</v>
       </c>
       <c r="B55" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C55" t="s">
-        <v>77</v>
+        <v>111</v>
       </c>
       <c r="D55" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="E55" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F55" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56">
-        <v>19330051920098</v>
+        <v>19330051920107</v>
       </c>
       <c r="B56" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="C56" t="s">
         <v>77</v>
       </c>
       <c r="D56" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="E56" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F56" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57">
-        <v>19330051920099</v>
+        <v>19330051920109</v>
       </c>
       <c r="B57" t="s">
+        <v>86</v>
+      </c>
+      <c r="C57" t="s">
         <v>79</v>
       </c>
-      <c r="C57" t="s">
-        <v>105</v>
-      </c>
       <c r="D57" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="E57" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F57" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58">
-        <v>19330051920099</v>
+        <v>19330051920109</v>
       </c>
       <c r="B58" t="s">
+        <v>86</v>
+      </c>
+      <c r="C58" t="s">
         <v>79</v>
       </c>
-      <c r="C58" t="s">
-        <v>105</v>
-      </c>
       <c r="D58" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="E58" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F58" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59">
-        <v>19330051920099</v>
+        <v>19330051920109</v>
       </c>
       <c r="B59" t="s">
+        <v>86</v>
+      </c>
+      <c r="C59" t="s">
         <v>79</v>
       </c>
-      <c r="C59" t="s">
-        <v>105</v>
-      </c>
       <c r="D59" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="E59" t="s">
         <v>4</v>
       </c>
       <c r="F59" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60">
-        <v>19330051920099</v>
+        <v>19330051920109</v>
       </c>
       <c r="B60" t="s">
+        <v>86</v>
+      </c>
+      <c r="C60" t="s">
         <v>79</v>
       </c>
-      <c r="C60" t="s">
-        <v>105</v>
-      </c>
       <c r="D60" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="E60" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F60" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61">
-        <v>19330051920099</v>
+        <v>19330051920111</v>
       </c>
       <c r="B61" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="C61" t="s">
-        <v>105</v>
+        <v>83</v>
       </c>
       <c r="D61" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="E61" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F61" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62">
-        <v>19330051920100</v>
+        <v>19330051920111</v>
       </c>
       <c r="B62" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="C62" t="s">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="D62" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="E62" t="s">
         <v>6</v>
@@ -4998,76 +5004,76 @@
     </row>
     <row r="63" spans="1:6">
       <c r="A63">
-        <v>19330051920100</v>
+        <v>19330051920111</v>
       </c>
       <c r="B63" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="C63" t="s">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="D63" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="E63" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F63" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64">
-        <v>19330051920100</v>
+        <v>19330051920111</v>
       </c>
       <c r="B64" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="C64" t="s">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="D64" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="E64" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F64" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65">
-        <v>19330051920096</v>
+        <v>19330051920110</v>
       </c>
       <c r="B65" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="C65" t="s">
-        <v>82</v>
+        <v>112</v>
       </c>
       <c r="D65" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="E65" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F65" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66">
-        <v>19330051920096</v>
+        <v>19330051920110</v>
       </c>
       <c r="B66" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="C66" t="s">
-        <v>82</v>
+        <v>112</v>
       </c>
       <c r="D66" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="E66" t="s">
         <v>7</v>
@@ -5078,216 +5084,216 @@
     </row>
     <row r="67" spans="1:6">
       <c r="A67">
-        <v>19330051920096</v>
+        <v>19330051920112</v>
       </c>
       <c r="B67" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="C67" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="D67" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="E67" t="s">
         <v>4</v>
       </c>
       <c r="F67" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68">
-        <v>19330051920096</v>
+        <v>19330051920112</v>
       </c>
       <c r="B68" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="C68" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="D68" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="E68" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F68" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69">
-        <v>19330051920096</v>
+        <v>19330051920112</v>
       </c>
       <c r="B69" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="C69" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="D69" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="E69" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F69" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70">
-        <v>19330051920101</v>
+        <v>19330051920112</v>
       </c>
       <c r="B70" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="C70" t="s">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="D70" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="E70" t="s">
         <v>8</v>
       </c>
       <c r="F70" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71">
-        <v>19330051920101</v>
+        <v>19330051920113</v>
       </c>
       <c r="B71" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="C71" t="s">
-        <v>107</v>
+        <v>84</v>
       </c>
       <c r="D71" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="E71" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F71" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72">
-        <v>19330051920101</v>
+        <v>19330051920113</v>
       </c>
       <c r="B72" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="C72" t="s">
-        <v>107</v>
+        <v>84</v>
       </c>
       <c r="D72" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="E72" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F72" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73">
-        <v>19330051920101</v>
+        <v>19330051920113</v>
       </c>
       <c r="B73" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="C73" t="s">
-        <v>107</v>
+        <v>84</v>
       </c>
       <c r="D73" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="E73" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F73" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74">
-        <v>19330051920101</v>
+        <v>19330051920113</v>
       </c>
       <c r="B74" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="C74" t="s">
-        <v>107</v>
+        <v>84</v>
       </c>
       <c r="D74" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="E74" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F74" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75">
-        <v>19330051920101</v>
+        <v>19330051920001</v>
       </c>
       <c r="B75" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="C75" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="D75" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="E75" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F75" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76">
-        <v>19330051920102</v>
+        <v>19330051920001</v>
       </c>
       <c r="B76" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="C76" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="D76" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="E76" t="s">
         <v>4</v>
       </c>
       <c r="F76" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="A77">
-        <v>19330051920102</v>
+        <v>19330051920001</v>
       </c>
       <c r="B77" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="C77" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="D77" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="E77" t="s">
         <v>6</v>
@@ -5298,16 +5304,16 @@
     </row>
     <row r="78" spans="1:6">
       <c r="A78">
-        <v>19330051920102</v>
+        <v>19330051920115</v>
       </c>
       <c r="B78" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="C78" t="s">
-        <v>108</v>
+        <v>83</v>
       </c>
       <c r="D78" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="E78" t="s">
         <v>7</v>
@@ -5318,56 +5324,56 @@
     </row>
     <row r="79" spans="1:6">
       <c r="A79">
-        <v>19330051920102</v>
+        <v>19330051920116</v>
       </c>
       <c r="B79" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="C79" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="D79" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="E79" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F79" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="A80">
-        <v>19330051920105</v>
+        <v>19330051920116</v>
       </c>
       <c r="B80" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="C80" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="D80" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="E80" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F80" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="81" spans="1:6">
       <c r="A81">
-        <v>19330051920105</v>
+        <v>19330051920117</v>
       </c>
       <c r="B81" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="C81" t="s">
-        <v>109</v>
+        <v>76</v>
       </c>
       <c r="D81" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="E81" t="s">
         <v>7</v>
@@ -5378,59 +5384,59 @@
     </row>
     <row r="82" spans="1:6">
       <c r="A82">
-        <v>19330051920105</v>
+        <v>19330051920117</v>
       </c>
       <c r="B82" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="C82" t="s">
-        <v>109</v>
+        <v>76</v>
       </c>
       <c r="D82" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="E82" t="s">
         <v>8</v>
       </c>
       <c r="F82" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="83" spans="1:6">
       <c r="A83">
-        <v>19330051920105</v>
+        <v>19330051920117</v>
       </c>
       <c r="B83" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="C83" t="s">
-        <v>109</v>
+        <v>76</v>
       </c>
       <c r="D83" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="E83" t="s">
         <v>4</v>
       </c>
       <c r="F83" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="84" spans="1:6">
       <c r="A84">
-        <v>19330051920105</v>
+        <v>19330051920118</v>
       </c>
       <c r="B84" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="C84" t="s">
-        <v>109</v>
+        <v>83</v>
       </c>
       <c r="D84" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="E84" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F84" t="s">
         <v>59</v>
@@ -5438,59 +5444,59 @@
     </row>
     <row r="85" spans="1:6">
       <c r="A85">
-        <v>19330051920103</v>
+        <v>19330051920118</v>
       </c>
       <c r="B85" t="s">
+        <v>93</v>
+      </c>
+      <c r="C85" t="s">
         <v>83</v>
       </c>
-      <c r="C85" t="s">
-        <v>110</v>
-      </c>
       <c r="D85" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="E85" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F85" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="86" spans="1:6">
       <c r="A86">
-        <v>19330051920103</v>
+        <v>19330051920457</v>
       </c>
       <c r="B86" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="C86" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="D86" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="E86" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F86" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="87" spans="1:6">
       <c r="A87">
-        <v>19330051920103</v>
+        <v>19330051920457</v>
       </c>
       <c r="B87" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="C87" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="D87" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="E87" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F87" t="s">
         <v>59</v>
@@ -5498,56 +5504,56 @@
     </row>
     <row r="88" spans="1:6">
       <c r="A88">
-        <v>19330051920103</v>
+        <v>19330051920457</v>
       </c>
       <c r="B88" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="C88" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="D88" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="E88" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F88" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="89" spans="1:6">
       <c r="A89">
-        <v>19330051920106</v>
+        <v>19330051920457</v>
       </c>
       <c r="B89" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="C89" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="D89" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="E89" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F89" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="90" spans="1:6">
       <c r="A90">
-        <v>19330051920106</v>
+        <v>19330051920119</v>
       </c>
       <c r="B90" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="C90" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D90" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="E90" t="s">
         <v>7</v>
@@ -5558,19 +5564,19 @@
     </row>
     <row r="91" spans="1:6">
       <c r="A91">
-        <v>19330051920106</v>
+        <v>19330051920119</v>
       </c>
       <c r="B91" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="C91" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D91" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="E91" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F91" t="s">
         <v>59</v>
@@ -5578,16 +5584,16 @@
     </row>
     <row r="92" spans="1:6">
       <c r="A92">
-        <v>19330051920107</v>
+        <v>19330051920120</v>
       </c>
       <c r="B92" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="C92" t="s">
-        <v>77</v>
+        <v>117</v>
       </c>
       <c r="D92" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="E92" t="s">
         <v>6</v>
@@ -5598,139 +5604,139 @@
     </row>
     <row r="93" spans="1:6">
       <c r="A93">
-        <v>19330051920107</v>
+        <v>19330051920120</v>
       </c>
       <c r="B93" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="C93" t="s">
-        <v>77</v>
+        <v>117</v>
       </c>
       <c r="D93" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="E93" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F93" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="94" spans="1:6">
       <c r="A94">
-        <v>19330051920107</v>
+        <v>19330051920120</v>
       </c>
       <c r="B94" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="C94" t="s">
-        <v>77</v>
+        <v>117</v>
       </c>
       <c r="D94" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="E94" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F94" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="95" spans="1:6">
       <c r="A95">
-        <v>19330051920107</v>
+        <v>19330051920121</v>
       </c>
       <c r="B95" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="C95" t="s">
-        <v>77</v>
+        <v>118</v>
       </c>
       <c r="D95" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="E95" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F95" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="96" spans="1:6">
       <c r="A96">
-        <v>19330051920109</v>
+        <v>19330051920121</v>
       </c>
       <c r="B96" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="C96" t="s">
-        <v>79</v>
+        <v>118</v>
       </c>
       <c r="D96" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="E96" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F96" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="97" spans="1:6">
       <c r="A97">
-        <v>19330051920109</v>
+        <v>19330051920122</v>
       </c>
       <c r="B97" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="C97" t="s">
-        <v>79</v>
+        <v>119</v>
       </c>
       <c r="D97" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="E97" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F97" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="98" spans="1:6">
       <c r="A98">
-        <v>19330051920109</v>
+        <v>19330051920122</v>
       </c>
       <c r="B98" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="C98" t="s">
-        <v>79</v>
+        <v>119</v>
       </c>
       <c r="D98" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="E98" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F98" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="99" spans="1:6">
       <c r="A99">
-        <v>19330051920109</v>
+        <v>19330051920124</v>
       </c>
       <c r="B99" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="C99" t="s">
-        <v>79</v>
+        <v>120</v>
       </c>
       <c r="D99" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="E99" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F99" t="s">
         <v>61</v>
@@ -5738,1361 +5744,61 @@
     </row>
     <row r="100" spans="1:6">
       <c r="A100">
-        <v>19330051920109</v>
+        <v>19330051920124</v>
       </c>
       <c r="B100" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="C100" t="s">
-        <v>79</v>
+        <v>120</v>
       </c>
       <c r="D100" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="E100" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F100" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="101" spans="1:6">
       <c r="A101">
-        <v>19330051920111</v>
+        <v>19330051920124</v>
       </c>
       <c r="B101" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="C101" t="s">
-        <v>83</v>
+        <v>120</v>
       </c>
       <c r="D101" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="E101" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F101" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="102" spans="1:6">
       <c r="A102">
-        <v>19330051920111</v>
+        <v>19330051920124</v>
       </c>
       <c r="B102" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="C102" t="s">
-        <v>83</v>
+        <v>120</v>
       </c>
       <c r="D102" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="E102" t="s">
         <v>4</v>
       </c>
       <c r="F102" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
-      <c r="A103">
-        <v>19330051920111</v>
-      </c>
-      <c r="B103" t="s">
-        <v>87</v>
-      </c>
-      <c r="C103" t="s">
-        <v>83</v>
-      </c>
-      <c r="D103" t="s">
-        <v>143</v>
-      </c>
-      <c r="E103" t="s">
-        <v>10</v>
-      </c>
-      <c r="F103" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
-      <c r="A104">
-        <v>19330051920111</v>
-      </c>
-      <c r="B104" t="s">
-        <v>87</v>
-      </c>
-      <c r="C104" t="s">
-        <v>83</v>
-      </c>
-      <c r="D104" t="s">
-        <v>143</v>
-      </c>
-      <c r="E104" t="s">
-        <v>6</v>
-      </c>
-      <c r="F104" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6">
-      <c r="A105">
-        <v>19330051920111</v>
-      </c>
-      <c r="B105" t="s">
-        <v>87</v>
-      </c>
-      <c r="C105" t="s">
-        <v>83</v>
-      </c>
-      <c r="D105" t="s">
-        <v>143</v>
-      </c>
-      <c r="E105" t="s">
-        <v>8</v>
-      </c>
-      <c r="F105" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6">
-      <c r="A106">
-        <v>19330051920110</v>
-      </c>
-      <c r="B106" t="s">
-        <v>87</v>
-      </c>
-      <c r="C106" t="s">
-        <v>112</v>
-      </c>
-      <c r="D106" t="s">
-        <v>144</v>
-      </c>
-      <c r="E106" t="s">
-        <v>7</v>
-      </c>
-      <c r="F106" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6">
-      <c r="A107">
-        <v>19330051920110</v>
-      </c>
-      <c r="B107" t="s">
-        <v>87</v>
-      </c>
-      <c r="C107" t="s">
-        <v>112</v>
-      </c>
-      <c r="D107" t="s">
-        <v>144</v>
-      </c>
-      <c r="E107" t="s">
-        <v>4</v>
-      </c>
-      <c r="F107" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6">
-      <c r="A108">
-        <v>19330051920110</v>
-      </c>
-      <c r="B108" t="s">
-        <v>87</v>
-      </c>
-      <c r="C108" t="s">
-        <v>112</v>
-      </c>
-      <c r="D108" t="s">
-        <v>144</v>
-      </c>
-      <c r="E108" t="s">
-        <v>6</v>
-      </c>
-      <c r="F108" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6">
-      <c r="A109">
-        <v>19330051920110</v>
-      </c>
-      <c r="B109" t="s">
-        <v>87</v>
-      </c>
-      <c r="C109" t="s">
-        <v>112</v>
-      </c>
-      <c r="D109" t="s">
-        <v>144</v>
-      </c>
-      <c r="E109" t="s">
-        <v>10</v>
-      </c>
-      <c r="F109" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6">
-      <c r="A110">
-        <v>19330051920112</v>
-      </c>
-      <c r="B110" t="s">
-        <v>88</v>
-      </c>
-      <c r="C110" t="s">
-        <v>77</v>
-      </c>
-      <c r="D110" t="s">
-        <v>145</v>
-      </c>
-      <c r="E110" t="s">
-        <v>6</v>
-      </c>
-      <c r="F110" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6">
-      <c r="A111">
-        <v>19330051920112</v>
-      </c>
-      <c r="B111" t="s">
-        <v>88</v>
-      </c>
-      <c r="C111" t="s">
-        <v>77</v>
-      </c>
-      <c r="D111" t="s">
-        <v>145</v>
-      </c>
-      <c r="E111" t="s">
-        <v>5</v>
-      </c>
-      <c r="F111" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6">
-      <c r="A112">
-        <v>19330051920112</v>
-      </c>
-      <c r="B112" t="s">
-        <v>88</v>
-      </c>
-      <c r="C112" t="s">
-        <v>77</v>
-      </c>
-      <c r="D112" t="s">
-        <v>145</v>
-      </c>
-      <c r="E112" t="s">
-        <v>4</v>
-      </c>
-      <c r="F112" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6">
-      <c r="A113">
-        <v>19330051920112</v>
-      </c>
-      <c r="B113" t="s">
-        <v>88</v>
-      </c>
-      <c r="C113" t="s">
-        <v>77</v>
-      </c>
-      <c r="D113" t="s">
-        <v>145</v>
-      </c>
-      <c r="E113" t="s">
-        <v>8</v>
-      </c>
-      <c r="F113" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6">
-      <c r="A114">
-        <v>19330051920112</v>
-      </c>
-      <c r="B114" t="s">
-        <v>88</v>
-      </c>
-      <c r="C114" t="s">
-        <v>77</v>
-      </c>
-      <c r="D114" t="s">
-        <v>145</v>
-      </c>
-      <c r="E114" t="s">
-        <v>10</v>
-      </c>
-      <c r="F114" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6">
-      <c r="A115">
-        <v>19330051920112</v>
-      </c>
-      <c r="B115" t="s">
-        <v>88</v>
-      </c>
-      <c r="C115" t="s">
-        <v>77</v>
-      </c>
-      <c r="D115" t="s">
-        <v>145</v>
-      </c>
-      <c r="E115" t="s">
-        <v>7</v>
-      </c>
-      <c r="F115" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6">
-      <c r="A116">
-        <v>19330051920113</v>
-      </c>
-      <c r="B116" t="s">
-        <v>88</v>
-      </c>
-      <c r="C116" t="s">
-        <v>84</v>
-      </c>
-      <c r="D116" t="s">
-        <v>146</v>
-      </c>
-      <c r="E116" t="s">
-        <v>7</v>
-      </c>
-      <c r="F116" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6">
-      <c r="A117">
-        <v>19330051920113</v>
-      </c>
-      <c r="B117" t="s">
-        <v>88</v>
-      </c>
-      <c r="C117" t="s">
-        <v>84</v>
-      </c>
-      <c r="D117" t="s">
-        <v>146</v>
-      </c>
-      <c r="E117" t="s">
-        <v>6</v>
-      </c>
-      <c r="F117" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6">
-      <c r="A118">
-        <v>19330051920113</v>
-      </c>
-      <c r="B118" t="s">
-        <v>88</v>
-      </c>
-      <c r="C118" t="s">
-        <v>84</v>
-      </c>
-      <c r="D118" t="s">
-        <v>146</v>
-      </c>
-      <c r="E118" t="s">
-        <v>4</v>
-      </c>
-      <c r="F118" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6">
-      <c r="A119">
-        <v>19330051920113</v>
-      </c>
-      <c r="B119" t="s">
-        <v>88</v>
-      </c>
-      <c r="C119" t="s">
-        <v>84</v>
-      </c>
-      <c r="D119" t="s">
-        <v>146</v>
-      </c>
-      <c r="E119" t="s">
-        <v>10</v>
-      </c>
-      <c r="F119" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6">
-      <c r="A120">
-        <v>19330051920113</v>
-      </c>
-      <c r="B120" t="s">
-        <v>88</v>
-      </c>
-      <c r="C120" t="s">
-        <v>84</v>
-      </c>
-      <c r="D120" t="s">
-        <v>146</v>
-      </c>
-      <c r="E120" t="s">
-        <v>8</v>
-      </c>
-      <c r="F120" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6">
-      <c r="A121">
-        <v>19330051920001</v>
-      </c>
-      <c r="B121" t="s">
-        <v>89</v>
-      </c>
-      <c r="C121" t="s">
-        <v>113</v>
-      </c>
-      <c r="D121" t="s">
-        <v>147</v>
-      </c>
-      <c r="E121" t="s">
-        <v>6</v>
-      </c>
-      <c r="F121" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6">
-      <c r="A122">
-        <v>19330051920001</v>
-      </c>
-      <c r="B122" t="s">
-        <v>89</v>
-      </c>
-      <c r="C122" t="s">
-        <v>113</v>
-      </c>
-      <c r="D122" t="s">
-        <v>147</v>
-      </c>
-      <c r="E122" t="s">
-        <v>4</v>
-      </c>
-      <c r="F122" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6">
-      <c r="A123">
-        <v>19330051920001</v>
-      </c>
-      <c r="B123" t="s">
-        <v>89</v>
-      </c>
-      <c r="C123" t="s">
-        <v>113</v>
-      </c>
-      <c r="D123" t="s">
-        <v>147</v>
-      </c>
-      <c r="E123" t="s">
-        <v>10</v>
-      </c>
-      <c r="F123" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6">
-      <c r="A124">
-        <v>19330051920001</v>
-      </c>
-      <c r="B124" t="s">
-        <v>89</v>
-      </c>
-      <c r="C124" t="s">
-        <v>113</v>
-      </c>
-      <c r="D124" t="s">
-        <v>147</v>
-      </c>
-      <c r="E124" t="s">
-        <v>7</v>
-      </c>
-      <c r="F124" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6">
-      <c r="A125">
-        <v>19330051920115</v>
-      </c>
-      <c r="B125" t="s">
-        <v>90</v>
-      </c>
-      <c r="C125" t="s">
-        <v>83</v>
-      </c>
-      <c r="D125" t="s">
-        <v>122</v>
-      </c>
-      <c r="E125" t="s">
-        <v>10</v>
-      </c>
-      <c r="F125" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6">
-      <c r="A126">
-        <v>19330051920115</v>
-      </c>
-      <c r="B126" t="s">
-        <v>90</v>
-      </c>
-      <c r="C126" t="s">
-        <v>83</v>
-      </c>
-      <c r="D126" t="s">
-        <v>122</v>
-      </c>
-      <c r="E126" t="s">
-        <v>6</v>
-      </c>
-      <c r="F126" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6">
-      <c r="A127">
-        <v>19330051920115</v>
-      </c>
-      <c r="B127" t="s">
-        <v>90</v>
-      </c>
-      <c r="C127" t="s">
-        <v>83</v>
-      </c>
-      <c r="D127" t="s">
-        <v>122</v>
-      </c>
-      <c r="E127" t="s">
-        <v>7</v>
-      </c>
-      <c r="F127" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6">
-      <c r="A128">
-        <v>19330051920116</v>
-      </c>
-      <c r="B128" t="s">
-        <v>91</v>
-      </c>
-      <c r="C128" t="s">
-        <v>114</v>
-      </c>
-      <c r="D128" t="s">
-        <v>129</v>
-      </c>
-      <c r="E128" t="s">
-        <v>4</v>
-      </c>
-      <c r="F128" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6">
-      <c r="A129">
-        <v>19330051920116</v>
-      </c>
-      <c r="B129" t="s">
-        <v>91</v>
-      </c>
-      <c r="C129" t="s">
-        <v>114</v>
-      </c>
-      <c r="D129" t="s">
-        <v>129</v>
-      </c>
-      <c r="E129" t="s">
-        <v>10</v>
-      </c>
-      <c r="F129" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6">
-      <c r="A130">
-        <v>19330051920116</v>
-      </c>
-      <c r="B130" t="s">
-        <v>91</v>
-      </c>
-      <c r="C130" t="s">
-        <v>114</v>
-      </c>
-      <c r="D130" t="s">
-        <v>129</v>
-      </c>
-      <c r="E130" t="s">
-        <v>7</v>
-      </c>
-      <c r="F130" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6">
-      <c r="A131">
-        <v>19330051920116</v>
-      </c>
-      <c r="B131" t="s">
-        <v>91</v>
-      </c>
-      <c r="C131" t="s">
-        <v>114</v>
-      </c>
-      <c r="D131" t="s">
-        <v>129</v>
-      </c>
-      <c r="E131" t="s">
-        <v>6</v>
-      </c>
-      <c r="F131" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6">
-      <c r="A132">
-        <v>19330051920117</v>
-      </c>
-      <c r="B132" t="s">
-        <v>92</v>
-      </c>
-      <c r="C132" t="s">
-        <v>76</v>
-      </c>
-      <c r="D132" t="s">
-        <v>148</v>
-      </c>
-      <c r="E132" t="s">
-        <v>4</v>
-      </c>
-      <c r="F132" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6">
-      <c r="A133">
-        <v>19330051920117</v>
-      </c>
-      <c r="B133" t="s">
-        <v>92</v>
-      </c>
-      <c r="C133" t="s">
-        <v>76</v>
-      </c>
-      <c r="D133" t="s">
-        <v>148</v>
-      </c>
-      <c r="E133" t="s">
-        <v>6</v>
-      </c>
-      <c r="F133" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6">
-      <c r="A134">
-        <v>19330051920117</v>
-      </c>
-      <c r="B134" t="s">
-        <v>92</v>
-      </c>
-      <c r="C134" t="s">
-        <v>76</v>
-      </c>
-      <c r="D134" t="s">
-        <v>148</v>
-      </c>
-      <c r="E134" t="s">
-        <v>7</v>
-      </c>
-      <c r="F134" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6">
-      <c r="A135">
-        <v>19330051920117</v>
-      </c>
-      <c r="B135" t="s">
-        <v>92</v>
-      </c>
-      <c r="C135" t="s">
-        <v>76</v>
-      </c>
-      <c r="D135" t="s">
-        <v>148</v>
-      </c>
-      <c r="E135" t="s">
-        <v>10</v>
-      </c>
-      <c r="F135" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6">
-      <c r="A136">
-        <v>19330051920117</v>
-      </c>
-      <c r="B136" t="s">
-        <v>92</v>
-      </c>
-      <c r="C136" t="s">
-        <v>76</v>
-      </c>
-      <c r="D136" t="s">
-        <v>148</v>
-      </c>
-      <c r="E136" t="s">
-        <v>8</v>
-      </c>
-      <c r="F136" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6">
-      <c r="A137">
-        <v>19330051920118</v>
-      </c>
-      <c r="B137" t="s">
-        <v>93</v>
-      </c>
-      <c r="C137" t="s">
-        <v>83</v>
-      </c>
-      <c r="D137" t="s">
-        <v>149</v>
-      </c>
-      <c r="E137" t="s">
-        <v>6</v>
-      </c>
-      <c r="F137" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6">
-      <c r="A138">
-        <v>19330051920118</v>
-      </c>
-      <c r="B138" t="s">
-        <v>93</v>
-      </c>
-      <c r="C138" t="s">
-        <v>83</v>
-      </c>
-      <c r="D138" t="s">
-        <v>149</v>
-      </c>
-      <c r="E138" t="s">
-        <v>10</v>
-      </c>
-      <c r="F138" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6">
-      <c r="A139">
-        <v>19330051920118</v>
-      </c>
-      <c r="B139" t="s">
-        <v>93</v>
-      </c>
-      <c r="C139" t="s">
-        <v>83</v>
-      </c>
-      <c r="D139" t="s">
-        <v>149</v>
-      </c>
-      <c r="E139" t="s">
-        <v>4</v>
-      </c>
-      <c r="F139" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6">
-      <c r="A140">
-        <v>19330051920118</v>
-      </c>
-      <c r="B140" t="s">
-        <v>93</v>
-      </c>
-      <c r="C140" t="s">
-        <v>83</v>
-      </c>
-      <c r="D140" t="s">
-        <v>149</v>
-      </c>
-      <c r="E140" t="s">
-        <v>7</v>
-      </c>
-      <c r="F140" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6">
-      <c r="A141">
-        <v>19330051920457</v>
-      </c>
-      <c r="B141" t="s">
-        <v>94</v>
-      </c>
-      <c r="C141" t="s">
-        <v>115</v>
-      </c>
-      <c r="D141" t="s">
-        <v>150</v>
-      </c>
-      <c r="E141" t="s">
-        <v>8</v>
-      </c>
-      <c r="F141" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6">
-      <c r="A142">
-        <v>19330051920457</v>
-      </c>
-      <c r="B142" t="s">
-        <v>94</v>
-      </c>
-      <c r="C142" t="s">
-        <v>115</v>
-      </c>
-      <c r="D142" t="s">
-        <v>150</v>
-      </c>
-      <c r="E142" t="s">
-        <v>10</v>
-      </c>
-      <c r="F142" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6">
-      <c r="A143">
-        <v>19330051920457</v>
-      </c>
-      <c r="B143" t="s">
-        <v>94</v>
-      </c>
-      <c r="C143" t="s">
-        <v>115</v>
-      </c>
-      <c r="D143" t="s">
-        <v>150</v>
-      </c>
-      <c r="E143" t="s">
-        <v>4</v>
-      </c>
-      <c r="F143" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6">
-      <c r="A144">
-        <v>19330051920457</v>
-      </c>
-      <c r="B144" t="s">
-        <v>94</v>
-      </c>
-      <c r="C144" t="s">
-        <v>115</v>
-      </c>
-      <c r="D144" t="s">
-        <v>150</v>
-      </c>
-      <c r="E144" t="s">
-        <v>6</v>
-      </c>
-      <c r="F144" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6">
-      <c r="A145">
-        <v>19330051920457</v>
-      </c>
-      <c r="B145" t="s">
-        <v>94</v>
-      </c>
-      <c r="C145" t="s">
-        <v>115</v>
-      </c>
-      <c r="D145" t="s">
-        <v>150</v>
-      </c>
-      <c r="E145" t="s">
-        <v>7</v>
-      </c>
-      <c r="F145" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6">
-      <c r="A146">
-        <v>19330051920119</v>
-      </c>
-      <c r="B146" t="s">
-        <v>95</v>
-      </c>
-      <c r="C146" t="s">
-        <v>116</v>
-      </c>
-      <c r="D146" t="s">
-        <v>151</v>
-      </c>
-      <c r="E146" t="s">
-        <v>10</v>
-      </c>
-      <c r="F146" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6">
-      <c r="A147">
-        <v>19330051920119</v>
-      </c>
-      <c r="B147" t="s">
-        <v>95</v>
-      </c>
-      <c r="C147" t="s">
-        <v>116</v>
-      </c>
-      <c r="D147" t="s">
-        <v>151</v>
-      </c>
-      <c r="E147" t="s">
-        <v>7</v>
-      </c>
-      <c r="F147" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6">
-      <c r="A148">
-        <v>19330051920119</v>
-      </c>
-      <c r="B148" t="s">
-        <v>95</v>
-      </c>
-      <c r="C148" t="s">
-        <v>116</v>
-      </c>
-      <c r="D148" t="s">
-        <v>151</v>
-      </c>
-      <c r="E148" t="s">
-        <v>6</v>
-      </c>
-      <c r="F148" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6">
-      <c r="A149">
-        <v>19330051920119</v>
-      </c>
-      <c r="B149" t="s">
-        <v>95</v>
-      </c>
-      <c r="C149" t="s">
-        <v>116</v>
-      </c>
-      <c r="D149" t="s">
-        <v>151</v>
-      </c>
-      <c r="E149" t="s">
-        <v>8</v>
-      </c>
-      <c r="F149" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="150" spans="1:6">
-      <c r="A150">
-        <v>19330051920119</v>
-      </c>
-      <c r="B150" t="s">
-        <v>95</v>
-      </c>
-      <c r="C150" t="s">
-        <v>116</v>
-      </c>
-      <c r="D150" t="s">
-        <v>151</v>
-      </c>
-      <c r="E150" t="s">
-        <v>4</v>
-      </c>
-      <c r="F150" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="151" spans="1:6">
-      <c r="A151">
-        <v>19330051920120</v>
-      </c>
-      <c r="B151" t="s">
-        <v>96</v>
-      </c>
-      <c r="C151" t="s">
-        <v>117</v>
-      </c>
-      <c r="D151" t="s">
-        <v>152</v>
-      </c>
-      <c r="E151" t="s">
-        <v>8</v>
-      </c>
-      <c r="F151" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="152" spans="1:6">
-      <c r="A152">
-        <v>19330051920120</v>
-      </c>
-      <c r="B152" t="s">
-        <v>96</v>
-      </c>
-      <c r="C152" t="s">
-        <v>117</v>
-      </c>
-      <c r="D152" t="s">
-        <v>152</v>
-      </c>
-      <c r="E152" t="s">
-        <v>6</v>
-      </c>
-      <c r="F152" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="153" spans="1:6">
-      <c r="A153">
-        <v>19330051920120</v>
-      </c>
-      <c r="B153" t="s">
-        <v>96</v>
-      </c>
-      <c r="C153" t="s">
-        <v>117</v>
-      </c>
-      <c r="D153" t="s">
-        <v>152</v>
-      </c>
-      <c r="E153" t="s">
-        <v>7</v>
-      </c>
-      <c r="F153" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="154" spans="1:6">
-      <c r="A154">
-        <v>19330051920120</v>
-      </c>
-      <c r="B154" t="s">
-        <v>96</v>
-      </c>
-      <c r="C154" t="s">
-        <v>117</v>
-      </c>
-      <c r="D154" t="s">
-        <v>152</v>
-      </c>
-      <c r="E154" t="s">
-        <v>10</v>
-      </c>
-      <c r="F154" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="155" spans="1:6">
-      <c r="A155">
-        <v>19330051920121</v>
-      </c>
-      <c r="B155" t="s">
-        <v>97</v>
-      </c>
-      <c r="C155" t="s">
-        <v>118</v>
-      </c>
-      <c r="D155" t="s">
-        <v>153</v>
-      </c>
-      <c r="E155" t="s">
-        <v>6</v>
-      </c>
-      <c r="F155" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="156" spans="1:6">
-      <c r="A156">
-        <v>19330051920121</v>
-      </c>
-      <c r="B156" t="s">
-        <v>97</v>
-      </c>
-      <c r="C156" t="s">
-        <v>118</v>
-      </c>
-      <c r="D156" t="s">
-        <v>153</v>
-      </c>
-      <c r="E156" t="s">
-        <v>4</v>
-      </c>
-      <c r="F156" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="157" spans="1:6">
-      <c r="A157">
-        <v>19330051920121</v>
-      </c>
-      <c r="B157" t="s">
-        <v>97</v>
-      </c>
-      <c r="C157" t="s">
-        <v>118</v>
-      </c>
-      <c r="D157" t="s">
-        <v>153</v>
-      </c>
-      <c r="E157" t="s">
-        <v>10</v>
-      </c>
-      <c r="F157" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="158" spans="1:6">
-      <c r="A158">
-        <v>19330051920121</v>
-      </c>
-      <c r="B158" t="s">
-        <v>97</v>
-      </c>
-      <c r="C158" t="s">
-        <v>118</v>
-      </c>
-      <c r="D158" t="s">
-        <v>153</v>
-      </c>
-      <c r="E158" t="s">
-        <v>7</v>
-      </c>
-      <c r="F158" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="159" spans="1:6">
-      <c r="A159">
-        <v>19330051920122</v>
-      </c>
-      <c r="B159" t="s">
-        <v>98</v>
-      </c>
-      <c r="C159" t="s">
-        <v>119</v>
-      </c>
-      <c r="D159" t="s">
-        <v>154</v>
-      </c>
-      <c r="E159" t="s">
-        <v>7</v>
-      </c>
-      <c r="F159" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="160" spans="1:6">
-      <c r="A160">
-        <v>19330051920122</v>
-      </c>
-      <c r="B160" t="s">
-        <v>98</v>
-      </c>
-      <c r="C160" t="s">
-        <v>119</v>
-      </c>
-      <c r="D160" t="s">
-        <v>154</v>
-      </c>
-      <c r="E160" t="s">
-        <v>6</v>
-      </c>
-      <c r="F160" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="161" spans="1:6">
-      <c r="A161">
-        <v>19330051920122</v>
-      </c>
-      <c r="B161" t="s">
-        <v>98</v>
-      </c>
-      <c r="C161" t="s">
-        <v>119</v>
-      </c>
-      <c r="D161" t="s">
-        <v>154</v>
-      </c>
-      <c r="E161" t="s">
-        <v>10</v>
-      </c>
-      <c r="F161" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="162" spans="1:6">
-      <c r="A162">
-        <v>19330051920122</v>
-      </c>
-      <c r="B162" t="s">
-        <v>98</v>
-      </c>
-      <c r="C162" t="s">
-        <v>119</v>
-      </c>
-      <c r="D162" t="s">
-        <v>154</v>
-      </c>
-      <c r="E162" t="s">
-        <v>4</v>
-      </c>
-      <c r="F162" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="163" spans="1:6">
-      <c r="A163">
-        <v>19330051920124</v>
-      </c>
-      <c r="B163" t="s">
-        <v>99</v>
-      </c>
-      <c r="C163" t="s">
-        <v>120</v>
-      </c>
-      <c r="D163" t="s">
-        <v>155</v>
-      </c>
-      <c r="E163" t="s">
-        <v>6</v>
-      </c>
-      <c r="F163" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="164" spans="1:6">
-      <c r="A164">
-        <v>19330051920124</v>
-      </c>
-      <c r="B164" t="s">
-        <v>99</v>
-      </c>
-      <c r="C164" t="s">
-        <v>120</v>
-      </c>
-      <c r="D164" t="s">
-        <v>155</v>
-      </c>
-      <c r="E164" t="s">
-        <v>7</v>
-      </c>
-      <c r="F164" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="165" spans="1:6">
-      <c r="A165">
-        <v>19330051920124</v>
-      </c>
-      <c r="B165" t="s">
-        <v>99</v>
-      </c>
-      <c r="C165" t="s">
-        <v>120</v>
-      </c>
-      <c r="D165" t="s">
-        <v>155</v>
-      </c>
-      <c r="E165" t="s">
-        <v>8</v>
-      </c>
-      <c r="F165" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="166" spans="1:6">
-      <c r="A166">
-        <v>19330051920124</v>
-      </c>
-      <c r="B166" t="s">
-        <v>99</v>
-      </c>
-      <c r="C166" t="s">
-        <v>120</v>
-      </c>
-      <c r="D166" t="s">
-        <v>155</v>
-      </c>
-      <c r="E166" t="s">
-        <v>4</v>
-      </c>
-      <c r="F166" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="167" spans="1:6">
-      <c r="A167">
-        <v>19330051920124</v>
-      </c>
-      <c r="B167" t="s">
-        <v>99</v>
-      </c>
-      <c r="C167" t="s">
-        <v>120</v>
-      </c>
-      <c r="D167" t="s">
-        <v>155</v>
-      </c>
-      <c r="E167" t="s">
-        <v>10</v>
-      </c>
-      <c r="F167" t="s">
         <v>59</v>
       </c>
     </row>
@@ -7144,7 +5850,7 @@
         <v>126</v>
       </c>
       <c r="E2">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -7161,7 +5867,7 @@
         <v>127</v>
       </c>
       <c r="E3">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -7178,568 +5884,568 @@
         <v>136</v>
       </c>
       <c r="E4">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5">
-        <v>19330051920112</v>
+        <v>19330051920094</v>
       </c>
       <c r="B5" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="C5" t="s">
-        <v>77</v>
+        <v>103</v>
       </c>
       <c r="D5" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="E5">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6">
-        <v>19330051920094</v>
+        <v>19330051920095</v>
       </c>
       <c r="B6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C6" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="D6" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E6">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7">
-        <v>19330051920095</v>
+        <v>19330051920098</v>
       </c>
       <c r="B7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C7" t="s">
         <v>77</v>
       </c>
-      <c r="C7" t="s">
-        <v>88</v>
-      </c>
       <c r="D7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E7">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8">
-        <v>19330051920098</v>
+        <v>19330051920099</v>
       </c>
       <c r="B8" t="s">
         <v>79</v>
       </c>
       <c r="C8" t="s">
-        <v>77</v>
+        <v>105</v>
       </c>
       <c r="D8" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E8">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9">
-        <v>19330051920099</v>
+        <v>19330051920096</v>
       </c>
       <c r="B9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C9" t="s">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="D9" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E9">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10">
-        <v>19330051920096</v>
+        <v>19330051920109</v>
       </c>
       <c r="B10" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="C10" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D10" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="E10">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11">
-        <v>19330051920105</v>
+        <v>19330051920111</v>
       </c>
       <c r="B11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="C11" t="s">
-        <v>109</v>
+        <v>83</v>
       </c>
       <c r="D11" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="E11">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12">
-        <v>19330051920109</v>
+        <v>19330051920112</v>
       </c>
       <c r="B12" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C12" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D12" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="E12">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13">
-        <v>19330051920111</v>
+        <v>19330051920113</v>
       </c>
       <c r="B13" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C13" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D13" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="E13">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14">
-        <v>19330051920113</v>
+        <v>19330051920457</v>
       </c>
       <c r="B14" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="C14" t="s">
-        <v>84</v>
+        <v>115</v>
       </c>
       <c r="D14" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="E14">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15">
-        <v>19330051920117</v>
+        <v>19330051920124</v>
       </c>
       <c r="B15" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="C15" t="s">
-        <v>76</v>
+        <v>120</v>
       </c>
       <c r="D15" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="E15">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16">
-        <v>19330051920457</v>
+        <v>19330051920102</v>
       </c>
       <c r="B16" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="C16" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="D16" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="E16">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17">
-        <v>19330051920119</v>
+        <v>19330051920001</v>
       </c>
       <c r="B17" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="C17" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D17" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="E17">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18">
-        <v>19330051920124</v>
+        <v>19330051920117</v>
       </c>
       <c r="B18" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="C18" t="s">
-        <v>120</v>
+        <v>76</v>
       </c>
       <c r="D18" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="E18">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19">
-        <v>19330051920085</v>
+        <v>19330051920120</v>
       </c>
       <c r="B19" t="s">
-        <v>69</v>
+        <v>96</v>
       </c>
       <c r="C19" t="s">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="D19" t="s">
-        <v>121</v>
+        <v>152</v>
       </c>
       <c r="E19">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
-        <v>19330051920084</v>
+        <v>19330051920085</v>
       </c>
       <c r="B20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C20" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D20" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E20">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
-        <v>19330051920088</v>
+        <v>19330051920093</v>
       </c>
       <c r="B21" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C21" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="D21" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="E21">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
-        <v>19330051920090</v>
+        <v>19330051920097</v>
       </c>
       <c r="B22" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="C22" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="D22" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="E22">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23">
-        <v>19330051920089</v>
+        <v>19330051920105</v>
       </c>
       <c r="B23" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="C23" t="s">
-        <v>91</v>
+        <v>109</v>
       </c>
       <c r="D23" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="E23">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24">
-        <v>19330051920093</v>
+        <v>19330051920103</v>
       </c>
       <c r="B24" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="C24" t="s">
-        <v>88</v>
+        <v>110</v>
       </c>
       <c r="D24" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="E24">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25">
-        <v>19330051920097</v>
+        <v>19330051920110</v>
       </c>
       <c r="B25" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="C25" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="D25" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="E25">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26">
-        <v>19330051920102</v>
+        <v>19330051920116</v>
       </c>
       <c r="B26" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="C26" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="D26" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="E26">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27">
-        <v>19330051920103</v>
+        <v>19330051920118</v>
       </c>
       <c r="B27" t="s">
+        <v>93</v>
+      </c>
+      <c r="C27" t="s">
         <v>83</v>
       </c>
-      <c r="C27" t="s">
-        <v>110</v>
-      </c>
       <c r="D27" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="E27">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28">
-        <v>19330051920107</v>
+        <v>19330051920119</v>
       </c>
       <c r="B28" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="C28" t="s">
-        <v>77</v>
+        <v>116</v>
       </c>
       <c r="D28" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="E28">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29">
-        <v>19330051920110</v>
+        <v>19330051920121</v>
       </c>
       <c r="B29" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="C29" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="D29" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="E29">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30">
-        <v>19330051920001</v>
+        <v>19330051920122</v>
       </c>
       <c r="B30" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="C30" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="D30" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="E30">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31">
-        <v>19330051920116</v>
+        <v>19330051920084</v>
       </c>
       <c r="B31" t="s">
-        <v>91</v>
+        <v>70</v>
       </c>
       <c r="C31" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="D31" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="E31">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32">
-        <v>19330051920118</v>
+        <v>19330051920088</v>
       </c>
       <c r="B32" t="s">
-        <v>93</v>
+        <v>71</v>
       </c>
       <c r="C32" t="s">
-        <v>83</v>
+        <v>102</v>
       </c>
       <c r="D32" t="s">
-        <v>149</v>
+        <v>123</v>
       </c>
       <c r="E32">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33">
-        <v>19330051920120</v>
+        <v>19330051920090</v>
       </c>
       <c r="B33" t="s">
-        <v>96</v>
+        <v>72</v>
       </c>
       <c r="C33" t="s">
-        <v>117</v>
+        <v>91</v>
       </c>
       <c r="D33" t="s">
-        <v>152</v>
+        <v>124</v>
       </c>
       <c r="E33">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34">
-        <v>19330051920121</v>
+        <v>19330051920089</v>
       </c>
       <c r="B34" t="s">
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="C34" t="s">
-        <v>118</v>
+        <v>91</v>
       </c>
       <c r="D34" t="s">
-        <v>153</v>
+        <v>125</v>
       </c>
       <c r="E34">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35">
-        <v>19330051920122</v>
+        <v>19330051920100</v>
       </c>
       <c r="B35" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="C35" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="D35" t="s">
-        <v>154</v>
+        <v>134</v>
       </c>
       <c r="E35">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36">
-        <v>19330051920100</v>
+        <v>19330051920106</v>
       </c>
       <c r="B36" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C36" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="D36" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="E36">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37">
-        <v>19330051920106</v>
+        <v>19330051920107</v>
       </c>
       <c r="B37" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C37" t="s">
-        <v>111</v>
+        <v>77</v>
       </c>
       <c r="D37" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E37">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -7756,7 +6462,7 @@
         <v>122</v>
       </c>
       <c r="E38">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -7766,7 +6472,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -7799,6 +6505,558 @@
         <v>2</v>
       </c>
     </row>
+    <row r="2" spans="1:7">
+      <c r="A2">
+        <v>19330051920085</v>
+      </c>
+      <c r="B2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3">
+        <v>19330051920085</v>
+      </c>
+      <c r="B3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D3" t="s">
+        <v>121</v>
+      </c>
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" t="s">
+        <v>58</v>
+      </c>
+      <c r="G3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>19330051920093</v>
+      </c>
+      <c r="B4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D4" t="s">
+        <v>128</v>
+      </c>
+      <c r="E4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" t="s">
+        <v>59</v>
+      </c>
+      <c r="G4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>19330051920093</v>
+      </c>
+      <c r="B5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D5" t="s">
+        <v>128</v>
+      </c>
+      <c r="E5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G5">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>19330051920097</v>
+      </c>
+      <c r="B6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C6" t="s">
+        <v>104</v>
+      </c>
+      <c r="D6" t="s">
+        <v>131</v>
+      </c>
+      <c r="E6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" t="s">
+        <v>59</v>
+      </c>
+      <c r="G6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <v>19330051920097</v>
+      </c>
+      <c r="B7" t="s">
+        <v>78</v>
+      </c>
+      <c r="C7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D7" t="s">
+        <v>131</v>
+      </c>
+      <c r="E7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G7">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <v>19330051920103</v>
+      </c>
+      <c r="B8" t="s">
+        <v>83</v>
+      </c>
+      <c r="C8" t="s">
+        <v>110</v>
+      </c>
+      <c r="D8" t="s">
+        <v>139</v>
+      </c>
+      <c r="E8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" t="s">
+        <v>59</v>
+      </c>
+      <c r="G8">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9">
+        <v>19330051920103</v>
+      </c>
+      <c r="B9" t="s">
+        <v>83</v>
+      </c>
+      <c r="C9" t="s">
+        <v>110</v>
+      </c>
+      <c r="D9" t="s">
+        <v>139</v>
+      </c>
+      <c r="E9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" t="s">
+        <v>58</v>
+      </c>
+      <c r="G9">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10">
+        <v>19330051920110</v>
+      </c>
+      <c r="B10" t="s">
+        <v>87</v>
+      </c>
+      <c r="C10" t="s">
+        <v>112</v>
+      </c>
+      <c r="D10" t="s">
+        <v>144</v>
+      </c>
+      <c r="E10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" t="s">
+        <v>59</v>
+      </c>
+      <c r="G10">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11">
+        <v>19330051920110</v>
+      </c>
+      <c r="B11" t="s">
+        <v>87</v>
+      </c>
+      <c r="C11" t="s">
+        <v>112</v>
+      </c>
+      <c r="D11" t="s">
+        <v>144</v>
+      </c>
+      <c r="E11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" t="s">
+        <v>58</v>
+      </c>
+      <c r="G11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12">
+        <v>19330051920116</v>
+      </c>
+      <c r="B12" t="s">
+        <v>91</v>
+      </c>
+      <c r="C12" t="s">
+        <v>114</v>
+      </c>
+      <c r="D12" t="s">
+        <v>129</v>
+      </c>
+      <c r="E12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F12" t="s">
+        <v>59</v>
+      </c>
+      <c r="G12">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13">
+        <v>19330051920116</v>
+      </c>
+      <c r="B13" t="s">
+        <v>91</v>
+      </c>
+      <c r="C13" t="s">
+        <v>114</v>
+      </c>
+      <c r="D13" t="s">
+        <v>129</v>
+      </c>
+      <c r="E13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" t="s">
+        <v>58</v>
+      </c>
+      <c r="G13">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14">
+        <v>19330051920121</v>
+      </c>
+      <c r="B14" t="s">
+        <v>97</v>
+      </c>
+      <c r="C14" t="s">
+        <v>118</v>
+      </c>
+      <c r="D14" t="s">
+        <v>153</v>
+      </c>
+      <c r="E14" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" t="s">
+        <v>59</v>
+      </c>
+      <c r="G14">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15">
+        <v>19330051920121</v>
+      </c>
+      <c r="B15" t="s">
+        <v>97</v>
+      </c>
+      <c r="C15" t="s">
+        <v>118</v>
+      </c>
+      <c r="D15" t="s">
+        <v>153</v>
+      </c>
+      <c r="E15" t="s">
+        <v>7</v>
+      </c>
+      <c r="F15" t="s">
+        <v>58</v>
+      </c>
+      <c r="G15">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16">
+        <v>19330051920122</v>
+      </c>
+      <c r="B16" t="s">
+        <v>98</v>
+      </c>
+      <c r="C16" t="s">
+        <v>119</v>
+      </c>
+      <c r="D16" t="s">
+        <v>154</v>
+      </c>
+      <c r="E16" t="s">
+        <v>4</v>
+      </c>
+      <c r="F16" t="s">
+        <v>59</v>
+      </c>
+      <c r="G16">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17">
+        <v>19330051920122</v>
+      </c>
+      <c r="B17" t="s">
+        <v>98</v>
+      </c>
+      <c r="C17" t="s">
+        <v>119</v>
+      </c>
+      <c r="D17" t="s">
+        <v>154</v>
+      </c>
+      <c r="E17" t="s">
+        <v>7</v>
+      </c>
+      <c r="F17" t="s">
+        <v>58</v>
+      </c>
+      <c r="G17">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18">
+        <v>19330051920084</v>
+      </c>
+      <c r="B18" t="s">
+        <v>70</v>
+      </c>
+      <c r="C18" t="s">
+        <v>101</v>
+      </c>
+      <c r="D18" t="s">
+        <v>122</v>
+      </c>
+      <c r="E18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F18" t="s">
+        <v>58</v>
+      </c>
+      <c r="G18">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19">
+        <v>19330051920088</v>
+      </c>
+      <c r="B19" t="s">
+        <v>71</v>
+      </c>
+      <c r="C19" t="s">
+        <v>102</v>
+      </c>
+      <c r="D19" t="s">
+        <v>123</v>
+      </c>
+      <c r="E19" t="s">
+        <v>7</v>
+      </c>
+      <c r="F19" t="s">
+        <v>58</v>
+      </c>
+      <c r="G19">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20">
+        <v>19330051920090</v>
+      </c>
+      <c r="B20" t="s">
+        <v>72</v>
+      </c>
+      <c r="C20" t="s">
+        <v>91</v>
+      </c>
+      <c r="D20" t="s">
+        <v>124</v>
+      </c>
+      <c r="E20" t="s">
+        <v>7</v>
+      </c>
+      <c r="F20" t="s">
+        <v>58</v>
+      </c>
+      <c r="G20">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21">
+        <v>19330051920089</v>
+      </c>
+      <c r="B21" t="s">
+        <v>72</v>
+      </c>
+      <c r="C21" t="s">
+        <v>91</v>
+      </c>
+      <c r="D21" t="s">
+        <v>125</v>
+      </c>
+      <c r="E21" t="s">
+        <v>7</v>
+      </c>
+      <c r="F21" t="s">
+        <v>58</v>
+      </c>
+      <c r="G21">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22">
+        <v>19330051920100</v>
+      </c>
+      <c r="B22" t="s">
+        <v>79</v>
+      </c>
+      <c r="C22" t="s">
+        <v>106</v>
+      </c>
+      <c r="D22" t="s">
+        <v>134</v>
+      </c>
+      <c r="E22" t="s">
+        <v>7</v>
+      </c>
+      <c r="F22" t="s">
+        <v>58</v>
+      </c>
+      <c r="G22">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23">
+        <v>19330051920106</v>
+      </c>
+      <c r="B23" t="s">
+        <v>84</v>
+      </c>
+      <c r="C23" t="s">
+        <v>111</v>
+      </c>
+      <c r="D23" t="s">
+        <v>140</v>
+      </c>
+      <c r="E23" t="s">
+        <v>7</v>
+      </c>
+      <c r="F23" t="s">
+        <v>58</v>
+      </c>
+      <c r="G23">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24">
+        <v>19330051920107</v>
+      </c>
+      <c r="B24" t="s">
+        <v>85</v>
+      </c>
+      <c r="C24" t="s">
+        <v>77</v>
+      </c>
+      <c r="D24" t="s">
+        <v>141</v>
+      </c>
+      <c r="E24" t="s">
+        <v>7</v>
+      </c>
+      <c r="F24" t="s">
+        <v>58</v>
+      </c>
+      <c r="G24">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25">
+        <v>19330051920115</v>
+      </c>
+      <c r="B25" t="s">
+        <v>90</v>
+      </c>
+      <c r="C25" t="s">
+        <v>83</v>
+      </c>
+      <c r="D25" t="s">
+        <v>122</v>
+      </c>
+      <c r="E25" t="s">
+        <v>7</v>
+      </c>
+      <c r="F25" t="s">
+        <v>58</v>
+      </c>
+      <c r="G25">
+        <v>-1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/grupos/4BEM - Estadisticos 2020.xlsx
+++ b/grupos/4BEM - Estadisticos 2020.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="841" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="156">
   <si>
     <t>Materia</t>
   </si>
@@ -194,15 +194,15 @@
     <t>Por_Blancos</t>
   </si>
   <si>
+    <t>Rodríguez Román Leticia</t>
+  </si>
+  <si>
+    <t>González Sánchez Rene Aurelio</t>
+  </si>
+  <si>
     <t>Fernández Castro Araceli</t>
   </si>
   <si>
-    <t>Rodríguez Román Leticia</t>
-  </si>
-  <si>
-    <t>González Sánchez Rene Aurelio</t>
-  </si>
-  <si>
     <t>Velasco Sanchez David</t>
   </si>
   <si>
@@ -230,6 +230,216 @@
     <t>ANTONIO</t>
   </si>
   <si>
+    <t>CLEMENTE</t>
+  </si>
+  <si>
+    <t>CITLAHUA</t>
+  </si>
+  <si>
+    <t>CONDADO</t>
+  </si>
+  <si>
+    <t>CRUZ</t>
+  </si>
+  <si>
+    <t>DE LA CRUZ</t>
+  </si>
+  <si>
+    <t>FLORENCIO</t>
+  </si>
+  <si>
+    <t>FLORES</t>
+  </si>
+  <si>
+    <t>DE LA GARZA</t>
+  </si>
+  <si>
+    <t>GONZALEZ</t>
+  </si>
+  <si>
+    <t>HERRERA</t>
+  </si>
+  <si>
+    <t>HERNANDEZ</t>
+  </si>
+  <si>
+    <t>MARCELINO</t>
+  </si>
+  <si>
+    <t>MARTINEZ</t>
+  </si>
+  <si>
+    <t>MORALES</t>
+  </si>
+  <si>
+    <t>MUÑOZ</t>
+  </si>
+  <si>
+    <t>ROJAS</t>
+  </si>
+  <si>
+    <t>SANTIAGO</t>
+  </si>
+  <si>
+    <t>SARMIENTO</t>
+  </si>
+  <si>
+    <t>SALINAS</t>
+  </si>
+  <si>
+    <t>SUAREZ</t>
+  </si>
+  <si>
+    <t>TAPIA</t>
+  </si>
+  <si>
+    <t>TEXCAHUA</t>
+  </si>
+  <si>
+    <t>TOCOHUA</t>
+  </si>
+  <si>
+    <t>XOTLANIHUA</t>
+  </si>
+  <si>
+    <t>TEXOCO</t>
+  </si>
+  <si>
+    <t>GARATE</t>
+  </si>
+  <si>
+    <t>BERNABE</t>
+  </si>
+  <si>
+    <t>DIAZ</t>
+  </si>
+  <si>
+    <t>ANTEMATE</t>
+  </si>
+  <si>
+    <t>IXMATLAHUA</t>
+  </si>
+  <si>
+    <t>AVELINO</t>
+  </si>
+  <si>
+    <t>DEL ANGEL</t>
+  </si>
+  <si>
+    <t>RODRIGUEZ</t>
+  </si>
+  <si>
+    <t>JIMENEZ</t>
+  </si>
+  <si>
+    <t>LUNA</t>
+  </si>
+  <si>
+    <t>ANGUIANO</t>
+  </si>
+  <si>
+    <t>ZENON</t>
+  </si>
+  <si>
+    <t>DE JESUS</t>
+  </si>
+  <si>
+    <t>RIVERA</t>
+  </si>
+  <si>
+    <t>TETLA</t>
+  </si>
+  <si>
+    <t>BERISTAIN</t>
+  </si>
+  <si>
+    <t>TLAXCALA</t>
+  </si>
+  <si>
+    <t>JOSE JAZAEL</t>
+  </si>
+  <si>
+    <t>ELEAZAR RIGOBERTO</t>
+  </si>
+  <si>
+    <t>RAUL ARTURO</t>
+  </si>
+  <si>
+    <t>JOSUE ALEXIS</t>
+  </si>
+  <si>
+    <t>JOSUE</t>
+  </si>
+  <si>
+    <t>JAFET</t>
+  </si>
+  <si>
+    <t>JESUS ENRIQUE</t>
+  </si>
+  <si>
+    <t>JUAN ANTONIO</t>
+  </si>
+  <si>
+    <t>ADRIANA</t>
+  </si>
+  <si>
+    <t>DULCE REGINA</t>
+  </si>
+  <si>
+    <t>AXEL MIGUEL</t>
+  </si>
+  <si>
+    <t>MIGUEL ANGEL</t>
+  </si>
+  <si>
+    <t>AXEL</t>
+  </si>
+  <si>
+    <t>URIEL</t>
+  </si>
+  <si>
+    <t>EDUARDO</t>
+  </si>
+  <si>
+    <t>JULIAN</t>
+  </si>
+  <si>
+    <t>YAEL</t>
+  </si>
+  <si>
+    <t>JOSE ALONSO</t>
+  </si>
+  <si>
+    <t>LUIS MARIO</t>
+  </si>
+  <si>
+    <t>ARIAN ALEXIS</t>
+  </si>
+  <si>
+    <t>YARITZI</t>
+  </si>
+  <si>
+    <t>ROMARIO ALDAIR</t>
+  </si>
+  <si>
+    <t>ANGEL JOHAN</t>
+  </si>
+  <si>
+    <t>YAMILET</t>
+  </si>
+  <si>
+    <t>MARIA ISABEL</t>
+  </si>
+  <si>
+    <t>JOSUE GILBERTO</t>
+  </si>
+  <si>
+    <t>ADOLFO</t>
+  </si>
+  <si>
+    <t>OMAR</t>
+  </si>
+  <si>
     <t>AGUILAR</t>
   </si>
   <si>
@@ -239,153 +449,24 @@
     <t>CASTILLO</t>
   </si>
   <si>
-    <t>CLEMENTE</t>
-  </si>
-  <si>
-    <t>CITLAHUA</t>
-  </si>
-  <si>
-    <t>CONDADO</t>
-  </si>
-  <si>
-    <t>CRUZ</t>
-  </si>
-  <si>
-    <t>DE LA CRUZ</t>
-  </si>
-  <si>
-    <t>FLORENCIO</t>
-  </si>
-  <si>
-    <t>FLORES</t>
-  </si>
-  <si>
-    <t>DE LA GARZA</t>
-  </si>
-  <si>
-    <t>GONZALEZ</t>
-  </si>
-  <si>
-    <t>HERRERA</t>
-  </si>
-  <si>
-    <t>HERNANDEZ</t>
-  </si>
-  <si>
-    <t>JIMENEZ</t>
-  </si>
-  <si>
     <t>JUAN</t>
   </si>
   <si>
-    <t>MARCELINO</t>
-  </si>
-  <si>
-    <t>MARTINEZ</t>
-  </si>
-  <si>
-    <t>MORALES</t>
-  </si>
-  <si>
-    <t>MUÑOZ</t>
-  </si>
-  <si>
     <t>OCTAVIANO</t>
   </si>
   <si>
-    <t>ROJAS</t>
-  </si>
-  <si>
-    <t>SANTIAGO</t>
-  </si>
-  <si>
-    <t>SARMIENTO</t>
-  </si>
-  <si>
-    <t>SALINAS</t>
-  </si>
-  <si>
-    <t>SUAREZ</t>
-  </si>
-  <si>
-    <t>TAPIA</t>
-  </si>
-  <si>
-    <t>TEXCAHUA</t>
-  </si>
-  <si>
-    <t>TOCOHUA</t>
-  </si>
-  <si>
-    <t>XOTLANIHUA</t>
-  </si>
-  <si>
-    <t>TEXOCO</t>
-  </si>
-  <si>
     <t>TEZOCO</t>
   </si>
   <si>
     <t>GALLARDO</t>
   </si>
   <si>
-    <t>GARATE</t>
-  </si>
-  <si>
-    <t>BERNABE</t>
-  </si>
-  <si>
-    <t>DIAZ</t>
-  </si>
-  <si>
     <t>SANCHEZ</t>
   </si>
   <si>
-    <t>ANTEMATE</t>
-  </si>
-  <si>
-    <t>IXMATLAHUA</t>
-  </si>
-  <si>
-    <t>AVELINO</t>
-  </si>
-  <si>
-    <t>DEL ANGEL</t>
-  </si>
-  <si>
     <t>MIRON</t>
   </si>
   <si>
-    <t>RODRIGUEZ</t>
-  </si>
-  <si>
-    <t>LUNA</t>
-  </si>
-  <si>
-    <t>ANGUIANO</t>
-  </si>
-  <si>
-    <t>ZENON</t>
-  </si>
-  <si>
-    <t>DE JESUS</t>
-  </si>
-  <si>
-    <t>RIVERA</t>
-  </si>
-  <si>
-    <t>TETLA</t>
-  </si>
-  <si>
-    <t>BERISTAIN</t>
-  </si>
-  <si>
-    <t>TLAXCALA</t>
-  </si>
-  <si>
-    <t>JOSE JAZAEL</t>
-  </si>
-  <si>
     <t>JOSE ANTONIO</t>
   </si>
   <si>
@@ -398,94 +479,13 @@
     <t>BRANDON</t>
   </si>
   <si>
-    <t>ELEAZAR RIGOBERTO</t>
-  </si>
-  <si>
-    <t>RAUL ARTURO</t>
-  </si>
-  <si>
-    <t>JOSUE ALEXIS</t>
-  </si>
-  <si>
-    <t>JOSUE</t>
-  </si>
-  <si>
-    <t>JAFET</t>
-  </si>
-  <si>
-    <t>JESUS ENRIQUE</t>
-  </si>
-  <si>
-    <t>JUAN ANTONIO</t>
-  </si>
-  <si>
-    <t>ADRIANA</t>
-  </si>
-  <si>
     <t>JUAN LUIS</t>
   </si>
   <si>
-    <t>DULCE REGINA</t>
-  </si>
-  <si>
-    <t>AXEL MIGUEL</t>
-  </si>
-  <si>
-    <t>MIGUEL ANGEL</t>
-  </si>
-  <si>
-    <t>AXEL</t>
-  </si>
-  <si>
-    <t>URIEL</t>
-  </si>
-  <si>
     <t>EMMANUEL</t>
   </si>
   <si>
     <t>OSWALDO ENRIQUE</t>
-  </si>
-  <si>
-    <t>EDUARDO</t>
-  </si>
-  <si>
-    <t>JULIAN</t>
-  </si>
-  <si>
-    <t>YAEL</t>
-  </si>
-  <si>
-    <t>JOSE ALONSO</t>
-  </si>
-  <si>
-    <t>LUIS MARIO</t>
-  </si>
-  <si>
-    <t>ARIAN ALEXIS</t>
-  </si>
-  <si>
-    <t>YARITZI</t>
-  </si>
-  <si>
-    <t>ROMARIO ALDAIR</t>
-  </si>
-  <si>
-    <t>ANGEL JOHAN</t>
-  </si>
-  <si>
-    <t>YAMILET</t>
-  </si>
-  <si>
-    <t>MARIA ISABEL</t>
-  </si>
-  <si>
-    <t>JOSUE GILBERTO</t>
-  </si>
-  <si>
-    <t>ADOLFO</t>
-  </si>
-  <si>
-    <t>OMAR</t>
   </si>
 </sst>
 </file>
@@ -990,7 +990,7 @@
         <v>9</v>
       </c>
       <c r="L4">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="M4">
         <v>10</v>
@@ -1058,7 +1058,7 @@
         <v>7</v>
       </c>
       <c r="L5">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M5">
         <v>7</v>
@@ -1126,7 +1126,7 @@
         <v>8</v>
       </c>
       <c r="L6">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M6">
         <v>9</v>
@@ -1194,7 +1194,7 @@
         <v>9</v>
       </c>
       <c r="L7">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="M7">
         <v>10</v>
@@ -1262,7 +1262,7 @@
         <v>8</v>
       </c>
       <c r="L8">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="M8">
         <v>9</v>
@@ -1330,7 +1330,7 @@
         <v>-1</v>
       </c>
       <c r="L9">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="M9">
         <v>-1</v>
@@ -1398,7 +1398,7 @@
         <v>-1</v>
       </c>
       <c r="L10">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="M10">
         <v>-1</v>
@@ -1466,7 +1466,7 @@
         <v>7</v>
       </c>
       <c r="L11">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M11">
         <v>6</v>
@@ -1534,7 +1534,7 @@
         <v>-1</v>
       </c>
       <c r="L12">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="M12">
         <v>-1</v>
@@ -1602,7 +1602,7 @@
         <v>-1</v>
       </c>
       <c r="L13">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="M13">
         <v>-1</v>
@@ -1670,7 +1670,7 @@
         <v>-1</v>
       </c>
       <c r="L14">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="M14">
         <v>-1</v>
@@ -1738,7 +1738,7 @@
         <v>9</v>
       </c>
       <c r="L15">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="M15">
         <v>9</v>
@@ -1806,7 +1806,7 @@
         <v>-1</v>
       </c>
       <c r="L16">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="M16">
         <v>-1</v>
@@ -1874,7 +1874,7 @@
         <v>-1</v>
       </c>
       <c r="L17">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="M17">
         <v>-1</v>
@@ -1942,7 +1942,7 @@
         <v>7</v>
       </c>
       <c r="L18">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="M18">
         <v>10</v>
@@ -2010,7 +2010,7 @@
         <v>-1</v>
       </c>
       <c r="L19">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M19">
         <v>-1</v>
@@ -2078,7 +2078,7 @@
         <v>-1</v>
       </c>
       <c r="L20">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M20">
         <v>8</v>
@@ -2146,7 +2146,7 @@
         <v>7</v>
       </c>
       <c r="L21">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="M21">
         <v>9</v>
@@ -2214,7 +2214,7 @@
         <v>6</v>
       </c>
       <c r="L22">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="M22">
         <v>8</v>
@@ -2282,7 +2282,7 @@
         <v>10</v>
       </c>
       <c r="L23">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="M23">
         <v>10</v>
@@ -2350,7 +2350,7 @@
         <v>9</v>
       </c>
       <c r="L24">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="M24">
         <v>8</v>
@@ -2418,7 +2418,7 @@
         <v>-1</v>
       </c>
       <c r="L25">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="M25">
         <v>-1</v>
@@ -2486,7 +2486,7 @@
         <v>-1</v>
       </c>
       <c r="L26">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="M26">
         <v>-1</v>
@@ -2554,7 +2554,7 @@
         <v>7</v>
       </c>
       <c r="L27">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M27">
         <v>7</v>
@@ -2622,7 +2622,7 @@
         <v>6</v>
       </c>
       <c r="L28">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="M28">
         <v>-1</v>
@@ -2690,7 +2690,7 @@
         <v>-1</v>
       </c>
       <c r="L29">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="M29">
         <v>-1</v>
@@ -2758,7 +2758,7 @@
         <v>-1</v>
       </c>
       <c r="L30">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="M30">
         <v>6</v>
@@ -2826,7 +2826,7 @@
         <v>7</v>
       </c>
       <c r="L31">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="M31">
         <v>6</v>
@@ -2894,7 +2894,7 @@
         <v>9</v>
       </c>
       <c r="L32">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M32">
         <v>7</v>
@@ -2962,7 +2962,7 @@
         <v>-1</v>
       </c>
       <c r="L33">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="M33">
         <v>-1</v>
@@ -3030,7 +3030,7 @@
         <v>9</v>
       </c>
       <c r="L34">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M34">
         <v>-1</v>
@@ -3098,7 +3098,7 @@
         <v>6</v>
       </c>
       <c r="L35">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M35">
         <v>8</v>
@@ -3166,7 +3166,7 @@
         <v>7</v>
       </c>
       <c r="L36">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="M36">
         <v>8</v>
@@ -3234,7 +3234,7 @@
         <v>-1</v>
       </c>
       <c r="L37">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="M37">
         <v>-1</v>
@@ -3302,7 +3302,7 @@
         <v>9</v>
       </c>
       <c r="L38">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="M38">
         <v>10</v>
@@ -3370,7 +3370,7 @@
         <v>6</v>
       </c>
       <c r="L39">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M39">
         <v>9</v>
@@ -3438,7 +3438,7 @@
         <v>-1</v>
       </c>
       <c r="L40">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="M40">
         <v>-1</v>
@@ -3526,7 +3526,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
         <v>58</v>
@@ -3535,27 +3535,30 @@
         <v>37</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E2">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>21.62</v>
       </c>
       <c r="G2">
-        <v>100</v>
+        <v>78.38</v>
+      </c>
+      <c r="H2">
+        <v>6.8</v>
       </c>
       <c r="I2">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="J2">
-        <v>100</v>
+        <v>75.68000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
         <v>59</v>
@@ -3564,30 +3567,30 @@
         <v>37</v>
       </c>
       <c r="D3">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="E3">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="F3">
-        <v>21.62</v>
+        <v>45.95</v>
       </c>
       <c r="G3">
-        <v>78.38</v>
+        <v>40.54</v>
       </c>
       <c r="H3">
-        <v>6.8</v>
+        <v>7.7</v>
       </c>
       <c r="I3">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="J3">
-        <v>75.68000000000001</v>
+        <v>43.24</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
         <v>60</v>
@@ -3596,25 +3599,25 @@
         <v>37</v>
       </c>
       <c r="D4">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E4">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F4">
-        <v>45.95</v>
+        <v>56.76</v>
       </c>
       <c r="G4">
-        <v>40.54</v>
+        <v>43.24</v>
       </c>
       <c r="H4">
-        <v>7.7</v>
+        <v>6.4</v>
       </c>
       <c r="I4">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>43.24</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -3752,7 +3755,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F102"/>
+  <dimension ref="A1:F65"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3790,13 +3793,13 @@
         <v>69</v>
       </c>
       <c r="C2" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="D2" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="E2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F2" t="s">
         <v>58</v>
@@ -3804,59 +3807,59 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
-        <v>19330051920085</v>
+        <v>19330051920092</v>
       </c>
       <c r="B3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C3" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="D3" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="E3" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
-        <v>19330051920084</v>
+        <v>19330051920092</v>
       </c>
       <c r="B4" t="s">
         <v>70</v>
       </c>
       <c r="C4" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="D4" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="E4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
-        <v>19330051920088</v>
+        <v>19330051920092</v>
       </c>
       <c r="B5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C5" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="D5" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="E5" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F5" t="s">
         <v>58</v>
@@ -3864,99 +3867,99 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
-        <v>19330051920090</v>
+        <v>19330051920092</v>
       </c>
       <c r="B6" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C6" t="s">
         <v>91</v>
       </c>
       <c r="D6" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="E6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F6" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
-        <v>19330051920089</v>
+        <v>19330051920091</v>
       </c>
       <c r="B7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C7" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="D7" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="E7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F7" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
-        <v>19330051920092</v>
+        <v>19330051920091</v>
       </c>
       <c r="B8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C8" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="D8" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="E8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F8" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9">
-        <v>19330051920092</v>
+        <v>19330051920091</v>
       </c>
       <c r="B9" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C9" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="D9" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="E9" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10">
-        <v>19330051920092</v>
+        <v>19330051920091</v>
       </c>
       <c r="B10" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C10" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="D10" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="E10" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F10" t="s">
         <v>59</v>
@@ -3964,39 +3967,39 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11">
-        <v>19330051920092</v>
+        <v>19330051920093</v>
       </c>
       <c r="B11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C11" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="D11" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="E11" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F11" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12">
-        <v>19330051920092</v>
+        <v>19330051920094</v>
       </c>
       <c r="B12" t="s">
         <v>73</v>
       </c>
       <c r="C12" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D12" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="E12" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F12" t="s">
         <v>58</v>
@@ -4004,16 +4007,16 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13">
-        <v>19330051920091</v>
+        <v>19330051920094</v>
       </c>
       <c r="B13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C13" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="D13" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="E13" t="s">
         <v>8</v>
@@ -4024,27 +4027,27 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14">
-        <v>19330051920091</v>
+        <v>19330051920094</v>
       </c>
       <c r="B14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C14" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="D14" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="E14" t="s">
         <v>6</v>
       </c>
       <c r="F14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15">
-        <v>19330051920091</v>
+        <v>19330051920095</v>
       </c>
       <c r="B15" t="s">
         <v>74</v>
@@ -4053,10 +4056,10 @@
         <v>83</v>
       </c>
       <c r="D15" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="E15" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F15" t="s">
         <v>58</v>
@@ -4064,7 +4067,7 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16">
-        <v>19330051920091</v>
+        <v>19330051920095</v>
       </c>
       <c r="B16" t="s">
         <v>74</v>
@@ -4073,18 +4076,18 @@
         <v>83</v>
       </c>
       <c r="D16" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="E16" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F16" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17">
-        <v>19330051920091</v>
+        <v>19330051920095</v>
       </c>
       <c r="B17" t="s">
         <v>74</v>
@@ -4093,110 +4096,110 @@
         <v>83</v>
       </c>
       <c r="D17" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="E17" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F17" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18">
-        <v>19330051920093</v>
+        <v>19330051920097</v>
       </c>
       <c r="B18" t="s">
         <v>75</v>
       </c>
       <c r="C18" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="D18" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="E18" t="s">
         <v>4</v>
       </c>
       <c r="F18" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19">
-        <v>19330051920093</v>
+        <v>19330051920098</v>
       </c>
       <c r="B19" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C19" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="D19" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="E19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F19" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20">
-        <v>19330051920094</v>
+        <v>19330051920098</v>
       </c>
       <c r="B20" t="s">
         <v>76</v>
       </c>
       <c r="C20" t="s">
-        <v>103</v>
+        <v>74</v>
       </c>
       <c r="D20" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="E20" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F20" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21">
-        <v>19330051920094</v>
+        <v>19330051920098</v>
       </c>
       <c r="B21" t="s">
         <v>76</v>
       </c>
       <c r="C21" t="s">
-        <v>103</v>
+        <v>74</v>
       </c>
       <c r="D21" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="E21" t="s">
         <v>6</v>
       </c>
       <c r="F21" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22">
-        <v>19330051920094</v>
+        <v>19330051920099</v>
       </c>
       <c r="B22" t="s">
         <v>76</v>
       </c>
       <c r="C22" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D22" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="E22" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F22" t="s">
         <v>59</v>
@@ -4204,19 +4207,19 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23">
-        <v>19330051920094</v>
+        <v>19330051920099</v>
       </c>
       <c r="B23" t="s">
         <v>76</v>
       </c>
       <c r="C23" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D23" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="E23" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F23" t="s">
         <v>58</v>
@@ -4224,36 +4227,36 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24">
-        <v>19330051920095</v>
+        <v>19330051920099</v>
       </c>
       <c r="B24" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C24" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="D24" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="E24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F24" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25">
-        <v>19330051920095</v>
+        <v>19330051920096</v>
       </c>
       <c r="B25" t="s">
         <v>77</v>
       </c>
       <c r="C25" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="D25" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="E25" t="s">
         <v>8</v>
@@ -4264,39 +4267,39 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26">
-        <v>19330051920095</v>
+        <v>19330051920096</v>
       </c>
       <c r="B26" t="s">
         <v>77</v>
       </c>
       <c r="C26" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="D26" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="E26" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F26" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27">
-        <v>19330051920095</v>
+        <v>19330051920096</v>
       </c>
       <c r="B27" t="s">
         <v>77</v>
       </c>
       <c r="C27" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="D27" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="E27" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F27" t="s">
         <v>59</v>
@@ -4304,59 +4307,59 @@
     </row>
     <row r="28" spans="1:6">
       <c r="A28">
-        <v>19330051920097</v>
+        <v>19330051920101</v>
       </c>
       <c r="B28" t="s">
         <v>78</v>
       </c>
       <c r="C28" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="D28" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="E28" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F28" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29">
-        <v>19330051920097</v>
+        <v>19330051920101</v>
       </c>
       <c r="B29" t="s">
         <v>78</v>
       </c>
       <c r="C29" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="D29" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="E29" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F29" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30">
-        <v>19330051920098</v>
+        <v>19330051920101</v>
       </c>
       <c r="B30" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C30" t="s">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="D30" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="E30" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F30" t="s">
         <v>58</v>
@@ -4364,39 +4367,39 @@
     </row>
     <row r="31" spans="1:6">
       <c r="A31">
-        <v>19330051920098</v>
+        <v>19330051920101</v>
       </c>
       <c r="B31" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C31" t="s">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="D31" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="E31" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F31" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32">
-        <v>19330051920098</v>
+        <v>19330051920102</v>
       </c>
       <c r="B32" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C32" t="s">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="D32" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="E32" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F32" t="s">
         <v>59</v>
@@ -4404,79 +4407,79 @@
     </row>
     <row r="33" spans="1:6">
       <c r="A33">
-        <v>19330051920098</v>
+        <v>19330051920102</v>
       </c>
       <c r="B33" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C33" t="s">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="D33" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="E33" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F33" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34">
-        <v>19330051920099</v>
+        <v>19330051920105</v>
       </c>
       <c r="B34" t="s">
         <v>79</v>
       </c>
       <c r="C34" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="D34" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="E34" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F34" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35">
-        <v>19330051920099</v>
+        <v>19330051920103</v>
       </c>
       <c r="B35" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C35" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D35" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="E35" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F35" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36">
-        <v>19330051920099</v>
+        <v>19330051920109</v>
       </c>
       <c r="B36" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C36" t="s">
-        <v>105</v>
+        <v>76</v>
       </c>
       <c r="D36" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="E36" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F36" t="s">
         <v>59</v>
@@ -4484,19 +4487,19 @@
     </row>
     <row r="37" spans="1:6">
       <c r="A37">
-        <v>19330051920099</v>
+        <v>19330051920109</v>
       </c>
       <c r="B37" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C37" t="s">
-        <v>105</v>
+        <v>76</v>
       </c>
       <c r="D37" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="E37" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F37" t="s">
         <v>58</v>
@@ -4504,59 +4507,59 @@
     </row>
     <row r="38" spans="1:6">
       <c r="A38">
-        <v>19330051920100</v>
+        <v>19330051920109</v>
       </c>
       <c r="B38" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C38" t="s">
-        <v>106</v>
+        <v>76</v>
       </c>
       <c r="D38" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="E38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F38" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39">
-        <v>19330051920096</v>
+        <v>19330051920111</v>
       </c>
       <c r="B39" t="s">
+        <v>82</v>
+      </c>
+      <c r="C39" t="s">
         <v>80</v>
       </c>
-      <c r="C39" t="s">
-        <v>82</v>
-      </c>
       <c r="D39" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="E39" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F39" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40">
-        <v>19330051920096</v>
+        <v>19330051920111</v>
       </c>
       <c r="B40" t="s">
+        <v>82</v>
+      </c>
+      <c r="C40" t="s">
         <v>80</v>
       </c>
-      <c r="C40" t="s">
-        <v>82</v>
-      </c>
       <c r="D40" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="E40" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F40" t="s">
         <v>59</v>
@@ -4564,39 +4567,39 @@
     </row>
     <row r="41" spans="1:6">
       <c r="A41">
-        <v>19330051920096</v>
+        <v>19330051920111</v>
       </c>
       <c r="B41" t="s">
+        <v>82</v>
+      </c>
+      <c r="C41" t="s">
         <v>80</v>
       </c>
-      <c r="C41" t="s">
-        <v>82</v>
-      </c>
       <c r="D41" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="E41" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F41" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42">
-        <v>19330051920096</v>
+        <v>19330051920110</v>
       </c>
       <c r="B42" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C42" t="s">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="D42" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="E42" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F42" t="s">
         <v>58</v>
@@ -4604,16 +4607,16 @@
     </row>
     <row r="43" spans="1:6">
       <c r="A43">
-        <v>19330051920101</v>
+        <v>19330051920112</v>
       </c>
       <c r="B43" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C43" t="s">
-        <v>107</v>
+        <v>74</v>
       </c>
       <c r="D43" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="E43" t="s">
         <v>8</v>
@@ -4624,59 +4627,59 @@
     </row>
     <row r="44" spans="1:6">
       <c r="A44">
-        <v>19330051920101</v>
+        <v>19330051920112</v>
       </c>
       <c r="B44" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C44" t="s">
-        <v>107</v>
+        <v>74</v>
       </c>
       <c r="D44" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="E44" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F44" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45">
-        <v>19330051920101</v>
+        <v>19330051920112</v>
       </c>
       <c r="B45" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C45" t="s">
-        <v>107</v>
+        <v>74</v>
       </c>
       <c r="D45" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="E45" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F45" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46">
-        <v>19330051920101</v>
+        <v>19330051920113</v>
       </c>
       <c r="B46" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C46" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D46" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="E46" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F46" t="s">
         <v>58</v>
@@ -4684,59 +4687,59 @@
     </row>
     <row r="47" spans="1:6">
       <c r="A47">
-        <v>19330051920101</v>
+        <v>19330051920113</v>
       </c>
       <c r="B47" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C47" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D47" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="E47" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F47" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48">
-        <v>19330051920102</v>
+        <v>19330051920113</v>
       </c>
       <c r="B48" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C48" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="D48" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="E48" t="s">
         <v>6</v>
       </c>
       <c r="F48" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49">
-        <v>19330051920102</v>
+        <v>19330051920001</v>
       </c>
       <c r="B49" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C49" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D49" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="E49" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F49" t="s">
         <v>58</v>
@@ -4744,19 +4747,19 @@
     </row>
     <row r="50" spans="1:6">
       <c r="A50">
-        <v>19330051920102</v>
+        <v>19330051920001</v>
       </c>
       <c r="B50" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C50" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D50" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="E50" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F50" t="s">
         <v>59</v>
@@ -4764,59 +4767,59 @@
     </row>
     <row r="51" spans="1:6">
       <c r="A51">
-        <v>19330051920105</v>
+        <v>19330051920116</v>
       </c>
       <c r="B51" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C51" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D51" t="s">
-        <v>138</v>
+        <v>116</v>
       </c>
       <c r="E51" t="s">
         <v>4</v>
       </c>
       <c r="F51" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52">
-        <v>19330051920105</v>
+        <v>19330051920117</v>
       </c>
       <c r="B52" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C52" t="s">
-        <v>109</v>
+        <v>73</v>
       </c>
       <c r="D52" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="E52" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F52" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53">
-        <v>19330051920103</v>
+        <v>19330051920117</v>
       </c>
       <c r="B53" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C53" t="s">
-        <v>110</v>
+        <v>73</v>
       </c>
       <c r="D53" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="E53" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F53" t="s">
         <v>58</v>
@@ -4824,99 +4827,99 @@
     </row>
     <row r="54" spans="1:6">
       <c r="A54">
-        <v>19330051920103</v>
+        <v>19330051920118</v>
       </c>
       <c r="B54" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C54" t="s">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="D54" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="E54" t="s">
         <v>4</v>
       </c>
       <c r="F54" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55">
-        <v>19330051920106</v>
+        <v>19330051920457</v>
       </c>
       <c r="B55" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C55" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D55" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="E55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F55" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56">
-        <v>19330051920107</v>
+        <v>19330051920457</v>
       </c>
       <c r="B56" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C56" t="s">
-        <v>77</v>
+        <v>106</v>
       </c>
       <c r="D56" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="E56" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F56" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57">
-        <v>19330051920109</v>
+        <v>19330051920457</v>
       </c>
       <c r="B57" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C57" t="s">
-        <v>79</v>
+        <v>106</v>
       </c>
       <c r="D57" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="E57" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F57" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58">
-        <v>19330051920109</v>
+        <v>19330051920119</v>
       </c>
       <c r="B58" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C58" t="s">
-        <v>79</v>
+        <v>107</v>
       </c>
       <c r="D58" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="E58" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F58" t="s">
         <v>58</v>
@@ -4924,19 +4927,19 @@
     </row>
     <row r="59" spans="1:6">
       <c r="A59">
-        <v>19330051920109</v>
+        <v>19330051920120</v>
       </c>
       <c r="B59" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C59" t="s">
-        <v>79</v>
+        <v>108</v>
       </c>
       <c r="D59" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="E59" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F59" t="s">
         <v>59</v>
@@ -4944,16 +4947,16 @@
     </row>
     <row r="60" spans="1:6">
       <c r="A60">
-        <v>19330051920109</v>
+        <v>19330051920120</v>
       </c>
       <c r="B60" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C60" t="s">
-        <v>79</v>
+        <v>108</v>
       </c>
       <c r="D60" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="E60" t="s">
         <v>8</v>
@@ -4964,56 +4967,56 @@
     </row>
     <row r="61" spans="1:6">
       <c r="A61">
-        <v>19330051920111</v>
+        <v>19330051920121</v>
       </c>
       <c r="B61" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="C61" t="s">
-        <v>83</v>
+        <v>109</v>
       </c>
       <c r="D61" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="E61" t="s">
         <v>4</v>
       </c>
       <c r="F61" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62">
-        <v>19330051920111</v>
+        <v>19330051920122</v>
       </c>
       <c r="B62" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="C62" t="s">
-        <v>83</v>
+        <v>110</v>
       </c>
       <c r="D62" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="E62" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F62" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63">
-        <v>19330051920111</v>
+        <v>19330051920124</v>
       </c>
       <c r="B63" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="C63" t="s">
-        <v>83</v>
+        <v>111</v>
       </c>
       <c r="D63" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="E63" t="s">
         <v>8</v>
@@ -5024,782 +5027,42 @@
     </row>
     <row r="64" spans="1:6">
       <c r="A64">
-        <v>19330051920111</v>
+        <v>19330051920124</v>
       </c>
       <c r="B64" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="C64" t="s">
-        <v>83</v>
+        <v>111</v>
       </c>
       <c r="D64" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="E64" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F64" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65">
-        <v>19330051920110</v>
+        <v>19330051920124</v>
       </c>
       <c r="B65" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="C65" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D65" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="E65" t="s">
         <v>4</v>
       </c>
       <c r="F65" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
-      <c r="A66">
-        <v>19330051920110</v>
-      </c>
-      <c r="B66" t="s">
-        <v>87</v>
-      </c>
-      <c r="C66" t="s">
-        <v>112</v>
-      </c>
-      <c r="D66" t="s">
-        <v>144</v>
-      </c>
-      <c r="E66" t="s">
-        <v>7</v>
-      </c>
-      <c r="F66" t="s">
         <v>58</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
-      <c r="A67">
-        <v>19330051920112</v>
-      </c>
-      <c r="B67" t="s">
-        <v>88</v>
-      </c>
-      <c r="C67" t="s">
-        <v>77</v>
-      </c>
-      <c r="D67" t="s">
-        <v>145</v>
-      </c>
-      <c r="E67" t="s">
-        <v>4</v>
-      </c>
-      <c r="F67" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
-      <c r="A68">
-        <v>19330051920112</v>
-      </c>
-      <c r="B68" t="s">
-        <v>88</v>
-      </c>
-      <c r="C68" t="s">
-        <v>77</v>
-      </c>
-      <c r="D68" t="s">
-        <v>145</v>
-      </c>
-      <c r="E68" t="s">
-        <v>5</v>
-      </c>
-      <c r="F68" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
-      <c r="A69">
-        <v>19330051920112</v>
-      </c>
-      <c r="B69" t="s">
-        <v>88</v>
-      </c>
-      <c r="C69" t="s">
-        <v>77</v>
-      </c>
-      <c r="D69" t="s">
-        <v>145</v>
-      </c>
-      <c r="E69" t="s">
-        <v>7</v>
-      </c>
-      <c r="F69" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
-      <c r="A70">
-        <v>19330051920112</v>
-      </c>
-      <c r="B70" t="s">
-        <v>88</v>
-      </c>
-      <c r="C70" t="s">
-        <v>77</v>
-      </c>
-      <c r="D70" t="s">
-        <v>145</v>
-      </c>
-      <c r="E70" t="s">
-        <v>8</v>
-      </c>
-      <c r="F70" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6">
-      <c r="A71">
-        <v>19330051920113</v>
-      </c>
-      <c r="B71" t="s">
-        <v>88</v>
-      </c>
-      <c r="C71" t="s">
-        <v>84</v>
-      </c>
-      <c r="D71" t="s">
-        <v>146</v>
-      </c>
-      <c r="E71" t="s">
-        <v>6</v>
-      </c>
-      <c r="F71" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
-      <c r="A72">
-        <v>19330051920113</v>
-      </c>
-      <c r="B72" t="s">
-        <v>88</v>
-      </c>
-      <c r="C72" t="s">
-        <v>84</v>
-      </c>
-      <c r="D72" t="s">
-        <v>146</v>
-      </c>
-      <c r="E72" t="s">
-        <v>7</v>
-      </c>
-      <c r="F72" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
-      <c r="A73">
-        <v>19330051920113</v>
-      </c>
-      <c r="B73" t="s">
-        <v>88</v>
-      </c>
-      <c r="C73" t="s">
-        <v>84</v>
-      </c>
-      <c r="D73" t="s">
-        <v>146</v>
-      </c>
-      <c r="E73" t="s">
-        <v>4</v>
-      </c>
-      <c r="F73" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
-      <c r="A74">
-        <v>19330051920113</v>
-      </c>
-      <c r="B74" t="s">
-        <v>88</v>
-      </c>
-      <c r="C74" t="s">
-        <v>84</v>
-      </c>
-      <c r="D74" t="s">
-        <v>146</v>
-      </c>
-      <c r="E74" t="s">
-        <v>8</v>
-      </c>
-      <c r="F74" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
-      <c r="A75">
-        <v>19330051920001</v>
-      </c>
-      <c r="B75" t="s">
-        <v>89</v>
-      </c>
-      <c r="C75" t="s">
-        <v>113</v>
-      </c>
-      <c r="D75" t="s">
-        <v>147</v>
-      </c>
-      <c r="E75" t="s">
-        <v>7</v>
-      </c>
-      <c r="F75" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
-      <c r="A76">
-        <v>19330051920001</v>
-      </c>
-      <c r="B76" t="s">
-        <v>89</v>
-      </c>
-      <c r="C76" t="s">
-        <v>113</v>
-      </c>
-      <c r="D76" t="s">
-        <v>147</v>
-      </c>
-      <c r="E76" t="s">
-        <v>4</v>
-      </c>
-      <c r="F76" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
-      <c r="A77">
-        <v>19330051920001</v>
-      </c>
-      <c r="B77" t="s">
-        <v>89</v>
-      </c>
-      <c r="C77" t="s">
-        <v>113</v>
-      </c>
-      <c r="D77" t="s">
-        <v>147</v>
-      </c>
-      <c r="E77" t="s">
-        <v>6</v>
-      </c>
-      <c r="F77" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
-      <c r="A78">
-        <v>19330051920115</v>
-      </c>
-      <c r="B78" t="s">
-        <v>90</v>
-      </c>
-      <c r="C78" t="s">
-        <v>83</v>
-      </c>
-      <c r="D78" t="s">
-        <v>122</v>
-      </c>
-      <c r="E78" t="s">
-        <v>7</v>
-      </c>
-      <c r="F78" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
-      <c r="A79">
-        <v>19330051920116</v>
-      </c>
-      <c r="B79" t="s">
-        <v>91</v>
-      </c>
-      <c r="C79" t="s">
-        <v>114</v>
-      </c>
-      <c r="D79" t="s">
-        <v>129</v>
-      </c>
-      <c r="E79" t="s">
-        <v>7</v>
-      </c>
-      <c r="F79" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6">
-      <c r="A80">
-        <v>19330051920116</v>
-      </c>
-      <c r="B80" t="s">
-        <v>91</v>
-      </c>
-      <c r="C80" t="s">
-        <v>114</v>
-      </c>
-      <c r="D80" t="s">
-        <v>129</v>
-      </c>
-      <c r="E80" t="s">
-        <v>4</v>
-      </c>
-      <c r="F80" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
-      <c r="A81">
-        <v>19330051920117</v>
-      </c>
-      <c r="B81" t="s">
-        <v>92</v>
-      </c>
-      <c r="C81" t="s">
-        <v>76</v>
-      </c>
-      <c r="D81" t="s">
-        <v>148</v>
-      </c>
-      <c r="E81" t="s">
-        <v>7</v>
-      </c>
-      <c r="F81" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
-      <c r="A82">
-        <v>19330051920117</v>
-      </c>
-      <c r="B82" t="s">
-        <v>92</v>
-      </c>
-      <c r="C82" t="s">
-        <v>76</v>
-      </c>
-      <c r="D82" t="s">
-        <v>148</v>
-      </c>
-      <c r="E82" t="s">
-        <v>8</v>
-      </c>
-      <c r="F82" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6">
-      <c r="A83">
-        <v>19330051920117</v>
-      </c>
-      <c r="B83" t="s">
-        <v>92</v>
-      </c>
-      <c r="C83" t="s">
-        <v>76</v>
-      </c>
-      <c r="D83" t="s">
-        <v>148</v>
-      </c>
-      <c r="E83" t="s">
-        <v>4</v>
-      </c>
-      <c r="F83" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
-      <c r="A84">
-        <v>19330051920118</v>
-      </c>
-      <c r="B84" t="s">
-        <v>93</v>
-      </c>
-      <c r="C84" t="s">
-        <v>83</v>
-      </c>
-      <c r="D84" t="s">
-        <v>149</v>
-      </c>
-      <c r="E84" t="s">
-        <v>4</v>
-      </c>
-      <c r="F84" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6">
-      <c r="A85">
-        <v>19330051920118</v>
-      </c>
-      <c r="B85" t="s">
-        <v>93</v>
-      </c>
-      <c r="C85" t="s">
-        <v>83</v>
-      </c>
-      <c r="D85" t="s">
-        <v>149</v>
-      </c>
-      <c r="E85" t="s">
-        <v>7</v>
-      </c>
-      <c r="F85" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
-      <c r="A86">
-        <v>19330051920457</v>
-      </c>
-      <c r="B86" t="s">
-        <v>94</v>
-      </c>
-      <c r="C86" t="s">
-        <v>115</v>
-      </c>
-      <c r="D86" t="s">
-        <v>150</v>
-      </c>
-      <c r="E86" t="s">
-        <v>6</v>
-      </c>
-      <c r="F86" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
-      <c r="A87">
-        <v>19330051920457</v>
-      </c>
-      <c r="B87" t="s">
-        <v>94</v>
-      </c>
-      <c r="C87" t="s">
-        <v>115</v>
-      </c>
-      <c r="D87" t="s">
-        <v>150</v>
-      </c>
-      <c r="E87" t="s">
-        <v>4</v>
-      </c>
-      <c r="F87" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
-      <c r="A88">
-        <v>19330051920457</v>
-      </c>
-      <c r="B88" t="s">
-        <v>94</v>
-      </c>
-      <c r="C88" t="s">
-        <v>115</v>
-      </c>
-      <c r="D88" t="s">
-        <v>150</v>
-      </c>
-      <c r="E88" t="s">
-        <v>8</v>
-      </c>
-      <c r="F88" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
-      <c r="A89">
-        <v>19330051920457</v>
-      </c>
-      <c r="B89" t="s">
-        <v>94</v>
-      </c>
-      <c r="C89" t="s">
-        <v>115</v>
-      </c>
-      <c r="D89" t="s">
-        <v>150</v>
-      </c>
-      <c r="E89" t="s">
-        <v>7</v>
-      </c>
-      <c r="F89" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
-      <c r="A90">
-        <v>19330051920119</v>
-      </c>
-      <c r="B90" t="s">
-        <v>95</v>
-      </c>
-      <c r="C90" t="s">
-        <v>116</v>
-      </c>
-      <c r="D90" t="s">
-        <v>151</v>
-      </c>
-      <c r="E90" t="s">
-        <v>7</v>
-      </c>
-      <c r="F90" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
-      <c r="A91">
-        <v>19330051920119</v>
-      </c>
-      <c r="B91" t="s">
-        <v>95</v>
-      </c>
-      <c r="C91" t="s">
-        <v>116</v>
-      </c>
-      <c r="D91" t="s">
-        <v>151</v>
-      </c>
-      <c r="E91" t="s">
-        <v>4</v>
-      </c>
-      <c r="F91" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
-      <c r="A92">
-        <v>19330051920120</v>
-      </c>
-      <c r="B92" t="s">
-        <v>96</v>
-      </c>
-      <c r="C92" t="s">
-        <v>117</v>
-      </c>
-      <c r="D92" t="s">
-        <v>152</v>
-      </c>
-      <c r="E92" t="s">
-        <v>6</v>
-      </c>
-      <c r="F92" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
-      <c r="A93">
-        <v>19330051920120</v>
-      </c>
-      <c r="B93" t="s">
-        <v>96</v>
-      </c>
-      <c r="C93" t="s">
-        <v>117</v>
-      </c>
-      <c r="D93" t="s">
-        <v>152</v>
-      </c>
-      <c r="E93" t="s">
-        <v>7</v>
-      </c>
-      <c r="F93" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
-      <c r="A94">
-        <v>19330051920120</v>
-      </c>
-      <c r="B94" t="s">
-        <v>96</v>
-      </c>
-      <c r="C94" t="s">
-        <v>117</v>
-      </c>
-      <c r="D94" t="s">
-        <v>152</v>
-      </c>
-      <c r="E94" t="s">
-        <v>8</v>
-      </c>
-      <c r="F94" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
-      <c r="A95">
-        <v>19330051920121</v>
-      </c>
-      <c r="B95" t="s">
-        <v>97</v>
-      </c>
-      <c r="C95" t="s">
-        <v>118</v>
-      </c>
-      <c r="D95" t="s">
-        <v>153</v>
-      </c>
-      <c r="E95" t="s">
-        <v>7</v>
-      </c>
-      <c r="F95" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
-      <c r="A96">
-        <v>19330051920121</v>
-      </c>
-      <c r="B96" t="s">
-        <v>97</v>
-      </c>
-      <c r="C96" t="s">
-        <v>118</v>
-      </c>
-      <c r="D96" t="s">
-        <v>153</v>
-      </c>
-      <c r="E96" t="s">
-        <v>4</v>
-      </c>
-      <c r="F96" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6">
-      <c r="A97">
-        <v>19330051920122</v>
-      </c>
-      <c r="B97" t="s">
-        <v>98</v>
-      </c>
-      <c r="C97" t="s">
-        <v>119</v>
-      </c>
-      <c r="D97" t="s">
-        <v>154</v>
-      </c>
-      <c r="E97" t="s">
-        <v>7</v>
-      </c>
-      <c r="F97" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6">
-      <c r="A98">
-        <v>19330051920122</v>
-      </c>
-      <c r="B98" t="s">
-        <v>98</v>
-      </c>
-      <c r="C98" t="s">
-        <v>119</v>
-      </c>
-      <c r="D98" t="s">
-        <v>154</v>
-      </c>
-      <c r="E98" t="s">
-        <v>4</v>
-      </c>
-      <c r="F98" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
-      <c r="A99">
-        <v>19330051920124</v>
-      </c>
-      <c r="B99" t="s">
-        <v>99</v>
-      </c>
-      <c r="C99" t="s">
-        <v>120</v>
-      </c>
-      <c r="D99" t="s">
-        <v>155</v>
-      </c>
-      <c r="E99" t="s">
-        <v>8</v>
-      </c>
-      <c r="F99" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6">
-      <c r="A100">
-        <v>19330051920124</v>
-      </c>
-      <c r="B100" t="s">
-        <v>99</v>
-      </c>
-      <c r="C100" t="s">
-        <v>120</v>
-      </c>
-      <c r="D100" t="s">
-        <v>155</v>
-      </c>
-      <c r="E100" t="s">
-        <v>7</v>
-      </c>
-      <c r="F100" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6">
-      <c r="A101">
-        <v>19330051920124</v>
-      </c>
-      <c r="B101" t="s">
-        <v>99</v>
-      </c>
-      <c r="C101" t="s">
-        <v>120</v>
-      </c>
-      <c r="D101" t="s">
-        <v>155</v>
-      </c>
-      <c r="E101" t="s">
-        <v>6</v>
-      </c>
-      <c r="F101" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
-      <c r="A102">
-        <v>19330051920124</v>
-      </c>
-      <c r="B102" t="s">
-        <v>99</v>
-      </c>
-      <c r="C102" t="s">
-        <v>120</v>
-      </c>
-      <c r="D102" t="s">
-        <v>155</v>
-      </c>
-      <c r="E102" t="s">
-        <v>4</v>
-      </c>
-      <c r="F102" t="s">
-        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -5841,16 +5104,16 @@
         <v>19330051920092</v>
       </c>
       <c r="B2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C2" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D2" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="E2">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -5858,16 +5121,16 @@
         <v>19330051920091</v>
       </c>
       <c r="B3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D3" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="E3">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -5875,16 +5138,16 @@
         <v>19330051920101</v>
       </c>
       <c r="B4" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C4" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="D4" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="E4">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -5892,16 +5155,16 @@
         <v>19330051920094</v>
       </c>
       <c r="B5" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C5" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="D5" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="E5">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -5909,16 +5172,16 @@
         <v>19330051920095</v>
       </c>
       <c r="B6" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C6" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="D6" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="E6">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -5926,16 +5189,16 @@
         <v>19330051920098</v>
       </c>
       <c r="B7" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C7" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D7" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="E7">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -5943,16 +5206,16 @@
         <v>19330051920099</v>
       </c>
       <c r="B8" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C8" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="D8" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="E8">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -5960,16 +5223,16 @@
         <v>19330051920096</v>
       </c>
       <c r="B9" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C9" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D9" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="E9">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -5977,16 +5240,16 @@
         <v>19330051920109</v>
       </c>
       <c r="B10" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C10" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D10" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="E10">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -5994,16 +5257,16 @@
         <v>19330051920111</v>
       </c>
       <c r="B11" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C11" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D11" t="s">
-        <v>143</v>
+        <v>127</v>
       </c>
       <c r="E11">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -6011,16 +5274,16 @@
         <v>19330051920112</v>
       </c>
       <c r="B12" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C12" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D12" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="E12">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -6028,16 +5291,16 @@
         <v>19330051920113</v>
       </c>
       <c r="B13" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C13" t="s">
-        <v>84</v>
+        <v>103</v>
       </c>
       <c r="D13" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="E13">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -6045,16 +5308,16 @@
         <v>19330051920457</v>
       </c>
       <c r="B14" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="C14" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="D14" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="E14">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -6062,16 +5325,16 @@
         <v>19330051920124</v>
       </c>
       <c r="B15" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C15" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="D15" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
       <c r="E15">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -6079,16 +5342,16 @@
         <v>19330051920102</v>
       </c>
       <c r="B16" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C16" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="D16" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -6096,16 +5359,16 @@
         <v>19330051920001</v>
       </c>
       <c r="B17" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C17" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="D17" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -6113,16 +5376,16 @@
         <v>19330051920117</v>
       </c>
       <c r="B18" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="C18" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D18" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -6130,16 +5393,16 @@
         <v>19330051920120</v>
       </c>
       <c r="B19" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C19" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="D19" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="E19">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -6150,13 +5413,13 @@
         <v>69</v>
       </c>
       <c r="C20" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="D20" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="E20">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -6164,16 +5427,16 @@
         <v>19330051920093</v>
       </c>
       <c r="B21" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C21" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="D21" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="E21">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -6181,16 +5444,16 @@
         <v>19330051920097</v>
       </c>
       <c r="B22" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C22" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="D22" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="E22">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -6198,16 +5461,16 @@
         <v>19330051920105</v>
       </c>
       <c r="B23" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C23" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="D23" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="E23">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -6215,16 +5478,16 @@
         <v>19330051920103</v>
       </c>
       <c r="B24" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C24" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="D24" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="E24">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -6232,16 +5495,16 @@
         <v>19330051920110</v>
       </c>
       <c r="B25" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C25" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="D25" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="E25">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -6249,16 +5512,16 @@
         <v>19330051920116</v>
       </c>
       <c r="B26" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C26" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="D26" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="E26">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -6266,16 +5529,16 @@
         <v>19330051920118</v>
       </c>
       <c r="B27" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C27" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D27" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
       <c r="E27">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -6283,16 +5546,16 @@
         <v>19330051920119</v>
       </c>
       <c r="B28" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="C28" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="D28" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="E28">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -6300,16 +5563,16 @@
         <v>19330051920121</v>
       </c>
       <c r="B29" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C29" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="D29" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
       <c r="E29">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -6317,16 +5580,16 @@
         <v>19330051920122</v>
       </c>
       <c r="B30" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C30" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="D30" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
       <c r="E30">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -6334,16 +5597,16 @@
         <v>19330051920084</v>
       </c>
       <c r="B31" t="s">
-        <v>70</v>
+        <v>140</v>
       </c>
       <c r="C31" t="s">
-        <v>101</v>
+        <v>145</v>
       </c>
       <c r="D31" t="s">
-        <v>122</v>
+        <v>149</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -6351,16 +5614,16 @@
         <v>19330051920088</v>
       </c>
       <c r="B32" t="s">
-        <v>71</v>
+        <v>141</v>
       </c>
       <c r="C32" t="s">
-        <v>102</v>
+        <v>146</v>
       </c>
       <c r="D32" t="s">
-        <v>123</v>
+        <v>150</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -6368,16 +5631,16 @@
         <v>19330051920090</v>
       </c>
       <c r="B33" t="s">
-        <v>72</v>
+        <v>142</v>
       </c>
       <c r="C33" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="D33" t="s">
-        <v>124</v>
+        <v>151</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -6385,16 +5648,16 @@
         <v>19330051920089</v>
       </c>
       <c r="B34" t="s">
-        <v>72</v>
+        <v>142</v>
       </c>
       <c r="C34" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="D34" t="s">
-        <v>125</v>
+        <v>152</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -6402,16 +5665,16 @@
         <v>19330051920100</v>
       </c>
       <c r="B35" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C35" t="s">
-        <v>106</v>
+        <v>147</v>
       </c>
       <c r="D35" t="s">
-        <v>134</v>
+        <v>153</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -6419,16 +5682,16 @@
         <v>19330051920106</v>
       </c>
       <c r="B36" t="s">
-        <v>84</v>
+        <v>103</v>
       </c>
       <c r="C36" t="s">
-        <v>111</v>
+        <v>148</v>
       </c>
       <c r="D36" t="s">
-        <v>140</v>
+        <v>154</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -6436,16 +5699,16 @@
         <v>19330051920107</v>
       </c>
       <c r="B37" t="s">
-        <v>85</v>
+        <v>143</v>
       </c>
       <c r="C37" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D37" t="s">
-        <v>141</v>
+        <v>155</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -6453,16 +5716,16 @@
         <v>19330051920115</v>
       </c>
       <c r="B38" t="s">
-        <v>90</v>
+        <v>144</v>
       </c>
       <c r="C38" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D38" t="s">
-        <v>122</v>
+        <v>149</v>
       </c>
       <c r="E38">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -6472,7 +5735,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6507,22 +5770,22 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>19330051920085</v>
+        <v>19330051920102</v>
       </c>
       <c r="B2" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="C2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E2" t="s">
         <v>4</v>
       </c>
       <c r="F2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G2">
         <v>-1</v>
@@ -6530,22 +5793,22 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>19330051920085</v>
+        <v>19330051920102</v>
       </c>
       <c r="B3" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="C3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D3" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G3">
         <v>-1</v>
@@ -6553,22 +5816,22 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>19330051920093</v>
+        <v>19330051920117</v>
       </c>
       <c r="B4" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="C4" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="D4" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E4" t="s">
         <v>4</v>
       </c>
       <c r="F4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G4">
         <v>-1</v>
@@ -6576,22 +5839,22 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>19330051920093</v>
+        <v>19330051920117</v>
       </c>
       <c r="B5" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="C5" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="D5" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F5" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="G5">
         <v>-1</v>
@@ -6599,22 +5862,22 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>19330051920097</v>
+        <v>19330051920118</v>
       </c>
       <c r="B6" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="C6" t="s">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="D6" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E6" t="s">
         <v>4</v>
       </c>
       <c r="F6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G6">
         <v>-1</v>
@@ -6622,45 +5885,45 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>19330051920097</v>
+        <v>19330051920118</v>
       </c>
       <c r="B7" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="C7" t="s">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="D7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G7">
-        <v>-1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
-        <v>19330051920103</v>
+        <v>19330051920085</v>
       </c>
       <c r="B8" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="C8" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="D8" t="s">
-        <v>139</v>
+        <v>112</v>
       </c>
       <c r="E8" t="s">
         <v>4</v>
       </c>
       <c r="F8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G8">
         <v>-1</v>
@@ -6668,19 +5931,19 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9">
-        <v>19330051920103</v>
+        <v>19330051920093</v>
       </c>
       <c r="B9" t="s">
+        <v>72</v>
+      </c>
+      <c r="C9" t="s">
         <v>83</v>
       </c>
-      <c r="C9" t="s">
-        <v>110</v>
-      </c>
       <c r="D9" t="s">
-        <v>139</v>
+        <v>115</v>
       </c>
       <c r="E9" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F9" t="s">
         <v>58</v>
@@ -6691,22 +5954,22 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10">
-        <v>19330051920110</v>
+        <v>19330051920097</v>
       </c>
       <c r="B10" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="C10" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="D10" t="s">
-        <v>144</v>
+        <v>118</v>
       </c>
       <c r="E10" t="s">
         <v>4</v>
       </c>
       <c r="F10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G10">
         <v>-1</v>
@@ -6714,19 +5977,19 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11">
-        <v>19330051920110</v>
+        <v>19330051920103</v>
       </c>
       <c r="B11" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="C11" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="D11" t="s">
-        <v>144</v>
+        <v>125</v>
       </c>
       <c r="E11" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F11" t="s">
         <v>58</v>
@@ -6737,22 +6000,22 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12">
-        <v>19330051920116</v>
+        <v>19330051920110</v>
       </c>
       <c r="B12" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="C12" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="D12" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E12" t="s">
         <v>4</v>
       </c>
       <c r="F12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G12">
         <v>-1</v>
@@ -6763,16 +6026,16 @@
         <v>19330051920116</v>
       </c>
       <c r="B13" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C13" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="D13" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="E13" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F13" t="s">
         <v>58</v>
@@ -6786,19 +6049,19 @@
         <v>19330051920121</v>
       </c>
       <c r="B14" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C14" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="D14" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
       <c r="E14" t="s">
         <v>4</v>
       </c>
       <c r="F14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G14">
         <v>-1</v>
@@ -6806,254 +6069,24 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15">
-        <v>19330051920121</v>
+        <v>19330051920122</v>
       </c>
       <c r="B15" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C15" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="D15" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
       <c r="E15" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F15" t="s">
         <v>58</v>
       </c>
       <c r="G15">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16">
-        <v>19330051920122</v>
-      </c>
-      <c r="B16" t="s">
-        <v>98</v>
-      </c>
-      <c r="C16" t="s">
-        <v>119</v>
-      </c>
-      <c r="D16" t="s">
-        <v>154</v>
-      </c>
-      <c r="E16" t="s">
-        <v>4</v>
-      </c>
-      <c r="F16" t="s">
-        <v>59</v>
-      </c>
-      <c r="G16">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17">
-        <v>19330051920122</v>
-      </c>
-      <c r="B17" t="s">
-        <v>98</v>
-      </c>
-      <c r="C17" t="s">
-        <v>119</v>
-      </c>
-      <c r="D17" t="s">
-        <v>154</v>
-      </c>
-      <c r="E17" t="s">
-        <v>7</v>
-      </c>
-      <c r="F17" t="s">
-        <v>58</v>
-      </c>
-      <c r="G17">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18">
-        <v>19330051920084</v>
-      </c>
-      <c r="B18" t="s">
-        <v>70</v>
-      </c>
-      <c r="C18" t="s">
-        <v>101</v>
-      </c>
-      <c r="D18" t="s">
-        <v>122</v>
-      </c>
-      <c r="E18" t="s">
-        <v>7</v>
-      </c>
-      <c r="F18" t="s">
-        <v>58</v>
-      </c>
-      <c r="G18">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19">
-        <v>19330051920088</v>
-      </c>
-      <c r="B19" t="s">
-        <v>71</v>
-      </c>
-      <c r="C19" t="s">
-        <v>102</v>
-      </c>
-      <c r="D19" t="s">
-        <v>123</v>
-      </c>
-      <c r="E19" t="s">
-        <v>7</v>
-      </c>
-      <c r="F19" t="s">
-        <v>58</v>
-      </c>
-      <c r="G19">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20">
-        <v>19330051920090</v>
-      </c>
-      <c r="B20" t="s">
-        <v>72</v>
-      </c>
-      <c r="C20" t="s">
-        <v>91</v>
-      </c>
-      <c r="D20" t="s">
-        <v>124</v>
-      </c>
-      <c r="E20" t="s">
-        <v>7</v>
-      </c>
-      <c r="F20" t="s">
-        <v>58</v>
-      </c>
-      <c r="G20">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21">
-        <v>19330051920089</v>
-      </c>
-      <c r="B21" t="s">
-        <v>72</v>
-      </c>
-      <c r="C21" t="s">
-        <v>91</v>
-      </c>
-      <c r="D21" t="s">
-        <v>125</v>
-      </c>
-      <c r="E21" t="s">
-        <v>7</v>
-      </c>
-      <c r="F21" t="s">
-        <v>58</v>
-      </c>
-      <c r="G21">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22">
-        <v>19330051920100</v>
-      </c>
-      <c r="B22" t="s">
-        <v>79</v>
-      </c>
-      <c r="C22" t="s">
-        <v>106</v>
-      </c>
-      <c r="D22" t="s">
-        <v>134</v>
-      </c>
-      <c r="E22" t="s">
-        <v>7</v>
-      </c>
-      <c r="F22" t="s">
-        <v>58</v>
-      </c>
-      <c r="G22">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23">
-        <v>19330051920106</v>
-      </c>
-      <c r="B23" t="s">
-        <v>84</v>
-      </c>
-      <c r="C23" t="s">
-        <v>111</v>
-      </c>
-      <c r="D23" t="s">
-        <v>140</v>
-      </c>
-      <c r="E23" t="s">
-        <v>7</v>
-      </c>
-      <c r="F23" t="s">
-        <v>58</v>
-      </c>
-      <c r="G23">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24">
-        <v>19330051920107</v>
-      </c>
-      <c r="B24" t="s">
-        <v>85</v>
-      </c>
-      <c r="C24" t="s">
-        <v>77</v>
-      </c>
-      <c r="D24" t="s">
-        <v>141</v>
-      </c>
-      <c r="E24" t="s">
-        <v>7</v>
-      </c>
-      <c r="F24" t="s">
-        <v>58</v>
-      </c>
-      <c r="G24">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25">
-        <v>19330051920115</v>
-      </c>
-      <c r="B25" t="s">
-        <v>90</v>
-      </c>
-      <c r="C25" t="s">
-        <v>83</v>
-      </c>
-      <c r="D25" t="s">
-        <v>122</v>
-      </c>
-      <c r="E25" t="s">
-        <v>7</v>
-      </c>
-      <c r="F25" t="s">
-        <v>58</v>
-      </c>
-      <c r="G25">
         <v>-1</v>
       </c>
     </row>

--- a/grupos/4BEM - Estadisticos 2020.xlsx
+++ b/grupos/4BEM - Estadisticos 2020.xlsx
@@ -3839,10 +3839,10 @@
         <v>113</v>
       </c>
       <c r="E4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -3859,10 +3859,10 @@
         <v>113</v>
       </c>
       <c r="E5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F5" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3879,10 +3879,10 @@
         <v>113</v>
       </c>
       <c r="E6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F6" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3919,10 +3919,10 @@
         <v>114</v>
       </c>
       <c r="E8" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F8" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -3939,10 +3939,10 @@
         <v>114</v>
       </c>
       <c r="E9" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F9" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -4019,10 +4019,10 @@
         <v>116</v>
       </c>
       <c r="E13" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F13" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -4039,10 +4039,10 @@
         <v>116</v>
       </c>
       <c r="E14" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F14" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -4159,10 +4159,10 @@
         <v>119</v>
       </c>
       <c r="E20" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F20" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -4179,10 +4179,10 @@
         <v>119</v>
       </c>
       <c r="E21" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F21" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -4199,10 +4199,10 @@
         <v>120</v>
       </c>
       <c r="E22" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F22" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -4219,10 +4219,10 @@
         <v>120</v>
       </c>
       <c r="E23" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F23" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -4239,10 +4239,10 @@
         <v>120</v>
       </c>
       <c r="E24" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F24" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -4279,10 +4279,10 @@
         <v>121</v>
       </c>
       <c r="E26" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -4299,10 +4299,10 @@
         <v>121</v>
       </c>
       <c r="E27" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F27" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -4319,10 +4319,10 @@
         <v>122</v>
       </c>
       <c r="E28" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F28" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -4339,10 +4339,10 @@
         <v>122</v>
       </c>
       <c r="E29" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F29" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -4359,10 +4359,10 @@
         <v>122</v>
       </c>
       <c r="E30" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F30" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -4379,10 +4379,10 @@
         <v>122</v>
       </c>
       <c r="E31" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F31" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -4559,10 +4559,10 @@
         <v>127</v>
       </c>
       <c r="E40" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F40" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -4579,10 +4579,10 @@
         <v>127</v>
       </c>
       <c r="E41" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F41" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -4639,10 +4639,10 @@
         <v>129</v>
       </c>
       <c r="E44" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F44" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -4659,10 +4659,10 @@
         <v>129</v>
       </c>
       <c r="E45" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F45" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -4679,10 +4679,10 @@
         <v>130</v>
       </c>
       <c r="E46" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F46" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -4719,10 +4719,10 @@
         <v>130</v>
       </c>
       <c r="E48" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F48" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -4739,10 +4739,10 @@
         <v>131</v>
       </c>
       <c r="E49" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F49" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -4759,10 +4759,10 @@
         <v>131</v>
       </c>
       <c r="E50" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F50" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -4859,10 +4859,10 @@
         <v>134</v>
       </c>
       <c r="E55" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F55" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -4879,10 +4879,10 @@
         <v>134</v>
       </c>
       <c r="E56" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F56" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -4939,10 +4939,10 @@
         <v>136</v>
       </c>
       <c r="E59" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F59" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -4959,10 +4959,10 @@
         <v>136</v>
       </c>
       <c r="E60" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F60" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -5019,10 +5019,10 @@
         <v>139</v>
       </c>
       <c r="E63" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F63" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -5039,10 +5039,10 @@
         <v>139</v>
       </c>
       <c r="E64" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F64" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -5059,10 +5059,10 @@
         <v>139</v>
       </c>
       <c r="E65" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F65" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/grupos/4BEM - Estadisticos 2020.xlsx
+++ b/grupos/4BEM - Estadisticos 2020.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="156">
   <si>
     <t>Materia</t>
   </si>
@@ -245,247 +245,247 @@
     <t>DE LA CRUZ</t>
   </si>
   <si>
+    <t>FLORES</t>
+  </si>
+  <si>
+    <t>DE LA GARZA</t>
+  </si>
+  <si>
+    <t>GONZALEZ</t>
+  </si>
+  <si>
+    <t>HERRERA</t>
+  </si>
+  <si>
+    <t>MARCELINO</t>
+  </si>
+  <si>
+    <t>MARTINEZ</t>
+  </si>
+  <si>
+    <t>MORALES</t>
+  </si>
+  <si>
+    <t>MUÑOZ</t>
+  </si>
+  <si>
+    <t>ROJAS</t>
+  </si>
+  <si>
+    <t>SANTIAGO</t>
+  </si>
+  <si>
+    <t>SARMIENTO</t>
+  </si>
+  <si>
+    <t>SALINAS</t>
+  </si>
+  <si>
+    <t>SUAREZ</t>
+  </si>
+  <si>
+    <t>TAPIA</t>
+  </si>
+  <si>
+    <t>TOCOHUA</t>
+  </si>
+  <si>
+    <t>XOTLANIHUA</t>
+  </si>
+  <si>
+    <t>TEXOCO</t>
+  </si>
+  <si>
+    <t>TEXCAHUA</t>
+  </si>
+  <si>
+    <t>HERNANDEZ</t>
+  </si>
+  <si>
+    <t>GARATE</t>
+  </si>
+  <si>
+    <t>DIAZ</t>
+  </si>
+  <si>
+    <t>ANTEMATE</t>
+  </si>
+  <si>
+    <t>IXMATLAHUA</t>
+  </si>
+  <si>
+    <t>AVELINO</t>
+  </si>
+  <si>
+    <t>RODRIGUEZ</t>
+  </si>
+  <si>
+    <t>JIMENEZ</t>
+  </si>
+  <si>
+    <t>LUNA</t>
+  </si>
+  <si>
+    <t>ANGUIANO</t>
+  </si>
+  <si>
+    <t>ZENON</t>
+  </si>
+  <si>
+    <t>DE JESUS</t>
+  </si>
+  <si>
+    <t>RIVERA</t>
+  </si>
+  <si>
+    <t>BERISTAIN</t>
+  </si>
+  <si>
+    <t>TLAXCALA</t>
+  </si>
+  <si>
+    <t>JOSE JAZAEL</t>
+  </si>
+  <si>
+    <t>ELEAZAR RIGOBERTO</t>
+  </si>
+  <si>
+    <t>RAUL ARTURO</t>
+  </si>
+  <si>
+    <t>JOSUE ALEXIS</t>
+  </si>
+  <si>
+    <t>JOSUE</t>
+  </si>
+  <si>
+    <t>JAFET</t>
+  </si>
+  <si>
+    <t>JUAN ANTONIO</t>
+  </si>
+  <si>
+    <t>ADRIANA</t>
+  </si>
+  <si>
+    <t>DULCE REGINA</t>
+  </si>
+  <si>
+    <t>AXEL MIGUEL</t>
+  </si>
+  <si>
+    <t>MIGUEL ANGEL</t>
+  </si>
+  <si>
+    <t>AXEL</t>
+  </si>
+  <si>
+    <t>EDUARDO</t>
+  </si>
+  <si>
+    <t>JULIAN</t>
+  </si>
+  <si>
+    <t>YAEL</t>
+  </si>
+  <si>
+    <t>JOSE ALONSO</t>
+  </si>
+  <si>
+    <t>LUIS MARIO</t>
+  </si>
+  <si>
+    <t>ARIAN ALEXIS</t>
+  </si>
+  <si>
+    <t>YARITZI</t>
+  </si>
+  <si>
+    <t>ROMARIO ALDAIR</t>
+  </si>
+  <si>
+    <t>ANGEL JOHAN</t>
+  </si>
+  <si>
+    <t>YAMILET</t>
+  </si>
+  <si>
+    <t>MARIA ISABEL</t>
+  </si>
+  <si>
+    <t>ADOLFO</t>
+  </si>
+  <si>
+    <t>OMAR</t>
+  </si>
+  <si>
+    <t>AGUILAR</t>
+  </si>
+  <si>
+    <t>CADEZA</t>
+  </si>
+  <si>
+    <t>CASTILLO</t>
+  </si>
+  <si>
     <t>FLORENCIO</t>
   </si>
   <si>
-    <t>FLORES</t>
-  </si>
-  <si>
-    <t>DE LA GARZA</t>
-  </si>
-  <si>
-    <t>GONZALEZ</t>
-  </si>
-  <si>
-    <t>HERRERA</t>
-  </si>
-  <si>
-    <t>HERNANDEZ</t>
-  </si>
-  <si>
-    <t>MARCELINO</t>
-  </si>
-  <si>
-    <t>MARTINEZ</t>
-  </si>
-  <si>
-    <t>MORALES</t>
-  </si>
-  <si>
-    <t>MUÑOZ</t>
-  </si>
-  <si>
-    <t>ROJAS</t>
-  </si>
-  <si>
-    <t>SANTIAGO</t>
-  </si>
-  <si>
-    <t>SARMIENTO</t>
-  </si>
-  <si>
-    <t>SALINAS</t>
-  </si>
-  <si>
-    <t>SUAREZ</t>
-  </si>
-  <si>
-    <t>TAPIA</t>
-  </si>
-  <si>
-    <t>TEXCAHUA</t>
-  </si>
-  <si>
-    <t>TOCOHUA</t>
-  </si>
-  <si>
-    <t>XOTLANIHUA</t>
-  </si>
-  <si>
-    <t>TEXOCO</t>
-  </si>
-  <si>
-    <t>GARATE</t>
+    <t>JUAN</t>
+  </si>
+  <si>
+    <t>OCTAVIANO</t>
+  </si>
+  <si>
+    <t>TEZOCO</t>
+  </si>
+  <si>
+    <t>GALLARDO</t>
   </si>
   <si>
     <t>BERNABE</t>
   </si>
   <si>
-    <t>DIAZ</t>
-  </si>
-  <si>
-    <t>ANTEMATE</t>
-  </si>
-  <si>
-    <t>IXMATLAHUA</t>
-  </si>
-  <si>
-    <t>AVELINO</t>
+    <t>SANCHEZ</t>
   </si>
   <si>
     <t>DEL ANGEL</t>
   </si>
   <si>
-    <t>RODRIGUEZ</t>
-  </si>
-  <si>
-    <t>JIMENEZ</t>
-  </si>
-  <si>
-    <t>LUNA</t>
-  </si>
-  <si>
-    <t>ANGUIANO</t>
-  </si>
-  <si>
-    <t>ZENON</t>
-  </si>
-  <si>
-    <t>DE JESUS</t>
-  </si>
-  <si>
-    <t>RIVERA</t>
+    <t>MIRON</t>
   </si>
   <si>
     <t>TETLA</t>
   </si>
   <si>
-    <t>BERISTAIN</t>
-  </si>
-  <si>
-    <t>TLAXCALA</t>
-  </si>
-  <si>
-    <t>JOSE JAZAEL</t>
-  </si>
-  <si>
-    <t>ELEAZAR RIGOBERTO</t>
-  </si>
-  <si>
-    <t>RAUL ARTURO</t>
-  </si>
-  <si>
-    <t>JOSUE ALEXIS</t>
-  </si>
-  <si>
-    <t>JOSUE</t>
-  </si>
-  <si>
-    <t>JAFET</t>
+    <t>JOSE ANTONIO</t>
+  </si>
+  <si>
+    <t>IRVING OTTONIEL</t>
+  </si>
+  <si>
+    <t>BRAYAN</t>
+  </si>
+  <si>
+    <t>BRANDON</t>
   </si>
   <si>
     <t>JESUS ENRIQUE</t>
   </si>
   <si>
-    <t>JUAN ANTONIO</t>
-  </si>
-  <si>
-    <t>ADRIANA</t>
-  </si>
-  <si>
-    <t>DULCE REGINA</t>
-  </si>
-  <si>
-    <t>AXEL MIGUEL</t>
-  </si>
-  <si>
-    <t>MIGUEL ANGEL</t>
-  </si>
-  <si>
-    <t>AXEL</t>
+    <t>JUAN LUIS</t>
   </si>
   <si>
     <t>URIEL</t>
   </si>
   <si>
-    <t>EDUARDO</t>
-  </si>
-  <si>
-    <t>JULIAN</t>
-  </si>
-  <si>
-    <t>YAEL</t>
-  </si>
-  <si>
-    <t>JOSE ALONSO</t>
-  </si>
-  <si>
-    <t>LUIS MARIO</t>
-  </si>
-  <si>
-    <t>ARIAN ALEXIS</t>
-  </si>
-  <si>
-    <t>YARITZI</t>
-  </si>
-  <si>
-    <t>ROMARIO ALDAIR</t>
-  </si>
-  <si>
-    <t>ANGEL JOHAN</t>
-  </si>
-  <si>
-    <t>YAMILET</t>
-  </si>
-  <si>
-    <t>MARIA ISABEL</t>
+    <t>EMMANUEL</t>
+  </si>
+  <si>
+    <t>OSWALDO ENRIQUE</t>
   </si>
   <si>
     <t>JOSUE GILBERTO</t>
-  </si>
-  <si>
-    <t>ADOLFO</t>
-  </si>
-  <si>
-    <t>OMAR</t>
-  </si>
-  <si>
-    <t>AGUILAR</t>
-  </si>
-  <si>
-    <t>CADEZA</t>
-  </si>
-  <si>
-    <t>CASTILLO</t>
-  </si>
-  <si>
-    <t>JUAN</t>
-  </si>
-  <si>
-    <t>OCTAVIANO</t>
-  </si>
-  <si>
-    <t>TEZOCO</t>
-  </si>
-  <si>
-    <t>GALLARDO</t>
-  </si>
-  <si>
-    <t>SANCHEZ</t>
-  </si>
-  <si>
-    <t>MIRON</t>
-  </si>
-  <si>
-    <t>JOSE ANTONIO</t>
-  </si>
-  <si>
-    <t>IRVING OTTONIEL</t>
-  </si>
-  <si>
-    <t>BRAYAN</t>
-  </si>
-  <si>
-    <t>BRANDON</t>
-  </si>
-  <si>
-    <t>JUAN LUIS</t>
-  </si>
-  <si>
-    <t>EMMANUEL</t>
-  </si>
-  <si>
-    <t>OSWALDO ENRIQUE</t>
   </si>
 </sst>
 </file>
@@ -1729,7 +1729,7 @@
         <v>9</v>
       </c>
       <c r="I15">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="J15">
         <v>9</v>
@@ -2137,7 +2137,7 @@
         <v>8</v>
       </c>
       <c r="I21">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="J21">
         <v>7</v>
@@ -3021,7 +3021,7 @@
         <v>10</v>
       </c>
       <c r="I34">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="J34">
         <v>7</v>
@@ -3293,7 +3293,7 @@
         <v>8</v>
       </c>
       <c r="I38">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="J38">
         <v>9</v>
@@ -3535,25 +3535,25 @@
         <v>37</v>
       </c>
       <c r="D2">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E2">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F2">
-        <v>21.62</v>
+        <v>29.73</v>
       </c>
       <c r="G2">
-        <v>78.38</v>
+        <v>70.27</v>
       </c>
       <c r="H2">
         <v>6.8</v>
       </c>
       <c r="I2">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="J2">
-        <v>75.68000000000001</v>
+        <v>64.86</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -3755,7 +3755,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F65"/>
+  <dimension ref="A1:F61"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3793,10 +3793,10 @@
         <v>69</v>
       </c>
       <c r="C2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="E2" t="s">
         <v>4</v>
@@ -3813,10 +3813,10 @@
         <v>70</v>
       </c>
       <c r="C3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D3" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E3" t="s">
         <v>8</v>
@@ -3833,10 +3833,10 @@
         <v>70</v>
       </c>
       <c r="C4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D4" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E4" t="s">
         <v>4</v>
@@ -3853,10 +3853,10 @@
         <v>70</v>
       </c>
       <c r="C5" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D5" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E5" t="s">
         <v>5</v>
@@ -3873,10 +3873,10 @@
         <v>70</v>
       </c>
       <c r="C6" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D6" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E6" t="s">
         <v>6</v>
@@ -3893,10 +3893,10 @@
         <v>71</v>
       </c>
       <c r="C7" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="D7" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="E7" t="s">
         <v>5</v>
@@ -3913,10 +3913,10 @@
         <v>71</v>
       </c>
       <c r="C8" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="D8" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="E8" t="s">
         <v>8</v>
@@ -3933,10 +3933,10 @@
         <v>71</v>
       </c>
       <c r="C9" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="D9" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="E9" t="s">
         <v>4</v>
@@ -3953,10 +3953,10 @@
         <v>71</v>
       </c>
       <c r="C10" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="D10" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="E10" t="s">
         <v>6</v>
@@ -3973,10 +3973,10 @@
         <v>72</v>
       </c>
       <c r="C11" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D11" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="E11" t="s">
         <v>4</v>
@@ -3993,10 +3993,10 @@
         <v>73</v>
       </c>
       <c r="C12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D12" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="E12" t="s">
         <v>4</v>
@@ -4013,10 +4013,10 @@
         <v>73</v>
       </c>
       <c r="C13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D13" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="E13" t="s">
         <v>6</v>
@@ -4033,10 +4033,10 @@
         <v>73</v>
       </c>
       <c r="C14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D14" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="E14" t="s">
         <v>8</v>
@@ -4053,10 +4053,10 @@
         <v>74</v>
       </c>
       <c r="C15" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D15" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="E15" t="s">
         <v>4</v>
@@ -4073,10 +4073,10 @@
         <v>74</v>
       </c>
       <c r="C16" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D16" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="E16" t="s">
         <v>6</v>
@@ -4093,10 +4093,10 @@
         <v>74</v>
       </c>
       <c r="C17" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D17" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="E17" t="s">
         <v>8</v>
@@ -4107,22 +4107,22 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18">
-        <v>19330051920097</v>
+        <v>19330051920098</v>
       </c>
       <c r="B18" t="s">
         <v>75</v>
       </c>
       <c r="C18" t="s">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="D18" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E18" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F18" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -4130,19 +4130,19 @@
         <v>19330051920098</v>
       </c>
       <c r="B19" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C19" t="s">
         <v>74</v>
       </c>
       <c r="D19" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="E19" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F19" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -4150,33 +4150,33 @@
         <v>19330051920098</v>
       </c>
       <c r="B20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C20" t="s">
         <v>74</v>
       </c>
       <c r="D20" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="E20" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21">
-        <v>19330051920098</v>
+        <v>19330051920099</v>
       </c>
       <c r="B21" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C21" t="s">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="D21" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="E21" t="s">
         <v>4</v>
@@ -4190,19 +4190,19 @@
         <v>19330051920099</v>
       </c>
       <c r="B22" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C22" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D22" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="E22" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F22" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -4210,39 +4210,39 @@
         <v>19330051920099</v>
       </c>
       <c r="B23" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D23" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="E23" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F23" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24">
-        <v>19330051920099</v>
+        <v>19330051920096</v>
       </c>
       <c r="B24" t="s">
         <v>76</v>
       </c>
       <c r="C24" t="s">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="D24" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="E24" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F24" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -4250,19 +4250,19 @@
         <v>19330051920096</v>
       </c>
       <c r="B25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C25" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D25" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="E25" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F25" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -4270,39 +4270,39 @@
         <v>19330051920096</v>
       </c>
       <c r="B26" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C26" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D26" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="E26" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F26" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27">
-        <v>19330051920096</v>
+        <v>19330051920101</v>
       </c>
       <c r="B27" t="s">
         <v>77</v>
       </c>
       <c r="C27" t="s">
-        <v>79</v>
+        <v>96</v>
       </c>
       <c r="D27" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="E27" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F27" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -4310,19 +4310,19 @@
         <v>19330051920101</v>
       </c>
       <c r="B28" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C28" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D28" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E28" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F28" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -4330,19 +4330,19 @@
         <v>19330051920101</v>
       </c>
       <c r="B29" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C29" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D29" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E29" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F29" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -4350,39 +4350,39 @@
         <v>19330051920101</v>
       </c>
       <c r="B30" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C30" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D30" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E30" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F30" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31">
-        <v>19330051920101</v>
+        <v>19330051920102</v>
       </c>
       <c r="B31" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C31" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D31" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="E31" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F31" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -4390,33 +4390,33 @@
         <v>19330051920102</v>
       </c>
       <c r="B32" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C32" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D32" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="E32" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F32" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33">
-        <v>19330051920102</v>
+        <v>19330051920105</v>
       </c>
       <c r="B33" t="s">
         <v>78</v>
       </c>
       <c r="C33" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D33" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="E33" t="s">
         <v>4</v>
@@ -4427,36 +4427,36 @@
     </row>
     <row r="34" spans="1:6">
       <c r="A34">
-        <v>19330051920105</v>
+        <v>19330051920109</v>
       </c>
       <c r="B34" t="s">
         <v>79</v>
       </c>
       <c r="C34" t="s">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="D34" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="E34" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F34" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35">
-        <v>19330051920103</v>
+        <v>19330051920109</v>
       </c>
       <c r="B35" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C35" t="s">
-        <v>101</v>
+        <v>75</v>
       </c>
       <c r="D35" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="E35" t="s">
         <v>4</v>
@@ -4470,33 +4470,33 @@
         <v>19330051920109</v>
       </c>
       <c r="B36" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C36" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D36" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="E36" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F36" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37">
-        <v>19330051920109</v>
+        <v>19330051920111</v>
       </c>
       <c r="B37" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C37" t="s">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="D37" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="E37" t="s">
         <v>4</v>
@@ -4507,16 +4507,16 @@
     </row>
     <row r="38" spans="1:6">
       <c r="A38">
-        <v>19330051920109</v>
+        <v>19330051920111</v>
       </c>
       <c r="B38" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C38" t="s">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="D38" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="E38" t="s">
         <v>8</v>
@@ -4530,79 +4530,79 @@
         <v>19330051920111</v>
       </c>
       <c r="B39" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C39" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="D39" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="E39" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F39" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40">
-        <v>19330051920111</v>
+        <v>19330051920110</v>
       </c>
       <c r="B40" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C40" t="s">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="D40" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="E40" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F40" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41">
-        <v>19330051920111</v>
+        <v>19330051920112</v>
       </c>
       <c r="B41" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C41" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="D41" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="E41" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F41" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42">
-        <v>19330051920110</v>
+        <v>19330051920112</v>
       </c>
       <c r="B42" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C42" t="s">
-        <v>102</v>
+        <v>74</v>
       </c>
       <c r="D42" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="E42" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F42" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -4610,59 +4610,59 @@
         <v>19330051920112</v>
       </c>
       <c r="B43" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C43" t="s">
         <v>74</v>
       </c>
       <c r="D43" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="E43" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F43" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44">
-        <v>19330051920112</v>
+        <v>19330051920113</v>
       </c>
       <c r="B44" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C44" t="s">
-        <v>74</v>
+        <v>100</v>
       </c>
       <c r="D44" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="E44" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F44" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45">
-        <v>19330051920112</v>
+        <v>19330051920113</v>
       </c>
       <c r="B45" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C45" t="s">
-        <v>74</v>
+        <v>100</v>
       </c>
       <c r="D45" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="E45" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F45" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -4670,53 +4670,53 @@
         <v>19330051920113</v>
       </c>
       <c r="B46" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C46" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D46" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="E46" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F46" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47">
-        <v>19330051920113</v>
+        <v>19330051920001</v>
       </c>
       <c r="B47" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C47" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D47" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="E47" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F47" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48">
-        <v>19330051920113</v>
+        <v>19330051920001</v>
       </c>
       <c r="B48" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C48" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D48" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="E48" t="s">
         <v>4</v>
@@ -4727,56 +4727,56 @@
     </row>
     <row r="49" spans="1:6">
       <c r="A49">
-        <v>19330051920001</v>
+        <v>19330051920116</v>
       </c>
       <c r="B49" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C49" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D49" t="s">
-        <v>131</v>
+        <v>112</v>
       </c>
       <c r="E49" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F49" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50">
-        <v>19330051920001</v>
+        <v>19330051920117</v>
       </c>
       <c r="B50" t="s">
         <v>84</v>
       </c>
       <c r="C50" t="s">
-        <v>104</v>
+        <v>73</v>
       </c>
       <c r="D50" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="E50" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F50" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51">
-        <v>19330051920116</v>
+        <v>19330051920118</v>
       </c>
       <c r="B51" t="s">
         <v>85</v>
       </c>
       <c r="C51" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="D51" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="E51" t="s">
         <v>4</v>
@@ -4787,56 +4787,56 @@
     </row>
     <row r="52" spans="1:6">
       <c r="A52">
-        <v>19330051920117</v>
+        <v>19330051920457</v>
       </c>
       <c r="B52" t="s">
         <v>86</v>
       </c>
       <c r="C52" t="s">
-        <v>73</v>
+        <v>103</v>
       </c>
       <c r="D52" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="E52" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F52" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53">
-        <v>19330051920117</v>
+        <v>19330051920457</v>
       </c>
       <c r="B53" t="s">
         <v>86</v>
       </c>
       <c r="C53" t="s">
-        <v>73</v>
+        <v>103</v>
       </c>
       <c r="D53" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="E53" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F53" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54">
-        <v>19330051920118</v>
+        <v>19330051920457</v>
       </c>
       <c r="B54" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C54" t="s">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="D54" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="E54" t="s">
         <v>4</v>
@@ -4847,36 +4847,36 @@
     </row>
     <row r="55" spans="1:6">
       <c r="A55">
-        <v>19330051920457</v>
+        <v>19330051920119</v>
       </c>
       <c r="B55" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C55" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D55" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="E55" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F55" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56">
-        <v>19330051920457</v>
+        <v>19330051920120</v>
       </c>
       <c r="B56" t="s">
         <v>88</v>
       </c>
       <c r="C56" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D56" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="E56" t="s">
         <v>8</v>
@@ -4887,36 +4887,36 @@
     </row>
     <row r="57" spans="1:6">
       <c r="A57">
-        <v>19330051920457</v>
+        <v>19330051920120</v>
       </c>
       <c r="B57" t="s">
         <v>88</v>
       </c>
       <c r="C57" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D57" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="E57" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F57" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58">
-        <v>19330051920119</v>
+        <v>19330051920122</v>
       </c>
       <c r="B58" t="s">
         <v>89</v>
       </c>
       <c r="C58" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D58" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="E58" t="s">
         <v>4</v>
@@ -4927,141 +4927,61 @@
     </row>
     <row r="59" spans="1:6">
       <c r="A59">
-        <v>19330051920120</v>
+        <v>19330051920124</v>
       </c>
       <c r="B59" t="s">
         <v>90</v>
       </c>
       <c r="C59" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D59" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="E59" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F59" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60">
-        <v>19330051920120</v>
+        <v>19330051920124</v>
       </c>
       <c r="B60" t="s">
         <v>90</v>
       </c>
       <c r="C60" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D60" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="E60" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F60" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61">
-        <v>19330051920121</v>
+        <v>19330051920124</v>
       </c>
       <c r="B61" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C61" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D61" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="E61" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F61" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
-      <c r="A62">
-        <v>19330051920122</v>
-      </c>
-      <c r="B62" t="s">
-        <v>92</v>
-      </c>
-      <c r="C62" t="s">
-        <v>110</v>
-      </c>
-      <c r="D62" t="s">
-        <v>138</v>
-      </c>
-      <c r="E62" t="s">
-        <v>4</v>
-      </c>
-      <c r="F62" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6">
-      <c r="A63">
-        <v>19330051920124</v>
-      </c>
-      <c r="B63" t="s">
-        <v>93</v>
-      </c>
-      <c r="C63" t="s">
-        <v>111</v>
-      </c>
-      <c r="D63" t="s">
-        <v>139</v>
-      </c>
-      <c r="E63" t="s">
-        <v>4</v>
-      </c>
-      <c r="F63" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
-      <c r="A64">
-        <v>19330051920124</v>
-      </c>
-      <c r="B64" t="s">
-        <v>93</v>
-      </c>
-      <c r="C64" t="s">
-        <v>111</v>
-      </c>
-      <c r="D64" t="s">
-        <v>139</v>
-      </c>
-      <c r="E64" t="s">
-        <v>8</v>
-      </c>
-      <c r="F64" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
-      <c r="A65">
-        <v>19330051920124</v>
-      </c>
-      <c r="B65" t="s">
-        <v>93</v>
-      </c>
-      <c r="C65" t="s">
-        <v>111</v>
-      </c>
-      <c r="D65" t="s">
-        <v>139</v>
-      </c>
-      <c r="E65" t="s">
-        <v>6</v>
-      </c>
-      <c r="F65" t="s">
         <v>59</v>
       </c>
     </row>
@@ -5107,10 +5027,10 @@
         <v>70</v>
       </c>
       <c r="C2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E2">
         <v>4</v>
@@ -5124,10 +5044,10 @@
         <v>71</v>
       </c>
       <c r="C3" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="D3" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="E3">
         <v>4</v>
@@ -5138,13 +5058,13 @@
         <v>19330051920101</v>
       </c>
       <c r="B4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D4" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E4">
         <v>4</v>
@@ -5158,10 +5078,10 @@
         <v>73</v>
       </c>
       <c r="C5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D5" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -5175,10 +5095,10 @@
         <v>74</v>
       </c>
       <c r="C6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D6" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -5189,13 +5109,13 @@
         <v>19330051920098</v>
       </c>
       <c r="B7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C7" t="s">
         <v>74</v>
       </c>
       <c r="D7" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -5206,13 +5126,13 @@
         <v>19330051920099</v>
       </c>
       <c r="B8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C8" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D8" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -5223,13 +5143,13 @@
         <v>19330051920096</v>
       </c>
       <c r="B9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D9" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -5240,13 +5160,13 @@
         <v>19330051920109</v>
       </c>
       <c r="B10" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D10" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -5257,13 +5177,13 @@
         <v>19330051920111</v>
       </c>
       <c r="B11" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C11" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="D11" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -5274,13 +5194,13 @@
         <v>19330051920112</v>
       </c>
       <c r="B12" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C12" t="s">
         <v>74</v>
       </c>
       <c r="D12" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -5291,13 +5211,13 @@
         <v>19330051920113</v>
       </c>
       <c r="B13" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C13" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D13" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -5308,13 +5228,13 @@
         <v>19330051920457</v>
       </c>
       <c r="B14" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C14" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D14" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="E14">
         <v>3</v>
@@ -5325,13 +5245,13 @@
         <v>19330051920124</v>
       </c>
       <c r="B15" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C15" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D15" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="E15">
         <v>3</v>
@@ -5342,13 +5262,13 @@
         <v>19330051920102</v>
       </c>
       <c r="B16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C16" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D16" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="E16">
         <v>2</v>
@@ -5359,13 +5279,13 @@
         <v>19330051920001</v>
       </c>
       <c r="B17" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C17" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D17" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="E17">
         <v>2</v>
@@ -5373,16 +5293,16 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18">
-        <v>19330051920117</v>
+        <v>19330051920120</v>
       </c>
       <c r="B18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C18" t="s">
-        <v>73</v>
+        <v>105</v>
       </c>
       <c r="D18" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E18">
         <v>2</v>
@@ -5390,33 +5310,33 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19">
-        <v>19330051920120</v>
+        <v>19330051920085</v>
       </c>
       <c r="B19" t="s">
-        <v>90</v>
+        <v>69</v>
       </c>
       <c r="C19" t="s">
+        <v>91</v>
+      </c>
+      <c r="D19" t="s">
         <v>108</v>
       </c>
-      <c r="D19" t="s">
-        <v>136</v>
-      </c>
       <c r="E19">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
-        <v>19330051920085</v>
+        <v>19330051920093</v>
       </c>
       <c r="B20" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C20" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="D20" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E20">
         <v>1</v>
@@ -5424,16 +5344,16 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
-        <v>19330051920093</v>
+        <v>19330051920105</v>
       </c>
       <c r="B21" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="C21" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="D21" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -5441,16 +5361,16 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
-        <v>19330051920097</v>
+        <v>19330051920110</v>
       </c>
       <c r="B22" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C22" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D22" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E22">
         <v>1</v>
@@ -5458,16 +5378,16 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23">
-        <v>19330051920105</v>
+        <v>19330051920116</v>
       </c>
       <c r="B23" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C23" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D23" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="E23">
         <v>1</v>
@@ -5475,16 +5395,16 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24">
-        <v>19330051920103</v>
+        <v>19330051920117</v>
       </c>
       <c r="B24" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C24" t="s">
-        <v>101</v>
+        <v>73</v>
       </c>
       <c r="D24" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E24">
         <v>1</v>
@@ -5492,16 +5412,16 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25">
-        <v>19330051920110</v>
+        <v>19330051920118</v>
       </c>
       <c r="B25" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C25" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="D25" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E25">
         <v>1</v>
@@ -5509,16 +5429,16 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26">
-        <v>19330051920116</v>
+        <v>19330051920119</v>
       </c>
       <c r="B26" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C26" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D26" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="E26">
         <v>1</v>
@@ -5526,16 +5446,16 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27">
-        <v>19330051920118</v>
+        <v>19330051920122</v>
       </c>
       <c r="B27" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C27" t="s">
-        <v>80</v>
+        <v>106</v>
       </c>
       <c r="D27" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E27">
         <v>1</v>
@@ -5543,64 +5463,64 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28">
-        <v>19330051920119</v>
+        <v>19330051920084</v>
       </c>
       <c r="B28" t="s">
-        <v>89</v>
+        <v>133</v>
       </c>
       <c r="C28" t="s">
-        <v>107</v>
+        <v>139</v>
       </c>
       <c r="D28" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29">
-        <v>19330051920121</v>
+        <v>19330051920088</v>
       </c>
       <c r="B29" t="s">
-        <v>91</v>
+        <v>134</v>
       </c>
       <c r="C29" t="s">
-        <v>109</v>
+        <v>140</v>
       </c>
       <c r="D29" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30">
-        <v>19330051920122</v>
+        <v>19330051920090</v>
       </c>
       <c r="B30" t="s">
-        <v>92</v>
+        <v>135</v>
       </c>
       <c r="C30" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="D30" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31">
-        <v>19330051920084</v>
+        <v>19330051920089</v>
       </c>
       <c r="B31" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="C31" t="s">
-        <v>145</v>
+        <v>83</v>
       </c>
       <c r="D31" t="s">
         <v>149</v>
@@ -5611,13 +5531,13 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32">
-        <v>19330051920088</v>
+        <v>19330051920097</v>
       </c>
       <c r="B32" t="s">
+        <v>136</v>
+      </c>
+      <c r="C32" t="s">
         <v>141</v>
-      </c>
-      <c r="C32" t="s">
-        <v>146</v>
       </c>
       <c r="D32" t="s">
         <v>150</v>
@@ -5628,13 +5548,13 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33">
-        <v>19330051920090</v>
+        <v>19330051920100</v>
       </c>
       <c r="B33" t="s">
+        <v>75</v>
+      </c>
+      <c r="C33" t="s">
         <v>142</v>
-      </c>
-      <c r="C33" t="s">
-        <v>85</v>
       </c>
       <c r="D33" t="s">
         <v>151</v>
@@ -5645,13 +5565,13 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34">
-        <v>19330051920089</v>
+        <v>19330051920103</v>
       </c>
       <c r="B34" t="s">
-        <v>142</v>
+        <v>93</v>
       </c>
       <c r="C34" t="s">
-        <v>85</v>
+        <v>143</v>
       </c>
       <c r="D34" t="s">
         <v>152</v>
@@ -5662,13 +5582,13 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35">
-        <v>19330051920100</v>
+        <v>19330051920106</v>
       </c>
       <c r="B35" t="s">
-        <v>76</v>
+        <v>100</v>
       </c>
       <c r="C35" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D35" t="s">
         <v>153</v>
@@ -5679,13 +5599,13 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36">
-        <v>19330051920106</v>
+        <v>19330051920107</v>
       </c>
       <c r="B36" t="s">
-        <v>103</v>
+        <v>137</v>
       </c>
       <c r="C36" t="s">
-        <v>148</v>
+        <v>74</v>
       </c>
       <c r="D36" t="s">
         <v>154</v>
@@ -5696,16 +5616,16 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37">
-        <v>19330051920107</v>
+        <v>19330051920115</v>
       </c>
       <c r="B37" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="C37" t="s">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="D37" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -5713,16 +5633,16 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38">
-        <v>19330051920115</v>
+        <v>19330051920121</v>
       </c>
       <c r="B38" t="s">
-        <v>144</v>
+        <v>92</v>
       </c>
       <c r="C38" t="s">
-        <v>80</v>
+        <v>145</v>
       </c>
       <c r="D38" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -5735,7 +5655,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5773,13 +5693,13 @@
         <v>19330051920102</v>
       </c>
       <c r="B2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D2" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="E2" t="s">
         <v>4</v>
@@ -5796,13 +5716,13 @@
         <v>19330051920102</v>
       </c>
       <c r="B3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D3" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="E3" t="s">
         <v>6</v>
@@ -5819,13 +5739,13 @@
         <v>19330051920117</v>
       </c>
       <c r="B4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C4" t="s">
         <v>73</v>
       </c>
       <c r="D4" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="E4" t="s">
         <v>4</v>
@@ -5834,7 +5754,7 @@
         <v>58</v>
       </c>
       <c r="G4">
-        <v>-1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -5842,13 +5762,13 @@
         <v>19330051920117</v>
       </c>
       <c r="B5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C5" t="s">
         <v>73</v>
       </c>
       <c r="D5" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="E5" t="s">
         <v>8</v>
@@ -5865,13 +5785,13 @@
         <v>19330051920118</v>
       </c>
       <c r="B6" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C6" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="D6" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="E6" t="s">
         <v>4</v>
@@ -5888,13 +5808,13 @@
         <v>19330051920118</v>
       </c>
       <c r="B7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C7" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="D7" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="E7" t="s">
         <v>6</v>
@@ -5914,10 +5834,10 @@
         <v>69</v>
       </c>
       <c r="C8" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D8" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="E8" t="s">
         <v>4</v>
@@ -5937,10 +5857,10 @@
         <v>72</v>
       </c>
       <c r="C9" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D9" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="E9" t="s">
         <v>4</v>
@@ -5954,16 +5874,16 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10">
-        <v>19330051920097</v>
+        <v>19330051920110</v>
       </c>
       <c r="B10" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C10" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D10" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E10" t="s">
         <v>4</v>
@@ -5977,16 +5897,16 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11">
-        <v>19330051920103</v>
+        <v>19330051920116</v>
       </c>
       <c r="B11" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C11" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D11" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="E11" t="s">
         <v>4</v>
@@ -6000,16 +5920,16 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12">
-        <v>19330051920110</v>
+        <v>19330051920122</v>
       </c>
       <c r="B12" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="C12" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D12" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="E12" t="s">
         <v>4</v>
@@ -6018,75 +5938,6 @@
         <v>58</v>
       </c>
       <c r="G12">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13">
-        <v>19330051920116</v>
-      </c>
-      <c r="B13" t="s">
-        <v>85</v>
-      </c>
-      <c r="C13" t="s">
-        <v>105</v>
-      </c>
-      <c r="D13" t="s">
-        <v>116</v>
-      </c>
-      <c r="E13" t="s">
-        <v>4</v>
-      </c>
-      <c r="F13" t="s">
-        <v>58</v>
-      </c>
-      <c r="G13">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14">
-        <v>19330051920121</v>
-      </c>
-      <c r="B14" t="s">
-        <v>91</v>
-      </c>
-      <c r="C14" t="s">
-        <v>109</v>
-      </c>
-      <c r="D14" t="s">
-        <v>137</v>
-      </c>
-      <c r="E14" t="s">
-        <v>4</v>
-      </c>
-      <c r="F14" t="s">
-        <v>58</v>
-      </c>
-      <c r="G14">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15">
-        <v>19330051920122</v>
-      </c>
-      <c r="B15" t="s">
-        <v>92</v>
-      </c>
-      <c r="C15" t="s">
-        <v>110</v>
-      </c>
-      <c r="D15" t="s">
-        <v>138</v>
-      </c>
-      <c r="E15" t="s">
-        <v>4</v>
-      </c>
-      <c r="F15" t="s">
-        <v>58</v>
-      </c>
-      <c r="G15">
         <v>-1</v>
       </c>
     </row>

--- a/grupos/4BEM - Estadisticos 2020.xlsx
+++ b/grupos/4BEM - Estadisticos 2020.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="156">
   <si>
     <t>Materia</t>
   </si>
@@ -287,205 +287,205 @@
     <t>TAPIA</t>
   </si>
   <si>
+    <t>XOTLANIHUA</t>
+  </si>
+  <si>
+    <t>TEXOCO</t>
+  </si>
+  <si>
+    <t>TEXCAHUA</t>
+  </si>
+  <si>
+    <t>HERNANDEZ</t>
+  </si>
+  <si>
+    <t>GARATE</t>
+  </si>
+  <si>
+    <t>DIAZ</t>
+  </si>
+  <si>
+    <t>ANTEMATE</t>
+  </si>
+  <si>
+    <t>IXMATLAHUA</t>
+  </si>
+  <si>
+    <t>AVELINO</t>
+  </si>
+  <si>
+    <t>RODRIGUEZ</t>
+  </si>
+  <si>
+    <t>JIMENEZ</t>
+  </si>
+  <si>
+    <t>LUNA</t>
+  </si>
+  <si>
+    <t>ANGUIANO</t>
+  </si>
+  <si>
+    <t>ZENON</t>
+  </si>
+  <si>
+    <t>DE JESUS</t>
+  </si>
+  <si>
+    <t>RIVERA</t>
+  </si>
+  <si>
+    <t>TLAXCALA</t>
+  </si>
+  <si>
+    <t>JOSE JAZAEL</t>
+  </si>
+  <si>
+    <t>ELEAZAR RIGOBERTO</t>
+  </si>
+  <si>
+    <t>RAUL ARTURO</t>
+  </si>
+  <si>
+    <t>JOSUE ALEXIS</t>
+  </si>
+  <si>
+    <t>JOSUE</t>
+  </si>
+  <si>
+    <t>JAFET</t>
+  </si>
+  <si>
+    <t>JUAN ANTONIO</t>
+  </si>
+  <si>
+    <t>ADRIANA</t>
+  </si>
+  <si>
+    <t>DULCE REGINA</t>
+  </si>
+  <si>
+    <t>AXEL MIGUEL</t>
+  </si>
+  <si>
+    <t>MIGUEL ANGEL</t>
+  </si>
+  <si>
+    <t>AXEL</t>
+  </si>
+  <si>
+    <t>EDUARDO</t>
+  </si>
+  <si>
+    <t>JULIAN</t>
+  </si>
+  <si>
+    <t>YAEL</t>
+  </si>
+  <si>
+    <t>JOSE ALONSO</t>
+  </si>
+  <si>
+    <t>LUIS MARIO</t>
+  </si>
+  <si>
+    <t>ARIAN ALEXIS</t>
+  </si>
+  <si>
+    <t>YARITZI</t>
+  </si>
+  <si>
+    <t>ROMARIO ALDAIR</t>
+  </si>
+  <si>
+    <t>ANGEL JOHAN</t>
+  </si>
+  <si>
+    <t>YAMILET</t>
+  </si>
+  <si>
+    <t>MARIA ISABEL</t>
+  </si>
+  <si>
+    <t>OMAR</t>
+  </si>
+  <si>
+    <t>AGUILAR</t>
+  </si>
+  <si>
+    <t>CADEZA</t>
+  </si>
+  <si>
+    <t>CASTILLO</t>
+  </si>
+  <si>
+    <t>FLORENCIO</t>
+  </si>
+  <si>
+    <t>JUAN</t>
+  </si>
+  <si>
+    <t>OCTAVIANO</t>
+  </si>
+  <si>
     <t>TOCOHUA</t>
   </si>
   <si>
-    <t>XOTLANIHUA</t>
-  </si>
-  <si>
-    <t>TEXOCO</t>
-  </si>
-  <si>
-    <t>TEXCAHUA</t>
-  </si>
-  <si>
-    <t>HERNANDEZ</t>
-  </si>
-  <si>
-    <t>GARATE</t>
-  </si>
-  <si>
-    <t>DIAZ</t>
-  </si>
-  <si>
-    <t>ANTEMATE</t>
-  </si>
-  <si>
-    <t>IXMATLAHUA</t>
-  </si>
-  <si>
-    <t>AVELINO</t>
-  </si>
-  <si>
-    <t>RODRIGUEZ</t>
-  </si>
-  <si>
-    <t>JIMENEZ</t>
-  </si>
-  <si>
-    <t>LUNA</t>
-  </si>
-  <si>
-    <t>ANGUIANO</t>
-  </si>
-  <si>
-    <t>ZENON</t>
-  </si>
-  <si>
-    <t>DE JESUS</t>
-  </si>
-  <si>
-    <t>RIVERA</t>
+    <t>TEZOCO</t>
+  </si>
+  <si>
+    <t>GALLARDO</t>
+  </si>
+  <si>
+    <t>BERNABE</t>
+  </si>
+  <si>
+    <t>SANCHEZ</t>
+  </si>
+  <si>
+    <t>DEL ANGEL</t>
+  </si>
+  <si>
+    <t>MIRON</t>
+  </si>
+  <si>
+    <t>TETLA</t>
   </si>
   <si>
     <t>BERISTAIN</t>
   </si>
   <si>
-    <t>TLAXCALA</t>
-  </si>
-  <si>
-    <t>JOSE JAZAEL</t>
-  </si>
-  <si>
-    <t>ELEAZAR RIGOBERTO</t>
-  </si>
-  <si>
-    <t>RAUL ARTURO</t>
-  </si>
-  <si>
-    <t>JOSUE ALEXIS</t>
-  </si>
-  <si>
-    <t>JOSUE</t>
-  </si>
-  <si>
-    <t>JAFET</t>
-  </si>
-  <si>
-    <t>JUAN ANTONIO</t>
-  </si>
-  <si>
-    <t>ADRIANA</t>
-  </si>
-  <si>
-    <t>DULCE REGINA</t>
-  </si>
-  <si>
-    <t>AXEL MIGUEL</t>
-  </si>
-  <si>
-    <t>MIGUEL ANGEL</t>
-  </si>
-  <si>
-    <t>AXEL</t>
-  </si>
-  <si>
-    <t>EDUARDO</t>
-  </si>
-  <si>
-    <t>JULIAN</t>
-  </si>
-  <si>
-    <t>YAEL</t>
-  </si>
-  <si>
-    <t>JOSE ALONSO</t>
-  </si>
-  <si>
-    <t>LUIS MARIO</t>
-  </si>
-  <si>
-    <t>ARIAN ALEXIS</t>
-  </si>
-  <si>
-    <t>YARITZI</t>
-  </si>
-  <si>
-    <t>ROMARIO ALDAIR</t>
-  </si>
-  <si>
-    <t>ANGEL JOHAN</t>
-  </si>
-  <si>
-    <t>YAMILET</t>
-  </si>
-  <si>
-    <t>MARIA ISABEL</t>
+    <t>JOSE ANTONIO</t>
+  </si>
+  <si>
+    <t>IRVING OTTONIEL</t>
+  </si>
+  <si>
+    <t>BRAYAN</t>
+  </si>
+  <si>
+    <t>BRANDON</t>
+  </si>
+  <si>
+    <t>JESUS ENRIQUE</t>
+  </si>
+  <si>
+    <t>JUAN LUIS</t>
+  </si>
+  <si>
+    <t>URIEL</t>
+  </si>
+  <si>
+    <t>EMMANUEL</t>
+  </si>
+  <si>
+    <t>OSWALDO ENRIQUE</t>
+  </si>
+  <si>
+    <t>JOSUE GILBERTO</t>
   </si>
   <si>
     <t>ADOLFO</t>
-  </si>
-  <si>
-    <t>OMAR</t>
-  </si>
-  <si>
-    <t>AGUILAR</t>
-  </si>
-  <si>
-    <t>CADEZA</t>
-  </si>
-  <si>
-    <t>CASTILLO</t>
-  </si>
-  <si>
-    <t>FLORENCIO</t>
-  </si>
-  <si>
-    <t>JUAN</t>
-  </si>
-  <si>
-    <t>OCTAVIANO</t>
-  </si>
-  <si>
-    <t>TEZOCO</t>
-  </si>
-  <si>
-    <t>GALLARDO</t>
-  </si>
-  <si>
-    <t>BERNABE</t>
-  </si>
-  <si>
-    <t>SANCHEZ</t>
-  </si>
-  <si>
-    <t>DEL ANGEL</t>
-  </si>
-  <si>
-    <t>MIRON</t>
-  </si>
-  <si>
-    <t>TETLA</t>
-  </si>
-  <si>
-    <t>JOSE ANTONIO</t>
-  </si>
-  <si>
-    <t>IRVING OTTONIEL</t>
-  </si>
-  <si>
-    <t>BRAYAN</t>
-  </si>
-  <si>
-    <t>BRANDON</t>
-  </si>
-  <si>
-    <t>JESUS ENRIQUE</t>
-  </si>
-  <si>
-    <t>JUAN LUIS</t>
-  </si>
-  <si>
-    <t>URIEL</t>
-  </si>
-  <si>
-    <t>EMMANUEL</t>
-  </si>
-  <si>
-    <t>OSWALDO ENRIQUE</t>
-  </si>
-  <si>
-    <t>JOSUE GILBERTO</t>
   </si>
 </sst>
 </file>
@@ -3361,7 +3361,7 @@
         <v>8</v>
       </c>
       <c r="I39">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="J39">
         <v>7</v>
@@ -3547,13 +3547,13 @@
         <v>70.27</v>
       </c>
       <c r="H2">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="I2">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J2">
-        <v>64.86</v>
+        <v>62.16</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -3755,7 +3755,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F61"/>
+  <dimension ref="A1:F60"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3793,10 +3793,10 @@
         <v>69</v>
       </c>
       <c r="C2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E2" t="s">
         <v>4</v>
@@ -3813,10 +3813,10 @@
         <v>70</v>
       </c>
       <c r="C3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E3" t="s">
         <v>8</v>
@@ -3833,10 +3833,10 @@
         <v>70</v>
       </c>
       <c r="C4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E4" t="s">
         <v>4</v>
@@ -3853,10 +3853,10 @@
         <v>70</v>
       </c>
       <c r="C5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E5" t="s">
         <v>5</v>
@@ -3873,10 +3873,10 @@
         <v>70</v>
       </c>
       <c r="C6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D6" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E6" t="s">
         <v>6</v>
@@ -3893,10 +3893,10 @@
         <v>71</v>
       </c>
       <c r="C7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E7" t="s">
         <v>5</v>
@@ -3913,10 +3913,10 @@
         <v>71</v>
       </c>
       <c r="C8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D8" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E8" t="s">
         <v>8</v>
@@ -3933,10 +3933,10 @@
         <v>71</v>
       </c>
       <c r="C9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E9" t="s">
         <v>4</v>
@@ -3953,10 +3953,10 @@
         <v>71</v>
       </c>
       <c r="C10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D10" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E10" t="s">
         <v>6</v>
@@ -3976,7 +3976,7 @@
         <v>81</v>
       </c>
       <c r="D11" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E11" t="s">
         <v>4</v>
@@ -3993,10 +3993,10 @@
         <v>73</v>
       </c>
       <c r="C12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D12" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E12" t="s">
         <v>4</v>
@@ -4013,10 +4013,10 @@
         <v>73</v>
       </c>
       <c r="C13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D13" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E13" t="s">
         <v>6</v>
@@ -4033,10 +4033,10 @@
         <v>73</v>
       </c>
       <c r="C14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D14" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E14" t="s">
         <v>8</v>
@@ -4056,7 +4056,7 @@
         <v>81</v>
       </c>
       <c r="D15" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E15" t="s">
         <v>4</v>
@@ -4076,7 +4076,7 @@
         <v>81</v>
       </c>
       <c r="D16" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E16" t="s">
         <v>6</v>
@@ -4096,7 +4096,7 @@
         <v>81</v>
       </c>
       <c r="D17" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E17" t="s">
         <v>8</v>
@@ -4116,7 +4116,7 @@
         <v>74</v>
       </c>
       <c r="D18" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E18" t="s">
         <v>8</v>
@@ -4136,7 +4136,7 @@
         <v>74</v>
       </c>
       <c r="D19" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E19" t="s">
         <v>6</v>
@@ -4156,7 +4156,7 @@
         <v>74</v>
       </c>
       <c r="D20" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E20" t="s">
         <v>4</v>
@@ -4173,10 +4173,10 @@
         <v>75</v>
       </c>
       <c r="C21" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D21" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E21" t="s">
         <v>4</v>
@@ -4193,10 +4193,10 @@
         <v>75</v>
       </c>
       <c r="C22" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D22" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E22" t="s">
         <v>8</v>
@@ -4213,10 +4213,10 @@
         <v>75</v>
       </c>
       <c r="C23" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D23" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E23" t="s">
         <v>6</v>
@@ -4236,7 +4236,7 @@
         <v>78</v>
       </c>
       <c r="D24" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E24" t="s">
         <v>8</v>
@@ -4256,7 +4256,7 @@
         <v>78</v>
       </c>
       <c r="D25" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E25" t="s">
         <v>6</v>
@@ -4276,7 +4276,7 @@
         <v>78</v>
       </c>
       <c r="D26" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E26" t="s">
         <v>4</v>
@@ -4293,10 +4293,10 @@
         <v>77</v>
       </c>
       <c r="C27" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D27" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E27" t="s">
         <v>5</v>
@@ -4313,10 +4313,10 @@
         <v>77</v>
       </c>
       <c r="C28" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D28" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E28" t="s">
         <v>8</v>
@@ -4333,10 +4333,10 @@
         <v>77</v>
       </c>
       <c r="C29" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D29" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E29" t="s">
         <v>6</v>
@@ -4353,10 +4353,10 @@
         <v>77</v>
       </c>
       <c r="C30" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D30" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E30" t="s">
         <v>4</v>
@@ -4373,10 +4373,10 @@
         <v>77</v>
       </c>
       <c r="C31" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D31" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E31" t="s">
         <v>6</v>
@@ -4393,10 +4393,10 @@
         <v>77</v>
       </c>
       <c r="C32" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D32" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E32" t="s">
         <v>4</v>
@@ -4413,10 +4413,10 @@
         <v>78</v>
       </c>
       <c r="C33" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D33" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E33" t="s">
         <v>4</v>
@@ -4436,13 +4436,13 @@
         <v>75</v>
       </c>
       <c r="D34" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E34" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F34" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -4456,13 +4456,13 @@
         <v>75</v>
       </c>
       <c r="D35" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E35" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F35" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -4476,13 +4476,13 @@
         <v>75</v>
       </c>
       <c r="D36" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E36" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F36" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -4493,10 +4493,10 @@
         <v>80</v>
       </c>
       <c r="C37" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D37" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E37" t="s">
         <v>4</v>
@@ -4513,10 +4513,10 @@
         <v>80</v>
       </c>
       <c r="C38" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D38" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E38" t="s">
         <v>8</v>
@@ -4533,10 +4533,10 @@
         <v>80</v>
       </c>
       <c r="C39" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D39" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E39" t="s">
         <v>6</v>
@@ -4553,10 +4553,10 @@
         <v>80</v>
       </c>
       <c r="C40" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D40" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E40" t="s">
         <v>4</v>
@@ -4576,13 +4576,13 @@
         <v>74</v>
       </c>
       <c r="D41" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E41" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F41" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -4596,13 +4596,13 @@
         <v>74</v>
       </c>
       <c r="D42" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E42" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F42" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -4616,13 +4616,13 @@
         <v>74</v>
       </c>
       <c r="D43" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E43" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F43" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -4633,10 +4633,10 @@
         <v>81</v>
       </c>
       <c r="C44" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D44" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E44" t="s">
         <v>6</v>
@@ -4653,10 +4653,10 @@
         <v>81</v>
       </c>
       <c r="C45" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D45" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E45" t="s">
         <v>8</v>
@@ -4673,10 +4673,10 @@
         <v>81</v>
       </c>
       <c r="C46" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D46" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E46" t="s">
         <v>4</v>
@@ -4693,10 +4693,10 @@
         <v>82</v>
       </c>
       <c r="C47" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D47" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E47" t="s">
         <v>6</v>
@@ -4713,10 +4713,10 @@
         <v>82</v>
       </c>
       <c r="C48" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D48" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E48" t="s">
         <v>4</v>
@@ -4733,10 +4733,10 @@
         <v>83</v>
       </c>
       <c r="C49" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D49" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E49" t="s">
         <v>4</v>
@@ -4756,7 +4756,7 @@
         <v>73</v>
       </c>
       <c r="D50" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E50" t="s">
         <v>8</v>
@@ -4773,10 +4773,10 @@
         <v>85</v>
       </c>
       <c r="C51" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D51" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E51" t="s">
         <v>4</v>
@@ -4793,10 +4793,10 @@
         <v>86</v>
       </c>
       <c r="C52" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D52" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E52" t="s">
         <v>6</v>
@@ -4813,10 +4813,10 @@
         <v>86</v>
       </c>
       <c r="C53" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D53" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E53" t="s">
         <v>8</v>
@@ -4833,10 +4833,10 @@
         <v>86</v>
       </c>
       <c r="C54" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D54" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E54" t="s">
         <v>4</v>
@@ -4853,10 +4853,10 @@
         <v>87</v>
       </c>
       <c r="C55" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D55" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E55" t="s">
         <v>4</v>
@@ -4873,10 +4873,10 @@
         <v>88</v>
       </c>
       <c r="C56" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D56" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E56" t="s">
         <v>8</v>
@@ -4893,10 +4893,10 @@
         <v>88</v>
       </c>
       <c r="C57" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D57" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E57" t="s">
         <v>6</v>
@@ -4907,16 +4907,16 @@
     </row>
     <row r="58" spans="1:6">
       <c r="A58">
-        <v>19330051920122</v>
+        <v>19330051920124</v>
       </c>
       <c r="B58" t="s">
         <v>89</v>
       </c>
       <c r="C58" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D58" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E58" t="s">
         <v>4</v>
@@ -4930,19 +4930,19 @@
         <v>19330051920124</v>
       </c>
       <c r="B59" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C59" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D59" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E59" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F59" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -4950,38 +4950,18 @@
         <v>19330051920124</v>
       </c>
       <c r="B60" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C60" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D60" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E60" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F60" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
-      <c r="A61">
-        <v>19330051920124</v>
-      </c>
-      <c r="B61" t="s">
-        <v>90</v>
-      </c>
-      <c r="C61" t="s">
-        <v>107</v>
-      </c>
-      <c r="D61" t="s">
-        <v>132</v>
-      </c>
-      <c r="E61" t="s">
-        <v>6</v>
-      </c>
-      <c r="F61" t="s">
         <v>59</v>
       </c>
     </row>
@@ -5027,10 +5007,10 @@
         <v>70</v>
       </c>
       <c r="C2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E2">
         <v>4</v>
@@ -5044,10 +5024,10 @@
         <v>71</v>
       </c>
       <c r="C3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E3">
         <v>4</v>
@@ -5061,10 +5041,10 @@
         <v>77</v>
       </c>
       <c r="C4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E4">
         <v>4</v>
@@ -5078,10 +5058,10 @@
         <v>73</v>
       </c>
       <c r="C5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -5098,7 +5078,7 @@
         <v>81</v>
       </c>
       <c r="D6" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -5115,7 +5095,7 @@
         <v>74</v>
       </c>
       <c r="D7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -5129,10 +5109,10 @@
         <v>75</v>
       </c>
       <c r="C8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D8" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -5149,7 +5129,7 @@
         <v>78</v>
       </c>
       <c r="D9" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -5166,7 +5146,7 @@
         <v>75</v>
       </c>
       <c r="D10" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -5180,10 +5160,10 @@
         <v>80</v>
       </c>
       <c r="C11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D11" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -5200,7 +5180,7 @@
         <v>74</v>
       </c>
       <c r="D12" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -5214,10 +5194,10 @@
         <v>81</v>
       </c>
       <c r="C13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D13" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -5231,10 +5211,10 @@
         <v>86</v>
       </c>
       <c r="C14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D14" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E14">
         <v>3</v>
@@ -5245,13 +5225,13 @@
         <v>19330051920124</v>
       </c>
       <c r="B15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C15" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D15" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E15">
         <v>3</v>
@@ -5265,10 +5245,10 @@
         <v>77</v>
       </c>
       <c r="C16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D16" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E16">
         <v>2</v>
@@ -5282,10 +5262,10 @@
         <v>82</v>
       </c>
       <c r="C17" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D17" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E17">
         <v>2</v>
@@ -5299,10 +5279,10 @@
         <v>88</v>
       </c>
       <c r="C18" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D18" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E18">
         <v>2</v>
@@ -5316,10 +5296,10 @@
         <v>69</v>
       </c>
       <c r="C19" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D19" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -5336,7 +5316,7 @@
         <v>81</v>
       </c>
       <c r="D20" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E20">
         <v>1</v>
@@ -5350,10 +5330,10 @@
         <v>78</v>
       </c>
       <c r="C21" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D21" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -5367,10 +5347,10 @@
         <v>80</v>
       </c>
       <c r="C22" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D22" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E22">
         <v>1</v>
@@ -5384,10 +5364,10 @@
         <v>83</v>
       </c>
       <c r="C23" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D23" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E23">
         <v>1</v>
@@ -5404,7 +5384,7 @@
         <v>73</v>
       </c>
       <c r="D24" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E24">
         <v>1</v>
@@ -5418,10 +5398,10 @@
         <v>85</v>
       </c>
       <c r="C25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D25" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E25">
         <v>1</v>
@@ -5435,10 +5415,10 @@
         <v>87</v>
       </c>
       <c r="C26" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D26" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E26">
         <v>1</v>
@@ -5446,30 +5426,30 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27">
-        <v>19330051920122</v>
+        <v>19330051920084</v>
       </c>
       <c r="B27" t="s">
-        <v>89</v>
+        <v>130</v>
       </c>
       <c r="C27" t="s">
-        <v>106</v>
+        <v>137</v>
       </c>
       <c r="D27" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28">
-        <v>19330051920084</v>
+        <v>19330051920088</v>
       </c>
       <c r="B28" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C28" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D28" t="s">
         <v>146</v>
@@ -5480,13 +5460,13 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29">
-        <v>19330051920088</v>
+        <v>19330051920090</v>
       </c>
       <c r="B29" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C29" t="s">
-        <v>140</v>
+        <v>83</v>
       </c>
       <c r="D29" t="s">
         <v>147</v>
@@ -5497,10 +5477,10 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30">
-        <v>19330051920090</v>
+        <v>19330051920089</v>
       </c>
       <c r="B30" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C30" t="s">
         <v>83</v>
@@ -5514,13 +5494,13 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31">
-        <v>19330051920089</v>
+        <v>19330051920097</v>
       </c>
       <c r="B31" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C31" t="s">
-        <v>83</v>
+        <v>139</v>
       </c>
       <c r="D31" t="s">
         <v>149</v>
@@ -5531,13 +5511,13 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32">
-        <v>19330051920097</v>
+        <v>19330051920100</v>
       </c>
       <c r="B32" t="s">
-        <v>136</v>
+        <v>75</v>
       </c>
       <c r="C32" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D32" t="s">
         <v>150</v>
@@ -5548,13 +5528,13 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33">
-        <v>19330051920100</v>
+        <v>19330051920103</v>
       </c>
       <c r="B33" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="C33" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D33" t="s">
         <v>151</v>
@@ -5565,13 +5545,13 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34">
-        <v>19330051920103</v>
+        <v>19330051920106</v>
       </c>
       <c r="B34" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="C34" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D34" t="s">
         <v>152</v>
@@ -5582,13 +5562,13 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35">
-        <v>19330051920106</v>
+        <v>19330051920107</v>
       </c>
       <c r="B35" t="s">
-        <v>100</v>
+        <v>134</v>
       </c>
       <c r="C35" t="s">
-        <v>144</v>
+        <v>74</v>
       </c>
       <c r="D35" t="s">
         <v>153</v>
@@ -5599,16 +5579,16 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36">
-        <v>19330051920107</v>
+        <v>19330051920115</v>
       </c>
       <c r="B36" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C36" t="s">
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="D36" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -5616,16 +5596,16 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37">
-        <v>19330051920115</v>
+        <v>19330051920121</v>
       </c>
       <c r="B37" t="s">
-        <v>138</v>
+        <v>91</v>
       </c>
       <c r="C37" t="s">
-        <v>93</v>
+        <v>143</v>
       </c>
       <c r="D37" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -5633,13 +5613,13 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38">
-        <v>19330051920121</v>
+        <v>19330051920122</v>
       </c>
       <c r="B38" t="s">
-        <v>92</v>
+        <v>136</v>
       </c>
       <c r="C38" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D38" t="s">
         <v>155</v>
@@ -5696,10 +5676,10 @@
         <v>77</v>
       </c>
       <c r="C2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E2" t="s">
         <v>4</v>
@@ -5719,10 +5699,10 @@
         <v>77</v>
       </c>
       <c r="C3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E3" t="s">
         <v>6</v>
@@ -5745,7 +5725,7 @@
         <v>73</v>
       </c>
       <c r="D4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E4" t="s">
         <v>4</v>
@@ -5768,7 +5748,7 @@
         <v>73</v>
       </c>
       <c r="D5" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E5" t="s">
         <v>8</v>
@@ -5788,10 +5768,10 @@
         <v>85</v>
       </c>
       <c r="C6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D6" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E6" t="s">
         <v>4</v>
@@ -5811,10 +5791,10 @@
         <v>85</v>
       </c>
       <c r="C7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E7" t="s">
         <v>6</v>
@@ -5834,10 +5814,10 @@
         <v>69</v>
       </c>
       <c r="C8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D8" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E8" t="s">
         <v>4</v>
@@ -5860,7 +5840,7 @@
         <v>81</v>
       </c>
       <c r="D9" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E9" t="s">
         <v>4</v>
@@ -5880,10 +5860,10 @@
         <v>80</v>
       </c>
       <c r="C10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D10" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E10" t="s">
         <v>4</v>
@@ -5903,10 +5883,10 @@
         <v>83</v>
       </c>
       <c r="C11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D11" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E11" t="s">
         <v>4</v>
@@ -5923,13 +5903,13 @@
         <v>19330051920122</v>
       </c>
       <c r="B12" t="s">
-        <v>89</v>
+        <v>136</v>
       </c>
       <c r="C12" t="s">
-        <v>106</v>
+        <v>144</v>
       </c>
       <c r="D12" t="s">
-        <v>131</v>
+        <v>155</v>
       </c>
       <c r="E12" t="s">
         <v>4</v>
@@ -5938,7 +5918,7 @@
         <v>58</v>
       </c>
       <c r="G12">
-        <v>-1</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/grupos/4BEM - Estadisticos 2020.xlsx
+++ b/grupos/4BEM - Estadisticos 2020.xlsx
@@ -203,7 +203,7 @@
     <t>Fernández Castro Araceli</t>
   </si>
   <si>
-    <t>Velasco Sanchez David</t>
+    <t>Velasco Sánchez David</t>
   </si>
   <si>
     <t>Rivera Cruz Ezequiel</t>
@@ -212,7 +212,7 @@
     <t>Torres Sánchez José Luis</t>
   </si>
   <si>
-    <t>Jimenez Nieto Enrique</t>
+    <t>Jiménez Nieto Enrique</t>
   </si>
   <si>
     <t>NC</t>
